--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deepika\OneDrive\Desktop\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="DSA_SHEET_BHAWUK" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1070">
   <si>
     <t>Date</t>
   </si>
@@ -3249,6 +3249,9 @@
   </si>
   <si>
     <t>Remove Duplicates from Unsorted Array</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3935,9 +3938,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3945,9 +3945,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4076,6 +4073,9 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4111,9 +4111,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4539,15 +4536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.54296875" style="79" customWidth="1"/>
     <col min="2" max="2" width="56.6328125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="87" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" style="86" customWidth="1"/>
     <col min="4" max="4" width="24.36328125" style="79" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" style="79" customWidth="1"/>
     <col min="6" max="6" width="21.36328125" style="79" customWidth="1"/>
@@ -4566,9 +4563,9 @@
       <c r="C1" s="76" t="s">
         <v>922</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" s="72">
@@ -4578,9 +4575,9 @@
         <f>COUNTIF(F10:F1005,"=1")</f>
         <v>7</v>
       </c>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="1:10">
       <c r="B3" s="72">
@@ -4590,9 +4587,9 @@
         <f>COUNTIF(F10:F1005,"=1.5")</f>
         <v>7</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="72">
@@ -4602,9 +4599,9 @@
         <f>COUNTIF(F11:F1006,"=2")</f>
         <v>3</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="72">
@@ -4614,9 +4611,9 @@
         <f>COUNTIF(F11:F1006,"=2.5")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="72">
@@ -4626,9 +4623,9 @@
         <f>COUNTIF(F12:F1007,"=3")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="73" t="s">
@@ -4638,699 +4635,665 @@
         <f>SUM(G10:G1008)</f>
         <v>127</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="80"/>
       <c r="C8" s="81"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="126" t="s">
         <v>924</v>
       </c>
-      <c r="D9" s="127" t="s">
+      <c r="D9" s="125" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="127" t="s">
+      <c r="E9" s="125" t="s">
         <v>925</v>
       </c>
-      <c r="F9" s="127" t="s">
+      <c r="F9" s="125" t="s">
         <v>926</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="124" t="s">
         <v>927</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="H9" s="123" t="s">
         <v>928</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="122" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="105" t="s">
         <v>929</v>
       </c>
-      <c r="C10" s="123" t="s">
+      <c r="C10" s="121" t="s">
         <v>930</v>
       </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="112" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="110" t="s">
         <v>930</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="122">
+      <c r="F10" s="110"/>
+      <c r="G10" s="120">
         <v>32</v>
       </c>
-      <c r="H10" s="105" t="s">
+      <c r="H10" s="103" t="s">
         <v>931</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="105" t="s">
         <v>932</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="106" t="s">
         <v>932</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107" t="s">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="107">
+      <c r="F11" s="105">
         <v>1.5</v>
       </c>
-      <c r="G11" s="106">
+      <c r="G11" s="104">
         <v>1</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H11" s="100" t="s">
         <v>933</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="105" t="s">
         <v>934</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="106" t="s">
         <v>934</v>
       </c>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="106">
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="104">
         <v>1</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="100" t="s">
         <v>933</v>
       </c>
-      <c r="I12" s="95"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="105" t="s">
         <v>935</v>
       </c>
-      <c r="C13" s="108" t="s">
+      <c r="C13" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107">
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105">
         <v>1.5</v>
       </c>
-      <c r="G13" s="106">
+      <c r="G13" s="104">
         <v>1</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="119" t="s">
         <v>933</v>
       </c>
-      <c r="I13" s="95"/>
-      <c r="J13" s="115"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A14" s="102" t="s">
+      <c r="A14" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>936</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="106" t="s">
         <v>936</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="111">
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="109">
         <v>1</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="115"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="113"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="103" t="s">
+      <c r="B15" s="101" t="s">
         <v>937</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="96" t="s">
         <v>937</v>
       </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105">
         <v>2</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="109">
         <v>1</v>
       </c>
-      <c r="H15" s="109" t="s">
+      <c r="H15" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I15" s="95"/>
-      <c r="J15" s="115"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A16" s="93" t="s">
+      <c r="A16" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="93" t="s">
         <v>938</v>
       </c>
-      <c r="C16" s="96" t="s">
+      <c r="C16" s="94" t="s">
         <v>938</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="111">
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="109">
         <v>1</v>
       </c>
-      <c r="H16" s="109" t="s">
+      <c r="H16" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I16" s="95"/>
-      <c r="J16" s="115"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="113"/>
     </row>
     <row r="17" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="103" t="s">
+      <c r="B17" s="101" t="s">
         <v>939</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="96" t="s">
         <v>939</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="120" t="s">
+      <c r="D17" s="105"/>
+      <c r="E17" s="118" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="120">
+      <c r="F17" s="118">
         <v>2</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="109">
         <v>1</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I17" s="95"/>
-      <c r="J17" s="119"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="117"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A18" s="93" t="s">
+      <c r="A18" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="116" t="s">
         <v>940</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="115" t="s">
         <v>940</v>
       </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="111">
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="109">
         <v>1</v>
       </c>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="108" t="s">
         <v>1062</v>
       </c>
-      <c r="J18" s="115"/>
+      <c r="J18" s="113"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="116" t="s">
         <v>941</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="115" t="s">
         <v>941</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="111">
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="109">
         <v>1</v>
       </c>
-      <c r="H19" s="109" t="s">
+      <c r="H19" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I19" s="110" t="s">
+      <c r="I19" s="108" t="s">
         <v>1062</v>
       </c>
-      <c r="J19" s="115"/>
+      <c r="J19" s="113"/>
     </row>
     <row r="20" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A20" s="116" t="s">
+      <c r="A20" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="93" t="s">
         <v>942</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="94" t="s">
         <v>942</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="115"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="113"/>
     </row>
     <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="105" t="s">
         <v>943</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="106" t="s">
         <v>944</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="108" t="s">
         <v>945</v>
       </c>
-      <c r="F21" s="107">
+      <c r="F21" s="105">
         <v>1</v>
       </c>
-      <c r="G21" s="111">
+      <c r="G21" s="109">
         <v>1</v>
       </c>
-      <c r="H21" s="109" t="s">
+      <c r="H21" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I21" s="95"/>
-      <c r="J21" s="115"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="113"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="93" t="s">
         <v>946</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="96" t="s">
         <v>947</v>
       </c>
-      <c r="D22" s="95"/>
-      <c r="E22" s="110" t="s">
+      <c r="D22" s="93"/>
+      <c r="E22" s="108" t="s">
         <v>947</v>
       </c>
-      <c r="F22" s="110"/>
-      <c r="G22" s="97">
+      <c r="F22" s="108"/>
+      <c r="G22" s="95">
         <v>68</v>
       </c>
-      <c r="H22" s="109" t="s">
+      <c r="H22" s="107" t="s">
         <v>931</v>
       </c>
-      <c r="I22" s="95"/>
-      <c r="J22" s="115"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="113"/>
     </row>
     <row r="23" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A23" s="109" t="s">
+      <c r="A23" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="105" t="s">
         <v>948</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="E23" s="112" t="s">
+      <c r="E23" s="110" t="s">
         <v>949</v>
       </c>
-      <c r="F23" s="107">
+      <c r="F23" s="105">
         <v>1</v>
       </c>
-      <c r="G23" s="111">
+      <c r="G23" s="109">
         <v>1</v>
       </c>
-      <c r="H23" s="109" t="s">
+      <c r="H23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="95"/>
+      <c r="I23" s="93"/>
     </row>
     <row r="24" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="107" t="s">
+      <c r="B24" s="105" t="s">
         <v>950</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="106" t="s">
         <v>950</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="110" t="s">
         <v>951</v>
       </c>
-      <c r="F24" s="107">
+      <c r="F24" s="105">
         <v>1.5</v>
       </c>
-      <c r="G24" s="111">
+      <c r="G24" s="109">
         <v>1</v>
       </c>
-      <c r="H24" s="109" t="s">
+      <c r="H24" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I24" s="95"/>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A25" s="104" t="s">
+      <c r="A25" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="95" t="s">
+      <c r="B25" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95">
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93">
         <v>1</v>
       </c>
-      <c r="G25" s="97">
+      <c r="G25" s="95">
         <v>1</v>
       </c>
-      <c r="H25" s="109" t="s">
+      <c r="H25" s="107" t="s">
         <v>933</v>
       </c>
-      <c r="I25" s="95"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A26" s="104" t="s">
+      <c r="A26" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="103" t="s">
+      <c r="B26" s="101" t="s">
         <v>952</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="94" t="s">
         <v>952</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="95">
+      <c r="F26" s="93">
         <v>1</v>
       </c>
-      <c r="G26" s="97">
+      <c r="G26" s="95">
         <v>1</v>
       </c>
-      <c r="H26" s="104" t="s">
+      <c r="H26" s="102" t="s">
         <v>933</v>
       </c>
-      <c r="I26" s="110" t="s">
+      <c r="I26" s="108" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="107" t="s">
         <v>153</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="101" t="s">
         <v>937</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="106" t="s">
         <v>937</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107">
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105">
         <v>2</v>
       </c>
-      <c r="G27" s="106">
+      <c r="G27" s="104">
         <v>1</v>
       </c>
-      <c r="H27" s="105" t="s">
+      <c r="H27" s="103" t="s">
         <v>933</v>
       </c>
-      <c r="I27" s="95"/>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="103" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="101" t="s">
         <v>953</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="94" t="s">
         <v>953</v>
       </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95">
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93">
         <v>1.5</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="92">
         <v>1</v>
       </c>
-      <c r="H28" s="102" t="s">
+      <c r="H28" s="100" t="s">
         <v>933</v>
       </c>
-      <c r="I28" s="101"/>
+      <c r="I28" s="99"/>
     </row>
     <row r="29" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="95" t="s">
+      <c r="B29" s="93" t="s">
         <v>954</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="96" t="s">
         <v>954</v>
       </c>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95">
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93">
         <v>1.5</v>
       </c>
-      <c r="G29" s="94">
+      <c r="G29" s="92">
         <v>1</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="91" t="s">
         <v>955</v>
       </c>
-      <c r="I29" s="92"/>
+      <c r="I29" s="90"/>
     </row>
     <row r="30" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="93" t="s">
         <v>956</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="94" t="s">
         <v>956</v>
       </c>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="94">
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="92">
         <v>1</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="91" t="s">
         <v>955</v>
       </c>
-      <c r="I30" s="92"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A31" s="99" t="s">
+      <c r="I30" s="90"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A33" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="95" t="s">
-        <v>957</v>
-      </c>
-      <c r="C31" s="98" t="s">
-        <v>957</v>
-      </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="94">
+      <c r="B33" s="93" t="s">
+        <v>959</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>959</v>
+      </c>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="92">
         <v>1</v>
       </c>
-      <c r="H31" s="93" t="s">
+      <c r="H33" s="91" t="s">
         <v>955</v>
       </c>
-      <c r="I31" s="92"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A32" s="99" t="s">
+      <c r="I33" s="90"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A34" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="100" t="s">
-        <v>958</v>
-      </c>
-      <c r="C32" s="98" t="s">
-        <v>958</v>
-      </c>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="94">
+      <c r="B34" s="93" t="s">
+        <v>960</v>
+      </c>
+      <c r="C34" s="96" t="s">
+        <v>960</v>
+      </c>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="92">
         <v>1</v>
       </c>
-      <c r="H32" s="93" t="s">
+      <c r="H34" s="91" t="s">
         <v>955</v>
       </c>
-      <c r="I32" s="92"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="95" t="s">
-        <v>959</v>
-      </c>
-      <c r="C33" s="98" t="s">
-        <v>959</v>
-      </c>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="94">
+      <c r="I34" s="90"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A35" s="95" t="s">
+        <v>444</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C35" s="96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93">
         <v>1</v>
       </c>
-      <c r="H33" s="93" t="s">
-        <v>955</v>
-      </c>
-      <c r="I33" s="92"/>
-    </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="95" t="s">
-        <v>960</v>
-      </c>
-      <c r="C34" s="98" t="s">
-        <v>960</v>
-      </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="94">
+      <c r="G35" s="92">
         <v>1</v>
       </c>
-      <c r="H34" s="93" t="s">
-        <v>955</v>
-      </c>
-      <c r="I34" s="92"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="B35" s="95" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C35" s="98" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95">
+      <c r="H35" s="91" t="s">
+        <v>933</v>
+      </c>
+      <c r="I35" s="90"/>
+    </row>
+    <row r="36" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A36" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C36" s="94" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D36" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="92">
         <v>1</v>
       </c>
-      <c r="G35" s="94">
+      <c r="H36" s="91"/>
+      <c r="I36" s="90"/>
+    </row>
+    <row r="37" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A37" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C37" s="94" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D37" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="92">
         <v>1</v>
       </c>
-      <c r="H35" s="93" t="s">
-        <v>933</v>
-      </c>
-      <c r="I35" s="92"/>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A36" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="95" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C36" s="96" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95">
-        <v>1.5</v>
-      </c>
-      <c r="G36" s="94">
-        <v>1</v>
-      </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="92"/>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A37" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="95" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="92"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="90"/>
     </row>
     <row r="38" spans="1:9" ht="17.25" customHeight="1">
       <c r="A38" s="74"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
       <c r="F38" s="80"/>
       <c r="G38" s="75"/>
       <c r="H38" s="83"/>
-      <c r="I38" s="86"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1">
       <c r="A39" s="74" t="s">
@@ -5355,7 +5318,7 @@
       <c r="H39" s="83" t="s">
         <v>933</v>
       </c>
-      <c r="I39" s="86"/>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" ht="17.25" customHeight="1">
       <c r="A40" s="74" t="s">
@@ -5380,32 +5343,17 @@
       <c r="H40" s="83" t="s">
         <v>933</v>
       </c>
-      <c r="I40" s="86"/>
+      <c r="I40" s="85"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A41" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="79" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C41" s="131" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D41" s="80" t="s">
-        <v>105</v>
-      </c>
+      <c r="A41" s="74"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="80"/>
       <c r="E41" s="80"/>
-      <c r="F41" s="80">
-        <v>1.5</v>
-      </c>
-      <c r="G41" s="75">
-        <v>1</v>
-      </c>
-      <c r="H41" s="83" t="s">
-        <v>955</v>
-      </c>
-      <c r="I41" s="86"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" ht="17.25" customHeight="1">
       <c r="A42" s="74" t="s">
@@ -5414,248 +5362,274 @@
       <c r="B42" s="79" t="s">
         <v>1068</v>
       </c>
-      <c r="C42" s="90"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="80"/>
       <c r="E42" s="80"/>
       <c r="F42" s="80"/>
       <c r="G42" s="75"/>
       <c r="H42" s="83"/>
-      <c r="I42" s="86"/>
+      <c r="I42" s="85"/>
     </row>
     <row r="43" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A43" s="74"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="90"/>
+      <c r="A43" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C43" s="82" t="s">
+        <v>1069</v>
+      </c>
       <c r="D43" s="80"/>
       <c r="E43" s="80"/>
       <c r="F43" s="80"/>
       <c r="G43" s="75"/>
       <c r="H43" s="83"/>
-      <c r="I43" s="86"/>
+      <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A44" s="74"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="86"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A45" s="75"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="86"/>
+      <c r="A44" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="93" t="s">
+        <v>957</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>957</v>
+      </c>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="92">
+        <v>1</v>
+      </c>
+      <c r="H44" s="91" t="s">
+        <v>955</v>
+      </c>
+      <c r="I44" s="90"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" customHeight="1">
+      <c r="A45" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>958</v>
+      </c>
+      <c r="C45" s="96" t="s">
+        <v>958</v>
+      </c>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="92">
+        <v>1</v>
+      </c>
+      <c r="H45" s="91" t="s">
+        <v>955</v>
+      </c>
+      <c r="I45" s="90"/>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1">
       <c r="A46" s="75"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
       <c r="H46" s="83"/>
-      <c r="I46" s="86"/>
+      <c r="I46" s="85"/>
     </row>
     <row r="47" spans="1:9" ht="17.25" customHeight="1">
       <c r="A47" s="75"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="83"/>
-      <c r="I47" s="86"/>
+      <c r="I47" s="85"/>
     </row>
     <row r="48" spans="1:9" ht="17.25" customHeight="1">
       <c r="A48" s="75"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" customHeight="1">
       <c r="A49" s="75"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
     </row>
     <row r="51" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
     </row>
     <row r="53" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
     </row>
     <row r="54" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
     </row>
     <row r="55" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
     </row>
     <row r="56" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
     </row>
     <row r="57" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
     </row>
     <row r="58" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
     </row>
     <row r="59" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="86"/>
-      <c r="G60" s="86"/>
-      <c r="H60" s="86"/>
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="86"/>
-      <c r="F61" s="86"/>
-      <c r="G61" s="86"/>
-      <c r="H61" s="86"/>
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="87"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="87"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="86"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="86"/>
-      <c r="F63" s="86"/>
-      <c r="G63" s="86"/>
-      <c r="H63" s="86"/>
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="87"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="86"/>
-      <c r="B64" s="86"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
-      <c r="G65" s="86"/>
-      <c r="H65" s="86"/>
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A65"/>
@@ -5686,17 +5660,17 @@
     <hyperlink ref="C20" r:id="rId24"/>
     <hyperlink ref="C29" r:id="rId25"/>
     <hyperlink ref="C30" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="C32" r:id="rId28"/>
+    <hyperlink ref="B45" r:id="rId27"/>
+    <hyperlink ref="C45" r:id="rId28"/>
     <hyperlink ref="C34" r:id="rId29"/>
     <hyperlink ref="C33" r:id="rId30"/>
-    <hyperlink ref="C31" r:id="rId31"/>
+    <hyperlink ref="C44" r:id="rId31"/>
     <hyperlink ref="C35" r:id="rId32"/>
     <hyperlink ref="C36" r:id="rId33"/>
     <hyperlink ref="C37" r:id="rId34"/>
     <hyperlink ref="C39" r:id="rId35"/>
     <hyperlink ref="C40" r:id="rId36"/>
-    <hyperlink ref="C41" r:id="rId37"/>
+    <hyperlink ref="C43" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId38"/>
@@ -14055,8 +14029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14133,7 +14107,7 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="144" t="s">
+      <c r="A15" s="130" t="s">
         <v>577</v>
       </c>
     </row>
@@ -18090,16 +18064,16 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="139" t="s">
         <v>965</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="142"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="141"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -18189,16 +18163,16 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A7" s="140" t="s">
+      <c r="A7" s="139" t="s">
         <v>966</v>
       </c>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="142"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -18577,16 +18551,16 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A27" s="137" t="s">
+      <c r="A27" s="136" t="s">
         <v>986</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="138"/>
-      <c r="E27" s="138"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="139"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="138"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1">
@@ -18973,16 +18947,16 @@
       <c r="H46" s="54"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A47" s="135" t="s">
+      <c r="A47" s="134" t="s">
         <v>1008</v>
       </c>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="56" t="s">
@@ -19137,16 +19111,16 @@
       <c r="H57" s="58"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="135" t="s">
+      <c r="A58" s="134" t="s">
         <v>1021</v>
       </c>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="135"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="58" t="s">
@@ -19437,14 +19411,14 @@
       <c r="H77" s="58"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A78" s="132"/>
-      <c r="B78" s="133"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="133"/>
-      <c r="E78" s="133"/>
-      <c r="F78" s="133"/>
-      <c r="G78" s="133"/>
-      <c r="H78" s="134"/>
+      <c r="A78" s="131"/>
+      <c r="B78" s="132"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="132"/>
+      <c r="E78" s="132"/>
+      <c r="F78" s="132"/>
+      <c r="G78" s="132"/>
+      <c r="H78" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19858,10 +19832,10 @@
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="143"/>
+      <c r="F19" s="142"/>
       <c r="G19" s="27">
         <f>SUM(F2:F16)-2-1</f>
         <v>51</v>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="1070">
   <si>
     <t>Date</t>
   </si>
@@ -4536,8 +4536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
@@ -4573,7 +4573,7 @@
       </c>
       <c r="C2" s="77">
         <f>COUNTIF(F10:F1005,"=1")</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="128"/>
       <c r="E2" s="128"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="C7" s="78">
         <f>SUM(G10:G1008)</f>
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E7" s="128"/>
       <c r="F7" s="128"/>
@@ -5380,10 +5380,16 @@
       <c r="C43" s="82" t="s">
         <v>1069</v>
       </c>
-      <c r="D43" s="80"/>
+      <c r="D43" s="80" t="s">
+        <v>105</v>
+      </c>
       <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="75"/>
+      <c r="F43" s="80">
+        <v>1</v>
+      </c>
+      <c r="G43" s="75">
+        <v>1</v>
+      </c>
       <c r="H43" s="83"/>
       <c r="I43" s="85"/>
     </row>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -14,12 +14,11 @@
   <sheets>
     <sheet name="DSA_SHEET_BHAWUK" sheetId="7" r:id="rId1"/>
     <sheet name="DSA_SHEET_GFG" sheetId="3" r:id="rId2"/>
-    <sheet name="DSA_SHEET_LEETCODE" sheetId="6" r:id="rId3"/>
-    <sheet name="DSA_TRACKER_DETAILED" sheetId="1" r:id="rId4"/>
-    <sheet name="DSA_TRAINING_REPORT" sheetId="5" r:id="rId5"/>
+    <sheet name="DSA_TRACKER_DETAILED" sheetId="1" r:id="rId3"/>
+    <sheet name="DSA_TRAINING_REPORT" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DSA_SHEET_BHAWUK!$A$1:$A$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DSA_SHEET_BHAWUK!$B$1:$B$65</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2774" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="712">
   <si>
     <t>Date</t>
   </si>
@@ -1736,1077 +1735,6 @@
     <t>Power Set</t>
   </si>
   <si>
-    <t>Arrays</t>
-  </si>
-  <si>
-    <t>EASY</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/two-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/plus-one/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/move-zeroes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/running-sum-of-1d-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-pivot-index/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/majority-element/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/fibonacci-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/squares-of-a-sorted-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/pascals-triangle/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
-  </si>
-  <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/merge-intervals/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/3sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/product-of-array-except-self/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/insert-delete-getrandom-o1/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/next-permutation/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/spiral-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/container-with-most-water/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/rotate-image/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/word-search/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/3sum-closest/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/game-of-life/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/pairs-of-songs-with-total-durations-divisible-by-60/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/4sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-duplicate-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/combination-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/jump-game-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-area-of-a-piece-of-cake-after-horizontal-and-vertical-cuts/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-area-of-island/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/k-diff-pairs-in-an-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subsets/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/invalid-transactions/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/jump-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/</t>
-  </si>
-  <si>
-    <t>HARD</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/first-missing-positive/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/insert-delete-getrandom-o1-duplicates-allowed/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-value-of-equation/</t>
-  </si>
-  <si>
-    <t>RECURSION</t>
-  </si>
-  <si>
-    <t>1- What is recursion</t>
-  </si>
-  <si>
-    <t>2- How Recursion Works</t>
-  </si>
-  <si>
-    <t>3- What is a recursion tree</t>
-  </si>
-  <si>
-    <t>4- https://leetcode.com/problems/powx-n/</t>
-  </si>
-  <si>
-    <t>5- https://leetcode.com/problems/valid-palindrome/</t>
-  </si>
-  <si>
-    <t>6- General Steps to recursion problems</t>
-  </si>
-  <si>
-    <t>7- https://leetcode.com/problems/subsets/</t>
-  </si>
-  <si>
-    <t>8- https://leetcode.com/problems/permutations/</t>
-  </si>
-  <si>
-    <t>9- https://leetcode.com/problems/permutations-ii/</t>
-  </si>
-  <si>
-    <t>10- https://leetcode.com/problems/subsets-ii/</t>
-  </si>
-  <si>
-    <t>11- https://leetcode.com/problems/combinations/</t>
-  </si>
-  <si>
-    <t>12- https://leetcode.com/problems/combination-sum/</t>
-  </si>
-  <si>
-    <t>13- https://leetcode.com/problems/combination-sum-ii/</t>
-  </si>
-  <si>
-    <t>14- https://leetcode.com/problems/combination-sum-iii/</t>
-  </si>
-  <si>
-    <t>15- https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
-  </si>
-  <si>
-    <t>16- https://leetcode.com/problems/partition-to-k-equal-sum-subsets/</t>
-  </si>
-  <si>
-    <t>17- https://leetcode.com/problems/maximum-length-of-a-concatenated-string-with-unique-characters/</t>
-  </si>
-  <si>
-    <t>18- https://leetcode.com/problems/flood-fill/</t>
-  </si>
-  <si>
-    <t>19- https://leetcode.com/problems/word-search/</t>
-  </si>
-  <si>
-    <t>20- Rat in a Maze</t>
-  </si>
-  <si>
-    <t>21- https://leetcode.com/problems/n-queens/</t>
-  </si>
-  <si>
-    <t>DYNAMIC PROGRAMING</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/climbing-stairs</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/divisor-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/counting-bits/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/decode-ways/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/word-break/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/delete-and-earn/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximal-square/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/coin-change/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-product-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-length-of-repeated-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/palindromic-substrings/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/continuous-subarray-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/knight-dialer/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-paths/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/range-sum-query-2d-immutable/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-arithmetic-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/trapping-rain-water/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/word-break-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/regular-expression-matching/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximal-rectangle/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-valid-parentheses/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/edit-distance/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-difficulty-of-a-job-schedule/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/frog-jump/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/burst-balloons/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-cost-to-merge-stones/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/super-egg-drop/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-different-palindromic-subsequences/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-cost-to-cut-a-stick/</t>
-  </si>
-  <si>
-    <t>STRINGS</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/add-strings/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-common-prefix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/valid-palindrome-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/roman-to-integer/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/implement-strstr/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/group-anagrams/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/generate-parentheses/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/basic-calculator-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/integer-to-roman/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reverse-words-in-a-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/simplify-path/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/zigzag-conversion/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/text-justification/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/integer-to-english-words/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-window-substring/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/valid-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/distinct-subsequences/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/smallest-range-covering-elements-from-k-lists/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/substring-with-concatenation-of-all-words/</t>
-  </si>
-  <si>
-    <t>MATHS</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reverse-integer/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/add-binary/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/palindrome-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-moves-to-equal-array-elements/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/happy-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/excel-sheet-column-title/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/missing-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-product-of-three-numbers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/power-of-two/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/encode-and-decode-tinyurl/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/string-to-integer-atoi/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/multiply-strings/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/angle-between-hands-of-a-clock/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/integer-break/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/valid-square/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/the-kth-factor-of-n/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/basic-calculator/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-points-on-a-line/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/permutation-sequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-digit-one/</t>
-  </si>
-  <si>
-    <t>GREEDY</t>
-  </si>
-  <si>
-    <t>THAT WOULD BE TOO EASY FOR YOU , LETS DO MEDIUM</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/task-scheduler/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/gas-station/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-deletion-cost-to-avoid-repeating-letters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-number-of-events-that-can-be-attended/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-deletions-to-make-character-frequencies-unique/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/remove-k-digits/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/restore-the-array-from-adjacent-pairs/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/non-overlapping-intervals/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/candy/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-number-of-taps-to-open-to-water-a-garden/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/create-maximum-number/</t>
-  </si>
-  <si>
-    <t>DFS</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/course-schedule-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/decode-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-provinces/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/clone-graph/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/shortest-bridge/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/all-paths-from-source-to-target/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/surrounded-regions//</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/house-robber-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/critical-connections-in-a-network/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/remove-invalid-parentheses/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/concatenated-words/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/making-a-large-island/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/contain-virus/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/24-game/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/remove-boxes/</t>
-  </si>
-  <si>
-    <t>TREE</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/diameter-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/invert-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/range-sum-of-bst/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/symmetric-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/merge-two-binary-trees/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-paths/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/same-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/path-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/balanced-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/ (USING STACK TOO)</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-good-nodes-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-right-side-view/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-search-tree-iterator/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/path-sum-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-binary-search-trees/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/populating-next-right-pointers-in-each-node/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-width-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/unique-binary-search-trees-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/redundant-connection/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-tree-cameras/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-distances-in-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-ways-to-reconstruct-a-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/redundant-connection-ii/</t>
-  </si>
-  <si>
-    <t>HASH TABLE</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/verifying-an-alien-dictionary/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-hashmap/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-twitter/</t>
-  </si>
-  <si>
-    <t>BINARY SEARCH</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sqrtx/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/binary-search/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-negative-numbers-in-a-sorted-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/time-based-key-value-store/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/powx-n/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-peak-element/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/search-a-2d-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/divide-two-integers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-limit-of-balls-in-a-bag/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-of-smaller-numbers-after-self/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/split-array-largest-sum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k/</t>
-  </si>
-  <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-islands/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/rotting-oranges/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/snakes-and-ladders/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/is-graph-bipartite/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-jumps-to-reach-home/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/word-ladder/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/word-ladder-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/cut-off-trees-for-golf-event/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reachable-nodes-in-subdivided-graph/</t>
-  </si>
-  <si>
-    <t>TWO POINTER</t>
-  </si>
-  <si>
-    <t>MEDIUM / HARD</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/partition-labels/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sort-colors/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-number-of-visible-points/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarrays-with-k-different-integers/</t>
-  </si>
-  <si>
-    <t>STACK</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/min-stack/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/next-greater-element-i/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/backspace-string-compare/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
-  </si>
-  <si>
-    <t>PRE , POST , INORDER TRAVERSALS OF BINARY TREE</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/implement-stack-using-queues/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/daily-temperatures/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/flatten-nested-list-iterator/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/online-stock-span/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-cost-tree-from-leaf-values/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-subarray-minimums/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/</t>
-  </si>
-  <si>
-    <t>DESIGN</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lru-cache/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-underground-system/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lfu-cache/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/tweet-counts-per-frequency/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/all-oone-data-structure/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-browser-history/</t>
-  </si>
-  <si>
-    <t>GRAPH</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/employee-importance/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-town-judge/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/evaluate-division/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/accounts-merge/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/network-delay-time/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-eventual-safe-states/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/keys-and-rooms/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/possible-bipartition/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/most-stones-removed-with-same-row-or-column/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/regions-cut-by-slashes/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/satisfiability-of-equality-equations/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/as-far-from-land-as-possible/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-closed-islands/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/time-needed-to-inform-all-employees/</t>
-  </si>
-  <si>
-    <t>BIT MANIPULATION</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-two-integers/discuss/84278/A-summary%3A-how-to-use-bit-manipulation-to-solve-problems-easily-and-efficiently</t>
-  </si>
-  <si>
-    <t>LINKED LIST</t>
-  </si>
-  <si>
-    <t>1- Uses of Linked List ( Real Life )</t>
-  </si>
-  <si>
-    <t>2- Representation of Linked List</t>
-  </si>
-  <si>
-    <t>3- https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
-  </si>
-  <si>
-    <t>4- Arrays vs Linked List</t>
-  </si>
-  <si>
-    <t>5- https://leetcode.com/problems/middle-of-the-linked-list/</t>
-  </si>
-  <si>
-    <t>6- https://leetcode.com/problems/convert-binary-number-in-a-linked-list-to-integer/</t>
-  </si>
-  <si>
-    <t>7- Doubly Linked List and STLs</t>
-  </si>
-  <si>
-    <t>8- https://leetcode.com/problems/design-hashset/</t>
-  </si>
-  <si>
-    <t>9- https://leetcode.com/problems/design-hashmap/</t>
-  </si>
-  <si>
-    <t>10- https://leetcode.com/problems/reverse-linked-list/</t>
-  </si>
-  <si>
-    <t>11- Reverse Nodes in k-Group [ https://leetcode.com/problems/reverse-nodes-in-k-group/ ]</t>
-  </si>
-  <si>
-    <t>12- Reverse Nodes in k-Group (NO EXTRA SPACE)</t>
-  </si>
-  <si>
-    <t>13- https://leetcode.com/problems/merge-two-sorted-lists/</t>
-  </si>
-  <si>
-    <t>14- https://leetcode.com/problems/merge-k-sorted-lists/</t>
-  </si>
-  <si>
-    <t>15- https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
-  </si>
-  <si>
-    <t>16- https://leetcode.com/problems/linked-list-cycle/</t>
-  </si>
-  <si>
-    <t>17- https://leetcode.com/problems/linked-list-cycle-ii/</t>
-  </si>
-  <si>
-    <t>18- https://leetcode.com/problems/intersection-of-two-linked-lists/</t>
-  </si>
-  <si>
-    <t>19- https://leetcode.com/problems/palindrome-linked-list/</t>
-  </si>
-  <si>
-    <t>20- https://leetcode.com/problems/remove-linked-list-elements/</t>
-  </si>
-  <si>
-    <t>21- https://leetcode.com/problems/design-browser-history/</t>
-  </si>
-  <si>
-    <t>22- https://leetcode.com/problems/lru-cache/</t>
-  </si>
-  <si>
-    <t>23- Copy List with Random Pointer ( with extra space ) [ https://leetcode.com/problems/copy-list-with-random-pointer/ ]</t>
-  </si>
-  <si>
-    <t>24- Copy List with Random Pointer ( NO extra space )</t>
-  </si>
-  <si>
-    <t>HEAP</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/k-closest-points-to-origin/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reorganize-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/furthest-building-you-can-reach/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/cheapest-flights-within-k-stops/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-most-competitive-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/ugly-number-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/the-skyline-problem/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/trapping-rain-water-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-number-of-refueling-stops/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/swim-in-rising-water/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/shortest-path-to-get-all-keys/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-cost-to-hire-k-workers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/k-th-smallest-prime-fraction/</t>
-  </si>
-  <si>
-    <t>SLIDING WINDOW</t>
-  </si>
-  <si>
-    <t>MEDIUM/HARD</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-substring-with-at-least-k-repeating-characters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-consecutive-ones-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/grumpy-bookstore-owner/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sliding-window-median/</t>
-  </si>
-  <si>
-    <t>TRIE</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/explore/learn/card/trie/</t>
-  </si>
-  <si>
-    <t>SEGMENT TREE</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/articles/a-recursive-approach-to-segment-trees-range-sum-queries-lazy-propagation/</t>
-  </si>
-  <si>
     <t>Problem Difficulty Level</t>
   </si>
   <si>
@@ -2819,9 +1747,6 @@
     <t>Problem Link</t>
   </si>
   <si>
-    <t>Solution</t>
-  </si>
-  <si>
     <t>Difficulty Rating [1-3]</t>
   </si>
   <si>
@@ -2849,9 +1774,6 @@
     <t>Left-Most and Right-Most Index</t>
   </si>
   <si>
-    <t>Peak Element</t>
-  </si>
-  <si>
     <t>Longest Sub-Array with Sum K</t>
   </si>
   <si>
@@ -2891,15 +1813,9 @@
     <t>Linear Search</t>
   </si>
   <si>
-    <t>linear_search.cpp</t>
-  </si>
-  <si>
     <t>Binary Search</t>
   </si>
   <si>
-    <t>binary_search.cpp</t>
-  </si>
-  <si>
     <t>Find Maximum Number</t>
   </si>
   <si>
@@ -3230,9 +2146,6 @@
     <t>Count All Possible Path</t>
   </si>
   <si>
-    <t>Sorting Algorithms in STL</t>
-  </si>
-  <si>
     <t>Two Sum</t>
   </si>
   <si>
@@ -3248,17 +2161,29 @@
     <t>Stack</t>
   </si>
   <si>
-    <t>Remove Duplicates from Unsorted Array</t>
-  </si>
-  <si>
     <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>05.07.2024</t>
+  </si>
+  <si>
+    <t>04.07.2024</t>
+  </si>
+  <si>
+    <t>03.07.2024</t>
+  </si>
+  <si>
+    <t>JULY, 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3399,40 +2324,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -3446,63 +2337,49 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times i Roman"/>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times i Roman"/>
+      <sz val="12"/>
+      <color rgb="FF090C10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF242424"/>
-      <name val="Times i Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Times i Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Times i Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF090C10"/>
-      <name val="Times i Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times i Roman"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3543,7 +2420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3632,49 +2509,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -3730,15 +2564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -3756,19 +2581,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </bottom>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -3776,7 +2603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3844,37 +2671,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3893,196 +2693,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4111,6 +2728,120 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4534,1152 +3265,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" style="79" customWidth="1"/>
-    <col min="2" max="2" width="56.6328125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" style="86" customWidth="1"/>
-    <col min="4" max="4" width="24.36328125" style="79" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="79" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" style="79" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="79" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="79" customWidth="1"/>
-    <col min="10" max="10" width="19.7265625" style="79" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="79"/>
+    <col min="1" max="1" width="13" style="74" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" style="74" customWidth="1"/>
+    <col min="3" max="3" width="56.6328125" style="74" customWidth="1"/>
+    <col min="4" max="4" width="54.6328125" style="90" customWidth="1"/>
+    <col min="5" max="5" width="24.36328125" style="74" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="74" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="74" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="19.7265625" style="74" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="74"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A1" s="70"/>
-      <c r="B1" s="71" t="s">
-        <v>921</v>
-      </c>
+    <row r="1" spans="1:9" ht="16.5" customHeight="1">
+      <c r="B1" s="75"/>
       <c r="C1" s="76" t="s">
-        <v>922</v>
-      </c>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="B2" s="72">
+        <v>564</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="C2" s="79">
         <v>1</v>
       </c>
-      <c r="C2" s="77">
+      <c r="D2" s="80">
         <f>COUNTIF(F10:F1005,"=1")</f>
-        <v>8</v>
-      </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3" s="72">
+        <v>9</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="C3" s="79">
         <v>1.5</v>
       </c>
-      <c r="C3" s="77">
+      <c r="D3" s="80">
         <f>COUNTIF(F10:F1005,"=1.5")</f>
-        <v>7</v>
-      </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="72">
+        <v>6</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="C4" s="79">
         <v>2</v>
       </c>
-      <c r="C4" s="77">
+      <c r="D4" s="80">
         <f>COUNTIF(F11:F1006,"=2")</f>
         <v>3</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="72">
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="79">
         <v>2.5</v>
       </c>
-      <c r="C5" s="77">
+      <c r="D5" s="80">
         <f>COUNTIF(F11:F1006,"=2.5")</f>
         <v>0</v>
       </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="72">
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="79">
         <v>3</v>
       </c>
-      <c r="C6" s="77">
+      <c r="D6" s="80">
         <f>COUNTIF(F12:F1007,"=3")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="73" t="s">
-        <v>923</v>
-      </c>
-      <c r="C7" s="78">
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="C7" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="D7" s="82">
         <f>SUM(G10:G1008)</f>
         <v>128</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A9" s="123" t="s">
+      <c r="F7" s="78"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="C8" s="104"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+    </row>
+    <row r="9" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A9" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="C9" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="126" t="s">
-        <v>924</v>
-      </c>
-      <c r="D9" s="125" t="s">
+      <c r="D9" s="85" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="125" t="s">
-        <v>925</v>
-      </c>
-      <c r="F9" s="125" t="s">
-        <v>926</v>
-      </c>
-      <c r="G9" s="124" t="s">
-        <v>927</v>
-      </c>
-      <c r="H9" s="123" t="s">
-        <v>928</v>
-      </c>
-      <c r="I9" s="122" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="F9" s="84" t="s">
+        <v>568</v>
+      </c>
+      <c r="G9" s="84" t="s">
+        <v>569</v>
+      </c>
+      <c r="H9" s="84" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A10" s="83"/>
+      <c r="B10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="105" t="s">
-        <v>929</v>
-      </c>
-      <c r="C10" s="121" t="s">
-        <v>930</v>
-      </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="110" t="s">
-        <v>930</v>
-      </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="120">
+      <c r="C10" s="86" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" s="86"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="86">
         <v>32</v>
       </c>
-      <c r="H10" s="103" t="s">
-        <v>931</v>
-      </c>
-      <c r="I10" s="93"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A11" s="100" t="s">
+      <c r="H10" s="86" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A11" s="83"/>
+      <c r="B11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="105" t="s">
-        <v>932</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>932</v>
-      </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105" t="s">
+      <c r="C11" s="86" t="s">
+        <v>574</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="86">
+        <v>1</v>
+      </c>
+      <c r="H11" s="86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A12" s="83"/>
+      <c r="B12" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>576</v>
+      </c>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86">
+        <v>1</v>
+      </c>
+      <c r="H12" s="86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A14" s="83"/>
+      <c r="B14" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>577</v>
+      </c>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86">
+        <v>1</v>
+      </c>
+      <c r="H14" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I14" s="92"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A15" s="83"/>
+      <c r="B15" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>578</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86">
+        <v>2</v>
+      </c>
+      <c r="G15" s="86">
+        <v>1</v>
+      </c>
+      <c r="H15" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I15" s="92"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A16" s="83"/>
+      <c r="B16" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>579</v>
+      </c>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="86">
+        <v>1</v>
+      </c>
+      <c r="H16" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A17" s="83"/>
+      <c r="B17" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>580</v>
+      </c>
+      <c r="D17" s="93" t="s">
+        <v>580</v>
+      </c>
+      <c r="E17" s="86"/>
+      <c r="F17" s="95">
+        <v>2</v>
+      </c>
+      <c r="G17" s="86">
+        <v>1</v>
+      </c>
+      <c r="H17" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I17" s="96"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A18" s="83"/>
+      <c r="B18" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>581</v>
+      </c>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="86">
+        <v>1</v>
+      </c>
+      <c r="H18" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I18" s="92"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A19" s="83"/>
+      <c r="B19" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>582</v>
+      </c>
+      <c r="D19" s="98" t="s">
+        <v>582</v>
+      </c>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="86">
+        <v>1</v>
+      </c>
+      <c r="H19" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I19" s="92"/>
+    </row>
+    <row r="20" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A20" s="83"/>
+      <c r="B20" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>583</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="92"/>
+    </row>
+    <row r="21" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A21" s="83"/>
+      <c r="B21" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>585</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
+      <c r="G21" s="86">
+        <v>1</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="I21" s="92"/>
+    </row>
+    <row r="22" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A22" s="83"/>
+      <c r="B22" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>587</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>588</v>
+      </c>
+      <c r="E22" s="83"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="83">
+        <v>68</v>
+      </c>
+      <c r="H22" s="86" t="s">
+        <v>573</v>
+      </c>
+      <c r="I22" s="92"/>
+    </row>
+    <row r="23" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A23" s="83"/>
+      <c r="B23" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="105">
+      <c r="E23" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="86">
+        <v>1</v>
+      </c>
+      <c r="G23" s="86">
+        <v>1</v>
+      </c>
+      <c r="H23" s="86" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A25" s="83"/>
+      <c r="B25" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83">
+        <v>1</v>
+      </c>
+      <c r="G25" s="83">
+        <v>1</v>
+      </c>
+      <c r="H25" s="86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A26" s="83"/>
+      <c r="B26" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>591</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="83">
+        <v>1</v>
+      </c>
+      <c r="G26" s="83">
+        <v>1</v>
+      </c>
+      <c r="H26" s="83" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A27" s="83"/>
+      <c r="B27" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>578</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>578</v>
+      </c>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86">
+        <v>2</v>
+      </c>
+      <c r="G27" s="86">
+        <v>1</v>
+      </c>
+      <c r="H27" s="86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A28" s="83"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="91" t="s">
+        <v>592</v>
+      </c>
+      <c r="D28" s="94" t="s">
+        <v>592</v>
+      </c>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83">
         <v>1.5</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G28" s="83">
         <v>1</v>
       </c>
-      <c r="H11" s="100" t="s">
-        <v>933</v>
-      </c>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A12" s="100" t="s">
+      <c r="H28" s="86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A29" s="83"/>
+      <c r="B29" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="83" t="s">
+        <v>593</v>
+      </c>
+      <c r="D29" s="93" t="s">
+        <v>593</v>
+      </c>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="G29" s="83">
+        <v>1</v>
+      </c>
+      <c r="H29" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A30" s="83"/>
+      <c r="B30" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="83" t="s">
+        <v>595</v>
+      </c>
+      <c r="D30" s="94" t="s">
+        <v>595</v>
+      </c>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83">
+        <v>1</v>
+      </c>
+      <c r="H30" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A32" s="83"/>
+      <c r="B32" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="D32" s="93" t="s">
+        <v>596</v>
+      </c>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="83">
+        <v>1</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A33" s="83"/>
+      <c r="B33" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>598</v>
+      </c>
+      <c r="D33" s="93" t="s">
+        <v>598</v>
+      </c>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="83">
+        <v>1</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A34" s="83"/>
+      <c r="B34" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="83" t="s">
+        <v>599</v>
+      </c>
+      <c r="D34" s="93" t="s">
+        <v>599</v>
+      </c>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83">
+        <v>1</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A35" s="83"/>
+      <c r="B35" s="83" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="83" t="s">
+        <v>700</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>700</v>
+      </c>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83">
+        <v>1</v>
+      </c>
+      <c r="G35" s="83">
+        <v>1</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="83"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="83"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" customHeight="1">
+      <c r="A38" s="83"/>
+      <c r="B38" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="105" t="s">
-        <v>934</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>934</v>
-      </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="104">
+      <c r="C38" s="102" t="s">
+        <v>597</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>597</v>
+      </c>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="83">
         <v>1</v>
       </c>
-      <c r="H12" s="100" t="s">
-        <v>933</v>
-      </c>
-      <c r="I12" s="93"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A13" s="100" t="s">
+      <c r="H38" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A39" s="83"/>
+      <c r="B39" s="83" t="s">
+        <v>705</v>
+      </c>
+      <c r="C39" s="83" t="s">
+        <v>704</v>
+      </c>
+      <c r="D39" s="93" t="s">
+        <v>704</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="83">
+        <v>1</v>
+      </c>
+      <c r="G39" s="83">
+        <v>1</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1">
+      <c r="A40" s="83"/>
+      <c r="B40" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>703</v>
+      </c>
+      <c r="D40" s="94" t="s">
+        <v>703</v>
+      </c>
+      <c r="E40" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="83">
+        <v>1</v>
+      </c>
+      <c r="G40" s="83">
+        <v>1</v>
+      </c>
+      <c r="H40" s="83" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="107" t="s">
+        <v>711</v>
+      </c>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A45" s="83"/>
+      <c r="B45" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>590</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>590</v>
+      </c>
+      <c r="E45" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="86">
+        <v>1</v>
+      </c>
+      <c r="G45" s="86">
+        <v>1</v>
+      </c>
+      <c r="H45" s="86" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A46" s="83"/>
+      <c r="B46" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="105" t="s">
-        <v>935</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>935</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105">
+      <c r="C46" s="83" t="s">
+        <v>701</v>
+      </c>
+      <c r="D46" s="94" t="s">
+        <v>701</v>
+      </c>
+      <c r="E46" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="83">
         <v>1.5</v>
       </c>
-      <c r="G13" s="104">
+      <c r="G46" s="83">
         <v>1</v>
       </c>
-      <c r="H13" s="119" t="s">
-        <v>933</v>
-      </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="113"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A14" s="100" t="s">
+      <c r="H46" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.5" customHeight="1">
+      <c r="A47" s="83" t="s">
+        <v>710</v>
+      </c>
+      <c r="B47" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="101" t="s">
-        <v>936</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>936</v>
-      </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="109">
+      <c r="C47" s="83" t="s">
+        <v>702</v>
+      </c>
+      <c r="D47" s="94" t="s">
+        <v>702</v>
+      </c>
+      <c r="E47" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="83">
         <v>1</v>
       </c>
-      <c r="H14" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I14" s="93"/>
-      <c r="J14" s="113"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A15" s="100" t="s">
+      <c r="H47" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1">
+      <c r="A48" s="83" t="s">
+        <v>709</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>706</v>
+      </c>
+      <c r="D48" s="93" t="s">
+        <v>706</v>
+      </c>
+      <c r="E48" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="83">
+        <v>1</v>
+      </c>
+      <c r="G48" s="83">
+        <v>1</v>
+      </c>
+      <c r="H48" s="83" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A49" s="83" t="s">
+        <v>708</v>
+      </c>
+      <c r="B49" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="101" t="s">
-        <v>937</v>
-      </c>
-      <c r="C15" s="96" t="s">
-        <v>937</v>
-      </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105">
-        <v>2</v>
-      </c>
-      <c r="G15" s="109">
+      <c r="C49" s="86" t="s">
+        <v>707</v>
+      </c>
+      <c r="D49" s="89" t="s">
+        <v>707</v>
+      </c>
+      <c r="E49" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="86">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="86">
         <v>1</v>
       </c>
-      <c r="H15" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="113"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A16" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>938</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>938</v>
-      </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="109">
-        <v>1</v>
-      </c>
-      <c r="H16" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="113"/>
-    </row>
-    <row r="17" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A17" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="101" t="s">
-        <v>939</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>939</v>
-      </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="118">
-        <v>2</v>
-      </c>
-      <c r="G17" s="109">
-        <v>1</v>
-      </c>
-      <c r="H17" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="117"/>
-    </row>
-    <row r="18" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A18" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="116" t="s">
-        <v>940</v>
-      </c>
-      <c r="C18" s="115" t="s">
-        <v>940</v>
-      </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="109">
-        <v>1</v>
-      </c>
-      <c r="H18" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I18" s="108" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J18" s="113"/>
-    </row>
-    <row r="19" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A19" s="91" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>941</v>
-      </c>
-      <c r="C19" s="115" t="s">
-        <v>941</v>
-      </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="109">
-        <v>1</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>1062</v>
-      </c>
-      <c r="J19" s="113"/>
-    </row>
-    <row r="20" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A20" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>942</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>942</v>
-      </c>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="113"/>
-    </row>
-    <row r="21" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A21" s="107" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="105" t="s">
-        <v>943</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>944</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" s="108" t="s">
-        <v>945</v>
-      </c>
-      <c r="F21" s="105">
-        <v>1</v>
-      </c>
-      <c r="G21" s="109">
-        <v>1</v>
-      </c>
-      <c r="H21" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I21" s="93"/>
-      <c r="J21" s="113"/>
-    </row>
-    <row r="22" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A22" s="102" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="93" t="s">
-        <v>946</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>947</v>
-      </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="108" t="s">
-        <v>947</v>
-      </c>
-      <c r="F22" s="108"/>
-      <c r="G22" s="95">
-        <v>68</v>
-      </c>
-      <c r="H22" s="107" t="s">
-        <v>931</v>
-      </c>
-      <c r="I22" s="93"/>
-      <c r="J22" s="113"/>
-    </row>
-    <row r="23" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A23" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="105" t="s">
-        <v>948</v>
-      </c>
-      <c r="C23" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="110" t="s">
-        <v>949</v>
-      </c>
-      <c r="F23" s="105">
-        <v>1</v>
-      </c>
-      <c r="G23" s="109">
-        <v>1</v>
-      </c>
-      <c r="H23" s="107" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="93"/>
-    </row>
-    <row r="24" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A24" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>950</v>
-      </c>
-      <c r="C24" s="106" t="s">
-        <v>950</v>
-      </c>
-      <c r="D24" s="105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="110" t="s">
-        <v>951</v>
-      </c>
-      <c r="F24" s="105">
-        <v>1.5</v>
-      </c>
-      <c r="G24" s="109">
-        <v>1</v>
-      </c>
-      <c r="H24" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I24" s="93"/>
-    </row>
-    <row r="25" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A25" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93">
-        <v>1</v>
-      </c>
-      <c r="G25" s="95">
-        <v>1</v>
-      </c>
-      <c r="H25" s="107" t="s">
-        <v>933</v>
-      </c>
-      <c r="I25" s="93"/>
-    </row>
-    <row r="26" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A26" s="102" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="101" t="s">
-        <v>952</v>
-      </c>
-      <c r="C26" s="94" t="s">
-        <v>952</v>
-      </c>
-      <c r="D26" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="93">
-        <v>1</v>
-      </c>
-      <c r="G26" s="95">
-        <v>1</v>
-      </c>
-      <c r="H26" s="102" t="s">
-        <v>933</v>
-      </c>
-      <c r="I26" s="108" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A27" s="107" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="101" t="s">
-        <v>937</v>
-      </c>
-      <c r="C27" s="106" t="s">
-        <v>937</v>
-      </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105">
-        <v>2</v>
-      </c>
-      <c r="G27" s="104">
-        <v>1</v>
-      </c>
-      <c r="H27" s="103" t="s">
-        <v>933</v>
-      </c>
-      <c r="I27" s="93"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A28" s="102"/>
-      <c r="B28" s="101" t="s">
-        <v>953</v>
-      </c>
-      <c r="C28" s="94" t="s">
-        <v>953</v>
-      </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="G28" s="92">
-        <v>1</v>
-      </c>
-      <c r="H28" s="100" t="s">
-        <v>933</v>
-      </c>
-      <c r="I28" s="99"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A29" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>954</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>954</v>
-      </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="G29" s="92">
-        <v>1</v>
-      </c>
-      <c r="H29" s="91" t="s">
-        <v>955</v>
-      </c>
-      <c r="I29" s="90"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A30" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="93" t="s">
-        <v>956</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>956</v>
-      </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="92">
-        <v>1</v>
-      </c>
-      <c r="H30" s="91" t="s">
-        <v>955</v>
-      </c>
-      <c r="I30" s="90"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A33" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="93" t="s">
-        <v>959</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>959</v>
-      </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="92">
-        <v>1</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>955</v>
-      </c>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="93" t="s">
-        <v>960</v>
-      </c>
-      <c r="C34" s="96" t="s">
-        <v>960</v>
-      </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="92">
-        <v>1</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>955</v>
-      </c>
-      <c r="I34" s="90"/>
-    </row>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="95" t="s">
-        <v>444</v>
-      </c>
-      <c r="B35" s="93" t="s">
-        <v>1061</v>
-      </c>
-      <c r="C35" s="96" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93">
-        <v>1</v>
-      </c>
-      <c r="G35" s="92">
-        <v>1</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>933</v>
-      </c>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A36" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="93" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D36" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="G36" s="92">
-        <v>1</v>
-      </c>
-      <c r="H36" s="91"/>
-      <c r="I36" s="90"/>
-    </row>
-    <row r="37" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A37" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="93" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D37" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93">
-        <v>1.5</v>
-      </c>
-      <c r="G37" s="92">
-        <v>1</v>
-      </c>
-      <c r="H37" s="91"/>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A38" s="74"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="85"/>
-    </row>
-    <row r="39" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A39" s="74" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C39" s="82" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80">
-        <v>1</v>
-      </c>
-      <c r="G39" s="75">
-        <v>1</v>
-      </c>
-      <c r="H39" s="83" t="s">
-        <v>933</v>
-      </c>
-      <c r="I39" s="85"/>
-    </row>
-    <row r="40" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A40" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D40" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80">
-        <v>1</v>
-      </c>
-      <c r="G40" s="75">
-        <v>1</v>
-      </c>
-      <c r="H40" s="83" t="s">
-        <v>933</v>
-      </c>
-      <c r="I40" s="85"/>
-    </row>
-    <row r="41" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="85"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A42" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="79" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="85"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A43" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C43" s="82" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D43" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80">
-        <v>1</v>
-      </c>
-      <c r="G43" s="75">
-        <v>1</v>
-      </c>
-      <c r="H43" s="83"/>
-      <c r="I43" s="85"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A44" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="93" t="s">
-        <v>957</v>
-      </c>
-      <c r="C44" s="96" t="s">
-        <v>957</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="92">
-        <v>1</v>
-      </c>
-      <c r="H44" s="91" t="s">
-        <v>955</v>
-      </c>
-      <c r="I44" s="90"/>
-    </row>
-    <row r="45" spans="1:9" ht="17" customHeight="1">
-      <c r="A45" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="98" t="s">
-        <v>958</v>
-      </c>
-      <c r="C45" s="96" t="s">
-        <v>958</v>
-      </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="92">
-        <v>1</v>
-      </c>
-      <c r="H45" s="91" t="s">
-        <v>955</v>
-      </c>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="46" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A46" s="75"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="85"/>
-    </row>
-    <row r="47" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A47" s="75"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="85"/>
-    </row>
-    <row r="48" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A48" s="75"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-    </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A49" s="75"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A50" s="85"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-    </row>
-    <row r="51" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A51" s="85"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A52" s="85"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A53" s="85"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A54" s="85"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A55" s="85"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A56" s="85"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-    </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A57" s="85"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-    </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A58" s="85"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-    </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A59" s="85"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="85"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="85"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="85"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="85"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="85"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
+      <c r="H49" s="83" t="s">
+        <v>594</v>
+      </c>
+      <c r="I49" s="92"/>
+    </row>
+    <row r="50" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+    </row>
+    <row r="51" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A51" s="83"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="AO51" s="101"/>
+    </row>
+    <row r="52" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A52" s="83"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+    </row>
+    <row r="53" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A53" s="83"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="83"/>
+    </row>
+    <row r="54" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A54" s="83"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="83"/>
+    </row>
+    <row r="55" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A55" s="83"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
+    </row>
+    <row r="56" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A56" s="83"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="83"/>
+      <c r="H56" s="83"/>
+    </row>
+    <row r="57" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A57" s="83"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="83"/>
+    </row>
+    <row r="58" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A58" s="83"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="83"/>
+      <c r="H58" s="83"/>
+    </row>
+    <row r="59" spans="1:41" ht="17.25" customHeight="1">
+      <c r="A59" s="83"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+    </row>
+    <row r="60" spans="1:41">
+      <c r="A60" s="83"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+    </row>
+    <row r="61" spans="1:41">
+      <c r="A61" s="83"/>
+      <c r="B61" s="83"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="83"/>
+      <c r="F61" s="83"/>
+      <c r="G61" s="83"/>
+      <c r="H61" s="83"/>
+    </row>
+    <row r="62" spans="1:41">
+      <c r="A62" s="83"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="83"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="83"/>
+    </row>
+    <row r="63" spans="1:41">
+      <c r="A63" s="83"/>
+      <c r="B63" s="83"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="83"/>
+      <c r="F63" s="83"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
+    </row>
+    <row r="64" spans="1:41">
+      <c r="A64" s="83"/>
+      <c r="B64" s="83"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="83"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="83"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="85"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="83"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="83"/>
+      <c r="F65" s="83"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A65"/>
+  <autoFilter ref="B1:B65"/>
+  <mergeCells count="1">
+    <mergeCell ref="A44:H44"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
-    <hyperlink ref="E23" r:id="rId2"/>
-    <hyperlink ref="C21" r:id="rId3"/>
-    <hyperlink ref="E21" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C10" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="C22" r:id="rId8"/>
-    <hyperlink ref="C27" r:id="rId9"/>
-    <hyperlink ref="C14" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
-    <hyperlink ref="C12" r:id="rId12"/>
-    <hyperlink ref="C24" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15" display="Sort an array of 0s, 1s and 2s"/>
-    <hyperlink ref="C13" r:id="rId16"/>
-    <hyperlink ref="C16" r:id="rId17"/>
-    <hyperlink ref="C26" r:id="rId18"/>
-    <hyperlink ref="C28" r:id="rId19"/>
-    <hyperlink ref="C25" r:id="rId20"/>
-    <hyperlink ref="C18" r:id="rId21"/>
-    <hyperlink ref="C19" r:id="rId22" display="Max &amp; Min Element in the Array"/>
-    <hyperlink ref="I24:I25" r:id="rId23" display="Sorting Alogorithms in STL"/>
-    <hyperlink ref="C20" r:id="rId24"/>
-    <hyperlink ref="C29" r:id="rId25"/>
-    <hyperlink ref="C30" r:id="rId26"/>
-    <hyperlink ref="B45" r:id="rId27"/>
-    <hyperlink ref="C45" r:id="rId28"/>
-    <hyperlink ref="C34" r:id="rId29"/>
-    <hyperlink ref="C33" r:id="rId30"/>
-    <hyperlink ref="C44" r:id="rId31"/>
-    <hyperlink ref="C35" r:id="rId32"/>
-    <hyperlink ref="C36" r:id="rId33"/>
-    <hyperlink ref="C37" r:id="rId34"/>
-    <hyperlink ref="C39" r:id="rId35"/>
-    <hyperlink ref="C40" r:id="rId36"/>
-    <hyperlink ref="C43" r:id="rId37"/>
+    <hyperlink ref="D49" r:id="rId1"/>
+    <hyperlink ref="D46" r:id="rId2"/>
+    <hyperlink ref="D47" r:id="rId3"/>
+    <hyperlink ref="D48" r:id="rId4"/>
+    <hyperlink ref="D40" r:id="rId5"/>
+    <hyperlink ref="D39" r:id="rId6"/>
+    <hyperlink ref="D35" r:id="rId7"/>
+    <hyperlink ref="D32" r:id="rId8"/>
+    <hyperlink ref="D33" r:id="rId9"/>
+    <hyperlink ref="D34" r:id="rId10"/>
+    <hyperlink ref="D38" r:id="rId11"/>
+    <hyperlink ref="C38" r:id="rId12"/>
+    <hyperlink ref="D30" r:id="rId13"/>
+    <hyperlink ref="D29" r:id="rId14"/>
+    <hyperlink ref="D20" r:id="rId15"/>
+    <hyperlink ref="D19" r:id="rId16" display="Max &amp; Min Element in the Array"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D25" r:id="rId18"/>
+    <hyperlink ref="D28" r:id="rId19"/>
+    <hyperlink ref="D26" r:id="rId20"/>
+    <hyperlink ref="D16" r:id="rId21"/>
+    <hyperlink ref="D17" r:id="rId22" display="Sort an array of 0s, 1s and 2s"/>
+    <hyperlink ref="D15" r:id="rId23"/>
+    <hyperlink ref="D45" r:id="rId24"/>
+    <hyperlink ref="D12" r:id="rId25"/>
+    <hyperlink ref="D14" r:id="rId26"/>
+    <hyperlink ref="D27" r:id="rId27"/>
+    <hyperlink ref="D22" r:id="rId28"/>
+    <hyperlink ref="D10" r:id="rId29"/>
+    <hyperlink ref="D11" r:id="rId30"/>
+    <hyperlink ref="D21" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -5687,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F478"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C155" sqref="C155:C159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5736,7 +4398,9 @@
       <c r="B3" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D3" s="37" t="s">
         <v>23</v>
       </c>
@@ -14033,3993 +12697,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A958"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="95" style="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" hidden="1">
-      <c r="A1" s="43"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="44" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="45" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="45" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="45" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="45" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="45" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="45" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="45" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="45" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="45" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="45" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="45" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="130" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="43"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="43"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="45" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="45" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="45" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="45" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="45" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="45" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="45" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="45" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="45" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="45" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="45" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="45" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="45" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="45" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="45" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="45" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="45" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="45" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="45" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="45" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="45" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="45" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="45" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="45" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="45" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="45" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="45" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="45" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="45" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="45" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="45" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="43"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="44" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="43" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="43" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="43" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="45" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="45" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="43" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="45" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="45" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="45" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="45" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="45" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="45" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="45" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="45" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="45" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="45" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="45" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="45" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="45" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="43" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="45" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="43"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="44" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="45" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="45" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="45" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="45" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="43"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="45" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="45" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="45" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="45" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="45" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="45" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="45" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="45" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="45" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="45" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="45" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="45" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="45" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="45" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="45" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="43"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="45" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="45" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="45" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="45" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="45" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="45" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="45" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="45" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="45" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="45" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="45" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="45" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="45" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="45" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="45" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="43"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="44" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="45" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="45" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="45" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="45" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="45" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="43"/>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="45" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="45" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="45" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="43"/>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="45" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="45" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="45" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="45" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="45" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="45" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="45" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="43"/>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="45" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="45" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="45" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="45" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="45" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="45" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="45" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="43"/>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="44" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="45" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="45" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="45" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="45" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="45" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" s="45" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="45" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" s="45" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" s="45" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" s="43"/>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" s="45" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" s="45" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="45" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="45" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="45" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="45" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="45" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="43"/>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="45" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" s="45" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" s="45" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" s="45" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="43"/>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="44" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" s="43" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" s="43"/>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="45" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="45" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" s="45" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" s="45" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" s="45" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" s="45" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="45" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" s="45" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" s="43"/>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" s="45" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" s="45" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" s="45" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="43"/>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" s="44" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" s="45" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" s="45" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" s="45" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="45" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" s="45" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" s="45" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" s="45" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="45" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="45" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="43"/>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="45" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" s="45" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" s="45" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" s="45" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" s="45" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" s="45" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="45" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="45" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="43"/>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="44" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="45" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" s="45" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" s="45" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="45" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="45" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" s="45" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" s="45" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" s="45" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="45" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="45" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="45" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="45" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" s="45" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" s="45" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" s="45" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="45" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" s="43"/>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" s="45" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="45" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" s="45" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="45" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" s="45" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="45" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="45" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" s="45" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" s="45" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" s="45" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="45" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" s="45" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" s="45" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="45" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="45" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" s="45" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" s="45" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" s="45" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" s="43"/>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
-      <c r="A255" s="45" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="45" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="45" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
-      <c r="A258" s="45" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
-      <c r="A259" s="45" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
-      <c r="A260" s="45" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
-      <c r="A261" s="45" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
-      <c r="A262" s="43"/>
-    </row>
-    <row r="263" spans="1:1">
-      <c r="A263" s="44" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
-      <c r="A264" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
-      <c r="A265" s="45" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="45" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
-      <c r="A267" s="43"/>
-    </row>
-    <row r="268" spans="1:1">
-      <c r="A268" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
-      <c r="A269" s="45" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
-      <c r="A270" s="45" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="43"/>
-    </row>
-    <row r="272" spans="1:1">
-      <c r="A272" s="44" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
-      <c r="A274" s="45" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
-      <c r="A275" s="45" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
-      <c r="A276" s="45" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
-      <c r="A277" s="45" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
-      <c r="A278" s="43"/>
-    </row>
-    <row r="279" spans="1:1">
-      <c r="A279" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
-      <c r="A280" s="45" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
-      <c r="A281" s="45" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
-      <c r="A282" s="45" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
-      <c r="A283" s="45" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
-      <c r="A284" s="45" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="45" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
-      <c r="A286" s="45" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
-      <c r="A287" s="45" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
-      <c r="A288" s="45" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
-      <c r="A289" s="43"/>
-    </row>
-    <row r="290" spans="1:1">
-      <c r="A290" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
-      <c r="A291" s="45" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="45" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
-      <c r="A293" s="45" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
-      <c r="A294" s="45" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="45" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
-      <c r="A296" s="43"/>
-    </row>
-    <row r="297" spans="1:1">
-      <c r="A297" s="44" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
-      <c r="A298" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
-      <c r="A299" s="45" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
-      <c r="A300" s="45" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
-      <c r="A301" s="45" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
-      <c r="A302" s="45" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
-      <c r="A303" s="45" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="43"/>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="45" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="45" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="45" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="45" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
-      <c r="A310" s="43"/>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="44" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
-      <c r="A312" s="44" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="45" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
-      <c r="A314" s="45" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
-      <c r="A315" s="45" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="45" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="45" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
-      <c r="A318" s="43"/>
-    </row>
-    <row r="319" spans="1:1">
-      <c r="A319" s="44" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
-      <c r="A321" s="45" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
-      <c r="A322" s="45" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
-      <c r="A323" s="45" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
-      <c r="A324" s="45" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="325" spans="1:1">
-      <c r="A325" s="43" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="326" spans="1:1">
-      <c r="A326" s="45" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
-      <c r="A327" s="43"/>
-    </row>
-    <row r="328" spans="1:1">
-      <c r="A328" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
-      <c r="A329" s="45" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
-      <c r="A330" s="45" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
-      <c r="A331" s="45" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="45" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
-      <c r="A333" s="45" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
-      <c r="A334" s="45" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
-      <c r="A335" s="45" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
-      <c r="A336" s="43"/>
-    </row>
-    <row r="337" spans="1:1">
-      <c r="A337" s="44" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="44" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
-      <c r="A339" s="45" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
-      <c r="A340" s="45" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
-      <c r="A341" s="45" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
-      <c r="A342" s="45" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
-      <c r="A343" s="45" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
-      <c r="A344" s="45" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
-      <c r="A345" s="45" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
-      <c r="A346" s="43"/>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="44" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="44" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
-      <c r="A349" s="45" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
-      <c r="A350" s="45" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1">
-      <c r="A351" s="43"/>
-    </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
-      <c r="A353" s="45" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
-      <c r="A354" s="45" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="45" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
-      <c r="A356" s="45" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="45" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="45" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
-      <c r="A359" s="45" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="45" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
-      <c r="A361" s="45" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="45" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1">
-      <c r="A363" s="45" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="45" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
-      <c r="A365" s="45" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
-      <c r="A366" s="45" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="43"/>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="46" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
-      <c r="A369" s="47" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="43"/>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="44" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
-      <c r="A372" s="43"/>
-    </row>
-    <row r="373" spans="1:1">
-      <c r="A373" s="43" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="43" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
-      <c r="A375" s="45" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1">
-      <c r="A376" s="48" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="45" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
-      <c r="A378" s="45" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
-      <c r="A379" s="48" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="45" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
-      <c r="A381" s="45" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
-      <c r="A382" s="45" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="45" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="43" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
-      <c r="A385" s="45" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
-      <c r="A386" s="45" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
-      <c r="A387" s="45" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="45" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="45" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
-      <c r="A390" s="45" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
-      <c r="A391" s="45" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
-      <c r="A392" s="45" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
-      <c r="A393" s="45" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
-      <c r="A394" s="49" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
-      <c r="A395" s="45" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
-      <c r="A396" s="43" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
-      <c r="A397" s="43"/>
-    </row>
-    <row r="398" spans="1:1">
-      <c r="A398" s="44" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
-      <c r="A399" s="44" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
-      <c r="A400" s="45" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1">
-      <c r="A401" s="45" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
-      <c r="A402" s="45" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
-      <c r="A403" s="45" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
-      <c r="A404" s="45" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
-      <c r="A405" s="45" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
-      <c r="A406" s="45" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="45" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
-      <c r="A408" s="43"/>
-    </row>
-    <row r="409" spans="1:1">
-      <c r="A409" s="44" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" s="45" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
-      <c r="A411" s="45" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
-      <c r="A412" s="45" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1">
-      <c r="A413" s="45" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
-      <c r="A414" s="45" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
-      <c r="A415" s="45" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
-      <c r="A416" s="45" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
-      <c r="A417" s="45" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
-      <c r="A418" s="45" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="43"/>
-    </row>
-    <row r="420" spans="1:1">
-      <c r="A420" s="44" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="44" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="45" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" s="45" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" s="45" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
-      <c r="A425" s="45" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1">
-      <c r="A426" s="43"/>
-    </row>
-    <row r="427" spans="1:1">
-      <c r="A427" s="44" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
-      <c r="A428" s="45" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
-      <c r="A429" s="44" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" s="45" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="43"/>
-    </row>
-    <row r="432" spans="1:1">
-      <c r="A432" s="43"/>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="43"/>
-    </row>
-    <row r="434" spans="1:1">
-      <c r="A434" s="43"/>
-    </row>
-    <row r="435" spans="1:1">
-      <c r="A435" s="43"/>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="43"/>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="43"/>
-    </row>
-    <row r="438" spans="1:1">
-      <c r="A438" s="43"/>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" s="43"/>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" s="43"/>
-    </row>
-    <row r="441" spans="1:1">
-      <c r="A441" s="43"/>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="43"/>
-    </row>
-    <row r="443" spans="1:1">
-      <c r="A443" s="43"/>
-    </row>
-    <row r="444" spans="1:1">
-      <c r="A444" s="43"/>
-    </row>
-    <row r="445" spans="1:1">
-      <c r="A445" s="43"/>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="43"/>
-    </row>
-    <row r="447" spans="1:1">
-      <c r="A447" s="43"/>
-    </row>
-    <row r="448" spans="1:1">
-      <c r="A448" s="43"/>
-    </row>
-    <row r="449" spans="1:1">
-      <c r="A449" s="43"/>
-    </row>
-    <row r="450" spans="1:1">
-      <c r="A450" s="43"/>
-    </row>
-    <row r="451" spans="1:1">
-      <c r="A451" s="43"/>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="43"/>
-    </row>
-    <row r="453" spans="1:1">
-      <c r="A453" s="43"/>
-    </row>
-    <row r="454" spans="1:1">
-      <c r="A454" s="43"/>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="43"/>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="43"/>
-    </row>
-    <row r="457" spans="1:1">
-      <c r="A457" s="43"/>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="43"/>
-    </row>
-    <row r="459" spans="1:1">
-      <c r="A459" s="43"/>
-    </row>
-    <row r="460" spans="1:1">
-      <c r="A460" s="43"/>
-    </row>
-    <row r="461" spans="1:1">
-      <c r="A461" s="43"/>
-    </row>
-    <row r="462" spans="1:1">
-      <c r="A462" s="43"/>
-    </row>
-    <row r="463" spans="1:1">
-      <c r="A463" s="43"/>
-    </row>
-    <row r="464" spans="1:1">
-      <c r="A464" s="43"/>
-    </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="43"/>
-    </row>
-    <row r="466" spans="1:1">
-      <c r="A466" s="43"/>
-    </row>
-    <row r="467" spans="1:1">
-      <c r="A467" s="43"/>
-    </row>
-    <row r="468" spans="1:1">
-      <c r="A468" s="43"/>
-    </row>
-    <row r="469" spans="1:1">
-      <c r="A469" s="43"/>
-    </row>
-    <row r="470" spans="1:1">
-      <c r="A470" s="43"/>
-    </row>
-    <row r="471" spans="1:1">
-      <c r="A471" s="43"/>
-    </row>
-    <row r="472" spans="1:1">
-      <c r="A472" s="43"/>
-    </row>
-    <row r="473" spans="1:1">
-      <c r="A473" s="43"/>
-    </row>
-    <row r="474" spans="1:1">
-      <c r="A474" s="43"/>
-    </row>
-    <row r="475" spans="1:1">
-      <c r="A475" s="43"/>
-    </row>
-    <row r="476" spans="1:1">
-      <c r="A476" s="43"/>
-    </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="43"/>
-    </row>
-    <row r="478" spans="1:1">
-      <c r="A478" s="43"/>
-    </row>
-    <row r="479" spans="1:1">
-      <c r="A479" s="43"/>
-    </row>
-    <row r="480" spans="1:1">
-      <c r="A480" s="43"/>
-    </row>
-    <row r="481" spans="1:1">
-      <c r="A481" s="43"/>
-    </row>
-    <row r="482" spans="1:1">
-      <c r="A482" s="43"/>
-    </row>
-    <row r="483" spans="1:1">
-      <c r="A483" s="43"/>
-    </row>
-    <row r="484" spans="1:1">
-      <c r="A484" s="43"/>
-    </row>
-    <row r="485" spans="1:1">
-      <c r="A485" s="43"/>
-    </row>
-    <row r="486" spans="1:1">
-      <c r="A486" s="43"/>
-    </row>
-    <row r="487" spans="1:1">
-      <c r="A487" s="43"/>
-    </row>
-    <row r="488" spans="1:1">
-      <c r="A488" s="43"/>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" s="43"/>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" s="43"/>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" s="43"/>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" s="43"/>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" s="43"/>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" s="43"/>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" s="43"/>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" s="43"/>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" s="43"/>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" s="43"/>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" s="43"/>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" s="43"/>
-    </row>
-    <row r="501" spans="1:1">
-      <c r="A501" s="43"/>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" s="43"/>
-    </row>
-    <row r="503" spans="1:1">
-      <c r="A503" s="43"/>
-    </row>
-    <row r="504" spans="1:1">
-      <c r="A504" s="43"/>
-    </row>
-    <row r="505" spans="1:1">
-      <c r="A505" s="43"/>
-    </row>
-    <row r="506" spans="1:1">
-      <c r="A506" s="43"/>
-    </row>
-    <row r="507" spans="1:1">
-      <c r="A507" s="43"/>
-    </row>
-    <row r="508" spans="1:1">
-      <c r="A508" s="43"/>
-    </row>
-    <row r="509" spans="1:1">
-      <c r="A509" s="43"/>
-    </row>
-    <row r="510" spans="1:1">
-      <c r="A510" s="43"/>
-    </row>
-    <row r="511" spans="1:1">
-      <c r="A511" s="43"/>
-    </row>
-    <row r="512" spans="1:1">
-      <c r="A512" s="43"/>
-    </row>
-    <row r="513" spans="1:1">
-      <c r="A513" s="43"/>
-    </row>
-    <row r="514" spans="1:1">
-      <c r="A514" s="43"/>
-    </row>
-    <row r="515" spans="1:1">
-      <c r="A515" s="43"/>
-    </row>
-    <row r="516" spans="1:1">
-      <c r="A516" s="43"/>
-    </row>
-    <row r="517" spans="1:1">
-      <c r="A517" s="43"/>
-    </row>
-    <row r="518" spans="1:1">
-      <c r="A518" s="43"/>
-    </row>
-    <row r="519" spans="1:1">
-      <c r="A519" s="43"/>
-    </row>
-    <row r="520" spans="1:1">
-      <c r="A520" s="43"/>
-    </row>
-    <row r="521" spans="1:1">
-      <c r="A521" s="43"/>
-    </row>
-    <row r="522" spans="1:1">
-      <c r="A522" s="43"/>
-    </row>
-    <row r="523" spans="1:1">
-      <c r="A523" s="43"/>
-    </row>
-    <row r="524" spans="1:1">
-      <c r="A524" s="43"/>
-    </row>
-    <row r="525" spans="1:1">
-      <c r="A525" s="43"/>
-    </row>
-    <row r="526" spans="1:1">
-      <c r="A526" s="43"/>
-    </row>
-    <row r="527" spans="1:1">
-      <c r="A527" s="43"/>
-    </row>
-    <row r="528" spans="1:1">
-      <c r="A528" s="43"/>
-    </row>
-    <row r="529" spans="1:1">
-      <c r="A529" s="43"/>
-    </row>
-    <row r="530" spans="1:1">
-      <c r="A530" s="43"/>
-    </row>
-    <row r="531" spans="1:1">
-      <c r="A531" s="43"/>
-    </row>
-    <row r="532" spans="1:1">
-      <c r="A532" s="43"/>
-    </row>
-    <row r="533" spans="1:1">
-      <c r="A533" s="43"/>
-    </row>
-    <row r="534" spans="1:1">
-      <c r="A534" s="43"/>
-    </row>
-    <row r="535" spans="1:1">
-      <c r="A535" s="43"/>
-    </row>
-    <row r="536" spans="1:1">
-      <c r="A536" s="43"/>
-    </row>
-    <row r="537" spans="1:1">
-      <c r="A537" s="43"/>
-    </row>
-    <row r="538" spans="1:1">
-      <c r="A538" s="43"/>
-    </row>
-    <row r="539" spans="1:1">
-      <c r="A539" s="43"/>
-    </row>
-    <row r="540" spans="1:1">
-      <c r="A540" s="43"/>
-    </row>
-    <row r="541" spans="1:1">
-      <c r="A541" s="43"/>
-    </row>
-    <row r="542" spans="1:1">
-      <c r="A542" s="43"/>
-    </row>
-    <row r="543" spans="1:1">
-      <c r="A543" s="43"/>
-    </row>
-    <row r="544" spans="1:1">
-      <c r="A544" s="43"/>
-    </row>
-    <row r="545" spans="1:1">
-      <c r="A545" s="43"/>
-    </row>
-    <row r="546" spans="1:1">
-      <c r="A546" s="43"/>
-    </row>
-    <row r="547" spans="1:1">
-      <c r="A547" s="43"/>
-    </row>
-    <row r="548" spans="1:1">
-      <c r="A548" s="43"/>
-    </row>
-    <row r="549" spans="1:1">
-      <c r="A549" s="43"/>
-    </row>
-    <row r="550" spans="1:1">
-      <c r="A550" s="43"/>
-    </row>
-    <row r="551" spans="1:1">
-      <c r="A551" s="43"/>
-    </row>
-    <row r="552" spans="1:1">
-      <c r="A552" s="43"/>
-    </row>
-    <row r="553" spans="1:1">
-      <c r="A553" s="43"/>
-    </row>
-    <row r="554" spans="1:1">
-      <c r="A554" s="43"/>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" s="43"/>
-    </row>
-    <row r="556" spans="1:1">
-      <c r="A556" s="43"/>
-    </row>
-    <row r="557" spans="1:1">
-      <c r="A557" s="43"/>
-    </row>
-    <row r="558" spans="1:1">
-      <c r="A558" s="43"/>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" s="43"/>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560" s="43"/>
-    </row>
-    <row r="561" spans="1:1">
-      <c r="A561" s="43"/>
-    </row>
-    <row r="562" spans="1:1">
-      <c r="A562" s="43"/>
-    </row>
-    <row r="563" spans="1:1">
-      <c r="A563" s="43"/>
-    </row>
-    <row r="564" spans="1:1">
-      <c r="A564" s="43"/>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" s="43"/>
-    </row>
-    <row r="566" spans="1:1">
-      <c r="A566" s="43"/>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" s="43"/>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" s="43"/>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" s="43"/>
-    </row>
-    <row r="570" spans="1:1">
-      <c r="A570" s="43"/>
-    </row>
-    <row r="571" spans="1:1">
-      <c r="A571" s="43"/>
-    </row>
-    <row r="572" spans="1:1">
-      <c r="A572" s="43"/>
-    </row>
-    <row r="573" spans="1:1">
-      <c r="A573" s="43"/>
-    </row>
-    <row r="574" spans="1:1">
-      <c r="A574" s="43"/>
-    </row>
-    <row r="575" spans="1:1">
-      <c r="A575" s="43"/>
-    </row>
-    <row r="576" spans="1:1">
-      <c r="A576" s="43"/>
-    </row>
-    <row r="577" spans="1:1">
-      <c r="A577" s="43"/>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578" s="43"/>
-    </row>
-    <row r="579" spans="1:1">
-      <c r="A579" s="43"/>
-    </row>
-    <row r="580" spans="1:1">
-      <c r="A580" s="43"/>
-    </row>
-    <row r="581" spans="1:1">
-      <c r="A581" s="43"/>
-    </row>
-    <row r="582" spans="1:1">
-      <c r="A582" s="43"/>
-    </row>
-    <row r="583" spans="1:1">
-      <c r="A583" s="43"/>
-    </row>
-    <row r="584" spans="1:1">
-      <c r="A584" s="43"/>
-    </row>
-    <row r="585" spans="1:1">
-      <c r="A585" s="43"/>
-    </row>
-    <row r="586" spans="1:1">
-      <c r="A586" s="43"/>
-    </row>
-    <row r="587" spans="1:1">
-      <c r="A587" s="43"/>
-    </row>
-    <row r="588" spans="1:1">
-      <c r="A588" s="43"/>
-    </row>
-    <row r="589" spans="1:1">
-      <c r="A589" s="43"/>
-    </row>
-    <row r="590" spans="1:1">
-      <c r="A590" s="43"/>
-    </row>
-    <row r="591" spans="1:1">
-      <c r="A591" s="43"/>
-    </row>
-    <row r="592" spans="1:1">
-      <c r="A592" s="43"/>
-    </row>
-    <row r="593" spans="1:1">
-      <c r="A593" s="43"/>
-    </row>
-    <row r="594" spans="1:1">
-      <c r="A594" s="43"/>
-    </row>
-    <row r="595" spans="1:1">
-      <c r="A595" s="43"/>
-    </row>
-    <row r="596" spans="1:1">
-      <c r="A596" s="43"/>
-    </row>
-    <row r="597" spans="1:1">
-      <c r="A597" s="43"/>
-    </row>
-    <row r="598" spans="1:1">
-      <c r="A598" s="43"/>
-    </row>
-    <row r="599" spans="1:1">
-      <c r="A599" s="43"/>
-    </row>
-    <row r="600" spans="1:1">
-      <c r="A600" s="43"/>
-    </row>
-    <row r="601" spans="1:1">
-      <c r="A601" s="43"/>
-    </row>
-    <row r="602" spans="1:1">
-      <c r="A602" s="43"/>
-    </row>
-    <row r="603" spans="1:1">
-      <c r="A603" s="43"/>
-    </row>
-    <row r="604" spans="1:1">
-      <c r="A604" s="43"/>
-    </row>
-    <row r="605" spans="1:1">
-      <c r="A605" s="43"/>
-    </row>
-    <row r="606" spans="1:1">
-      <c r="A606" s="43"/>
-    </row>
-    <row r="607" spans="1:1">
-      <c r="A607" s="43"/>
-    </row>
-    <row r="608" spans="1:1">
-      <c r="A608" s="43"/>
-    </row>
-    <row r="609" spans="1:1">
-      <c r="A609" s="43"/>
-    </row>
-    <row r="610" spans="1:1">
-      <c r="A610" s="43"/>
-    </row>
-    <row r="611" spans="1:1">
-      <c r="A611" s="43"/>
-    </row>
-    <row r="612" spans="1:1">
-      <c r="A612" s="43"/>
-    </row>
-    <row r="613" spans="1:1">
-      <c r="A613" s="43"/>
-    </row>
-    <row r="614" spans="1:1">
-      <c r="A614" s="43"/>
-    </row>
-    <row r="615" spans="1:1">
-      <c r="A615" s="43"/>
-    </row>
-    <row r="616" spans="1:1">
-      <c r="A616" s="43"/>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617" s="43"/>
-    </row>
-    <row r="618" spans="1:1">
-      <c r="A618" s="43"/>
-    </row>
-    <row r="619" spans="1:1">
-      <c r="A619" s="43"/>
-    </row>
-    <row r="620" spans="1:1">
-      <c r="A620" s="43"/>
-    </row>
-    <row r="621" spans="1:1">
-      <c r="A621" s="43"/>
-    </row>
-    <row r="622" spans="1:1">
-      <c r="A622" s="43"/>
-    </row>
-    <row r="623" spans="1:1">
-      <c r="A623" s="43"/>
-    </row>
-    <row r="624" spans="1:1">
-      <c r="A624" s="43"/>
-    </row>
-    <row r="625" spans="1:1">
-      <c r="A625" s="43"/>
-    </row>
-    <row r="626" spans="1:1">
-      <c r="A626" s="43"/>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627" s="43"/>
-    </row>
-    <row r="628" spans="1:1">
-      <c r="A628" s="43"/>
-    </row>
-    <row r="629" spans="1:1">
-      <c r="A629" s="43"/>
-    </row>
-    <row r="630" spans="1:1">
-      <c r="A630" s="43"/>
-    </row>
-    <row r="631" spans="1:1">
-      <c r="A631" s="43"/>
-    </row>
-    <row r="632" spans="1:1">
-      <c r="A632" s="43"/>
-    </row>
-    <row r="633" spans="1:1">
-      <c r="A633" s="43"/>
-    </row>
-    <row r="634" spans="1:1">
-      <c r="A634" s="43"/>
-    </row>
-    <row r="635" spans="1:1">
-      <c r="A635" s="43"/>
-    </row>
-    <row r="636" spans="1:1">
-      <c r="A636" s="43"/>
-    </row>
-    <row r="637" spans="1:1">
-      <c r="A637" s="43"/>
-    </row>
-    <row r="638" spans="1:1">
-      <c r="A638" s="43"/>
-    </row>
-    <row r="639" spans="1:1">
-      <c r="A639" s="43"/>
-    </row>
-    <row r="640" spans="1:1">
-      <c r="A640" s="43"/>
-    </row>
-    <row r="641" spans="1:1">
-      <c r="A641" s="43"/>
-    </row>
-    <row r="642" spans="1:1">
-      <c r="A642" s="43"/>
-    </row>
-    <row r="643" spans="1:1">
-      <c r="A643" s="43"/>
-    </row>
-    <row r="644" spans="1:1">
-      <c r="A644" s="43"/>
-    </row>
-    <row r="645" spans="1:1">
-      <c r="A645" s="43"/>
-    </row>
-    <row r="646" spans="1:1">
-      <c r="A646" s="43"/>
-    </row>
-    <row r="647" spans="1:1">
-      <c r="A647" s="43"/>
-    </row>
-    <row r="648" spans="1:1">
-      <c r="A648" s="43"/>
-    </row>
-    <row r="649" spans="1:1">
-      <c r="A649" s="43"/>
-    </row>
-    <row r="650" spans="1:1">
-      <c r="A650" s="43"/>
-    </row>
-    <row r="651" spans="1:1">
-      <c r="A651" s="43"/>
-    </row>
-    <row r="652" spans="1:1">
-      <c r="A652" s="43"/>
-    </row>
-    <row r="653" spans="1:1">
-      <c r="A653" s="43"/>
-    </row>
-    <row r="654" spans="1:1">
-      <c r="A654" s="43"/>
-    </row>
-    <row r="655" spans="1:1">
-      <c r="A655" s="43"/>
-    </row>
-    <row r="656" spans="1:1">
-      <c r="A656" s="43"/>
-    </row>
-    <row r="657" spans="1:1">
-      <c r="A657" s="43"/>
-    </row>
-    <row r="658" spans="1:1">
-      <c r="A658" s="43"/>
-    </row>
-    <row r="659" spans="1:1">
-      <c r="A659" s="43"/>
-    </row>
-    <row r="660" spans="1:1">
-      <c r="A660" s="43"/>
-    </row>
-    <row r="661" spans="1:1">
-      <c r="A661" s="43"/>
-    </row>
-    <row r="662" spans="1:1">
-      <c r="A662" s="43"/>
-    </row>
-    <row r="663" spans="1:1">
-      <c r="A663" s="43"/>
-    </row>
-    <row r="664" spans="1:1">
-      <c r="A664" s="43"/>
-    </row>
-    <row r="665" spans="1:1">
-      <c r="A665" s="43"/>
-    </row>
-    <row r="666" spans="1:1">
-      <c r="A666" s="43"/>
-    </row>
-    <row r="667" spans="1:1">
-      <c r="A667" s="43"/>
-    </row>
-    <row r="668" spans="1:1">
-      <c r="A668" s="43"/>
-    </row>
-    <row r="669" spans="1:1">
-      <c r="A669" s="43"/>
-    </row>
-    <row r="670" spans="1:1">
-      <c r="A670" s="43"/>
-    </row>
-    <row r="671" spans="1:1">
-      <c r="A671" s="43"/>
-    </row>
-    <row r="672" spans="1:1">
-      <c r="A672" s="43"/>
-    </row>
-    <row r="673" spans="1:1">
-      <c r="A673" s="43"/>
-    </row>
-    <row r="674" spans="1:1">
-      <c r="A674" s="43"/>
-    </row>
-    <row r="675" spans="1:1">
-      <c r="A675" s="43"/>
-    </row>
-    <row r="676" spans="1:1">
-      <c r="A676" s="43"/>
-    </row>
-    <row r="677" spans="1:1">
-      <c r="A677" s="43"/>
-    </row>
-    <row r="678" spans="1:1">
-      <c r="A678" s="43"/>
-    </row>
-    <row r="679" spans="1:1">
-      <c r="A679" s="43"/>
-    </row>
-    <row r="680" spans="1:1">
-      <c r="A680" s="43"/>
-    </row>
-    <row r="681" spans="1:1">
-      <c r="A681" s="43"/>
-    </row>
-    <row r="682" spans="1:1">
-      <c r="A682" s="43"/>
-    </row>
-    <row r="683" spans="1:1">
-      <c r="A683" s="43"/>
-    </row>
-    <row r="684" spans="1:1">
-      <c r="A684" s="43"/>
-    </row>
-    <row r="685" spans="1:1">
-      <c r="A685" s="43"/>
-    </row>
-    <row r="686" spans="1:1">
-      <c r="A686" s="43"/>
-    </row>
-    <row r="687" spans="1:1">
-      <c r="A687" s="43"/>
-    </row>
-    <row r="688" spans="1:1">
-      <c r="A688" s="43"/>
-    </row>
-    <row r="689" spans="1:1">
-      <c r="A689" s="43"/>
-    </row>
-    <row r="690" spans="1:1">
-      <c r="A690" s="43"/>
-    </row>
-    <row r="691" spans="1:1">
-      <c r="A691" s="43"/>
-    </row>
-    <row r="692" spans="1:1">
-      <c r="A692" s="43"/>
-    </row>
-    <row r="693" spans="1:1">
-      <c r="A693" s="43"/>
-    </row>
-    <row r="694" spans="1:1">
-      <c r="A694" s="43"/>
-    </row>
-    <row r="695" spans="1:1">
-      <c r="A695" s="43"/>
-    </row>
-    <row r="696" spans="1:1">
-      <c r="A696" s="43"/>
-    </row>
-    <row r="697" spans="1:1">
-      <c r="A697" s="43"/>
-    </row>
-    <row r="698" spans="1:1">
-      <c r="A698" s="43"/>
-    </row>
-    <row r="699" spans="1:1">
-      <c r="A699" s="43"/>
-    </row>
-    <row r="700" spans="1:1">
-      <c r="A700" s="43"/>
-    </row>
-    <row r="701" spans="1:1">
-      <c r="A701" s="43"/>
-    </row>
-    <row r="702" spans="1:1">
-      <c r="A702" s="43"/>
-    </row>
-    <row r="703" spans="1:1">
-      <c r="A703" s="43"/>
-    </row>
-    <row r="704" spans="1:1">
-      <c r="A704" s="43"/>
-    </row>
-    <row r="705" spans="1:1">
-      <c r="A705" s="43"/>
-    </row>
-    <row r="706" spans="1:1">
-      <c r="A706" s="43"/>
-    </row>
-    <row r="707" spans="1:1">
-      <c r="A707" s="43"/>
-    </row>
-    <row r="708" spans="1:1">
-      <c r="A708" s="43"/>
-    </row>
-    <row r="709" spans="1:1">
-      <c r="A709" s="43"/>
-    </row>
-    <row r="710" spans="1:1">
-      <c r="A710" s="43"/>
-    </row>
-    <row r="711" spans="1:1">
-      <c r="A711" s="43"/>
-    </row>
-    <row r="712" spans="1:1">
-      <c r="A712" s="43"/>
-    </row>
-    <row r="713" spans="1:1">
-      <c r="A713" s="43"/>
-    </row>
-    <row r="714" spans="1:1">
-      <c r="A714" s="43"/>
-    </row>
-    <row r="715" spans="1:1">
-      <c r="A715" s="43"/>
-    </row>
-    <row r="716" spans="1:1">
-      <c r="A716" s="43"/>
-    </row>
-    <row r="717" spans="1:1">
-      <c r="A717" s="43"/>
-    </row>
-    <row r="718" spans="1:1">
-      <c r="A718" s="43"/>
-    </row>
-    <row r="719" spans="1:1">
-      <c r="A719" s="43"/>
-    </row>
-    <row r="720" spans="1:1">
-      <c r="A720" s="43"/>
-    </row>
-    <row r="721" spans="1:1">
-      <c r="A721" s="43"/>
-    </row>
-    <row r="722" spans="1:1">
-      <c r="A722" s="43"/>
-    </row>
-    <row r="723" spans="1:1">
-      <c r="A723" s="43"/>
-    </row>
-    <row r="724" spans="1:1">
-      <c r="A724" s="43"/>
-    </row>
-    <row r="725" spans="1:1">
-      <c r="A725" s="43"/>
-    </row>
-    <row r="726" spans="1:1">
-      <c r="A726" s="43"/>
-    </row>
-    <row r="727" spans="1:1">
-      <c r="A727" s="43"/>
-    </row>
-    <row r="728" spans="1:1">
-      <c r="A728" s="43"/>
-    </row>
-    <row r="729" spans="1:1">
-      <c r="A729" s="43"/>
-    </row>
-    <row r="730" spans="1:1">
-      <c r="A730" s="43"/>
-    </row>
-    <row r="731" spans="1:1">
-      <c r="A731" s="43"/>
-    </row>
-    <row r="732" spans="1:1">
-      <c r="A732" s="43"/>
-    </row>
-    <row r="733" spans="1:1">
-      <c r="A733" s="43"/>
-    </row>
-    <row r="734" spans="1:1">
-      <c r="A734" s="43"/>
-    </row>
-    <row r="735" spans="1:1">
-      <c r="A735" s="43"/>
-    </row>
-    <row r="736" spans="1:1">
-      <c r="A736" s="43"/>
-    </row>
-    <row r="737" spans="1:1">
-      <c r="A737" s="43"/>
-    </row>
-    <row r="738" spans="1:1">
-      <c r="A738" s="43"/>
-    </row>
-    <row r="739" spans="1:1">
-      <c r="A739" s="43"/>
-    </row>
-    <row r="740" spans="1:1">
-      <c r="A740" s="43"/>
-    </row>
-    <row r="741" spans="1:1">
-      <c r="A741" s="43"/>
-    </row>
-    <row r="742" spans="1:1">
-      <c r="A742" s="43"/>
-    </row>
-    <row r="743" spans="1:1">
-      <c r="A743" s="43"/>
-    </row>
-    <row r="744" spans="1:1">
-      <c r="A744" s="43"/>
-    </row>
-    <row r="745" spans="1:1">
-      <c r="A745" s="43"/>
-    </row>
-    <row r="746" spans="1:1">
-      <c r="A746" s="43"/>
-    </row>
-    <row r="747" spans="1:1">
-      <c r="A747" s="43"/>
-    </row>
-    <row r="748" spans="1:1">
-      <c r="A748" s="43"/>
-    </row>
-    <row r="749" spans="1:1">
-      <c r="A749" s="43"/>
-    </row>
-    <row r="750" spans="1:1">
-      <c r="A750" s="43"/>
-    </row>
-    <row r="751" spans="1:1">
-      <c r="A751" s="43"/>
-    </row>
-    <row r="752" spans="1:1">
-      <c r="A752" s="43"/>
-    </row>
-    <row r="753" spans="1:1">
-      <c r="A753" s="43"/>
-    </row>
-    <row r="754" spans="1:1">
-      <c r="A754" s="43"/>
-    </row>
-    <row r="755" spans="1:1">
-      <c r="A755" s="43"/>
-    </row>
-    <row r="756" spans="1:1">
-      <c r="A756" s="43"/>
-    </row>
-    <row r="757" spans="1:1">
-      <c r="A757" s="43"/>
-    </row>
-    <row r="758" spans="1:1">
-      <c r="A758" s="43"/>
-    </row>
-    <row r="759" spans="1:1">
-      <c r="A759" s="43"/>
-    </row>
-    <row r="760" spans="1:1">
-      <c r="A760" s="43"/>
-    </row>
-    <row r="761" spans="1:1">
-      <c r="A761" s="43"/>
-    </row>
-    <row r="762" spans="1:1">
-      <c r="A762" s="43"/>
-    </row>
-    <row r="763" spans="1:1">
-      <c r="A763" s="43"/>
-    </row>
-    <row r="764" spans="1:1">
-      <c r="A764" s="43"/>
-    </row>
-    <row r="765" spans="1:1">
-      <c r="A765" s="43"/>
-    </row>
-    <row r="766" spans="1:1">
-      <c r="A766" s="43"/>
-    </row>
-    <row r="767" spans="1:1">
-      <c r="A767" s="43"/>
-    </row>
-    <row r="768" spans="1:1">
-      <c r="A768" s="43"/>
-    </row>
-    <row r="769" spans="1:1">
-      <c r="A769" s="43"/>
-    </row>
-    <row r="770" spans="1:1">
-      <c r="A770" s="43"/>
-    </row>
-    <row r="771" spans="1:1">
-      <c r="A771" s="43"/>
-    </row>
-    <row r="772" spans="1:1">
-      <c r="A772" s="43"/>
-    </row>
-    <row r="773" spans="1:1">
-      <c r="A773" s="43"/>
-    </row>
-    <row r="774" spans="1:1">
-      <c r="A774" s="43"/>
-    </row>
-    <row r="775" spans="1:1">
-      <c r="A775" s="43"/>
-    </row>
-    <row r="776" spans="1:1">
-      <c r="A776" s="43"/>
-    </row>
-    <row r="777" spans="1:1">
-      <c r="A777" s="43"/>
-    </row>
-    <row r="778" spans="1:1">
-      <c r="A778" s="43"/>
-    </row>
-    <row r="779" spans="1:1">
-      <c r="A779" s="43"/>
-    </row>
-    <row r="780" spans="1:1">
-      <c r="A780" s="43"/>
-    </row>
-    <row r="781" spans="1:1">
-      <c r="A781" s="43"/>
-    </row>
-    <row r="782" spans="1:1">
-      <c r="A782" s="43"/>
-    </row>
-    <row r="783" spans="1:1">
-      <c r="A783" s="43"/>
-    </row>
-    <row r="784" spans="1:1">
-      <c r="A784" s="43"/>
-    </row>
-    <row r="785" spans="1:1">
-      <c r="A785" s="43"/>
-    </row>
-    <row r="786" spans="1:1">
-      <c r="A786" s="43"/>
-    </row>
-    <row r="787" spans="1:1">
-      <c r="A787" s="43"/>
-    </row>
-    <row r="788" spans="1:1">
-      <c r="A788" s="43"/>
-    </row>
-    <row r="789" spans="1:1">
-      <c r="A789" s="43"/>
-    </row>
-    <row r="790" spans="1:1">
-      <c r="A790" s="43"/>
-    </row>
-    <row r="791" spans="1:1">
-      <c r="A791" s="43"/>
-    </row>
-    <row r="792" spans="1:1">
-      <c r="A792" s="43"/>
-    </row>
-    <row r="793" spans="1:1">
-      <c r="A793" s="43"/>
-    </row>
-    <row r="794" spans="1:1">
-      <c r="A794" s="43"/>
-    </row>
-    <row r="795" spans="1:1">
-      <c r="A795" s="43"/>
-    </row>
-    <row r="796" spans="1:1">
-      <c r="A796" s="43"/>
-    </row>
-    <row r="797" spans="1:1">
-      <c r="A797" s="43"/>
-    </row>
-    <row r="798" spans="1:1">
-      <c r="A798" s="43"/>
-    </row>
-    <row r="799" spans="1:1">
-      <c r="A799" s="43"/>
-    </row>
-    <row r="800" spans="1:1">
-      <c r="A800" s="43"/>
-    </row>
-    <row r="801" spans="1:1">
-      <c r="A801" s="43"/>
-    </row>
-    <row r="802" spans="1:1">
-      <c r="A802" s="43"/>
-    </row>
-    <row r="803" spans="1:1">
-      <c r="A803" s="43"/>
-    </row>
-    <row r="804" spans="1:1">
-      <c r="A804" s="43"/>
-    </row>
-    <row r="805" spans="1:1">
-      <c r="A805" s="43"/>
-    </row>
-    <row r="806" spans="1:1">
-      <c r="A806" s="43"/>
-    </row>
-    <row r="807" spans="1:1">
-      <c r="A807" s="43"/>
-    </row>
-    <row r="808" spans="1:1">
-      <c r="A808" s="43"/>
-    </row>
-    <row r="809" spans="1:1">
-      <c r="A809" s="43"/>
-    </row>
-    <row r="810" spans="1:1">
-      <c r="A810" s="43"/>
-    </row>
-    <row r="811" spans="1:1">
-      <c r="A811" s="43"/>
-    </row>
-    <row r="812" spans="1:1">
-      <c r="A812" s="43"/>
-    </row>
-    <row r="813" spans="1:1">
-      <c r="A813" s="43"/>
-    </row>
-    <row r="814" spans="1:1">
-      <c r="A814" s="43"/>
-    </row>
-    <row r="815" spans="1:1">
-      <c r="A815" s="43"/>
-    </row>
-    <row r="816" spans="1:1">
-      <c r="A816" s="43"/>
-    </row>
-    <row r="817" spans="1:1">
-      <c r="A817" s="43"/>
-    </row>
-    <row r="818" spans="1:1">
-      <c r="A818" s="43"/>
-    </row>
-    <row r="819" spans="1:1">
-      <c r="A819" s="43"/>
-    </row>
-    <row r="820" spans="1:1">
-      <c r="A820" s="43"/>
-    </row>
-    <row r="821" spans="1:1">
-      <c r="A821" s="43"/>
-    </row>
-    <row r="822" spans="1:1">
-      <c r="A822" s="43"/>
-    </row>
-    <row r="823" spans="1:1">
-      <c r="A823" s="43"/>
-    </row>
-    <row r="824" spans="1:1">
-      <c r="A824" s="43"/>
-    </row>
-    <row r="825" spans="1:1">
-      <c r="A825" s="43"/>
-    </row>
-    <row r="826" spans="1:1">
-      <c r="A826" s="43"/>
-    </row>
-    <row r="827" spans="1:1">
-      <c r="A827" s="43"/>
-    </row>
-    <row r="828" spans="1:1">
-      <c r="A828" s="43"/>
-    </row>
-    <row r="829" spans="1:1">
-      <c r="A829" s="43"/>
-    </row>
-    <row r="830" spans="1:1">
-      <c r="A830" s="43"/>
-    </row>
-    <row r="831" spans="1:1">
-      <c r="A831" s="43"/>
-    </row>
-    <row r="832" spans="1:1">
-      <c r="A832" s="43"/>
-    </row>
-    <row r="833" spans="1:1">
-      <c r="A833" s="43"/>
-    </row>
-    <row r="834" spans="1:1">
-      <c r="A834" s="43"/>
-    </row>
-    <row r="835" spans="1:1">
-      <c r="A835" s="43"/>
-    </row>
-    <row r="836" spans="1:1">
-      <c r="A836" s="43"/>
-    </row>
-    <row r="837" spans="1:1">
-      <c r="A837" s="43"/>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" s="43"/>
-    </row>
-    <row r="839" spans="1:1">
-      <c r="A839" s="43"/>
-    </row>
-    <row r="840" spans="1:1">
-      <c r="A840" s="43"/>
-    </row>
-    <row r="841" spans="1:1">
-      <c r="A841" s="43"/>
-    </row>
-    <row r="842" spans="1:1">
-      <c r="A842" s="43"/>
-    </row>
-    <row r="843" spans="1:1">
-      <c r="A843" s="43"/>
-    </row>
-    <row r="844" spans="1:1">
-      <c r="A844" s="43"/>
-    </row>
-    <row r="845" spans="1:1">
-      <c r="A845" s="43"/>
-    </row>
-    <row r="846" spans="1:1">
-      <c r="A846" s="43"/>
-    </row>
-    <row r="847" spans="1:1">
-      <c r="A847" s="43"/>
-    </row>
-    <row r="848" spans="1:1">
-      <c r="A848" s="43"/>
-    </row>
-    <row r="849" spans="1:1">
-      <c r="A849" s="43"/>
-    </row>
-    <row r="850" spans="1:1">
-      <c r="A850" s="43"/>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="43"/>
-    </row>
-    <row r="852" spans="1:1">
-      <c r="A852" s="43"/>
-    </row>
-    <row r="853" spans="1:1">
-      <c r="A853" s="43"/>
-    </row>
-    <row r="854" spans="1:1">
-      <c r="A854" s="43"/>
-    </row>
-    <row r="855" spans="1:1">
-      <c r="A855" s="43"/>
-    </row>
-    <row r="856" spans="1:1">
-      <c r="A856" s="43"/>
-    </row>
-    <row r="857" spans="1:1">
-      <c r="A857" s="43"/>
-    </row>
-    <row r="858" spans="1:1">
-      <c r="A858" s="43"/>
-    </row>
-    <row r="859" spans="1:1">
-      <c r="A859" s="43"/>
-    </row>
-    <row r="860" spans="1:1">
-      <c r="A860" s="43"/>
-    </row>
-    <row r="861" spans="1:1">
-      <c r="A861" s="43"/>
-    </row>
-    <row r="862" spans="1:1">
-      <c r="A862" s="43"/>
-    </row>
-    <row r="863" spans="1:1">
-      <c r="A863" s="43"/>
-    </row>
-    <row r="864" spans="1:1">
-      <c r="A864" s="43"/>
-    </row>
-    <row r="865" spans="1:1">
-      <c r="A865" s="43"/>
-    </row>
-    <row r="866" spans="1:1">
-      <c r="A866" s="43"/>
-    </row>
-    <row r="867" spans="1:1">
-      <c r="A867" s="43"/>
-    </row>
-    <row r="868" spans="1:1">
-      <c r="A868" s="43"/>
-    </row>
-    <row r="869" spans="1:1">
-      <c r="A869" s="43"/>
-    </row>
-    <row r="870" spans="1:1">
-      <c r="A870" s="43"/>
-    </row>
-    <row r="871" spans="1:1">
-      <c r="A871" s="43"/>
-    </row>
-    <row r="872" spans="1:1">
-      <c r="A872" s="43"/>
-    </row>
-    <row r="873" spans="1:1">
-      <c r="A873" s="43"/>
-    </row>
-    <row r="874" spans="1:1">
-      <c r="A874" s="43"/>
-    </row>
-    <row r="875" spans="1:1">
-      <c r="A875" s="43"/>
-    </row>
-    <row r="876" spans="1:1">
-      <c r="A876" s="43"/>
-    </row>
-    <row r="877" spans="1:1">
-      <c r="A877" s="43"/>
-    </row>
-    <row r="878" spans="1:1">
-      <c r="A878" s="43"/>
-    </row>
-    <row r="879" spans="1:1">
-      <c r="A879" s="43"/>
-    </row>
-    <row r="880" spans="1:1">
-      <c r="A880" s="43"/>
-    </row>
-    <row r="881" spans="1:1">
-      <c r="A881" s="43"/>
-    </row>
-    <row r="882" spans="1:1">
-      <c r="A882" s="43"/>
-    </row>
-    <row r="883" spans="1:1">
-      <c r="A883" s="43"/>
-    </row>
-    <row r="884" spans="1:1">
-      <c r="A884" s="43"/>
-    </row>
-    <row r="885" spans="1:1">
-      <c r="A885" s="43"/>
-    </row>
-    <row r="886" spans="1:1">
-      <c r="A886" s="43"/>
-    </row>
-    <row r="887" spans="1:1">
-      <c r="A887" s="43"/>
-    </row>
-    <row r="888" spans="1:1">
-      <c r="A888" s="43"/>
-    </row>
-    <row r="889" spans="1:1">
-      <c r="A889" s="43"/>
-    </row>
-    <row r="890" spans="1:1">
-      <c r="A890" s="43"/>
-    </row>
-    <row r="891" spans="1:1">
-      <c r="A891" s="43"/>
-    </row>
-    <row r="892" spans="1:1">
-      <c r="A892" s="43"/>
-    </row>
-    <row r="893" spans="1:1">
-      <c r="A893" s="43"/>
-    </row>
-    <row r="894" spans="1:1">
-      <c r="A894" s="43"/>
-    </row>
-    <row r="895" spans="1:1">
-      <c r="A895" s="43"/>
-    </row>
-    <row r="896" spans="1:1">
-      <c r="A896" s="43"/>
-    </row>
-    <row r="897" spans="1:1">
-      <c r="A897" s="43"/>
-    </row>
-    <row r="898" spans="1:1">
-      <c r="A898" s="43"/>
-    </row>
-    <row r="899" spans="1:1">
-      <c r="A899" s="43"/>
-    </row>
-    <row r="900" spans="1:1">
-      <c r="A900" s="43"/>
-    </row>
-    <row r="901" spans="1:1">
-      <c r="A901" s="43"/>
-    </row>
-    <row r="902" spans="1:1">
-      <c r="A902" s="43"/>
-    </row>
-    <row r="903" spans="1:1">
-      <c r="A903" s="43"/>
-    </row>
-    <row r="904" spans="1:1">
-      <c r="A904" s="43"/>
-    </row>
-    <row r="905" spans="1:1">
-      <c r="A905" s="43"/>
-    </row>
-    <row r="906" spans="1:1">
-      <c r="A906" s="43"/>
-    </row>
-    <row r="907" spans="1:1">
-      <c r="A907" s="43"/>
-    </row>
-    <row r="908" spans="1:1">
-      <c r="A908" s="43"/>
-    </row>
-    <row r="909" spans="1:1">
-      <c r="A909" s="43"/>
-    </row>
-    <row r="910" spans="1:1">
-      <c r="A910" s="43"/>
-    </row>
-    <row r="911" spans="1:1">
-      <c r="A911" s="43"/>
-    </row>
-    <row r="912" spans="1:1">
-      <c r="A912" s="43"/>
-    </row>
-    <row r="913" spans="1:1">
-      <c r="A913" s="43"/>
-    </row>
-    <row r="914" spans="1:1">
-      <c r="A914" s="43"/>
-    </row>
-    <row r="915" spans="1:1">
-      <c r="A915" s="43"/>
-    </row>
-    <row r="916" spans="1:1">
-      <c r="A916" s="43"/>
-    </row>
-    <row r="917" spans="1:1">
-      <c r="A917" s="43"/>
-    </row>
-    <row r="918" spans="1:1">
-      <c r="A918" s="43"/>
-    </row>
-    <row r="919" spans="1:1">
-      <c r="A919" s="43"/>
-    </row>
-    <row r="920" spans="1:1">
-      <c r="A920" s="43"/>
-    </row>
-    <row r="921" spans="1:1">
-      <c r="A921" s="43"/>
-    </row>
-    <row r="922" spans="1:1">
-      <c r="A922" s="43"/>
-    </row>
-    <row r="923" spans="1:1">
-      <c r="A923" s="43"/>
-    </row>
-    <row r="924" spans="1:1">
-      <c r="A924" s="43"/>
-    </row>
-    <row r="925" spans="1:1">
-      <c r="A925" s="43"/>
-    </row>
-    <row r="926" spans="1:1">
-      <c r="A926" s="43"/>
-    </row>
-    <row r="927" spans="1:1">
-      <c r="A927" s="43"/>
-    </row>
-    <row r="928" spans="1:1">
-      <c r="A928" s="43"/>
-    </row>
-    <row r="929" spans="1:1">
-      <c r="A929" s="43"/>
-    </row>
-    <row r="930" spans="1:1">
-      <c r="A930" s="43"/>
-    </row>
-    <row r="931" spans="1:1">
-      <c r="A931" s="43"/>
-    </row>
-    <row r="932" spans="1:1">
-      <c r="A932" s="43"/>
-    </row>
-    <row r="933" spans="1:1">
-      <c r="A933" s="43"/>
-    </row>
-    <row r="934" spans="1:1">
-      <c r="A934" s="43"/>
-    </row>
-    <row r="935" spans="1:1">
-      <c r="A935" s="43"/>
-    </row>
-    <row r="936" spans="1:1">
-      <c r="A936" s="43"/>
-    </row>
-    <row r="937" spans="1:1">
-      <c r="A937" s="43"/>
-    </row>
-    <row r="938" spans="1:1">
-      <c r="A938" s="43"/>
-    </row>
-    <row r="939" spans="1:1">
-      <c r="A939" s="43"/>
-    </row>
-    <row r="940" spans="1:1">
-      <c r="A940" s="43"/>
-    </row>
-    <row r="941" spans="1:1">
-      <c r="A941" s="43"/>
-    </row>
-    <row r="942" spans="1:1">
-      <c r="A942" s="43"/>
-    </row>
-    <row r="943" spans="1:1">
-      <c r="A943" s="43"/>
-    </row>
-    <row r="944" spans="1:1">
-      <c r="A944" s="43"/>
-    </row>
-    <row r="945" spans="1:1">
-      <c r="A945" s="43"/>
-    </row>
-    <row r="946" spans="1:1">
-      <c r="A946" s="43"/>
-    </row>
-    <row r="947" spans="1:1">
-      <c r="A947" s="43"/>
-    </row>
-    <row r="948" spans="1:1">
-      <c r="A948" s="43"/>
-    </row>
-    <row r="949" spans="1:1">
-      <c r="A949" s="43"/>
-    </row>
-    <row r="950" spans="1:1">
-      <c r="A950" s="43"/>
-    </row>
-    <row r="951" spans="1:1">
-      <c r="A951" s="43"/>
-    </row>
-    <row r="952" spans="1:1">
-      <c r="A952" s="43"/>
-    </row>
-    <row r="953" spans="1:1">
-      <c r="A953" s="43"/>
-    </row>
-    <row r="954" spans="1:1">
-      <c r="A954" s="43"/>
-    </row>
-    <row r="955" spans="1:1">
-      <c r="A955" s="43"/>
-    </row>
-    <row r="956" spans="1:1">
-      <c r="A956" s="43"/>
-    </row>
-    <row r="957" spans="1:1">
-      <c r="A957" s="43"/>
-    </row>
-    <row r="958" spans="1:1">
-      <c r="A958" s="50"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A8" r:id="rId5"/>
-    <hyperlink ref="A9" r:id="rId6"/>
-    <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A11" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
-    <hyperlink ref="A13" r:id="rId10"/>
-    <hyperlink ref="A14" r:id="rId11"/>
-    <hyperlink ref="A15" r:id="rId12"/>
-    <hyperlink ref="A19" r:id="rId13"/>
-    <hyperlink ref="A20" r:id="rId14"/>
-    <hyperlink ref="A21" r:id="rId15"/>
-    <hyperlink ref="A22" r:id="rId16"/>
-    <hyperlink ref="A23" r:id="rId17"/>
-    <hyperlink ref="A24" r:id="rId18"/>
-    <hyperlink ref="A25" r:id="rId19"/>
-    <hyperlink ref="A26" r:id="rId20"/>
-    <hyperlink ref="A27" r:id="rId21"/>
-    <hyperlink ref="A28" r:id="rId22"/>
-    <hyperlink ref="A29" r:id="rId23"/>
-    <hyperlink ref="A30" r:id="rId24"/>
-    <hyperlink ref="A31" r:id="rId25"/>
-    <hyperlink ref="A32" r:id="rId26"/>
-    <hyperlink ref="A33" r:id="rId27"/>
-    <hyperlink ref="A34" r:id="rId28"/>
-    <hyperlink ref="A35" r:id="rId29"/>
-    <hyperlink ref="A36" r:id="rId30"/>
-    <hyperlink ref="A37" r:id="rId31"/>
-    <hyperlink ref="A38" r:id="rId32"/>
-    <hyperlink ref="A39" r:id="rId33"/>
-    <hyperlink ref="A40" r:id="rId34"/>
-    <hyperlink ref="A41" r:id="rId35"/>
-    <hyperlink ref="A42" r:id="rId36"/>
-    <hyperlink ref="A43" r:id="rId37"/>
-    <hyperlink ref="A44" r:id="rId38"/>
-    <hyperlink ref="A46" r:id="rId39"/>
-    <hyperlink ref="A47" r:id="rId40"/>
-    <hyperlink ref="A48" r:id="rId41"/>
-    <hyperlink ref="A49" r:id="rId42"/>
-    <hyperlink ref="A50" r:id="rId43"/>
-    <hyperlink ref="A56" r:id="rId44"/>
-    <hyperlink ref="A57" r:id="rId45"/>
-    <hyperlink ref="A59" r:id="rId46"/>
-    <hyperlink ref="A60" r:id="rId47"/>
-    <hyperlink ref="A61" r:id="rId48"/>
-    <hyperlink ref="A62" r:id="rId49"/>
-    <hyperlink ref="A63" r:id="rId50"/>
-    <hyperlink ref="A64" r:id="rId51"/>
-    <hyperlink ref="A65" r:id="rId52"/>
-    <hyperlink ref="A66" r:id="rId53"/>
-    <hyperlink ref="A67" r:id="rId54"/>
-    <hyperlink ref="A68" r:id="rId55"/>
-    <hyperlink ref="A69" r:id="rId56"/>
-    <hyperlink ref="A70" r:id="rId57"/>
-    <hyperlink ref="A71" r:id="rId58"/>
-    <hyperlink ref="A73" r:id="rId59"/>
-    <hyperlink ref="A77" r:id="rId60"/>
-    <hyperlink ref="A78" r:id="rId61"/>
-    <hyperlink ref="A79" r:id="rId62"/>
-    <hyperlink ref="A80" r:id="rId63"/>
-    <hyperlink ref="A83" r:id="rId64"/>
-    <hyperlink ref="A84" r:id="rId65"/>
-    <hyperlink ref="A85" r:id="rId66"/>
-    <hyperlink ref="A86" r:id="rId67"/>
-    <hyperlink ref="A87" r:id="rId68"/>
-    <hyperlink ref="A88" r:id="rId69"/>
-    <hyperlink ref="A89" r:id="rId70"/>
-    <hyperlink ref="A90" r:id="rId71"/>
-    <hyperlink ref="A91" r:id="rId72"/>
-    <hyperlink ref="A92" r:id="rId73"/>
-    <hyperlink ref="A93" r:id="rId74"/>
-    <hyperlink ref="A94" r:id="rId75"/>
-    <hyperlink ref="A95" r:id="rId76"/>
-    <hyperlink ref="A96" r:id="rId77"/>
-    <hyperlink ref="A97" r:id="rId78"/>
-    <hyperlink ref="A98" r:id="rId79"/>
-    <hyperlink ref="A101" r:id="rId80"/>
-    <hyperlink ref="A102" r:id="rId81"/>
-    <hyperlink ref="A103" r:id="rId82"/>
-    <hyperlink ref="A104" r:id="rId83"/>
-    <hyperlink ref="A105" r:id="rId84"/>
-    <hyperlink ref="A106" r:id="rId85"/>
-    <hyperlink ref="A107" r:id="rId86"/>
-    <hyperlink ref="A108" r:id="rId87"/>
-    <hyperlink ref="A109" r:id="rId88"/>
-    <hyperlink ref="A110" r:id="rId89"/>
-    <hyperlink ref="A111" r:id="rId90"/>
-    <hyperlink ref="A112" r:id="rId91"/>
-    <hyperlink ref="A113" r:id="rId92"/>
-    <hyperlink ref="A114" r:id="rId93"/>
-    <hyperlink ref="A115" r:id="rId94"/>
-    <hyperlink ref="A119" r:id="rId95"/>
-    <hyperlink ref="A120" r:id="rId96"/>
-    <hyperlink ref="A121" r:id="rId97"/>
-    <hyperlink ref="A122" r:id="rId98"/>
-    <hyperlink ref="A123" r:id="rId99"/>
-    <hyperlink ref="A126" r:id="rId100"/>
-    <hyperlink ref="A127" r:id="rId101"/>
-    <hyperlink ref="A128" r:id="rId102"/>
-    <hyperlink ref="A130" r:id="rId103"/>
-    <hyperlink ref="A131" r:id="rId104"/>
-    <hyperlink ref="A132" r:id="rId105"/>
-    <hyperlink ref="A133" r:id="rId106"/>
-    <hyperlink ref="A134" r:id="rId107"/>
-    <hyperlink ref="A135" r:id="rId108"/>
-    <hyperlink ref="A136" r:id="rId109"/>
-    <hyperlink ref="A139" r:id="rId110"/>
-    <hyperlink ref="A140" r:id="rId111"/>
-    <hyperlink ref="A141" r:id="rId112"/>
-    <hyperlink ref="A142" r:id="rId113"/>
-    <hyperlink ref="A143" r:id="rId114"/>
-    <hyperlink ref="A144" r:id="rId115"/>
-    <hyperlink ref="A145" r:id="rId116"/>
-    <hyperlink ref="A149" r:id="rId117"/>
-    <hyperlink ref="A150" r:id="rId118"/>
-    <hyperlink ref="A151" r:id="rId119"/>
-    <hyperlink ref="A152" r:id="rId120"/>
-    <hyperlink ref="A153" r:id="rId121"/>
-    <hyperlink ref="A154" r:id="rId122"/>
-    <hyperlink ref="A155" r:id="rId123"/>
-    <hyperlink ref="A156" r:id="rId124"/>
-    <hyperlink ref="A157" r:id="rId125"/>
-    <hyperlink ref="A160" r:id="rId126"/>
-    <hyperlink ref="A161" r:id="rId127"/>
-    <hyperlink ref="A162" r:id="rId128"/>
-    <hyperlink ref="A163" r:id="rId129"/>
-    <hyperlink ref="A164" r:id="rId130"/>
-    <hyperlink ref="A165" r:id="rId131"/>
-    <hyperlink ref="A166" r:id="rId132"/>
-    <hyperlink ref="A169" r:id="rId133"/>
-    <hyperlink ref="A170" r:id="rId134"/>
-    <hyperlink ref="A171" r:id="rId135"/>
-    <hyperlink ref="A172" r:id="rId136"/>
-    <hyperlink ref="A179" r:id="rId137"/>
-    <hyperlink ref="A180" r:id="rId138"/>
-    <hyperlink ref="A181" r:id="rId139"/>
-    <hyperlink ref="A182" r:id="rId140"/>
-    <hyperlink ref="A183" r:id="rId141"/>
-    <hyperlink ref="A184" r:id="rId142"/>
-    <hyperlink ref="A185" r:id="rId143"/>
-    <hyperlink ref="A186" r:id="rId144"/>
-    <hyperlink ref="A189" r:id="rId145"/>
-    <hyperlink ref="A190" r:id="rId146"/>
-    <hyperlink ref="A191" r:id="rId147"/>
-    <hyperlink ref="A195" r:id="rId148"/>
-    <hyperlink ref="A196" r:id="rId149"/>
-    <hyperlink ref="A197" r:id="rId150"/>
-    <hyperlink ref="A198" r:id="rId151"/>
-    <hyperlink ref="A199" r:id="rId152"/>
-    <hyperlink ref="A200" r:id="rId153"/>
-    <hyperlink ref="A201" r:id="rId154"/>
-    <hyperlink ref="A202" r:id="rId155"/>
-    <hyperlink ref="A203" r:id="rId156"/>
-    <hyperlink ref="A206" r:id="rId157"/>
-    <hyperlink ref="A207" r:id="rId158"/>
-    <hyperlink ref="A208" r:id="rId159"/>
-    <hyperlink ref="A209" r:id="rId160"/>
-    <hyperlink ref="A210" r:id="rId161"/>
-    <hyperlink ref="A211" r:id="rId162"/>
-    <hyperlink ref="A212" r:id="rId163"/>
-    <hyperlink ref="A213" r:id="rId164"/>
-    <hyperlink ref="A217" r:id="rId165"/>
-    <hyperlink ref="A218" r:id="rId166"/>
-    <hyperlink ref="A219" r:id="rId167"/>
-    <hyperlink ref="A220" r:id="rId168"/>
-    <hyperlink ref="A221" r:id="rId169"/>
-    <hyperlink ref="A222" r:id="rId170"/>
-    <hyperlink ref="A223" r:id="rId171"/>
-    <hyperlink ref="A224" r:id="rId172"/>
-    <hyperlink ref="A225" r:id="rId173"/>
-    <hyperlink ref="A226" r:id="rId174"/>
-    <hyperlink ref="A227" r:id="rId175"/>
-    <hyperlink ref="A228" r:id="rId176"/>
-    <hyperlink ref="A229" r:id="rId177"/>
-    <hyperlink ref="A230" r:id="rId178"/>
-    <hyperlink ref="A231" r:id="rId179"/>
-    <hyperlink ref="A232" r:id="rId180"/>
-    <hyperlink ref="A235" r:id="rId181"/>
-    <hyperlink ref="A236" r:id="rId182"/>
-    <hyperlink ref="A237" r:id="rId183"/>
-    <hyperlink ref="A238" r:id="rId184"/>
-    <hyperlink ref="A239" r:id="rId185"/>
-    <hyperlink ref="A240" r:id="rId186"/>
-    <hyperlink ref="A241" r:id="rId187"/>
-    <hyperlink ref="A242" r:id="rId188"/>
-    <hyperlink ref="A243" r:id="rId189"/>
-    <hyperlink ref="A244" r:id="rId190"/>
-    <hyperlink ref="A245" r:id="rId191"/>
-    <hyperlink ref="A246" r:id="rId192"/>
-    <hyperlink ref="A247" r:id="rId193"/>
-    <hyperlink ref="A248" r:id="rId194"/>
-    <hyperlink ref="A249" r:id="rId195"/>
-    <hyperlink ref="A250" r:id="rId196"/>
-    <hyperlink ref="A251" r:id="rId197"/>
-    <hyperlink ref="A252" r:id="rId198"/>
-    <hyperlink ref="A255" r:id="rId199"/>
-    <hyperlink ref="A256" r:id="rId200"/>
-    <hyperlink ref="A257" r:id="rId201"/>
-    <hyperlink ref="A258" r:id="rId202"/>
-    <hyperlink ref="A259" r:id="rId203"/>
-    <hyperlink ref="A260" r:id="rId204"/>
-    <hyperlink ref="A261" r:id="rId205"/>
-    <hyperlink ref="A265" r:id="rId206"/>
-    <hyperlink ref="A266" r:id="rId207"/>
-    <hyperlink ref="A269" r:id="rId208"/>
-    <hyperlink ref="A270" r:id="rId209"/>
-    <hyperlink ref="A274" r:id="rId210"/>
-    <hyperlink ref="A275" r:id="rId211"/>
-    <hyperlink ref="A276" r:id="rId212"/>
-    <hyperlink ref="A277" r:id="rId213"/>
-    <hyperlink ref="A280" r:id="rId214"/>
-    <hyperlink ref="A281" r:id="rId215"/>
-    <hyperlink ref="A282" r:id="rId216"/>
-    <hyperlink ref="A283" r:id="rId217"/>
-    <hyperlink ref="A284" r:id="rId218"/>
-    <hyperlink ref="A285" r:id="rId219"/>
-    <hyperlink ref="A286" r:id="rId220"/>
-    <hyperlink ref="A287" r:id="rId221"/>
-    <hyperlink ref="A288" r:id="rId222"/>
-    <hyperlink ref="A291" r:id="rId223"/>
-    <hyperlink ref="A292" r:id="rId224"/>
-    <hyperlink ref="A293" r:id="rId225"/>
-    <hyperlink ref="A294" r:id="rId226"/>
-    <hyperlink ref="A295" r:id="rId227"/>
-    <hyperlink ref="A299" r:id="rId228"/>
-    <hyperlink ref="A300" r:id="rId229"/>
-    <hyperlink ref="A301" r:id="rId230"/>
-    <hyperlink ref="A302" r:id="rId231"/>
-    <hyperlink ref="A303" r:id="rId232"/>
-    <hyperlink ref="A306" r:id="rId233"/>
-    <hyperlink ref="A307" r:id="rId234"/>
-    <hyperlink ref="A308" r:id="rId235"/>
-    <hyperlink ref="A309" r:id="rId236"/>
-    <hyperlink ref="A313" r:id="rId237"/>
-    <hyperlink ref="A314" r:id="rId238"/>
-    <hyperlink ref="A315" r:id="rId239"/>
-    <hyperlink ref="A316" r:id="rId240"/>
-    <hyperlink ref="A317" r:id="rId241"/>
-    <hyperlink ref="A321" r:id="rId242"/>
-    <hyperlink ref="A322" r:id="rId243"/>
-    <hyperlink ref="A323" r:id="rId244"/>
-    <hyperlink ref="A324" r:id="rId245"/>
-    <hyperlink ref="A326" r:id="rId246"/>
-    <hyperlink ref="A329" r:id="rId247"/>
-    <hyperlink ref="A330" r:id="rId248"/>
-    <hyperlink ref="A331" r:id="rId249"/>
-    <hyperlink ref="A332" r:id="rId250"/>
-    <hyperlink ref="A333" r:id="rId251"/>
-    <hyperlink ref="A334" r:id="rId252"/>
-    <hyperlink ref="A335" r:id="rId253"/>
-    <hyperlink ref="A339" r:id="rId254"/>
-    <hyperlink ref="A340" r:id="rId255"/>
-    <hyperlink ref="A341" r:id="rId256"/>
-    <hyperlink ref="A342" r:id="rId257"/>
-    <hyperlink ref="A343" r:id="rId258"/>
-    <hyperlink ref="A344" r:id="rId259"/>
-    <hyperlink ref="A345" r:id="rId260"/>
-    <hyperlink ref="A349" r:id="rId261"/>
-    <hyperlink ref="A350" r:id="rId262"/>
-    <hyperlink ref="A353" r:id="rId263"/>
-    <hyperlink ref="A354" r:id="rId264"/>
-    <hyperlink ref="A355" r:id="rId265"/>
-    <hyperlink ref="A356" r:id="rId266"/>
-    <hyperlink ref="A357" r:id="rId267"/>
-    <hyperlink ref="A358" r:id="rId268"/>
-    <hyperlink ref="A359" r:id="rId269"/>
-    <hyperlink ref="A360" r:id="rId270"/>
-    <hyperlink ref="A361" r:id="rId271"/>
-    <hyperlink ref="A362" r:id="rId272"/>
-    <hyperlink ref="A363" r:id="rId273"/>
-    <hyperlink ref="A364" r:id="rId274"/>
-    <hyperlink ref="A365" r:id="rId275"/>
-    <hyperlink ref="A366" r:id="rId276"/>
-    <hyperlink ref="A369" r:id="rId277"/>
-    <hyperlink ref="A375" r:id="rId278"/>
-    <hyperlink ref="A377" r:id="rId279"/>
-    <hyperlink ref="A378" r:id="rId280"/>
-    <hyperlink ref="A380" r:id="rId281"/>
-    <hyperlink ref="A381" r:id="rId282"/>
-    <hyperlink ref="A382" r:id="rId283"/>
-    <hyperlink ref="A383" r:id="rId284"/>
-    <hyperlink ref="A385" r:id="rId285"/>
-    <hyperlink ref="A386" r:id="rId286"/>
-    <hyperlink ref="A387" r:id="rId287"/>
-    <hyperlink ref="A388" r:id="rId288"/>
-    <hyperlink ref="A389" r:id="rId289"/>
-    <hyperlink ref="A390" r:id="rId290"/>
-    <hyperlink ref="A391" r:id="rId291"/>
-    <hyperlink ref="A392" r:id="rId292"/>
-    <hyperlink ref="A393" r:id="rId293"/>
-    <hyperlink ref="A395" r:id="rId294"/>
-    <hyperlink ref="A400" r:id="rId295"/>
-    <hyperlink ref="A401" r:id="rId296"/>
-    <hyperlink ref="A402" r:id="rId297"/>
-    <hyperlink ref="A403" r:id="rId298"/>
-    <hyperlink ref="A404" r:id="rId299"/>
-    <hyperlink ref="A405" r:id="rId300"/>
-    <hyperlink ref="A406" r:id="rId301"/>
-    <hyperlink ref="A407" r:id="rId302"/>
-    <hyperlink ref="A410" r:id="rId303"/>
-    <hyperlink ref="A411" r:id="rId304"/>
-    <hyperlink ref="A412" r:id="rId305"/>
-    <hyperlink ref="A413" r:id="rId306"/>
-    <hyperlink ref="A414" r:id="rId307"/>
-    <hyperlink ref="A415" r:id="rId308"/>
-    <hyperlink ref="A416" r:id="rId309"/>
-    <hyperlink ref="A417" r:id="rId310"/>
-    <hyperlink ref="A418" r:id="rId311"/>
-    <hyperlink ref="A422" r:id="rId312"/>
-    <hyperlink ref="A423" r:id="rId313"/>
-    <hyperlink ref="A424" r:id="rId314"/>
-    <hyperlink ref="A425" r:id="rId315"/>
-    <hyperlink ref="A428" r:id="rId316"/>
-    <hyperlink ref="A430" r:id="rId317"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -18053,16 +12730,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>961</v>
+        <v>600</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>962</v>
+        <v>601</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>963</v>
+        <v>602</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>964</v>
+        <v>603</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
@@ -18070,16 +12747,16 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="139" t="s">
-        <v>965</v>
-      </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="141"/>
+      <c r="A2" s="69" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -18169,16 +12846,16 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A7" s="139" t="s">
-        <v>966</v>
-      </c>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="141"/>
+      <c r="A7" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -18189,8 +12866,8 @@
         <v>19</v>
       </c>
       <c r="C8" s="23"/>
-      <c r="D8" s="66" t="s">
-        <v>967</v>
+      <c r="D8" s="57" t="s">
+        <v>606</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -18210,8 +12887,8 @@
       <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>968</v>
+      <c r="D9" s="57" t="s">
+        <v>607</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -18229,8 +12906,8 @@
         <v>19</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="66" t="s">
-        <v>969</v>
+      <c r="D10" s="57" t="s">
+        <v>608</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -18248,8 +12925,8 @@
         <v>19</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="66" t="s">
-        <v>970</v>
+      <c r="D11" s="57" t="s">
+        <v>609</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -18267,8 +12944,8 @@
         <v>19</v>
       </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="66" t="s">
-        <v>971</v>
+      <c r="D12" s="57" t="s">
+        <v>610</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -18286,8 +12963,8 @@
         <v>19</v>
       </c>
       <c r="C13" s="17"/>
-      <c r="D13" s="66" t="s">
-        <v>972</v>
+      <c r="D13" s="57" t="s">
+        <v>611</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
@@ -18305,8 +12982,8 @@
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
-      <c r="D14" s="66" t="s">
-        <v>973</v>
+      <c r="D14" s="57" t="s">
+        <v>612</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
@@ -18332,7 +13009,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
       <c r="G15" s="31" t="s">
-        <v>974</v>
+        <v>613</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="11"/>
@@ -18345,8 +13022,8 @@
         <v>19</v>
       </c>
       <c r="C16" s="17"/>
-      <c r="D16" s="66" t="s">
-        <v>975</v>
+      <c r="D16" s="57" t="s">
+        <v>614</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
@@ -18364,8 +13041,8 @@
         <v>19</v>
       </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="66" t="s">
-        <v>976</v>
+      <c r="D17" s="57" t="s">
+        <v>615</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
@@ -18385,8 +13062,8 @@
       <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="67" t="s">
-        <v>977</v>
+      <c r="D18" s="58" t="s">
+        <v>616</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -18406,8 +13083,8 @@
       <c r="C19" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="67" t="s">
-        <v>978</v>
+      <c r="D19" s="58" t="s">
+        <v>617</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -18427,13 +13104,13 @@
       <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="67" t="s">
-        <v>979</v>
+      <c r="D20" s="58" t="s">
+        <v>618</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="32" t="s">
-        <v>980</v>
+        <v>619</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="11"/>
@@ -18448,8 +13125,8 @@
       <c r="C21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="67" t="s">
-        <v>981</v>
+      <c r="D21" s="58" t="s">
+        <v>620</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -18469,8 +13146,8 @@
       <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="66" t="s">
-        <v>982</v>
+      <c r="D22" s="57" t="s">
+        <v>621</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>105</v>
@@ -18492,8 +13169,8 @@
       <c r="C23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="66" t="s">
-        <v>983</v>
+      <c r="D23" s="57" t="s">
+        <v>622</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>105</v>
@@ -18515,8 +13192,8 @@
       <c r="C24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="67" t="s">
-        <v>984</v>
+      <c r="D24" s="58" t="s">
+        <v>623</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -18536,8 +13213,8 @@
       <c r="C25" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="67" t="s">
-        <v>985</v>
+      <c r="D25" s="58" t="s">
+        <v>624</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -18557,16 +13234,16 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A27" s="136" t="s">
-        <v>986</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="138"/>
+      <c r="A27" s="66" t="s">
+        <v>625</v>
+      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="68"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1">
@@ -18579,8 +13256,8 @@
       <c r="C28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="67" t="s">
-        <v>984</v>
+      <c r="D28" s="58" t="s">
+        <v>623</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -18597,11 +13274,11 @@
       <c r="B29" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="66" t="s">
-        <v>987</v>
+      <c r="D29" s="57" t="s">
+        <v>626</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -18620,8 +13297,8 @@
       <c r="C30" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="66" t="s">
-        <v>988</v>
+      <c r="D30" s="57" t="s">
+        <v>627</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -18645,8 +13322,8 @@
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-      <c r="G31" s="52" t="s">
-        <v>989</v>
+      <c r="G31" s="43" t="s">
+        <v>628</v>
       </c>
       <c r="H31" s="8"/>
     </row>
@@ -18658,17 +13335,17 @@
         <v>68</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>990</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>991</v>
+        <v>629</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>630</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="18" t="s">
-        <v>992</v>
+        <v>631</v>
       </c>
       <c r="H32" s="16"/>
     </row>
@@ -18680,17 +13357,17 @@
         <v>68</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>993</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>994</v>
+        <v>632</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>633</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="18" t="s">
-        <v>992</v>
+        <v>631</v>
       </c>
       <c r="H33" s="16"/>
     </row>
@@ -18702,17 +13379,17 @@
         <v>68</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>995</v>
-      </c>
-      <c r="D34" s="66" t="s">
-        <v>996</v>
+        <v>634</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>635</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>105</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="18" t="s">
-        <v>992</v>
+        <v>631</v>
       </c>
       <c r="H34" s="16"/>
     </row>
@@ -18726,8 +13403,8 @@
       <c r="C35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="68" t="s">
-        <v>997</v>
+      <c r="D35" s="59" t="s">
+        <v>636</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -18746,8 +13423,8 @@
       <c r="C36" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="68" t="s">
-        <v>998</v>
+      <c r="D36" s="59" t="s">
+        <v>637</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -18766,8 +13443,8 @@
       <c r="C37" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D37" s="68" t="s">
-        <v>999</v>
+      <c r="D37" s="59" t="s">
+        <v>638</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -18786,7 +13463,7 @@
       <c r="C38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="59" t="s">
         <v>96</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -18810,8 +13487,8 @@
       <c r="C39" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="64" t="s">
-        <v>1000</v>
+      <c r="D39" s="55" t="s">
+        <v>639</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>105</v>
@@ -18829,16 +13506,16 @@
       <c r="B40" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="64" t="s">
-        <v>1001</v>
+      <c r="D40" s="55" t="s">
+        <v>640</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
-      <c r="G40" s="53" t="s">
-        <v>1002</v>
+      <c r="G40" s="44" t="s">
+        <v>641</v>
       </c>
       <c r="H40" s="13"/>
     </row>
@@ -18849,11 +13526,11 @@
       <c r="B41" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="D41" s="64" t="s">
-        <v>1003</v>
+      <c r="D41" s="55" t="s">
+        <v>642</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -18872,13 +13549,13 @@
       <c r="C42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="69" t="s">
-        <v>1004</v>
+      <c r="D42" s="60" t="s">
+        <v>643</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
-      <c r="G42" s="52" t="s">
-        <v>1005</v>
+      <c r="G42" s="43" t="s">
+        <v>644</v>
       </c>
       <c r="H42" s="8"/>
     </row>
@@ -18892,8 +13569,8 @@
       <c r="C43" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D43" s="67" t="s">
-        <v>1006</v>
+      <c r="D43" s="58" t="s">
+        <v>645</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -18912,8 +13589,8 @@
       <c r="C44" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D44" s="67" t="s">
-        <v>1007</v>
+      <c r="D44" s="58" t="s">
+        <v>646</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -18938,493 +13615,493 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="32" t="s">
-        <v>945</v>
+        <v>586</v>
       </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" s="4" customFormat="1" ht="16">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="54"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A47" s="134" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B47" s="135"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
-      <c r="H47" s="135"/>
+      <c r="A47" s="64" t="s">
+        <v>647</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="65" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E48" s="56" t="s">
+      <c r="D48" s="56" t="s">
+        <v>648</v>
+      </c>
+      <c r="E48" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56" t="s">
+      <c r="F48" s="47"/>
+      <c r="G48" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="H48" s="56"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B49" s="57" t="s">
+      <c r="B49" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="57" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E49" s="57" t="s">
+      <c r="C49" s="48" t="s">
+        <v>649</v>
+      </c>
+      <c r="D49" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="E49" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="56" t="s">
+      <c r="A50" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="58" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="49" t="s">
+        <v>651</v>
+      </c>
+      <c r="D50" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59" t="s">
-        <v>947</v>
-      </c>
-      <c r="H50" s="58"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="H50" s="49"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="56" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="58" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="58"/>
+      <c r="A51" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="B51" s="47"/>
+      <c r="C51" s="49" t="s">
+        <v>653</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="50"/>
+      <c r="H51" s="49"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="58" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
+      <c r="A52" s="49" t="s">
+        <v>652</v>
+      </c>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49" t="s">
+        <v>654</v>
+      </c>
+      <c r="D52" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="E52" s="49"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="49"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="58"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="49"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
+      <c r="D54" s="49" t="s">
+        <v>656</v>
+      </c>
+      <c r="E54" s="49"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="49"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="49"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="58" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>963</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
+      <c r="A56" s="49" t="s">
+        <v>657</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>658</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>659</v>
+      </c>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="49"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="134" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B58" s="135"/>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
+      <c r="A58" s="64" t="s">
+        <v>660</v>
+      </c>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="58" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>963</v>
-      </c>
-      <c r="C59" s="58" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="58"/>
+      <c r="A59" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="C59" s="49" t="s">
+        <v>662</v>
+      </c>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="49"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="58" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B60" s="58" t="s">
+      <c r="A60" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="B60" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="62" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D60" s="58" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
+      <c r="C60" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="D60" s="49" t="s">
+        <v>664</v>
+      </c>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="58" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B61" s="58" t="s">
+      <c r="A61" s="49" t="s">
+        <v>665</v>
+      </c>
+      <c r="B61" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="62" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D61" s="58" t="s">
-        <v>1028</v>
-      </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
+      <c r="C61" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="D61" s="49" t="s">
+        <v>667</v>
+      </c>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D62" s="58" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
+      <c r="A62" s="49"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>669</v>
+      </c>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D63" s="58" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="58"/>
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49" t="s">
+        <v>670</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>671</v>
+      </c>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
+      <c r="A64" s="49"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="58" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49" t="s">
+        <v>674</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>675</v>
+      </c>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D67" s="58" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>677</v>
+      </c>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="49"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D68" s="58" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49" t="s">
+        <v>678</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="58" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B69" s="58" t="s">
+      <c r="A69" s="49" t="s">
+        <v>680</v>
+      </c>
+      <c r="B69" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="58" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D69" s="58" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E69" s="58" t="s">
+      <c r="C69" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="D69" s="49" t="s">
+        <v>682</v>
+      </c>
+      <c r="E69" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H69" s="58"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="H69" s="49"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="58" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B70" s="58" t="s">
+      <c r="A70" s="49" t="s">
+        <v>684</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="58" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D70" s="58" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E70" s="58" t="s">
+      <c r="C70" s="49" t="s">
+        <v>685</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>686</v>
+      </c>
+      <c r="E70" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="58" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B71" s="58" t="s">
+      <c r="A71" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="B71" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="58" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D71" s="58" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
+      <c r="C71" s="49" t="s">
+        <v>688</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D72" s="58" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
+      <c r="A72" s="49"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="D72" s="49" t="s">
+        <v>691</v>
+      </c>
+      <c r="E72" s="49"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="49"/>
+      <c r="H72" s="49"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="58" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D73" s="58" t="s">
-        <v>1054</v>
-      </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="58"/>
+      <c r="A73" s="49"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="E73" s="49"/>
+      <c r="F73" s="49"/>
+      <c r="G73" s="49"/>
+      <c r="H73" s="49"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="58" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D74" s="58" t="s">
-        <v>1056</v>
-      </c>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>695</v>
+      </c>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="49"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D75" s="58" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="D75" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D76" s="58" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E76" s="58" t="s">
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49" t="s">
+        <v>698</v>
+      </c>
+      <c r="D76" s="49" t="s">
+        <v>699</v>
+      </c>
+      <c r="E76" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="49"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="58"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="58"/>
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="49"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A78" s="131"/>
-      <c r="B78" s="132"/>
-      <c r="C78" s="132"/>
-      <c r="D78" s="132"/>
-      <c r="E78" s="132"/>
-      <c r="F78" s="132"/>
-      <c r="G78" s="132"/>
-      <c r="H78" s="133"/>
+      <c r="A78" s="61"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19485,7 +14162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -19838,10 +14515,10 @@
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="142"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="27">
         <f>SUM(F2:F16)-2-1</f>
         <v>51</v>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Data-Structures-and-Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpkar\Documents\GitHub\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
   </bookViews>
   <sheets>
     <sheet name="DSA_SHEET_BHAWUK" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="718">
   <si>
     <t>Date</t>
   </si>
@@ -2177,13 +2177,31 @@
   </si>
   <si>
     <t>JULY, 2024</t>
+  </si>
+  <si>
+    <t>06.07.2024</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Optimised Approach Needed !!</t>
+  </si>
+  <si>
+    <t>Trace it</t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Pass the Pillow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2324,19 +2342,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -2420,7 +2425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2598,12 +2603,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2693,6 +2709,102 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2729,119 +2841,29 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3265,1042 +3287,1130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13" style="74" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="74" customWidth="1"/>
-    <col min="3" max="3" width="56.6328125" style="74" customWidth="1"/>
-    <col min="4" max="4" width="54.6328125" style="90" customWidth="1"/>
-    <col min="5" max="5" width="24.36328125" style="74" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" style="74" customWidth="1"/>
-    <col min="7" max="7" width="13.81640625" style="74" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" style="74" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" style="74" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="74"/>
+    <col min="1" max="1" width="13" style="61" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="76" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="61" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="61" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
-      <c r="B1" s="75"/>
-      <c r="C1" s="76" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="63" t="s">
         <v>564</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="C2" s="79">
+      <c r="C2" s="66">
         <v>1</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="67">
         <f>COUNTIF(F10:F1005,"=1")</f>
-        <v>9</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+        <v>10</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="C3" s="79">
+      <c r="C3" s="66">
         <v>1.5</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="67">
         <f>COUNTIF(F10:F1005,"=1.5")</f>
-        <v>6</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+        <v>8</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="C4" s="79">
+      <c r="C4" s="66">
         <v>2</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="67">
         <f>COUNTIF(F11:F1006,"=2")</f>
         <v>3</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="C5" s="79">
+      <c r="C5" s="66">
         <v>2.5</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="67">
         <f>COUNTIF(F11:F1006,"=2.5")</f>
         <v>0</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="C6" s="79">
+      <c r="C6" s="66">
         <v>3</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="67">
         <f>COUNTIF(F12:F1007,"=3")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="90" t="s">
         <v>566</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="68">
         <f>SUM(G10:G1008)</f>
-        <v>128</v>
-      </c>
-      <c r="F7" s="78"/>
+        <v>130</v>
+      </c>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="104"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="84" t="s">
+      <c r="C9" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="71" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="70" t="s">
         <v>568</v>
       </c>
-      <c r="G9" s="84" t="s">
+      <c r="G9" s="70" t="s">
         <v>569</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="105" t="s">
         <v>570</v>
       </c>
+      <c r="I9" s="70" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="86" t="s">
+      <c r="A10" s="69"/>
+      <c r="B10" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="72" t="s">
         <v>571</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="86">
+      <c r="E10" s="72"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="72">
         <v>32</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="106" t="s">
         <v>573</v>
       </c>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="69"/>
+      <c r="B11" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="72" t="s">
         <v>574</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="75" t="s">
         <v>574</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86">
+      <c r="E11" s="72"/>
+      <c r="F11" s="72">
         <v>1.5</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="72">
         <v>1</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="107" t="s">
         <v>575</v>
       </c>
+      <c r="I11" s="69"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="83"/>
-      <c r="B12" s="86" t="s">
+      <c r="A12" s="69"/>
+      <c r="B12" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="72" t="s">
         <v>576</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="75" t="s">
         <v>576</v>
       </c>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86">
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72">
         <v>1</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="107" t="s">
         <v>575</v>
       </c>
+      <c r="I12" s="69"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="69"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="83"/>
-      <c r="B14" s="86" t="s">
+      <c r="A14" s="69"/>
+      <c r="B14" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="77" t="s">
         <v>577</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="75" t="s">
         <v>577</v>
       </c>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86">
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72">
         <v>1</v>
       </c>
-      <c r="H14" s="86" t="s">
+      <c r="H14" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I14" s="92"/>
+      <c r="I14" s="72">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="91" t="s">
+      <c r="C15" s="77" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="78" t="s">
         <v>578</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86">
+      <c r="E15" s="72"/>
+      <c r="F15" s="72">
         <v>2</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="72">
         <v>1</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I15" s="92"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83" t="s">
+      <c r="A16" s="69"/>
+      <c r="B16" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="69" t="s">
         <v>579</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D16" s="79" t="s">
         <v>579</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="86">
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="72">
         <v>1</v>
       </c>
-      <c r="H16" s="86" t="s">
+      <c r="H16" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I16" s="92"/>
+      <c r="I16" s="72"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="86" t="s">
+      <c r="A17" s="69"/>
+      <c r="B17" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="77" t="s">
         <v>580</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="78" t="s">
         <v>580</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="95">
+      <c r="E17" s="72"/>
+      <c r="F17" s="80">
         <v>2</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="72">
         <v>1</v>
       </c>
-      <c r="H17" s="86" t="s">
+      <c r="H17" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I17" s="96"/>
+      <c r="I17" s="110"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="81" t="s">
         <v>581</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="82" t="s">
         <v>581</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="86">
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="72">
         <v>1</v>
       </c>
-      <c r="H18" s="86" t="s">
+      <c r="H18" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I18" s="92"/>
+      <c r="I18" s="72"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83" t="s">
+      <c r="A19" s="69"/>
+      <c r="B19" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C19" s="81" t="s">
         <v>582</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="82" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="86">
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="72">
         <v>1</v>
       </c>
-      <c r="H19" s="86" t="s">
+      <c r="H19" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I19" s="92"/>
+      <c r="I19" s="72"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83" t="s">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="69" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="79" t="s">
         <v>583</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="92"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86" t="s">
+      <c r="A21" s="69"/>
+      <c r="B21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="72" t="s">
         <v>584</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="D21" s="75" t="s">
         <v>585</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="72">
         <v>1</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="72">
         <v>1</v>
       </c>
-      <c r="H21" s="86" t="s">
+      <c r="H21" s="107" t="s">
         <v>575</v>
       </c>
-      <c r="I21" s="92"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="69"/>
+      <c r="B22" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="69" t="s">
         <v>587</v>
       </c>
-      <c r="D22" s="93" t="s">
+      <c r="D22" s="78" t="s">
         <v>588</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="83">
+      <c r="E22" s="69"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="69">
         <v>68</v>
       </c>
-      <c r="H22" s="86" t="s">
+      <c r="H22" s="107" t="s">
         <v>573</v>
       </c>
-      <c r="I22" s="92"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="86" t="s">
+      <c r="A23" s="69"/>
+      <c r="B23" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="72" t="s">
         <v>589</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="72">
         <v>1</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="72">
         <v>1</v>
       </c>
-      <c r="H23" s="86" t="s">
+      <c r="H23" s="107" t="s">
         <v>96</v>
       </c>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83" t="s">
+      <c r="A25" s="69"/>
+      <c r="B25" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83">
+      <c r="E25" s="69"/>
+      <c r="F25" s="69">
         <v>1</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="69">
         <v>1</v>
       </c>
-      <c r="H25" s="86" t="s">
+      <c r="H25" s="107" t="s">
         <v>575</v>
       </c>
+      <c r="I25" s="69"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83" t="s">
+      <c r="A26" s="69"/>
+      <c r="B26" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="91" t="s">
+      <c r="C26" s="77" t="s">
         <v>591</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="79" t="s">
         <v>591</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="69">
         <v>1</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="69">
         <v>1</v>
       </c>
-      <c r="H26" s="83" t="s">
+      <c r="H26" s="108" t="s">
         <v>575</v>
       </c>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="83"/>
-      <c r="B27" s="86" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="77" t="s">
         <v>578</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="75" t="s">
         <v>578</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86">
+      <c r="E27" s="72"/>
+      <c r="F27" s="72">
         <v>2</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G27" s="72">
         <v>1</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="107" t="s">
         <v>575</v>
       </c>
+      <c r="I27" s="69"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="91" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="77" t="s">
         <v>592</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="79" t="s">
         <v>592</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83">
+      <c r="E28" s="69"/>
+      <c r="F28" s="69">
         <v>1.5</v>
       </c>
-      <c r="G28" s="83">
+      <c r="G28" s="69">
         <v>1</v>
       </c>
-      <c r="H28" s="86" t="s">
+      <c r="H28" s="107" t="s">
         <v>575</v>
       </c>
+      <c r="I28" s="69"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="83" t="s">
+      <c r="C29" s="69" t="s">
         <v>593</v>
       </c>
-      <c r="D29" s="93" t="s">
+      <c r="D29" s="78" t="s">
         <v>593</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83">
+      <c r="E29" s="69"/>
+      <c r="F29" s="69">
         <v>1.5</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="69">
         <v>1</v>
       </c>
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="108" t="s">
         <v>594</v>
       </c>
+      <c r="I29" s="69"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="83" t="s">
+      <c r="C30" s="69" t="s">
         <v>595</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="79" t="s">
         <v>595</v>
       </c>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83">
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69">
         <v>1</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="108" t="s">
         <v>594</v>
       </c>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83" t="s">
+      <c r="A32" s="69"/>
+      <c r="B32" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="69" t="s">
         <v>596</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="78" t="s">
         <v>596</v>
       </c>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83">
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69">
         <v>1</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="108" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83" t="s">
+      <c r="I32" s="69"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="I33" s="69"/>
+    </row>
+    <row r="34" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A34" s="69"/>
+      <c r="B34" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C34" s="69" t="s">
+        <v>599</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>599</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69">
+        <v>1</v>
+      </c>
+      <c r="H34" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I34" s="69"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69" t="s">
+        <v>444</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>700</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>700</v>
+      </c>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69">
+        <v>1</v>
+      </c>
+      <c r="G35" s="69">
+        <v>1</v>
+      </c>
+      <c r="H35" s="108" t="s">
+        <v>575</v>
+      </c>
+      <c r="I35" s="69"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="69"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="108"/>
+      <c r="I36" s="69"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="69"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="69"/>
+    </row>
+    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="69"/>
+      <c r="B38" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="85" t="s">
+        <v>597</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>597</v>
+      </c>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69">
+        <v>1</v>
+      </c>
+      <c r="H38" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I38" s="69"/>
+    </row>
+    <row r="39" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A39" s="69"/>
+      <c r="B39" s="69" t="s">
+        <v>705</v>
+      </c>
+      <c r="C39" s="69" t="s">
+        <v>704</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>704</v>
+      </c>
+      <c r="E39" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="69">
+        <v>1</v>
+      </c>
+      <c r="G39" s="69">
+        <v>1</v>
+      </c>
+      <c r="H39" s="108" t="s">
+        <v>575</v>
+      </c>
+      <c r="I39" s="69"/>
+    </row>
+    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1">
+      <c r="A40" s="69"/>
+      <c r="B40" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="69" t="s">
+        <v>703</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>703</v>
+      </c>
+      <c r="E40" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="69">
+        <v>1</v>
+      </c>
+      <c r="G40" s="69">
+        <v>1</v>
+      </c>
+      <c r="H40" s="108" t="s">
+        <v>575</v>
+      </c>
+      <c r="I40" s="69"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="I41" s="69"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="I42" s="69"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="I43" s="69"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="91" t="s">
+        <v>711</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="69"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A45" s="69"/>
+      <c r="B45" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>590</v>
+      </c>
+      <c r="E45" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="72">
+        <v>1</v>
+      </c>
+      <c r="G45" s="72">
+        <v>1</v>
+      </c>
+      <c r="H45" s="107" t="s">
+        <v>594</v>
+      </c>
+      <c r="I45" s="69"/>
+    </row>
+    <row r="46" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A46" s="69"/>
+      <c r="B46" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="69" t="s">
+        <v>701</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>701</v>
+      </c>
+      <c r="E46" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="G46" s="69">
+        <v>1</v>
+      </c>
+      <c r="H46" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I46" s="69"/>
+    </row>
+    <row r="47" spans="1:9" ht="17.45" customHeight="1">
+      <c r="A47" s="69" t="s">
+        <v>710</v>
+      </c>
+      <c r="B47" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="69" t="s">
+        <v>702</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>702</v>
+      </c>
+      <c r="E47" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="69">
+        <v>1</v>
+      </c>
+      <c r="H47" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A48" s="69" t="s">
+        <v>709</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>706</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>706</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="69">
+        <v>1</v>
+      </c>
+      <c r="G48" s="69">
+        <v>1</v>
+      </c>
+      <c r="H48" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A49" s="69" t="s">
+        <v>708</v>
+      </c>
+      <c r="B49" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>707</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>707</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="G49" s="72">
+        <v>1</v>
+      </c>
+      <c r="H49" s="108" t="s">
+        <v>594</v>
+      </c>
+      <c r="I49" s="72"/>
+    </row>
+    <row r="50" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A50" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="B50" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="69" t="s">
         <v>598</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="D50" s="78" t="s">
         <v>598</v>
       </c>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83">
+      <c r="E50" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="G50" s="69">
         <v>1</v>
       </c>
-      <c r="H33" s="83" t="s">
+      <c r="H50" s="108" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83" t="s">
+      <c r="I50" s="112" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A51" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="B51" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="83" t="s">
-        <v>599</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>599</v>
-      </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83">
+      <c r="C51" s="69" t="s">
+        <v>713</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>713</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="G51" s="69">
         <v>1</v>
       </c>
-      <c r="H34" s="83" t="s">
+      <c r="H51" s="108" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83" t="s">
-        <v>444</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>700</v>
-      </c>
-      <c r="D35" s="93" t="s">
-        <v>700</v>
-      </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83">
+      <c r="I51" s="111"/>
+    </row>
+    <row r="52" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A52" s="69" t="s">
+        <v>712</v>
+      </c>
+      <c r="B52" s="69" t="s">
+        <v>716</v>
+      </c>
+      <c r="C52" s="85" t="s">
+        <v>717</v>
+      </c>
+      <c r="D52" s="79" t="s">
+        <v>717</v>
+      </c>
+      <c r="E52" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="69">
         <v>1</v>
       </c>
-      <c r="G35" s="83">
+      <c r="G52" s="69">
         <v>1</v>
       </c>
-      <c r="H35" s="83" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-    </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>597</v>
-      </c>
-      <c r="D38" s="93" t="s">
-        <v>597</v>
-      </c>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83">
-        <v>1</v>
-      </c>
-      <c r="H38" s="83" t="s">
+      <c r="H52" s="108" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83" t="s">
-        <v>705</v>
-      </c>
-      <c r="C39" s="83" t="s">
-        <v>704</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>704</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="83">
-        <v>1</v>
-      </c>
-      <c r="G39" s="83">
-        <v>1</v>
-      </c>
-      <c r="H39" s="83" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="83" t="s">
-        <v>703</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>703</v>
-      </c>
-      <c r="E40" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="83">
-        <v>1</v>
-      </c>
-      <c r="G40" s="83">
-        <v>1</v>
-      </c>
-      <c r="H40" s="83" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="107" t="s">
-        <v>711</v>
-      </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A45" s="83"/>
-      <c r="B45" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="86" t="s">
-        <v>590</v>
-      </c>
-      <c r="D45" s="73" t="s">
-        <v>590</v>
-      </c>
-      <c r="E45" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="86">
-        <v>1</v>
-      </c>
-      <c r="G45" s="86">
-        <v>1</v>
-      </c>
-      <c r="H45" s="86" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="83" t="s">
-        <v>701</v>
-      </c>
-      <c r="D46" s="94" t="s">
-        <v>701</v>
-      </c>
-      <c r="E46" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="83">
-        <v>1.5</v>
-      </c>
-      <c r="G46" s="83">
-        <v>1</v>
-      </c>
-      <c r="H46" s="83" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17.5" customHeight="1">
-      <c r="A47" s="83" t="s">
-        <v>710</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>702</v>
-      </c>
-      <c r="D47" s="94" t="s">
-        <v>702</v>
-      </c>
-      <c r="E47" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="83">
-        <v>1.5</v>
-      </c>
-      <c r="G47" s="83">
-        <v>1</v>
-      </c>
-      <c r="H47" s="83" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A48" s="83" t="s">
-        <v>709</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="83" t="s">
-        <v>706</v>
-      </c>
-      <c r="D48" s="93" t="s">
-        <v>706</v>
-      </c>
-      <c r="E48" s="83" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="83">
-        <v>1</v>
-      </c>
-      <c r="G48" s="83">
-        <v>1</v>
-      </c>
-      <c r="H48" s="83" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A49" s="83" t="s">
-        <v>708</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="86" t="s">
-        <v>707</v>
-      </c>
-      <c r="D49" s="89" t="s">
-        <v>707</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="86">
-        <v>1.5</v>
-      </c>
-      <c r="G49" s="86">
-        <v>1</v>
-      </c>
-      <c r="H49" s="83" t="s">
-        <v>594</v>
-      </c>
-      <c r="I49" s="92"/>
-    </row>
-    <row r="50" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-    </row>
-    <row r="51" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A51" s="83"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="AO51" s="101"/>
-    </row>
-    <row r="52" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-    </row>
-    <row r="53" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-    </row>
-    <row r="54" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A54" s="83"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-    </row>
-    <row r="55" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-    </row>
-    <row r="56" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="110"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-    </row>
-    <row r="57" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-    </row>
-    <row r="58" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-    </row>
-    <row r="59" spans="1:41" ht="17.25" customHeight="1">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-    </row>
-    <row r="60" spans="1:41">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-    </row>
-    <row r="61" spans="1:41">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-    </row>
-    <row r="62" spans="1:41">
-      <c r="A62" s="83"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-    </row>
-    <row r="63" spans="1:41">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-    </row>
-    <row r="64" spans="1:41">
-      <c r="A64" s="83"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
+      <c r="I52" s="69" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A53" s="69"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="86"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="69"/>
+    </row>
+    <row r="54" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A54" s="69"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="69"/>
+    </row>
+    <row r="55" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A55" s="69"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="69"/>
+    </row>
+    <row r="56" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A56" s="69"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="69"/>
+    </row>
+    <row r="57" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A57" s="69"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A58" s="69"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A59" s="69"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="69"/>
+      <c r="B60" s="69"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="69"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="69"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="69"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="108"/>
+      <c r="I62" s="69"/>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="108"/>
+      <c r="I63" s="69"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="69"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B65"/>
@@ -4316,7 +4426,7 @@
     <hyperlink ref="D39" r:id="rId6"/>
     <hyperlink ref="D35" r:id="rId7"/>
     <hyperlink ref="D32" r:id="rId8"/>
-    <hyperlink ref="D33" r:id="rId9"/>
+    <hyperlink ref="D50" r:id="rId9"/>
     <hyperlink ref="D34" r:id="rId10"/>
     <hyperlink ref="D38" r:id="rId11"/>
     <hyperlink ref="C38" r:id="rId12"/>
@@ -4339,9 +4449,11 @@
     <hyperlink ref="D10" r:id="rId29"/>
     <hyperlink ref="D11" r:id="rId30"/>
     <hyperlink ref="D21" r:id="rId31"/>
+    <hyperlink ref="D51" r:id="rId32"/>
+    <hyperlink ref="D52" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -4353,17 +4465,17 @@
       <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
-    <col min="2" max="2" width="94.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="83.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="83.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -4383,7 +4495,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
@@ -4391,7 +4503,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -4409,7 +4521,7 @@
       </c>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6">
       <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
@@ -4427,7 +4539,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15">
+    <row r="5" spans="1:6">
       <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
@@ -4445,7 +4557,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6">
       <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +4575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -4479,7 +4591,7 @@
       </c>
       <c r="F7" s="36"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
@@ -4495,7 +4607,7 @@
       </c>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6">
       <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
@@ -4511,7 +4623,7 @@
       </c>
       <c r="F9" s="36"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
+    <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
@@ -4527,7 +4639,7 @@
       </c>
       <c r="F10" s="36"/>
     </row>
-    <row r="11" spans="1:6" ht="15">
+    <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
@@ -4543,7 +4655,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:6" ht="15">
+    <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -4559,7 +4671,7 @@
       </c>
       <c r="F12" s="36"/>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
@@ -4575,7 +4687,7 @@
       </c>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
@@ -4591,7 +4703,7 @@
       </c>
       <c r="F14" s="36"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4721,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -4625,7 +4737,7 @@
       </c>
       <c r="F16" s="36"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6">
       <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
@@ -4641,7 +4753,7 @@
       </c>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -4657,7 +4769,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6" ht="15">
+    <row r="19" spans="1:6">
       <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
@@ -4673,7 +4785,7 @@
       </c>
       <c r="F19" s="36"/>
     </row>
-    <row r="20" spans="1:6" ht="15">
+    <row r="20" spans="1:6">
       <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
@@ -4689,7 +4801,7 @@
       </c>
       <c r="F20" s="36"/>
     </row>
-    <row r="21" spans="1:6" ht="15">
+    <row r="21" spans="1:6">
       <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
@@ -4705,7 +4817,7 @@
       </c>
       <c r="F21" s="36"/>
     </row>
-    <row r="22" spans="1:6" ht="15">
+    <row r="22" spans="1:6">
       <c r="A22" s="21" t="s">
         <v>23</v>
       </c>
@@ -4721,7 +4833,7 @@
       </c>
       <c r="F22" s="36"/>
     </row>
-    <row r="23" spans="1:6" ht="15">
+    <row r="23" spans="1:6">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -4737,7 +4849,7 @@
       </c>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6" ht="15">
+    <row r="24" spans="1:6">
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
@@ -4753,7 +4865,7 @@
       </c>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="1:6" ht="15">
+    <row r="25" spans="1:6">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -4769,7 +4881,7 @@
       </c>
       <c r="F25" s="36"/>
     </row>
-    <row r="26" spans="1:6" ht="15">
+    <row r="26" spans="1:6">
       <c r="A26" s="21" t="s">
         <v>23</v>
       </c>
@@ -4785,7 +4897,7 @@
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:6" ht="15">
+    <row r="27" spans="1:6">
       <c r="A27" s="21" t="s">
         <v>23</v>
       </c>
@@ -4801,7 +4913,7 @@
       </c>
       <c r="F27" s="36"/>
     </row>
-    <row r="28" spans="1:6" ht="15">
+    <row r="28" spans="1:6">
       <c r="A28" s="21" t="s">
         <v>23</v>
       </c>
@@ -4817,7 +4929,7 @@
       </c>
       <c r="F28" s="36"/>
     </row>
-    <row r="29" spans="1:6" ht="15">
+    <row r="29" spans="1:6">
       <c r="A29" s="21" t="s">
         <v>23</v>
       </c>
@@ -4833,7 +4945,7 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6" ht="15">
+    <row r="30" spans="1:6">
       <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
@@ -4849,7 +4961,7 @@
       </c>
       <c r="F30" s="36"/>
     </row>
-    <row r="31" spans="1:6" ht="15">
+    <row r="31" spans="1:6">
       <c r="A31" s="21" t="s">
         <v>23</v>
       </c>
@@ -4865,7 +4977,7 @@
       </c>
       <c r="F31" s="36"/>
     </row>
-    <row r="32" spans="1:6" ht="15">
+    <row r="32" spans="1:6">
       <c r="A32" s="21" t="s">
         <v>23</v>
       </c>
@@ -4881,7 +4993,7 @@
       </c>
       <c r="F32" s="36"/>
     </row>
-    <row r="33" spans="1:6" ht="15">
+    <row r="33" spans="1:6">
       <c r="A33" s="21" t="s">
         <v>23</v>
       </c>
@@ -4897,7 +5009,7 @@
       </c>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6" ht="15">
+    <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
         <v>23</v>
       </c>
@@ -4913,7 +5025,7 @@
       </c>
       <c r="F34" s="36"/>
     </row>
-    <row r="35" spans="1:6" ht="15">
+    <row r="35" spans="1:6">
       <c r="A35" s="21" t="s">
         <v>23</v>
       </c>
@@ -4929,7 +5041,7 @@
       </c>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" spans="1:6" ht="15">
+    <row r="36" spans="1:6">
       <c r="A36" s="21" t="s">
         <v>23</v>
       </c>
@@ -4945,7 +5057,7 @@
       </c>
       <c r="F36" s="36"/>
     </row>
-    <row r="37" spans="1:6" ht="15">
+    <row r="37" spans="1:6">
       <c r="A37" s="21" t="s">
         <v>23</v>
       </c>
@@ -4961,7 +5073,7 @@
       </c>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6" ht="15">
+    <row r="38" spans="1:6">
       <c r="A38" s="21" t="s">
         <v>23</v>
       </c>
@@ -4977,7 +5089,7 @@
       </c>
       <c r="F38" s="36"/>
     </row>
-    <row r="39" spans="1:6" ht="15">
+    <row r="39" spans="1:6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
@@ -4985,7 +5097,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6" ht="15">
+    <row r="40" spans="1:6">
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -4993,7 +5105,7 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
     </row>
-    <row r="41" spans="1:6" ht="15">
+    <row r="41" spans="1:6">
       <c r="A41" s="19" t="s">
         <v>142</v>
       </c>
@@ -5009,7 +5121,7 @@
       </c>
       <c r="F41" s="36"/>
     </row>
-    <row r="42" spans="1:6" ht="15">
+    <row r="42" spans="1:6">
       <c r="A42" s="19" t="s">
         <v>142</v>
       </c>
@@ -5025,7 +5137,7 @@
       </c>
       <c r="F42" s="36"/>
     </row>
-    <row r="43" spans="1:6" ht="15">
+    <row r="43" spans="1:6">
       <c r="A43" s="19" t="s">
         <v>142</v>
       </c>
@@ -5041,7 +5153,7 @@
       </c>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:6" ht="15">
+    <row r="44" spans="1:6">
       <c r="A44" s="19" t="s">
         <v>142</v>
       </c>
@@ -5057,7 +5169,7 @@
       </c>
       <c r="F44" s="36"/>
     </row>
-    <row r="45" spans="1:6" ht="15">
+    <row r="45" spans="1:6">
       <c r="A45" s="19" t="s">
         <v>142</v>
       </c>
@@ -5073,7 +5185,7 @@
       </c>
       <c r="F45" s="36"/>
     </row>
-    <row r="46" spans="1:6" ht="15">
+    <row r="46" spans="1:6">
       <c r="A46" s="19" t="s">
         <v>142</v>
       </c>
@@ -5089,7 +5201,7 @@
       </c>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="1:6" ht="15">
+    <row r="47" spans="1:6">
       <c r="A47" s="19" t="s">
         <v>142</v>
       </c>
@@ -5105,7 +5217,7 @@
       </c>
       <c r="F47" s="36"/>
     </row>
-    <row r="48" spans="1:6" ht="15">
+    <row r="48" spans="1:6">
       <c r="A48" s="19" t="s">
         <v>142</v>
       </c>
@@ -5121,7 +5233,7 @@
       </c>
       <c r="F48" s="36"/>
     </row>
-    <row r="49" spans="1:6" ht="15">
+    <row r="49" spans="1:6">
       <c r="A49" s="19" t="s">
         <v>142</v>
       </c>
@@ -5137,7 +5249,7 @@
       </c>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6" ht="15">
+    <row r="50" spans="1:6">
       <c r="A50" s="19" t="s">
         <v>142</v>
       </c>
@@ -5153,7 +5265,7 @@
       </c>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="16">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5169,7 +5281,7 @@
       <c r="E52" s="38"/>
       <c r="F52" s="34"/>
     </row>
-    <row r="53" spans="1:6" ht="16">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="21" t="s">
         <v>153</v>
       </c>
@@ -5185,7 +5297,7 @@
       </c>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="1:6" ht="16">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="21" t="s">
         <v>153</v>
       </c>
@@ -5201,7 +5313,7 @@
       </c>
       <c r="F54" s="34"/>
     </row>
-    <row r="55" spans="1:6" ht="16">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="21" t="s">
         <v>153</v>
       </c>
@@ -5217,7 +5329,7 @@
       </c>
       <c r="F55" s="34"/>
     </row>
-    <row r="56" spans="1:6" ht="16">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="21" t="s">
         <v>153</v>
       </c>
@@ -5233,7 +5345,7 @@
       </c>
       <c r="F56" s="34"/>
     </row>
-    <row r="57" spans="1:6" ht="16">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="21" t="s">
         <v>153</v>
       </c>
@@ -5249,7 +5361,7 @@
       </c>
       <c r="F57" s="34"/>
     </row>
-    <row r="58" spans="1:6" ht="16">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="21" t="s">
         <v>153</v>
       </c>
@@ -5265,7 +5377,7 @@
       </c>
       <c r="F58" s="34"/>
     </row>
-    <row r="59" spans="1:6" ht="16">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="21" t="s">
         <v>153</v>
       </c>
@@ -5281,7 +5393,7 @@
       </c>
       <c r="F59" s="34"/>
     </row>
-    <row r="60" spans="1:6" ht="16">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="21" t="s">
         <v>153</v>
       </c>
@@ -5297,7 +5409,7 @@
       </c>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:6" ht="16">
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="21" t="s">
         <v>153</v>
       </c>
@@ -5313,7 +5425,7 @@
       </c>
       <c r="F61" s="34"/>
     </row>
-    <row r="62" spans="1:6" ht="16">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="21" t="s">
         <v>153</v>
       </c>
@@ -5329,7 +5441,7 @@
       </c>
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="1:6" ht="16">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="21" t="s">
         <v>153</v>
       </c>
@@ -5345,7 +5457,7 @@
       </c>
       <c r="F63" s="34"/>
     </row>
-    <row r="64" spans="1:6" ht="16">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="21" t="s">
         <v>153</v>
       </c>
@@ -5361,7 +5473,7 @@
       </c>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="1:6" ht="16">
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="21" t="s">
         <v>153</v>
       </c>
@@ -5377,7 +5489,7 @@
       </c>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" ht="16">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="21" t="s">
         <v>153</v>
       </c>
@@ -5393,7 +5505,7 @@
       </c>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="1:6" ht="16">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="21" t="s">
         <v>153</v>
       </c>
@@ -5409,7 +5521,7 @@
       </c>
       <c r="F67" s="34"/>
     </row>
-    <row r="68" spans="1:6" ht="16">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="21" t="s">
         <v>153</v>
       </c>
@@ -5425,7 +5537,7 @@
       </c>
       <c r="F68" s="34"/>
     </row>
-    <row r="69" spans="1:6" ht="16">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="21" t="s">
         <v>153</v>
       </c>
@@ -5441,7 +5553,7 @@
       </c>
       <c r="F69" s="34"/>
     </row>
-    <row r="70" spans="1:6" ht="16">
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="21" t="s">
         <v>153</v>
       </c>
@@ -5457,7 +5569,7 @@
       </c>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="1:6" ht="16">
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" s="21" t="s">
         <v>153</v>
       </c>
@@ -5473,7 +5585,7 @@
       </c>
       <c r="F71" s="34"/>
     </row>
-    <row r="72" spans="1:6" ht="16">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="21" t="s">
         <v>153</v>
       </c>
@@ -5489,7 +5601,7 @@
       </c>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="1:6" ht="16">
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" s="21" t="s">
         <v>153</v>
       </c>
@@ -5505,7 +5617,7 @@
       </c>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" ht="16">
+    <row r="74" spans="1:6" ht="15.75">
       <c r="A74" s="21" t="s">
         <v>153</v>
       </c>
@@ -5521,7 +5633,7 @@
       </c>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6" ht="16">
+    <row r="75" spans="1:6" ht="15.75">
       <c r="A75" s="21" t="s">
         <v>153</v>
       </c>
@@ -5537,7 +5649,7 @@
       </c>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6" ht="16">
+    <row r="76" spans="1:6" ht="15.75">
       <c r="A76" s="21" t="s">
         <v>153</v>
       </c>
@@ -5553,7 +5665,7 @@
       </c>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="1:6" ht="16">
+    <row r="77" spans="1:6" ht="15.75">
       <c r="A77" s="21" t="s">
         <v>153</v>
       </c>
@@ -5569,7 +5681,7 @@
       </c>
       <c r="F77" s="34"/>
     </row>
-    <row r="78" spans="1:6" ht="16">
+    <row r="78" spans="1:6" ht="15.75">
       <c r="A78" s="21" t="s">
         <v>153</v>
       </c>
@@ -5585,7 +5697,7 @@
       </c>
       <c r="F78" s="34"/>
     </row>
-    <row r="79" spans="1:6" ht="16">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="21" t="s">
         <v>153</v>
       </c>
@@ -5601,7 +5713,7 @@
       </c>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6" ht="16">
+    <row r="80" spans="1:6" ht="15.75">
       <c r="A80" s="21" t="s">
         <v>153</v>
       </c>
@@ -5617,7 +5729,7 @@
       </c>
       <c r="F80" s="34"/>
     </row>
-    <row r="81" spans="1:6" ht="16">
+    <row r="81" spans="1:6" ht="15.75">
       <c r="A81" s="21" t="s">
         <v>153</v>
       </c>
@@ -5633,7 +5745,7 @@
       </c>
       <c r="F81" s="34"/>
     </row>
-    <row r="82" spans="1:6" ht="16">
+    <row r="82" spans="1:6" ht="15.75">
       <c r="A82" s="21" t="s">
         <v>153</v>
       </c>
@@ -5649,7 +5761,7 @@
       </c>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6" ht="16">
+    <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="21" t="s">
         <v>153</v>
       </c>
@@ -5665,7 +5777,7 @@
       </c>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6" ht="16">
+    <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="21" t="s">
         <v>153</v>
       </c>
@@ -5681,7 +5793,7 @@
       </c>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6" ht="16">
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" s="21" t="s">
         <v>153</v>
       </c>
@@ -5697,7 +5809,7 @@
       </c>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6" ht="16">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="21" t="s">
         <v>153</v>
       </c>
@@ -5713,7 +5825,7 @@
       </c>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6" ht="16">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="21" t="s">
         <v>153</v>
       </c>
@@ -5729,7 +5841,7 @@
       </c>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6" ht="16">
+    <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="21" t="s">
         <v>153</v>
       </c>
@@ -5745,7 +5857,7 @@
       </c>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6" ht="16">
+    <row r="89" spans="1:6" ht="15.75">
       <c r="A89" s="21" t="s">
         <v>153</v>
       </c>
@@ -5761,7 +5873,7 @@
       </c>
       <c r="F89" s="34"/>
     </row>
-    <row r="90" spans="1:6" ht="16">
+    <row r="90" spans="1:6" ht="15.75">
       <c r="A90" s="21" t="s">
         <v>153</v>
       </c>
@@ -5777,7 +5889,7 @@
       </c>
       <c r="F90" s="34"/>
     </row>
-    <row r="91" spans="1:6" ht="16">
+    <row r="91" spans="1:6" ht="15.75">
       <c r="A91" s="21" t="s">
         <v>153</v>
       </c>
@@ -5793,7 +5905,7 @@
       </c>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6" ht="16">
+    <row r="92" spans="1:6" ht="15.75">
       <c r="A92" s="21" t="s">
         <v>153</v>
       </c>
@@ -5809,7 +5921,7 @@
       </c>
       <c r="F92" s="34"/>
     </row>
-    <row r="93" spans="1:6" ht="16">
+    <row r="93" spans="1:6" ht="15.75">
       <c r="A93" s="21" t="s">
         <v>153</v>
       </c>
@@ -5825,7 +5937,7 @@
       </c>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6" ht="16">
+    <row r="94" spans="1:6" ht="15.75">
       <c r="A94" s="21" t="s">
         <v>153</v>
       </c>
@@ -5841,7 +5953,7 @@
       </c>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6" ht="16">
+    <row r="95" spans="1:6" ht="15.75">
       <c r="A95" s="21" t="s">
         <v>153</v>
       </c>
@@ -5857,7 +5969,7 @@
       </c>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6" ht="16">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -5873,7 +5985,7 @@
       <c r="E97" s="38"/>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="1:6" ht="16">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="21" t="s">
         <v>197</v>
       </c>
@@ -5889,7 +6001,7 @@
       </c>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="1:6" ht="16">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="21" t="s">
         <v>197</v>
       </c>
@@ -5905,7 +6017,7 @@
       </c>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="1:6" ht="16">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="21" t="s">
         <v>197</v>
       </c>
@@ -5921,7 +6033,7 @@
       </c>
       <c r="F100" s="34"/>
     </row>
-    <row r="101" spans="1:6" ht="16">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="21" t="s">
         <v>197</v>
       </c>
@@ -5937,7 +6049,7 @@
       </c>
       <c r="F101" s="34"/>
     </row>
-    <row r="102" spans="1:6" ht="16">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="21" t="s">
         <v>197</v>
       </c>
@@ -5953,7 +6065,7 @@
       </c>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="1:6" ht="16">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="21" t="s">
         <v>197</v>
       </c>
@@ -5969,7 +6081,7 @@
       </c>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="1:6" ht="16">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="21" t="s">
         <v>197</v>
       </c>
@@ -5985,7 +6097,7 @@
       </c>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="1:6" ht="16">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="21" t="s">
         <v>197</v>
       </c>
@@ -6001,7 +6113,7 @@
       </c>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="1:6" ht="16">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="21" t="s">
         <v>197</v>
       </c>
@@ -6017,7 +6129,7 @@
       </c>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="1:6" ht="16">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="21" t="s">
         <v>197</v>
       </c>
@@ -6033,7 +6145,7 @@
       </c>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="1:6" ht="16">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="21" t="s">
         <v>197</v>
       </c>
@@ -6049,7 +6161,7 @@
       </c>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="1:6" ht="16">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="21" t="s">
         <v>197</v>
       </c>
@@ -6065,7 +6177,7 @@
       </c>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="1:6" ht="16">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="21" t="s">
         <v>197</v>
       </c>
@@ -6081,7 +6193,7 @@
       </c>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="1:6" ht="16">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="21" t="s">
         <v>197</v>
       </c>
@@ -6097,7 +6209,7 @@
       </c>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="1:6" ht="16">
+    <row r="112" spans="1:6" ht="15.75">
       <c r="A112" s="21" t="s">
         <v>197</v>
       </c>
@@ -6113,7 +6225,7 @@
       </c>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="1:6" ht="16">
+    <row r="113" spans="1:6" ht="15.75">
       <c r="A113" s="21" t="s">
         <v>197</v>
       </c>
@@ -6129,7 +6241,7 @@
       </c>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="1:6" ht="16">
+    <row r="114" spans="1:6" ht="15.75">
       <c r="A114" s="21" t="s">
         <v>197</v>
       </c>
@@ -6145,7 +6257,7 @@
       </c>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="1:6" ht="16">
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" s="21" t="s">
         <v>197</v>
       </c>
@@ -6161,7 +6273,7 @@
       </c>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="1:6" ht="16">
+    <row r="116" spans="1:6" ht="15.75">
       <c r="A116" s="21" t="s">
         <v>197</v>
       </c>
@@ -6177,7 +6289,7 @@
       </c>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="1:6" ht="16">
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" s="21" t="s">
         <v>197</v>
       </c>
@@ -6193,7 +6305,7 @@
       </c>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="1:6" ht="16">
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="21" t="s">
         <v>197</v>
       </c>
@@ -6209,7 +6321,7 @@
       </c>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="1:6" ht="16">
+    <row r="119" spans="1:6" ht="15.75">
       <c r="A119" s="21" t="s">
         <v>197</v>
       </c>
@@ -6225,7 +6337,7 @@
       </c>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="1:6" ht="16">
+    <row r="120" spans="1:6" ht="15.75">
       <c r="A120" s="21" t="s">
         <v>197</v>
       </c>
@@ -6241,7 +6353,7 @@
       </c>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="1:6" ht="16">
+    <row r="121" spans="1:6" ht="15.75">
       <c r="A121" s="21" t="s">
         <v>197</v>
       </c>
@@ -6257,7 +6369,7 @@
       </c>
       <c r="F121" s="34"/>
     </row>
-    <row r="122" spans="1:6" ht="16">
+    <row r="122" spans="1:6" ht="15.75">
       <c r="A122" s="21" t="s">
         <v>197</v>
       </c>
@@ -6273,7 +6385,7 @@
       </c>
       <c r="F122" s="34"/>
     </row>
-    <row r="123" spans="1:6" ht="16">
+    <row r="123" spans="1:6" ht="15.75">
       <c r="A123" s="21" t="s">
         <v>197</v>
       </c>
@@ -6289,7 +6401,7 @@
       </c>
       <c r="F123" s="34"/>
     </row>
-    <row r="124" spans="1:6" ht="16">
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="21" t="s">
         <v>197</v>
       </c>
@@ -6305,7 +6417,7 @@
       </c>
       <c r="F124" s="34"/>
     </row>
-    <row r="125" spans="1:6" ht="16">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="21" t="s">
         <v>197</v>
       </c>
@@ -6321,7 +6433,7 @@
       </c>
       <c r="F125" s="34"/>
     </row>
-    <row r="126" spans="1:6" ht="16">
+    <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="21" t="s">
         <v>197</v>
       </c>
@@ -6337,7 +6449,7 @@
       </c>
       <c r="F126" s="34"/>
     </row>
-    <row r="127" spans="1:6" ht="16">
+    <row r="127" spans="1:6" ht="15.75">
       <c r="A127" s="21" t="s">
         <v>197</v>
       </c>
@@ -6353,7 +6465,7 @@
       </c>
       <c r="F127" s="34"/>
     </row>
-    <row r="128" spans="1:6" ht="16">
+    <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="21" t="s">
         <v>197</v>
       </c>
@@ -6369,7 +6481,7 @@
       </c>
       <c r="F128" s="34"/>
     </row>
-    <row r="129" spans="1:6" ht="16">
+    <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="21" t="s">
         <v>197</v>
       </c>
@@ -6385,7 +6497,7 @@
       </c>
       <c r="F129" s="34"/>
     </row>
-    <row r="130" spans="1:6" ht="16">
+    <row r="130" spans="1:6" ht="15.75">
       <c r="A130" s="21" t="s">
         <v>197</v>
       </c>
@@ -6401,7 +6513,7 @@
       </c>
       <c r="F130" s="34"/>
     </row>
-    <row r="131" spans="1:6" ht="16">
+    <row r="131" spans="1:6" ht="15.75">
       <c r="A131" s="21" t="s">
         <v>197</v>
       </c>
@@ -6417,7 +6529,7 @@
       </c>
       <c r="F131" s="34"/>
     </row>
-    <row r="132" spans="1:6" ht="16">
+    <row r="132" spans="1:6" ht="15.75">
       <c r="A132" s="21" t="s">
         <v>197</v>
       </c>
@@ -6433,7 +6545,7 @@
       </c>
       <c r="F132" s="34"/>
     </row>
-    <row r="133" spans="1:6" ht="16">
+    <row r="133" spans="1:6" ht="15.75">
       <c r="A133" s="21" t="s">
         <v>197</v>
       </c>
@@ -6449,7 +6561,7 @@
       </c>
       <c r="F133" s="34"/>
     </row>
-    <row r="134" spans="1:6" ht="16">
+    <row r="134" spans="1:6" ht="15.75">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6465,7 +6577,7 @@
       <c r="E135" s="38"/>
       <c r="F135" s="34"/>
     </row>
-    <row r="136" spans="1:6" ht="16">
+    <row r="136" spans="1:6" ht="15.75">
       <c r="A136" s="19" t="s">
         <v>234</v>
       </c>
@@ -6481,7 +6593,7 @@
       </c>
       <c r="F136" s="34"/>
     </row>
-    <row r="137" spans="1:6" ht="16">
+    <row r="137" spans="1:6" ht="15.75">
       <c r="A137" s="19" t="s">
         <v>234</v>
       </c>
@@ -6497,7 +6609,7 @@
       </c>
       <c r="F137" s="34"/>
     </row>
-    <row r="138" spans="1:6" ht="16">
+    <row r="138" spans="1:6" ht="15.75">
       <c r="A138" s="19" t="s">
         <v>234</v>
       </c>
@@ -6513,7 +6625,7 @@
       </c>
       <c r="F138" s="34"/>
     </row>
-    <row r="139" spans="1:6" ht="16">
+    <row r="139" spans="1:6" ht="15.75">
       <c r="A139" s="19" t="s">
         <v>234</v>
       </c>
@@ -6529,7 +6641,7 @@
       </c>
       <c r="F139" s="34"/>
     </row>
-    <row r="140" spans="1:6" ht="16">
+    <row r="140" spans="1:6" ht="15.75">
       <c r="A140" s="19" t="s">
         <v>234</v>
       </c>
@@ -6545,7 +6657,7 @@
       </c>
       <c r="F140" s="34"/>
     </row>
-    <row r="141" spans="1:6" ht="16">
+    <row r="141" spans="1:6" ht="15.75">
       <c r="A141" s="19" t="s">
         <v>234</v>
       </c>
@@ -6561,7 +6673,7 @@
       </c>
       <c r="F141" s="34"/>
     </row>
-    <row r="142" spans="1:6" ht="16">
+    <row r="142" spans="1:6" ht="15.75">
       <c r="A142" s="19" t="s">
         <v>234</v>
       </c>
@@ -6577,7 +6689,7 @@
       </c>
       <c r="F142" s="34"/>
     </row>
-    <row r="143" spans="1:6" ht="16">
+    <row r="143" spans="1:6" ht="15.75">
       <c r="A143" s="19" t="s">
         <v>234</v>
       </c>
@@ -6593,7 +6705,7 @@
       </c>
       <c r="F143" s="34"/>
     </row>
-    <row r="144" spans="1:6" ht="16">
+    <row r="144" spans="1:6" ht="15.75">
       <c r="A144" s="19" t="s">
         <v>234</v>
       </c>
@@ -6609,7 +6721,7 @@
       </c>
       <c r="F144" s="34"/>
     </row>
-    <row r="145" spans="1:6" ht="16">
+    <row r="145" spans="1:6" ht="15.75">
       <c r="A145" s="19" t="s">
         <v>234</v>
       </c>
@@ -6625,7 +6737,7 @@
       </c>
       <c r="F145" s="34"/>
     </row>
-    <row r="146" spans="1:6" ht="16">
+    <row r="146" spans="1:6" ht="15.75">
       <c r="A146" s="19" t="s">
         <v>234</v>
       </c>
@@ -6641,7 +6753,7 @@
       </c>
       <c r="F146" s="34"/>
     </row>
-    <row r="147" spans="1:6" ht="16">
+    <row r="147" spans="1:6" ht="15.75">
       <c r="A147" s="19" t="s">
         <v>234</v>
       </c>
@@ -6657,7 +6769,7 @@
       </c>
       <c r="F147" s="34"/>
     </row>
-    <row r="148" spans="1:6" ht="16">
+    <row r="148" spans="1:6" ht="15.75">
       <c r="A148" s="19" t="s">
         <v>234</v>
       </c>
@@ -6673,7 +6785,7 @@
       </c>
       <c r="F148" s="34"/>
     </row>
-    <row r="149" spans="1:6" ht="16">
+    <row r="149" spans="1:6" ht="15.75">
       <c r="A149" s="19" t="s">
         <v>234</v>
       </c>
@@ -6689,7 +6801,7 @@
       </c>
       <c r="F149" s="34"/>
     </row>
-    <row r="150" spans="1:6" ht="16">
+    <row r="150" spans="1:6" ht="15.75">
       <c r="A150" s="19" t="s">
         <v>234</v>
       </c>
@@ -6705,7 +6817,7 @@
       </c>
       <c r="F150" s="34"/>
     </row>
-    <row r="151" spans="1:6" ht="16">
+    <row r="151" spans="1:6" ht="15.75">
       <c r="A151" s="19" t="s">
         <v>234</v>
       </c>
@@ -6721,7 +6833,7 @@
       </c>
       <c r="F151" s="34"/>
     </row>
-    <row r="152" spans="1:6" ht="16">
+    <row r="152" spans="1:6" ht="15.75">
       <c r="A152" s="19" t="s">
         <v>234</v>
       </c>
@@ -6737,7 +6849,7 @@
       </c>
       <c r="F152" s="34"/>
     </row>
-    <row r="153" spans="1:6" ht="16">
+    <row r="153" spans="1:6" ht="15.75">
       <c r="A153" s="19" t="s">
         <v>234</v>
       </c>
@@ -6753,7 +6865,7 @@
       </c>
       <c r="F153" s="34"/>
     </row>
-    <row r="154" spans="1:6" ht="16">
+    <row r="154" spans="1:6" ht="15.75">
       <c r="A154" s="19" t="s">
         <v>234</v>
       </c>
@@ -6769,7 +6881,7 @@
       </c>
       <c r="F154" s="34"/>
     </row>
-    <row r="155" spans="1:6" ht="16">
+    <row r="155" spans="1:6" ht="15.75">
       <c r="A155" s="19" t="s">
         <v>234</v>
       </c>
@@ -6785,7 +6897,7 @@
       </c>
       <c r="F155" s="34"/>
     </row>
-    <row r="156" spans="1:6" ht="16">
+    <row r="156" spans="1:6" ht="15.75">
       <c r="A156" s="19" t="s">
         <v>234</v>
       </c>
@@ -6801,7 +6913,7 @@
       </c>
       <c r="F156" s="34"/>
     </row>
-    <row r="157" spans="1:6" ht="16">
+    <row r="157" spans="1:6" ht="15.75">
       <c r="A157" s="19" t="s">
         <v>234</v>
       </c>
@@ -6817,7 +6929,7 @@
       </c>
       <c r="F157" s="34"/>
     </row>
-    <row r="158" spans="1:6" ht="16">
+    <row r="158" spans="1:6" ht="15.75">
       <c r="A158" s="19" t="s">
         <v>234</v>
       </c>
@@ -6833,7 +6945,7 @@
       </c>
       <c r="F158" s="34"/>
     </row>
-    <row r="159" spans="1:6" ht="16">
+    <row r="159" spans="1:6" ht="15.75">
       <c r="A159" s="19" t="s">
         <v>234</v>
       </c>
@@ -6849,7 +6961,7 @@
       </c>
       <c r="F159" s="34"/>
     </row>
-    <row r="160" spans="1:6" ht="16">
+    <row r="160" spans="1:6" ht="15.75">
       <c r="A160" s="19" t="s">
         <v>234</v>
       </c>
@@ -6897,7 +7009,7 @@
       </c>
       <c r="F162" s="34"/>
     </row>
-    <row r="163" spans="1:6" ht="16">
+    <row r="163" spans="1:6" ht="15.75">
       <c r="A163" s="19" t="s">
         <v>234</v>
       </c>
@@ -6913,7 +7025,7 @@
       </c>
       <c r="F163" s="34"/>
     </row>
-    <row r="164" spans="1:6" ht="16">
+    <row r="164" spans="1:6" ht="15.75">
       <c r="A164" s="19" t="s">
         <v>234</v>
       </c>
@@ -6929,7 +7041,7 @@
       </c>
       <c r="F164" s="34"/>
     </row>
-    <row r="165" spans="1:6" ht="16">
+    <row r="165" spans="1:6" ht="15.75">
       <c r="A165" s="19" t="s">
         <v>234</v>
       </c>
@@ -6945,7 +7057,7 @@
       </c>
       <c r="F165" s="34"/>
     </row>
-    <row r="166" spans="1:6" ht="16">
+    <row r="166" spans="1:6" ht="15.75">
       <c r="A166" s="19" t="s">
         <v>234</v>
       </c>
@@ -6961,7 +7073,7 @@
       </c>
       <c r="F166" s="34"/>
     </row>
-    <row r="167" spans="1:6" ht="16">
+    <row r="167" spans="1:6" ht="15.75">
       <c r="A167" s="19" t="s">
         <v>234</v>
       </c>
@@ -6977,7 +7089,7 @@
       </c>
       <c r="F167" s="34"/>
     </row>
-    <row r="168" spans="1:6" ht="16">
+    <row r="168" spans="1:6" ht="15.75">
       <c r="A168" s="19" t="s">
         <v>234</v>
       </c>
@@ -6993,7 +7105,7 @@
       </c>
       <c r="F168" s="34"/>
     </row>
-    <row r="169" spans="1:6" ht="16">
+    <row r="169" spans="1:6" ht="15.75">
       <c r="A169" s="19" t="s">
         <v>234</v>
       </c>
@@ -7009,7 +7121,7 @@
       </c>
       <c r="F169" s="34"/>
     </row>
-    <row r="170" spans="1:6" ht="16">
+    <row r="170" spans="1:6" ht="15.75">
       <c r="A170" s="19" t="s">
         <v>234</v>
       </c>
@@ -7025,7 +7137,7 @@
       </c>
       <c r="F170" s="34"/>
     </row>
-    <row r="171" spans="1:6" ht="16">
+    <row r="171" spans="1:6" ht="15.75">
       <c r="A171" s="19" t="s">
         <v>234</v>
       </c>
@@ -7041,7 +7153,7 @@
       </c>
       <c r="F171" s="34"/>
     </row>
-    <row r="172" spans="1:6" ht="16">
+    <row r="172" spans="1:6" ht="15.75">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -7057,7 +7169,7 @@
       <c r="E173" s="38"/>
       <c r="F173" s="34"/>
     </row>
-    <row r="174" spans="1:6" ht="16">
+    <row r="174" spans="1:6" ht="15.75">
       <c r="A174" s="21" t="s">
         <v>271</v>
       </c>
@@ -7073,7 +7185,7 @@
       </c>
       <c r="F174" s="34"/>
     </row>
-    <row r="175" spans="1:6" ht="16">
+    <row r="175" spans="1:6" ht="15.75">
       <c r="A175" s="21" t="s">
         <v>271</v>
       </c>
@@ -7089,7 +7201,7 @@
       </c>
       <c r="F175" s="34"/>
     </row>
-    <row r="176" spans="1:6" ht="16">
+    <row r="176" spans="1:6" ht="15.75">
       <c r="A176" s="21" t="s">
         <v>271</v>
       </c>
@@ -7105,7 +7217,7 @@
       </c>
       <c r="F176" s="34"/>
     </row>
-    <row r="177" spans="1:6" ht="16">
+    <row r="177" spans="1:6" ht="15.75">
       <c r="A177" s="21" t="s">
         <v>271</v>
       </c>
@@ -7121,7 +7233,7 @@
       </c>
       <c r="F177" s="34"/>
     </row>
-    <row r="178" spans="1:6" ht="16">
+    <row r="178" spans="1:6" ht="15.75">
       <c r="A178" s="21" t="s">
         <v>271</v>
       </c>
@@ -7137,7 +7249,7 @@
       </c>
       <c r="F178" s="34"/>
     </row>
-    <row r="179" spans="1:6" ht="16">
+    <row r="179" spans="1:6" ht="15.75">
       <c r="A179" s="21" t="s">
         <v>271</v>
       </c>
@@ -7153,7 +7265,7 @@
       </c>
       <c r="F179" s="34"/>
     </row>
-    <row r="180" spans="1:6" ht="16">
+    <row r="180" spans="1:6" ht="15.75">
       <c r="A180" s="21" t="s">
         <v>271</v>
       </c>
@@ -7169,7 +7281,7 @@
       </c>
       <c r="F180" s="34"/>
     </row>
-    <row r="181" spans="1:6" ht="16">
+    <row r="181" spans="1:6" ht="15.75">
       <c r="A181" s="21" t="s">
         <v>271</v>
       </c>
@@ -7185,7 +7297,7 @@
       </c>
       <c r="F181" s="34"/>
     </row>
-    <row r="182" spans="1:6" ht="16">
+    <row r="182" spans="1:6" ht="15.75">
       <c r="A182" s="21" t="s">
         <v>271</v>
       </c>
@@ -7201,7 +7313,7 @@
       </c>
       <c r="F182" s="34"/>
     </row>
-    <row r="183" spans="1:6" ht="16">
+    <row r="183" spans="1:6" ht="15.75">
       <c r="A183" s="21" t="s">
         <v>271</v>
       </c>
@@ -7217,7 +7329,7 @@
       </c>
       <c r="F183" s="34"/>
     </row>
-    <row r="184" spans="1:6" ht="16">
+    <row r="184" spans="1:6" ht="15.75">
       <c r="A184" s="21" t="s">
         <v>271</v>
       </c>
@@ -7233,7 +7345,7 @@
       </c>
       <c r="F184" s="34"/>
     </row>
-    <row r="185" spans="1:6" ht="16">
+    <row r="185" spans="1:6" ht="15.75">
       <c r="A185" s="21" t="s">
         <v>271</v>
       </c>
@@ -7249,7 +7361,7 @@
       </c>
       <c r="F185" s="34"/>
     </row>
-    <row r="186" spans="1:6" ht="16">
+    <row r="186" spans="1:6" ht="15.75">
       <c r="A186" s="21" t="s">
         <v>271</v>
       </c>
@@ -7265,7 +7377,7 @@
       </c>
       <c r="F186" s="34"/>
     </row>
-    <row r="187" spans="1:6" ht="16">
+    <row r="187" spans="1:6" ht="15.75">
       <c r="A187" s="21" t="s">
         <v>271</v>
       </c>
@@ -7281,7 +7393,7 @@
       </c>
       <c r="F187" s="34"/>
     </row>
-    <row r="188" spans="1:6" ht="16">
+    <row r="188" spans="1:6" ht="15.75">
       <c r="A188" s="21" t="s">
         <v>271</v>
       </c>
@@ -7297,7 +7409,7 @@
       </c>
       <c r="F188" s="34"/>
     </row>
-    <row r="189" spans="1:6" ht="16">
+    <row r="189" spans="1:6" ht="15.75">
       <c r="A189" s="21" t="s">
         <v>271</v>
       </c>
@@ -7313,7 +7425,7 @@
       </c>
       <c r="F189" s="34"/>
     </row>
-    <row r="190" spans="1:6" ht="16">
+    <row r="190" spans="1:6" ht="15.75">
       <c r="A190" s="21" t="s">
         <v>271</v>
       </c>
@@ -7329,7 +7441,7 @@
       </c>
       <c r="F190" s="34"/>
     </row>
-    <row r="191" spans="1:6" ht="16">
+    <row r="191" spans="1:6" ht="15.75">
       <c r="A191" s="21" t="s">
         <v>271</v>
       </c>
@@ -7345,7 +7457,7 @@
       </c>
       <c r="F191" s="34"/>
     </row>
-    <row r="192" spans="1:6" ht="16">
+    <row r="192" spans="1:6" ht="15.75">
       <c r="A192" s="21" t="s">
         <v>271</v>
       </c>
@@ -7361,7 +7473,7 @@
       </c>
       <c r="F192" s="34"/>
     </row>
-    <row r="193" spans="1:6" ht="16">
+    <row r="193" spans="1:6" ht="15.75">
       <c r="A193" s="21" t="s">
         <v>271</v>
       </c>
@@ -7377,7 +7489,7 @@
       </c>
       <c r="F193" s="34"/>
     </row>
-    <row r="194" spans="1:6" ht="16">
+    <row r="194" spans="1:6" ht="15.75">
       <c r="A194" s="21" t="s">
         <v>271</v>
       </c>
@@ -7393,7 +7505,7 @@
       </c>
       <c r="F194" s="34"/>
     </row>
-    <row r="195" spans="1:6" ht="16">
+    <row r="195" spans="1:6" ht="15.75">
       <c r="A195" s="21" t="s">
         <v>271</v>
       </c>
@@ -7409,7 +7521,7 @@
       </c>
       <c r="F195" s="34"/>
     </row>
-    <row r="196" spans="1:6" ht="16">
+    <row r="196" spans="1:6" ht="15.75">
       <c r="A196" s="21" t="s">
         <v>271</v>
       </c>
@@ -7425,7 +7537,7 @@
       </c>
       <c r="F196" s="34"/>
     </row>
-    <row r="197" spans="1:6" ht="16">
+    <row r="197" spans="1:6" ht="15.75">
       <c r="A197" s="21" t="s">
         <v>271</v>
       </c>
@@ -7441,7 +7553,7 @@
       </c>
       <c r="F197" s="34"/>
     </row>
-    <row r="198" spans="1:6" ht="16">
+    <row r="198" spans="1:6" ht="15.75">
       <c r="A198" s="21" t="s">
         <v>271</v>
       </c>
@@ -7457,7 +7569,7 @@
       </c>
       <c r="F198" s="34"/>
     </row>
-    <row r="199" spans="1:6" ht="16">
+    <row r="199" spans="1:6" ht="15.75">
       <c r="A199" s="21" t="s">
         <v>271</v>
       </c>
@@ -7473,7 +7585,7 @@
       </c>
       <c r="F199" s="34"/>
     </row>
-    <row r="200" spans="1:6" ht="16">
+    <row r="200" spans="1:6" ht="15.75">
       <c r="A200" s="21" t="s">
         <v>271</v>
       </c>
@@ -7489,7 +7601,7 @@
       </c>
       <c r="F200" s="34"/>
     </row>
-    <row r="201" spans="1:6" ht="16">
+    <row r="201" spans="1:6" ht="15.75">
       <c r="A201" s="21" t="s">
         <v>271</v>
       </c>
@@ -7505,7 +7617,7 @@
       </c>
       <c r="F201" s="34"/>
     </row>
-    <row r="202" spans="1:6" ht="16">
+    <row r="202" spans="1:6" ht="15.75">
       <c r="A202" s="21" t="s">
         <v>271</v>
       </c>
@@ -7521,7 +7633,7 @@
       </c>
       <c r="F202" s="34"/>
     </row>
-    <row r="203" spans="1:6" ht="16">
+    <row r="203" spans="1:6" ht="15.75">
       <c r="A203" s="21" t="s">
         <v>271</v>
       </c>
@@ -7537,7 +7649,7 @@
       </c>
       <c r="F203" s="34"/>
     </row>
-    <row r="204" spans="1:6" ht="16">
+    <row r="204" spans="1:6" ht="15.75">
       <c r="A204" s="21" t="s">
         <v>271</v>
       </c>
@@ -7553,7 +7665,7 @@
       </c>
       <c r="F204" s="34"/>
     </row>
-    <row r="205" spans="1:6" ht="16">
+    <row r="205" spans="1:6" ht="15.75">
       <c r="A205" s="21" t="s">
         <v>271</v>
       </c>
@@ -7569,7 +7681,7 @@
       </c>
       <c r="F205" s="34"/>
     </row>
-    <row r="206" spans="1:6" ht="16">
+    <row r="206" spans="1:6" ht="15.75">
       <c r="A206" s="21" t="s">
         <v>271</v>
       </c>
@@ -7585,7 +7697,7 @@
       </c>
       <c r="F206" s="34"/>
     </row>
-    <row r="207" spans="1:6" ht="16">
+    <row r="207" spans="1:6" ht="15.75">
       <c r="A207" s="21" t="s">
         <v>271</v>
       </c>
@@ -7601,7 +7713,7 @@
       </c>
       <c r="F207" s="34"/>
     </row>
-    <row r="208" spans="1:6" ht="16">
+    <row r="208" spans="1:6" ht="15.75">
       <c r="A208" s="21" t="s">
         <v>271</v>
       </c>
@@ -7633,7 +7745,7 @@
       <c r="E210" s="38"/>
       <c r="F210" s="34"/>
     </row>
-    <row r="211" spans="1:6" ht="16">
+    <row r="211" spans="1:6" ht="15.75">
       <c r="A211" s="21" t="s">
         <v>307</v>
       </c>
@@ -7649,7 +7761,7 @@
       </c>
       <c r="F211" s="34"/>
     </row>
-    <row r="212" spans="1:6" ht="16">
+    <row r="212" spans="1:6" ht="15.75">
       <c r="A212" s="21" t="s">
         <v>307</v>
       </c>
@@ -7665,7 +7777,7 @@
       </c>
       <c r="F212" s="34"/>
     </row>
-    <row r="213" spans="1:6" ht="16">
+    <row r="213" spans="1:6" ht="15.75">
       <c r="A213" s="21" t="s">
         <v>307</v>
       </c>
@@ -7681,7 +7793,7 @@
       </c>
       <c r="F213" s="34"/>
     </row>
-    <row r="214" spans="1:6" ht="16">
+    <row r="214" spans="1:6" ht="15.75">
       <c r="A214" s="21" t="s">
         <v>307</v>
       </c>
@@ -7697,7 +7809,7 @@
       </c>
       <c r="F214" s="34"/>
     </row>
-    <row r="215" spans="1:6" ht="16">
+    <row r="215" spans="1:6" ht="15.75">
       <c r="A215" s="21" t="s">
         <v>307</v>
       </c>
@@ -7713,7 +7825,7 @@
       </c>
       <c r="F215" s="34"/>
     </row>
-    <row r="216" spans="1:6" ht="16">
+    <row r="216" spans="1:6" ht="15.75">
       <c r="A216" s="21" t="s">
         <v>307</v>
       </c>
@@ -7729,7 +7841,7 @@
       </c>
       <c r="F216" s="34"/>
     </row>
-    <row r="217" spans="1:6" ht="16">
+    <row r="217" spans="1:6" ht="15.75">
       <c r="A217" s="21" t="s">
         <v>307</v>
       </c>
@@ -7745,7 +7857,7 @@
       </c>
       <c r="F217" s="34"/>
     </row>
-    <row r="218" spans="1:6" ht="16">
+    <row r="218" spans="1:6" ht="15.75">
       <c r="A218" s="21" t="s">
         <v>307</v>
       </c>
@@ -7761,7 +7873,7 @@
       </c>
       <c r="F218" s="34"/>
     </row>
-    <row r="219" spans="1:6" ht="16">
+    <row r="219" spans="1:6" ht="15.75">
       <c r="A219" s="21" t="s">
         <v>307</v>
       </c>
@@ -7777,7 +7889,7 @@
       </c>
       <c r="F219" s="34"/>
     </row>
-    <row r="220" spans="1:6" ht="16">
+    <row r="220" spans="1:6" ht="15.75">
       <c r="A220" s="21" t="s">
         <v>307</v>
       </c>
@@ -7793,7 +7905,7 @@
       </c>
       <c r="F220" s="34"/>
     </row>
-    <row r="221" spans="1:6" ht="16">
+    <row r="221" spans="1:6" ht="15.75">
       <c r="A221" s="21" t="s">
         <v>307</v>
       </c>
@@ -7809,7 +7921,7 @@
       </c>
       <c r="F221" s="34"/>
     </row>
-    <row r="222" spans="1:6" ht="16">
+    <row r="222" spans="1:6" ht="15.75">
       <c r="A222" s="21" t="s">
         <v>307</v>
       </c>
@@ -7825,7 +7937,7 @@
       </c>
       <c r="F222" s="34"/>
     </row>
-    <row r="223" spans="1:6" ht="16">
+    <row r="223" spans="1:6" ht="15.75">
       <c r="A223" s="21" t="s">
         <v>307</v>
       </c>
@@ -7841,7 +7953,7 @@
       </c>
       <c r="F223" s="34"/>
     </row>
-    <row r="224" spans="1:6" ht="16">
+    <row r="224" spans="1:6" ht="15.75">
       <c r="A224" s="21" t="s">
         <v>307</v>
       </c>
@@ -7857,7 +7969,7 @@
       </c>
       <c r="F224" s="34"/>
     </row>
-    <row r="225" spans="1:6" ht="16">
+    <row r="225" spans="1:6" ht="15.75">
       <c r="A225" s="21" t="s">
         <v>307</v>
       </c>
@@ -7873,7 +7985,7 @@
       </c>
       <c r="F225" s="34"/>
     </row>
-    <row r="226" spans="1:6" ht="16">
+    <row r="226" spans="1:6" ht="15.75">
       <c r="A226" s="21" t="s">
         <v>307</v>
       </c>
@@ -7889,7 +8001,7 @@
       </c>
       <c r="F226" s="34"/>
     </row>
-    <row r="227" spans="1:6" ht="16">
+    <row r="227" spans="1:6" ht="15.75">
       <c r="A227" s="21" t="s">
         <v>307</v>
       </c>
@@ -7905,7 +8017,7 @@
       </c>
       <c r="F227" s="34"/>
     </row>
-    <row r="228" spans="1:6" ht="16">
+    <row r="228" spans="1:6" ht="15.75">
       <c r="A228" s="21" t="s">
         <v>307</v>
       </c>
@@ -7921,7 +8033,7 @@
       </c>
       <c r="F228" s="34"/>
     </row>
-    <row r="229" spans="1:6" ht="16">
+    <row r="229" spans="1:6" ht="15.75">
       <c r="A229" s="21" t="s">
         <v>307</v>
       </c>
@@ -7937,7 +8049,7 @@
       </c>
       <c r="F229" s="34"/>
     </row>
-    <row r="230" spans="1:6" ht="16">
+    <row r="230" spans="1:6" ht="15.75">
       <c r="A230" s="21" t="s">
         <v>307</v>
       </c>
@@ -7953,7 +8065,7 @@
       </c>
       <c r="F230" s="34"/>
     </row>
-    <row r="231" spans="1:6" ht="16">
+    <row r="231" spans="1:6" ht="15.75">
       <c r="A231" s="21" t="s">
         <v>307</v>
       </c>
@@ -7969,7 +8081,7 @@
       </c>
       <c r="F231" s="34"/>
     </row>
-    <row r="232" spans="1:6" ht="16">
+    <row r="232" spans="1:6" ht="15.75">
       <c r="A232" s="21" t="s">
         <v>307</v>
       </c>
@@ -8001,7 +8113,7 @@
       <c r="E234" s="38"/>
       <c r="F234" s="34"/>
     </row>
-    <row r="235" spans="1:6" ht="16">
+    <row r="235" spans="1:6" ht="15.75">
       <c r="A235" s="21" t="s">
         <v>330</v>
       </c>
@@ -8017,7 +8129,7 @@
       </c>
       <c r="F235" s="34"/>
     </row>
-    <row r="236" spans="1:6" ht="16">
+    <row r="236" spans="1:6" ht="15.75">
       <c r="A236" s="21" t="s">
         <v>330</v>
       </c>
@@ -8033,7 +8145,7 @@
       </c>
       <c r="F236" s="34"/>
     </row>
-    <row r="237" spans="1:6" ht="16">
+    <row r="237" spans="1:6" ht="15.75">
       <c r="A237" s="21" t="s">
         <v>330</v>
       </c>
@@ -8049,7 +8161,7 @@
       </c>
       <c r="F237" s="34"/>
     </row>
-    <row r="238" spans="1:6" ht="16">
+    <row r="238" spans="1:6" ht="15.75">
       <c r="A238" s="21" t="s">
         <v>330</v>
       </c>
@@ -8065,7 +8177,7 @@
       </c>
       <c r="F238" s="34"/>
     </row>
-    <row r="239" spans="1:6" ht="16">
+    <row r="239" spans="1:6" ht="15.75">
       <c r="A239" s="21" t="s">
         <v>330</v>
       </c>
@@ -8081,7 +8193,7 @@
       </c>
       <c r="F239" s="34"/>
     </row>
-    <row r="240" spans="1:6" ht="16">
+    <row r="240" spans="1:6" ht="15.75">
       <c r="A240" s="21" t="s">
         <v>330</v>
       </c>
@@ -8097,7 +8209,7 @@
       </c>
       <c r="F240" s="34"/>
     </row>
-    <row r="241" spans="1:6" ht="16">
+    <row r="241" spans="1:6" ht="15.75">
       <c r="A241" s="21" t="s">
         <v>330</v>
       </c>
@@ -8113,7 +8225,7 @@
       </c>
       <c r="F241" s="34"/>
     </row>
-    <row r="242" spans="1:6" ht="16">
+    <row r="242" spans="1:6" ht="15.75">
       <c r="A242" s="21" t="s">
         <v>330</v>
       </c>
@@ -8129,7 +8241,7 @@
       </c>
       <c r="F242" s="34"/>
     </row>
-    <row r="243" spans="1:6" ht="16">
+    <row r="243" spans="1:6" ht="15.75">
       <c r="A243" s="21" t="s">
         <v>330</v>
       </c>
@@ -8145,7 +8257,7 @@
       </c>
       <c r="F243" s="34"/>
     </row>
-    <row r="244" spans="1:6" ht="16">
+    <row r="244" spans="1:6" ht="15.75">
       <c r="A244" s="21" t="s">
         <v>330</v>
       </c>
@@ -8161,7 +8273,7 @@
       </c>
       <c r="F244" s="34"/>
     </row>
-    <row r="245" spans="1:6" ht="16">
+    <row r="245" spans="1:6" ht="15.75">
       <c r="A245" s="21" t="s">
         <v>330</v>
       </c>
@@ -8177,7 +8289,7 @@
       </c>
       <c r="F245" s="34"/>
     </row>
-    <row r="246" spans="1:6" ht="16">
+    <row r="246" spans="1:6" ht="15.75">
       <c r="A246" s="21" t="s">
         <v>330</v>
       </c>
@@ -8193,7 +8305,7 @@
       </c>
       <c r="F246" s="34"/>
     </row>
-    <row r="247" spans="1:6" ht="16">
+    <row r="247" spans="1:6" ht="15.75">
       <c r="A247" s="21" t="s">
         <v>330</v>
       </c>
@@ -8209,7 +8321,7 @@
       </c>
       <c r="F247" s="34"/>
     </row>
-    <row r="248" spans="1:6" ht="16">
+    <row r="248" spans="1:6" ht="15.75">
       <c r="A248" s="21" t="s">
         <v>330</v>
       </c>
@@ -8225,7 +8337,7 @@
       </c>
       <c r="F248" s="34"/>
     </row>
-    <row r="249" spans="1:6" ht="16">
+    <row r="249" spans="1:6" ht="15.75">
       <c r="A249" s="21" t="s">
         <v>330</v>
       </c>
@@ -8241,7 +8353,7 @@
       </c>
       <c r="F249" s="34"/>
     </row>
-    <row r="250" spans="1:6" ht="16">
+    <row r="250" spans="1:6" ht="15.75">
       <c r="A250" s="21" t="s">
         <v>330</v>
       </c>
@@ -8257,7 +8369,7 @@
       </c>
       <c r="F250" s="34"/>
     </row>
-    <row r="251" spans="1:6" ht="16">
+    <row r="251" spans="1:6" ht="15.75">
       <c r="A251" s="21" t="s">
         <v>330</v>
       </c>
@@ -8273,7 +8385,7 @@
       </c>
       <c r="F251" s="34"/>
     </row>
-    <row r="252" spans="1:6" ht="16">
+    <row r="252" spans="1:6" ht="15.75">
       <c r="A252" s="21" t="s">
         <v>330</v>
       </c>
@@ -8291,7 +8403,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="16">
+    <row r="253" spans="1:6" ht="15.75">
       <c r="A253" s="21" t="s">
         <v>330</v>
       </c>
@@ -8307,7 +8419,7 @@
       </c>
       <c r="F253" s="34"/>
     </row>
-    <row r="254" spans="1:6" ht="16">
+    <row r="254" spans="1:6" ht="15.75">
       <c r="A254" s="21" t="s">
         <v>330</v>
       </c>
@@ -8323,7 +8435,7 @@
       </c>
       <c r="F254" s="34"/>
     </row>
-    <row r="255" spans="1:6" ht="16">
+    <row r="255" spans="1:6" ht="15.75">
       <c r="A255" s="21" t="s">
         <v>330</v>
       </c>
@@ -8339,7 +8451,7 @@
       </c>
       <c r="F255" s="34"/>
     </row>
-    <row r="256" spans="1:6" ht="16">
+    <row r="256" spans="1:6" ht="15.75">
       <c r="A256" s="21" t="s">
         <v>330</v>
       </c>
@@ -8355,7 +8467,7 @@
       </c>
       <c r="F256" s="34"/>
     </row>
-    <row r="257" spans="1:6" ht="16">
+    <row r="257" spans="1:6" ht="15.75">
       <c r="A257" s="21" t="s">
         <v>330</v>
       </c>
@@ -8371,7 +8483,7 @@
       </c>
       <c r="F257" s="34"/>
     </row>
-    <row r="258" spans="1:6" ht="16">
+    <row r="258" spans="1:6" ht="15.75">
       <c r="A258" s="21" t="s">
         <v>330</v>
       </c>
@@ -8387,7 +8499,7 @@
       </c>
       <c r="F258" s="34"/>
     </row>
-    <row r="259" spans="1:6" ht="16">
+    <row r="259" spans="1:6" ht="15.75">
       <c r="A259" s="21" t="s">
         <v>330</v>
       </c>
@@ -8403,7 +8515,7 @@
       </c>
       <c r="F259" s="34"/>
     </row>
-    <row r="260" spans="1:6" ht="16">
+    <row r="260" spans="1:6" ht="15.75">
       <c r="A260" s="21" t="s">
         <v>330</v>
       </c>
@@ -8419,7 +8531,7 @@
       </c>
       <c r="F260" s="34"/>
     </row>
-    <row r="261" spans="1:6" ht="16">
+    <row r="261" spans="1:6" ht="15.75">
       <c r="A261" s="21" t="s">
         <v>330</v>
       </c>
@@ -8435,7 +8547,7 @@
       </c>
       <c r="F261" s="34"/>
     </row>
-    <row r="262" spans="1:6" ht="16">
+    <row r="262" spans="1:6" ht="15.75">
       <c r="A262" s="21" t="s">
         <v>330</v>
       </c>
@@ -8451,7 +8563,7 @@
       </c>
       <c r="F262" s="34"/>
     </row>
-    <row r="263" spans="1:6" ht="16">
+    <row r="263" spans="1:6" ht="15.75">
       <c r="A263" s="21" t="s">
         <v>330</v>
       </c>
@@ -8467,7 +8579,7 @@
       </c>
       <c r="F263" s="34"/>
     </row>
-    <row r="264" spans="1:6" ht="16">
+    <row r="264" spans="1:6" ht="15.75">
       <c r="A264" s="21" t="s">
         <v>330</v>
       </c>
@@ -8483,7 +8595,7 @@
       </c>
       <c r="F264" s="34"/>
     </row>
-    <row r="265" spans="1:6" ht="16">
+    <row r="265" spans="1:6" ht="15.75">
       <c r="A265" s="21" t="s">
         <v>330</v>
       </c>
@@ -8499,7 +8611,7 @@
       </c>
       <c r="F265" s="34"/>
     </row>
-    <row r="266" spans="1:6" ht="16">
+    <row r="266" spans="1:6" ht="15.75">
       <c r="A266" s="21" t="s">
         <v>330</v>
       </c>
@@ -8515,7 +8627,7 @@
       </c>
       <c r="F266" s="34"/>
     </row>
-    <row r="267" spans="1:6" ht="16">
+    <row r="267" spans="1:6" ht="15.75">
       <c r="A267" s="21" t="s">
         <v>330</v>
       </c>
@@ -8531,7 +8643,7 @@
       </c>
       <c r="F267" s="34"/>
     </row>
-    <row r="268" spans="1:6" ht="16">
+    <row r="268" spans="1:6" ht="15.75">
       <c r="A268" s="21" t="s">
         <v>330</v>
       </c>
@@ -8547,7 +8659,7 @@
       </c>
       <c r="F268" s="34"/>
     </row>
-    <row r="269" spans="1:6" ht="16">
+    <row r="269" spans="1:6" ht="15.75">
       <c r="A269" s="21" t="s">
         <v>330</v>
       </c>
@@ -8579,7 +8691,7 @@
       <c r="E271" s="38"/>
       <c r="F271" s="34"/>
     </row>
-    <row r="272" spans="1:6" ht="16">
+    <row r="272" spans="1:6" ht="15.75">
       <c r="A272" s="21" t="s">
         <v>366</v>
       </c>
@@ -8595,7 +8707,7 @@
       </c>
       <c r="F272" s="34"/>
     </row>
-    <row r="273" spans="1:6" ht="16">
+    <row r="273" spans="1:6" ht="15.75">
       <c r="A273" s="21" t="s">
         <v>366</v>
       </c>
@@ -8611,7 +8723,7 @@
       </c>
       <c r="F273" s="34"/>
     </row>
-    <row r="274" spans="1:6" ht="16">
+    <row r="274" spans="1:6" ht="15.75">
       <c r="A274" s="21" t="s">
         <v>366</v>
       </c>
@@ -8627,7 +8739,7 @@
       </c>
       <c r="F274" s="34"/>
     </row>
-    <row r="275" spans="1:6" ht="16">
+    <row r="275" spans="1:6" ht="15.75">
       <c r="A275" s="21" t="s">
         <v>366</v>
       </c>
@@ -8643,7 +8755,7 @@
       </c>
       <c r="F275" s="34"/>
     </row>
-    <row r="276" spans="1:6" ht="16">
+    <row r="276" spans="1:6" ht="15.75">
       <c r="A276" s="21" t="s">
         <v>366</v>
       </c>
@@ -8659,7 +8771,7 @@
       </c>
       <c r="F276" s="34"/>
     </row>
-    <row r="277" spans="1:6" ht="16">
+    <row r="277" spans="1:6" ht="15.75">
       <c r="A277" s="21" t="s">
         <v>366</v>
       </c>
@@ -8675,7 +8787,7 @@
       </c>
       <c r="F277" s="34"/>
     </row>
-    <row r="278" spans="1:6" ht="16">
+    <row r="278" spans="1:6" ht="15.75">
       <c r="A278" s="21" t="s">
         <v>366</v>
       </c>
@@ -8691,7 +8803,7 @@
       </c>
       <c r="F278" s="34"/>
     </row>
-    <row r="279" spans="1:6" ht="16">
+    <row r="279" spans="1:6" ht="15.75">
       <c r="A279" s="21" t="s">
         <v>366</v>
       </c>
@@ -8707,7 +8819,7 @@
       </c>
       <c r="F279" s="34"/>
     </row>
-    <row r="280" spans="1:6" ht="16">
+    <row r="280" spans="1:6" ht="15.75">
       <c r="A280" s="21" t="s">
         <v>366</v>
       </c>
@@ -8723,7 +8835,7 @@
       </c>
       <c r="F280" s="34"/>
     </row>
-    <row r="281" spans="1:6" ht="16">
+    <row r="281" spans="1:6" ht="15.75">
       <c r="A281" s="21" t="s">
         <v>366</v>
       </c>
@@ -8739,7 +8851,7 @@
       </c>
       <c r="F281" s="34"/>
     </row>
-    <row r="282" spans="1:6" ht="16">
+    <row r="282" spans="1:6" ht="15.75">
       <c r="A282" s="21" t="s">
         <v>366</v>
       </c>
@@ -8755,7 +8867,7 @@
       </c>
       <c r="F282" s="34"/>
     </row>
-    <row r="283" spans="1:6" ht="16">
+    <row r="283" spans="1:6" ht="15.75">
       <c r="A283" s="21" t="s">
         <v>366</v>
       </c>
@@ -8771,7 +8883,7 @@
       </c>
       <c r="F283" s="34"/>
     </row>
-    <row r="284" spans="1:6" ht="16">
+    <row r="284" spans="1:6" ht="15.75">
       <c r="A284" s="21" t="s">
         <v>366</v>
       </c>
@@ -8787,7 +8899,7 @@
       </c>
       <c r="F284" s="34"/>
     </row>
-    <row r="285" spans="1:6" ht="16">
+    <row r="285" spans="1:6" ht="15.75">
       <c r="A285" s="21" t="s">
         <v>366</v>
       </c>
@@ -8803,7 +8915,7 @@
       </c>
       <c r="F285" s="34"/>
     </row>
-    <row r="286" spans="1:6" ht="16">
+    <row r="286" spans="1:6" ht="15.75">
       <c r="A286" s="21" t="s">
         <v>366</v>
       </c>
@@ -8819,7 +8931,7 @@
       </c>
       <c r="F286" s="34"/>
     </row>
-    <row r="287" spans="1:6" ht="16">
+    <row r="287" spans="1:6" ht="15.75">
       <c r="A287" s="21" t="s">
         <v>366</v>
       </c>
@@ -8835,7 +8947,7 @@
       </c>
       <c r="F287" s="34"/>
     </row>
-    <row r="288" spans="1:6" ht="16">
+    <row r="288" spans="1:6" ht="15.75">
       <c r="A288" s="21" t="s">
         <v>366</v>
       </c>
@@ -8851,7 +8963,7 @@
       </c>
       <c r="F288" s="34"/>
     </row>
-    <row r="289" spans="1:6" ht="16">
+    <row r="289" spans="1:6" ht="15.75">
       <c r="A289" s="21" t="s">
         <v>366</v>
       </c>
@@ -8867,7 +8979,7 @@
       </c>
       <c r="F289" s="34"/>
     </row>
-    <row r="290" spans="1:6" ht="16">
+    <row r="290" spans="1:6" ht="15.75">
       <c r="A290" s="21" t="s">
         <v>366</v>
       </c>
@@ -8899,7 +9011,7 @@
       <c r="E292" s="38"/>
       <c r="F292" s="34"/>
     </row>
-    <row r="293" spans="1:6" ht="16">
+    <row r="293" spans="1:6" ht="15.75">
       <c r="A293" s="21" t="s">
         <v>386</v>
       </c>
@@ -8915,7 +9027,7 @@
       </c>
       <c r="F293" s="34"/>
     </row>
-    <row r="294" spans="1:6" ht="16">
+    <row r="294" spans="1:6" ht="15.75">
       <c r="A294" s="21" t="s">
         <v>386</v>
       </c>
@@ -8931,7 +9043,7 @@
       </c>
       <c r="F294" s="34"/>
     </row>
-    <row r="295" spans="1:6" ht="16">
+    <row r="295" spans="1:6" ht="15.75">
       <c r="A295" s="21" t="s">
         <v>386</v>
       </c>
@@ -8947,7 +9059,7 @@
       </c>
       <c r="F295" s="34"/>
     </row>
-    <row r="296" spans="1:6" ht="16">
+    <row r="296" spans="1:6" ht="15.75">
       <c r="A296" s="21" t="s">
         <v>386</v>
       </c>
@@ -8963,7 +9075,7 @@
       </c>
       <c r="F296" s="34"/>
     </row>
-    <row r="297" spans="1:6" ht="16">
+    <row r="297" spans="1:6" ht="15.75">
       <c r="A297" s="21" t="s">
         <v>386</v>
       </c>
@@ -8979,7 +9091,7 @@
       </c>
       <c r="F297" s="34"/>
     </row>
-    <row r="298" spans="1:6" ht="16">
+    <row r="298" spans="1:6" ht="15.75">
       <c r="A298" s="21" t="s">
         <v>386</v>
       </c>
@@ -8995,7 +9107,7 @@
       </c>
       <c r="F298" s="34"/>
     </row>
-    <row r="299" spans="1:6" ht="16">
+    <row r="299" spans="1:6" ht="15.75">
       <c r="A299" s="21" t="s">
         <v>386</v>
       </c>
@@ -9011,7 +9123,7 @@
       </c>
       <c r="F299" s="34"/>
     </row>
-    <row r="300" spans="1:6" ht="16">
+    <row r="300" spans="1:6" ht="15.75">
       <c r="A300" s="21" t="s">
         <v>386</v>
       </c>
@@ -9027,7 +9139,7 @@
       </c>
       <c r="F300" s="34"/>
     </row>
-    <row r="301" spans="1:6" ht="16">
+    <row r="301" spans="1:6" ht="15.75">
       <c r="A301" s="21" t="s">
         <v>386</v>
       </c>
@@ -9043,7 +9155,7 @@
       </c>
       <c r="F301" s="34"/>
     </row>
-    <row r="302" spans="1:6" ht="16">
+    <row r="302" spans="1:6" ht="15.75">
       <c r="A302" s="21" t="s">
         <v>386</v>
       </c>
@@ -9059,7 +9171,7 @@
       </c>
       <c r="F302" s="34"/>
     </row>
-    <row r="303" spans="1:6" ht="16">
+    <row r="303" spans="1:6" ht="15.75">
       <c r="A303" s="21" t="s">
         <v>386</v>
       </c>
@@ -9075,7 +9187,7 @@
       </c>
       <c r="F303" s="34"/>
     </row>
-    <row r="304" spans="1:6" ht="16">
+    <row r="304" spans="1:6" ht="15.75">
       <c r="A304" s="21" t="s">
         <v>386</v>
       </c>
@@ -9091,7 +9203,7 @@
       </c>
       <c r="F304" s="34"/>
     </row>
-    <row r="305" spans="1:6" ht="16">
+    <row r="305" spans="1:6" ht="15.75">
       <c r="A305" s="21" t="s">
         <v>386</v>
       </c>
@@ -9107,7 +9219,7 @@
       </c>
       <c r="F305" s="34"/>
     </row>
-    <row r="306" spans="1:6" ht="16">
+    <row r="306" spans="1:6" ht="15.75">
       <c r="A306" s="21" t="s">
         <v>386</v>
       </c>
@@ -9123,7 +9235,7 @@
       </c>
       <c r="F306" s="34"/>
     </row>
-    <row r="307" spans="1:6" ht="16">
+    <row r="307" spans="1:6" ht="15.75">
       <c r="A307" s="21" t="s">
         <v>386</v>
       </c>
@@ -9139,7 +9251,7 @@
       </c>
       <c r="F307" s="34"/>
     </row>
-    <row r="308" spans="1:6" ht="16">
+    <row r="308" spans="1:6" ht="15.75">
       <c r="A308" s="21" t="s">
         <v>386</v>
       </c>
@@ -9155,7 +9267,7 @@
       </c>
       <c r="F308" s="34"/>
     </row>
-    <row r="309" spans="1:6" ht="16">
+    <row r="309" spans="1:6" ht="15.75">
       <c r="A309" s="21" t="s">
         <v>386</v>
       </c>
@@ -9171,7 +9283,7 @@
       </c>
       <c r="F309" s="34"/>
     </row>
-    <row r="310" spans="1:6" ht="16">
+    <row r="310" spans="1:6" ht="15.75">
       <c r="A310" s="21" t="s">
         <v>386</v>
       </c>
@@ -9187,7 +9299,7 @@
       </c>
       <c r="F310" s="34"/>
     </row>
-    <row r="311" spans="1:6" ht="16">
+    <row r="311" spans="1:6" ht="15.75">
       <c r="A311" s="21" t="s">
         <v>386</v>
       </c>
@@ -9203,7 +9315,7 @@
       </c>
       <c r="F311" s="34"/>
     </row>
-    <row r="312" spans="1:6" ht="16">
+    <row r="312" spans="1:6" ht="15.75">
       <c r="A312" s="21" t="s">
         <v>386</v>
       </c>
@@ -9219,7 +9331,7 @@
       </c>
       <c r="F312" s="34"/>
     </row>
-    <row r="313" spans="1:6" ht="16">
+    <row r="313" spans="1:6" ht="15.75">
       <c r="A313" s="21" t="s">
         <v>386</v>
       </c>
@@ -9235,7 +9347,7 @@
       </c>
       <c r="F313" s="34"/>
     </row>
-    <row r="314" spans="1:6" ht="16">
+    <row r="314" spans="1:6" ht="15.75">
       <c r="A314" s="21" t="s">
         <v>386</v>
       </c>
@@ -9251,7 +9363,7 @@
       </c>
       <c r="F314" s="34"/>
     </row>
-    <row r="315" spans="1:6" ht="16">
+    <row r="315" spans="1:6" ht="15.75">
       <c r="A315" s="21" t="s">
         <v>386</v>
       </c>
@@ -9267,7 +9379,7 @@
       </c>
       <c r="F315" s="34"/>
     </row>
-    <row r="316" spans="1:6" ht="16">
+    <row r="316" spans="1:6" ht="15.75">
       <c r="A316" s="21" t="s">
         <v>386</v>
       </c>
@@ -9283,7 +9395,7 @@
       </c>
       <c r="F316" s="34"/>
     </row>
-    <row r="317" spans="1:6" ht="16">
+    <row r="317" spans="1:6" ht="15.75">
       <c r="A317" s="21" t="s">
         <v>386</v>
       </c>
@@ -9299,7 +9411,7 @@
       </c>
       <c r="F317" s="34"/>
     </row>
-    <row r="318" spans="1:6" ht="16">
+    <row r="318" spans="1:6" ht="15.75">
       <c r="A318" s="21" t="s">
         <v>386</v>
       </c>
@@ -9315,7 +9427,7 @@
       </c>
       <c r="F318" s="34"/>
     </row>
-    <row r="319" spans="1:6" ht="16">
+    <row r="319" spans="1:6" ht="15.75">
       <c r="A319" s="21" t="s">
         <v>386</v>
       </c>
@@ -9331,7 +9443,7 @@
       </c>
       <c r="F319" s="34"/>
     </row>
-    <row r="320" spans="1:6" ht="16">
+    <row r="320" spans="1:6" ht="15.75">
       <c r="A320" s="21" t="s">
         <v>386</v>
       </c>
@@ -9347,7 +9459,7 @@
       </c>
       <c r="F320" s="34"/>
     </row>
-    <row r="321" spans="1:6" ht="16">
+    <row r="321" spans="1:6" ht="15.75">
       <c r="A321" s="21" t="s">
         <v>386</v>
       </c>
@@ -9363,7 +9475,7 @@
       </c>
       <c r="F321" s="34"/>
     </row>
-    <row r="322" spans="1:6" ht="16">
+    <row r="322" spans="1:6" ht="15.75">
       <c r="A322" s="21" t="s">
         <v>386</v>
       </c>
@@ -9379,7 +9491,7 @@
       </c>
       <c r="F322" s="34"/>
     </row>
-    <row r="323" spans="1:6" ht="16">
+    <row r="323" spans="1:6" ht="15.75">
       <c r="A323" s="21" t="s">
         <v>386</v>
       </c>
@@ -9395,7 +9507,7 @@
       </c>
       <c r="F323" s="34"/>
     </row>
-    <row r="324" spans="1:6" ht="16">
+    <row r="324" spans="1:6" ht="15.75">
       <c r="A324" s="21" t="s">
         <v>386</v>
       </c>
@@ -9411,7 +9523,7 @@
       </c>
       <c r="F324" s="34"/>
     </row>
-    <row r="325" spans="1:6" ht="16">
+    <row r="325" spans="1:6" ht="15.75">
       <c r="A325" s="21" t="s">
         <v>386</v>
       </c>
@@ -9427,7 +9539,7 @@
       </c>
       <c r="F325" s="34"/>
     </row>
-    <row r="326" spans="1:6" ht="16">
+    <row r="326" spans="1:6" ht="15.75">
       <c r="A326" s="21" t="s">
         <v>386</v>
       </c>
@@ -9443,7 +9555,7 @@
       </c>
       <c r="F326" s="34"/>
     </row>
-    <row r="327" spans="1:6" ht="16">
+    <row r="327" spans="1:6" ht="15.75">
       <c r="A327" s="21" t="s">
         <v>386</v>
       </c>
@@ -9459,7 +9571,7 @@
       </c>
       <c r="F327" s="34"/>
     </row>
-    <row r="328" spans="1:6" ht="16">
+    <row r="328" spans="1:6" ht="15.75">
       <c r="A328" s="21" t="s">
         <v>386</v>
       </c>
@@ -9475,7 +9587,7 @@
       </c>
       <c r="F328" s="34"/>
     </row>
-    <row r="329" spans="1:6" ht="16">
+    <row r="329" spans="1:6" ht="15.75">
       <c r="A329" s="21" t="s">
         <v>386</v>
       </c>
@@ -9491,7 +9603,7 @@
       </c>
       <c r="F329" s="34"/>
     </row>
-    <row r="330" spans="1:6" ht="16">
+    <row r="330" spans="1:6" ht="15.75">
       <c r="A330" s="21" t="s">
         <v>386</v>
       </c>
@@ -9523,7 +9635,7 @@
       <c r="E332" s="38"/>
       <c r="F332" s="34"/>
     </row>
-    <row r="333" spans="1:6" ht="16">
+    <row r="333" spans="1:6" ht="15.75">
       <c r="A333" s="19" t="s">
         <v>425</v>
       </c>
@@ -9539,7 +9651,7 @@
       </c>
       <c r="F333" s="34"/>
     </row>
-    <row r="334" spans="1:6" ht="16">
+    <row r="334" spans="1:6" ht="15.75">
       <c r="A334" s="19" t="s">
         <v>425</v>
       </c>
@@ -9555,7 +9667,7 @@
       </c>
       <c r="F334" s="34"/>
     </row>
-    <row r="335" spans="1:6" ht="16">
+    <row r="335" spans="1:6" ht="15.75">
       <c r="A335" s="19" t="s">
         <v>425</v>
       </c>
@@ -9571,7 +9683,7 @@
       </c>
       <c r="F335" s="34"/>
     </row>
-    <row r="336" spans="1:6" ht="16">
+    <row r="336" spans="1:6" ht="15.75">
       <c r="A336" s="19" t="s">
         <v>425</v>
       </c>
@@ -9587,7 +9699,7 @@
       </c>
       <c r="F336" s="34"/>
     </row>
-    <row r="337" spans="1:6" ht="16">
+    <row r="337" spans="1:6" ht="15.75">
       <c r="A337" s="19" t="s">
         <v>425</v>
       </c>
@@ -9603,7 +9715,7 @@
       </c>
       <c r="F337" s="34"/>
     </row>
-    <row r="338" spans="1:6" ht="16">
+    <row r="338" spans="1:6" ht="15.75">
       <c r="A338" s="19" t="s">
         <v>425</v>
       </c>
@@ -9619,7 +9731,7 @@
       </c>
       <c r="F338" s="34"/>
     </row>
-    <row r="339" spans="1:6" ht="16">
+    <row r="339" spans="1:6" ht="15.75">
       <c r="A339" s="19" t="s">
         <v>425</v>
       </c>
@@ -9635,7 +9747,7 @@
       </c>
       <c r="F339" s="34"/>
     </row>
-    <row r="340" spans="1:6" ht="16">
+    <row r="340" spans="1:6" ht="15.75">
       <c r="A340" s="19" t="s">
         <v>425</v>
       </c>
@@ -9651,7 +9763,7 @@
       </c>
       <c r="F340" s="34"/>
     </row>
-    <row r="341" spans="1:6" ht="16">
+    <row r="341" spans="1:6" ht="15.75">
       <c r="A341" s="19" t="s">
         <v>425</v>
       </c>
@@ -9667,7 +9779,7 @@
       </c>
       <c r="F341" s="34"/>
     </row>
-    <row r="342" spans="1:6" ht="16">
+    <row r="342" spans="1:6" ht="15.75">
       <c r="A342" s="19" t="s">
         <v>425</v>
       </c>
@@ -9683,7 +9795,7 @@
       </c>
       <c r="F342" s="34"/>
     </row>
-    <row r="343" spans="1:6" ht="16">
+    <row r="343" spans="1:6" ht="15.75">
       <c r="A343" s="19" t="s">
         <v>425</v>
       </c>
@@ -9699,7 +9811,7 @@
       </c>
       <c r="F343" s="34"/>
     </row>
-    <row r="344" spans="1:6" ht="16">
+    <row r="344" spans="1:6" ht="15.75">
       <c r="A344" s="19" t="s">
         <v>425</v>
       </c>
@@ -9715,7 +9827,7 @@
       </c>
       <c r="F344" s="34"/>
     </row>
-    <row r="345" spans="1:6" ht="16">
+    <row r="345" spans="1:6" ht="15.75">
       <c r="A345" s="19" t="s">
         <v>425</v>
       </c>
@@ -9731,7 +9843,7 @@
       </c>
       <c r="F345" s="34"/>
     </row>
-    <row r="346" spans="1:6" ht="16">
+    <row r="346" spans="1:6" ht="15.75">
       <c r="A346" s="19" t="s">
         <v>425</v>
       </c>
@@ -9747,7 +9859,7 @@
       </c>
       <c r="F346" s="34"/>
     </row>
-    <row r="347" spans="1:6" ht="16">
+    <row r="347" spans="1:6" ht="15.75">
       <c r="A347" s="19" t="s">
         <v>425</v>
       </c>
@@ -9763,7 +9875,7 @@
       </c>
       <c r="F347" s="34"/>
     </row>
-    <row r="348" spans="1:6" ht="16">
+    <row r="348" spans="1:6" ht="15.75">
       <c r="A348" s="19" t="s">
         <v>425</v>
       </c>
@@ -9779,7 +9891,7 @@
       </c>
       <c r="F348" s="34"/>
     </row>
-    <row r="349" spans="1:6" ht="16">
+    <row r="349" spans="1:6" ht="15.75">
       <c r="A349" s="19" t="s">
         <v>425</v>
       </c>
@@ -9795,7 +9907,7 @@
       </c>
       <c r="F349" s="34"/>
     </row>
-    <row r="350" spans="1:6" ht="16">
+    <row r="350" spans="1:6" ht="15.75">
       <c r="A350" s="19" t="s">
         <v>425</v>
       </c>
@@ -9827,7 +9939,7 @@
       <c r="E352" s="38"/>
       <c r="F352" s="34"/>
     </row>
-    <row r="353" spans="1:6" ht="16">
+    <row r="353" spans="1:6" ht="15.75">
       <c r="A353" s="19" t="s">
         <v>444</v>
       </c>
@@ -9843,7 +9955,7 @@
       </c>
       <c r="F353" s="34"/>
     </row>
-    <row r="354" spans="1:6" ht="16">
+    <row r="354" spans="1:6" ht="15.75">
       <c r="A354" s="19" t="s">
         <v>444</v>
       </c>
@@ -9859,7 +9971,7 @@
       </c>
       <c r="F354" s="34"/>
     </row>
-    <row r="355" spans="1:6" ht="16">
+    <row r="355" spans="1:6" ht="15.75">
       <c r="A355" s="19" t="s">
         <v>444</v>
       </c>
@@ -9875,7 +9987,7 @@
       </c>
       <c r="F355" s="34"/>
     </row>
-    <row r="356" spans="1:6" ht="16">
+    <row r="356" spans="1:6" ht="15.75">
       <c r="A356" s="19" t="s">
         <v>444</v>
       </c>
@@ -9891,7 +10003,7 @@
       </c>
       <c r="F356" s="34"/>
     </row>
-    <row r="357" spans="1:6" ht="16">
+    <row r="357" spans="1:6" ht="15.75">
       <c r="A357" s="19" t="s">
         <v>444</v>
       </c>
@@ -9907,7 +10019,7 @@
       </c>
       <c r="F357" s="34"/>
     </row>
-    <row r="358" spans="1:6" ht="16">
+    <row r="358" spans="1:6" ht="15.75">
       <c r="A358" s="19" t="s">
         <v>444</v>
       </c>
@@ -9923,7 +10035,7 @@
       </c>
       <c r="F358" s="34"/>
     </row>
-    <row r="359" spans="1:6" ht="16">
+    <row r="359" spans="1:6" ht="15.75">
       <c r="A359" s="19" t="s">
         <v>444</v>
       </c>
@@ -9939,7 +10051,7 @@
       </c>
       <c r="F359" s="34"/>
     </row>
-    <row r="360" spans="1:6" ht="16">
+    <row r="360" spans="1:6" ht="15.75">
       <c r="A360" s="19" t="s">
         <v>444</v>
       </c>
@@ -9955,7 +10067,7 @@
       </c>
       <c r="F360" s="34"/>
     </row>
-    <row r="361" spans="1:6" ht="16">
+    <row r="361" spans="1:6" ht="15.75">
       <c r="A361" s="19" t="s">
         <v>444</v>
       </c>
@@ -9971,7 +10083,7 @@
       </c>
       <c r="F361" s="34"/>
     </row>
-    <row r="362" spans="1:6" ht="16">
+    <row r="362" spans="1:6" ht="15.75">
       <c r="A362" s="19" t="s">
         <v>444</v>
       </c>
@@ -9987,7 +10099,7 @@
       </c>
       <c r="F362" s="34"/>
     </row>
-    <row r="363" spans="1:6" ht="16">
+    <row r="363" spans="1:6" ht="15.75">
       <c r="A363" s="19" t="s">
         <v>444</v>
       </c>
@@ -10003,7 +10115,7 @@
       </c>
       <c r="F363" s="34"/>
     </row>
-    <row r="364" spans="1:6" ht="16">
+    <row r="364" spans="1:6" ht="15.75">
       <c r="A364" s="19" t="s">
         <v>444</v>
       </c>
@@ -10019,7 +10131,7 @@
       </c>
       <c r="F364" s="34"/>
     </row>
-    <row r="365" spans="1:6" ht="16">
+    <row r="365" spans="1:6" ht="15.75">
       <c r="A365" s="19" t="s">
         <v>444</v>
       </c>
@@ -10035,7 +10147,7 @@
       </c>
       <c r="F365" s="34"/>
     </row>
-    <row r="366" spans="1:6" ht="16">
+    <row r="366" spans="1:6" ht="15.75">
       <c r="A366" s="19" t="s">
         <v>444</v>
       </c>
@@ -10051,7 +10163,7 @@
       </c>
       <c r="F366" s="34"/>
     </row>
-    <row r="367" spans="1:6" ht="16">
+    <row r="367" spans="1:6" ht="15.75">
       <c r="A367" s="19" t="s">
         <v>444</v>
       </c>
@@ -10067,7 +10179,7 @@
       </c>
       <c r="F367" s="34"/>
     </row>
-    <row r="368" spans="1:6" ht="16">
+    <row r="368" spans="1:6" ht="15.75">
       <c r="A368" s="19" t="s">
         <v>444</v>
       </c>
@@ -10083,7 +10195,7 @@
       </c>
       <c r="F368" s="34"/>
     </row>
-    <row r="369" spans="1:6" ht="16">
+    <row r="369" spans="1:6" ht="15.75">
       <c r="A369" s="19" t="s">
         <v>444</v>
       </c>
@@ -10099,7 +10211,7 @@
       </c>
       <c r="F369" s="34"/>
     </row>
-    <row r="370" spans="1:6" ht="16">
+    <row r="370" spans="1:6" ht="15.75">
       <c r="A370" s="19" t="s">
         <v>444</v>
       </c>
@@ -10115,7 +10227,7 @@
       </c>
       <c r="F370" s="34"/>
     </row>
-    <row r="371" spans="1:6" ht="16">
+    <row r="371" spans="1:6" ht="15.75">
       <c r="A371" s="19" t="s">
         <v>444</v>
       </c>
@@ -10131,7 +10243,7 @@
       </c>
       <c r="F371" s="34"/>
     </row>
-    <row r="372" spans="1:6" ht="16">
+    <row r="372" spans="1:6" ht="15.75">
       <c r="A372" s="19" t="s">
         <v>444</v>
       </c>
@@ -10147,7 +10259,7 @@
       </c>
       <c r="F372" s="34"/>
     </row>
-    <row r="373" spans="1:6" ht="16">
+    <row r="373" spans="1:6" ht="15.75">
       <c r="A373" s="19" t="s">
         <v>444</v>
       </c>
@@ -10163,7 +10275,7 @@
       </c>
       <c r="F373" s="34"/>
     </row>
-    <row r="374" spans="1:6" ht="16">
+    <row r="374" spans="1:6" ht="15.75">
       <c r="A374" s="19" t="s">
         <v>444</v>
       </c>
@@ -10179,7 +10291,7 @@
       </c>
       <c r="F374" s="34"/>
     </row>
-    <row r="375" spans="1:6" ht="16">
+    <row r="375" spans="1:6" ht="15.75">
       <c r="A375" s="19" t="s">
         <v>444</v>
       </c>
@@ -10195,7 +10307,7 @@
       </c>
       <c r="F375" s="34"/>
     </row>
-    <row r="376" spans="1:6" ht="16">
+    <row r="376" spans="1:6" ht="15.75">
       <c r="A376" s="19" t="s">
         <v>444</v>
       </c>
@@ -10211,7 +10323,7 @@
       </c>
       <c r="F376" s="34"/>
     </row>
-    <row r="377" spans="1:6" ht="16">
+    <row r="377" spans="1:6" ht="15.75">
       <c r="A377" s="19" t="s">
         <v>444</v>
       </c>
@@ -10227,7 +10339,7 @@
       </c>
       <c r="F377" s="34"/>
     </row>
-    <row r="378" spans="1:6" ht="16">
+    <row r="378" spans="1:6" ht="15.75">
       <c r="A378" s="19" t="s">
         <v>444</v>
       </c>
@@ -10243,7 +10355,7 @@
       </c>
       <c r="F378" s="34"/>
     </row>
-    <row r="379" spans="1:6" ht="16">
+    <row r="379" spans="1:6" ht="15.75">
       <c r="A379" s="19" t="s">
         <v>444</v>
       </c>
@@ -10259,7 +10371,7 @@
       </c>
       <c r="F379" s="34"/>
     </row>
-    <row r="380" spans="1:6" ht="16">
+    <row r="380" spans="1:6" ht="15.75">
       <c r="A380" s="19" t="s">
         <v>444</v>
       </c>
@@ -10275,7 +10387,7 @@
       </c>
       <c r="F380" s="34"/>
     </row>
-    <row r="381" spans="1:6" ht="16">
+    <row r="381" spans="1:6" ht="15.75">
       <c r="A381" s="19" t="s">
         <v>444</v>
       </c>
@@ -10291,7 +10403,7 @@
       </c>
       <c r="F381" s="34"/>
     </row>
-    <row r="382" spans="1:6" ht="16">
+    <row r="382" spans="1:6" ht="15.75">
       <c r="A382" s="19" t="s">
         <v>444</v>
       </c>
@@ -10307,7 +10419,7 @@
       </c>
       <c r="F382" s="34"/>
     </row>
-    <row r="383" spans="1:6" ht="16">
+    <row r="383" spans="1:6" ht="15.75">
       <c r="A383" s="19" t="s">
         <v>444</v>
       </c>
@@ -10323,7 +10435,7 @@
       </c>
       <c r="F383" s="34"/>
     </row>
-    <row r="384" spans="1:6" ht="16">
+    <row r="384" spans="1:6" ht="15.75">
       <c r="A384" s="19" t="s">
         <v>444</v>
       </c>
@@ -10339,7 +10451,7 @@
       </c>
       <c r="F384" s="34"/>
     </row>
-    <row r="385" spans="1:6" ht="16">
+    <row r="385" spans="1:6" ht="15.75">
       <c r="A385" s="19" t="s">
         <v>444</v>
       </c>
@@ -10355,7 +10467,7 @@
       </c>
       <c r="F385" s="34"/>
     </row>
-    <row r="386" spans="1:6" ht="16">
+    <row r="386" spans="1:6" ht="15.75">
       <c r="A386" s="19" t="s">
         <v>444</v>
       </c>
@@ -10371,7 +10483,7 @@
       </c>
       <c r="F386" s="34"/>
     </row>
-    <row r="387" spans="1:6" ht="16">
+    <row r="387" spans="1:6" ht="15.75">
       <c r="A387" s="19" t="s">
         <v>444</v>
       </c>
@@ -10387,7 +10499,7 @@
       </c>
       <c r="F387" s="34"/>
     </row>
-    <row r="388" spans="1:6" ht="16">
+    <row r="388" spans="1:6" ht="15.75">
       <c r="A388" s="19" t="s">
         <v>444</v>
       </c>
@@ -10403,7 +10515,7 @@
       </c>
       <c r="F388" s="34"/>
     </row>
-    <row r="389" spans="1:6" ht="16">
+    <row r="389" spans="1:6" ht="15.75">
       <c r="A389" s="19" t="s">
         <v>444</v>
       </c>
@@ -10419,7 +10531,7 @@
       </c>
       <c r="F389" s="34"/>
     </row>
-    <row r="390" spans="1:6" ht="16">
+    <row r="390" spans="1:6" ht="15.75">
       <c r="A390" s="19" t="s">
         <v>444</v>
       </c>
@@ -10435,7 +10547,7 @@
       </c>
       <c r="F390" s="34"/>
     </row>
-    <row r="391" spans="1:6" ht="16">
+    <row r="391" spans="1:6" ht="15.75">
       <c r="A391" s="19" t="s">
         <v>444</v>
       </c>
@@ -10451,7 +10563,7 @@
       </c>
       <c r="F391" s="34"/>
     </row>
-    <row r="392" spans="1:6" ht="16">
+    <row r="392" spans="1:6" ht="15.75">
       <c r="A392" s="19" t="s">
         <v>444</v>
       </c>
@@ -10467,7 +10579,7 @@
       </c>
       <c r="F392" s="34"/>
     </row>
-    <row r="393" spans="1:6" ht="16">
+    <row r="393" spans="1:6" ht="15.75">
       <c r="A393" s="19" t="s">
         <v>444</v>
       </c>
@@ -10483,7 +10595,7 @@
       </c>
       <c r="F393" s="34"/>
     </row>
-    <row r="394" spans="1:6" ht="16">
+    <row r="394" spans="1:6" ht="15.75">
       <c r="A394" s="19" t="s">
         <v>444</v>
       </c>
@@ -10499,7 +10611,7 @@
       </c>
       <c r="F394" s="34"/>
     </row>
-    <row r="395" spans="1:6" ht="16">
+    <row r="395" spans="1:6" ht="15.75">
       <c r="A395" s="19" t="s">
         <v>444</v>
       </c>
@@ -10515,7 +10627,7 @@
       </c>
       <c r="F395" s="34"/>
     </row>
-    <row r="396" spans="1:6" ht="16">
+    <row r="396" spans="1:6" ht="15.75">
       <c r="A396" s="19" t="s">
         <v>444</v>
       </c>
@@ -10547,7 +10659,7 @@
       <c r="E398" s="38"/>
       <c r="F398" s="34"/>
     </row>
-    <row r="399" spans="1:6" ht="16">
+    <row r="399" spans="1:6" ht="15.75">
       <c r="A399" s="19" t="s">
         <v>488</v>
       </c>
@@ -10563,7 +10675,7 @@
       </c>
       <c r="F399" s="34"/>
     </row>
-    <row r="400" spans="1:6" ht="16">
+    <row r="400" spans="1:6" ht="15.75">
       <c r="A400" s="19" t="s">
         <v>488</v>
       </c>
@@ -10579,7 +10691,7 @@
       </c>
       <c r="F400" s="34"/>
     </row>
-    <row r="401" spans="1:6" ht="16">
+    <row r="401" spans="1:6" ht="15.75">
       <c r="A401" s="19" t="s">
         <v>488</v>
       </c>
@@ -10595,7 +10707,7 @@
       </c>
       <c r="F401" s="34"/>
     </row>
-    <row r="402" spans="1:6" ht="16">
+    <row r="402" spans="1:6" ht="15.75">
       <c r="A402" s="19" t="s">
         <v>488</v>
       </c>
@@ -10611,7 +10723,7 @@
       </c>
       <c r="F402" s="34"/>
     </row>
-    <row r="403" spans="1:6" ht="16">
+    <row r="403" spans="1:6" ht="15.75">
       <c r="A403" s="19" t="s">
         <v>488</v>
       </c>
@@ -10627,7 +10739,7 @@
       </c>
       <c r="F403" s="34"/>
     </row>
-    <row r="404" spans="1:6" ht="16">
+    <row r="404" spans="1:6" ht="15.75">
       <c r="A404" s="19" t="s">
         <v>488</v>
       </c>
@@ -10659,7 +10771,7 @@
       <c r="E406" s="38"/>
       <c r="F406" s="34"/>
     </row>
-    <row r="407" spans="1:6" ht="16">
+    <row r="407" spans="1:6" ht="15.75">
       <c r="A407" s="21" t="s">
         <v>494</v>
       </c>
@@ -10675,7 +10787,7 @@
       </c>
       <c r="F407" s="34"/>
     </row>
-    <row r="408" spans="1:6" ht="16">
+    <row r="408" spans="1:6" ht="15.75">
       <c r="A408" s="21" t="s">
         <v>494</v>
       </c>
@@ -10691,7 +10803,7 @@
       </c>
       <c r="F408" s="34"/>
     </row>
-    <row r="409" spans="1:6" ht="16">
+    <row r="409" spans="1:6" ht="15.75">
       <c r="A409" s="21" t="s">
         <v>494</v>
       </c>
@@ -10707,7 +10819,7 @@
       </c>
       <c r="F409" s="34"/>
     </row>
-    <row r="410" spans="1:6" ht="16">
+    <row r="410" spans="1:6" ht="15.75">
       <c r="A410" s="21" t="s">
         <v>494</v>
       </c>
@@ -10723,7 +10835,7 @@
       </c>
       <c r="F410" s="34"/>
     </row>
-    <row r="411" spans="1:6" ht="16">
+    <row r="411" spans="1:6" ht="15.75">
       <c r="A411" s="21" t="s">
         <v>494</v>
       </c>
@@ -10739,7 +10851,7 @@
       </c>
       <c r="F411" s="34"/>
     </row>
-    <row r="412" spans="1:6" ht="16">
+    <row r="412" spans="1:6" ht="15.75">
       <c r="A412" s="21" t="s">
         <v>494</v>
       </c>
@@ -10755,7 +10867,7 @@
       </c>
       <c r="F412" s="34"/>
     </row>
-    <row r="413" spans="1:6" ht="16">
+    <row r="413" spans="1:6" ht="15.75">
       <c r="A413" s="21" t="s">
         <v>494</v>
       </c>
@@ -10771,7 +10883,7 @@
       </c>
       <c r="F413" s="34"/>
     </row>
-    <row r="414" spans="1:6" ht="16">
+    <row r="414" spans="1:6" ht="15.75">
       <c r="A414" s="21" t="s">
         <v>494</v>
       </c>
@@ -10787,7 +10899,7 @@
       </c>
       <c r="F414" s="34"/>
     </row>
-    <row r="415" spans="1:6" ht="16">
+    <row r="415" spans="1:6" ht="15.75">
       <c r="A415" s="21" t="s">
         <v>494</v>
       </c>
@@ -10803,7 +10915,7 @@
       </c>
       <c r="F415" s="34"/>
     </row>
-    <row r="416" spans="1:6" ht="16">
+    <row r="416" spans="1:6" ht="15.75">
       <c r="A416" s="21" t="s">
         <v>494</v>
       </c>
@@ -10819,7 +10931,7 @@
       </c>
       <c r="F416" s="34"/>
     </row>
-    <row r="417" spans="1:6" ht="16">
+    <row r="417" spans="1:6" ht="15.75">
       <c r="A417" s="21" t="s">
         <v>494</v>
       </c>
@@ -10835,7 +10947,7 @@
       </c>
       <c r="F417" s="34"/>
     </row>
-    <row r="418" spans="1:6" ht="16">
+    <row r="418" spans="1:6" ht="15.75">
       <c r="A418" s="21" t="s">
         <v>494</v>
       </c>
@@ -10851,7 +10963,7 @@
       </c>
       <c r="F418" s="34"/>
     </row>
-    <row r="419" spans="1:6" ht="16">
+    <row r="419" spans="1:6" ht="15.75">
       <c r="A419" s="21" t="s">
         <v>494</v>
       </c>
@@ -10867,7 +10979,7 @@
       </c>
       <c r="F419" s="34"/>
     </row>
-    <row r="420" spans="1:6" ht="16">
+    <row r="420" spans="1:6" ht="15.75">
       <c r="A420" s="21" t="s">
         <v>494</v>
       </c>
@@ -10883,7 +10995,7 @@
       </c>
       <c r="F420" s="34"/>
     </row>
-    <row r="421" spans="1:6" ht="16">
+    <row r="421" spans="1:6" ht="15.75">
       <c r="A421" s="21" t="s">
         <v>494</v>
       </c>
@@ -10899,7 +11011,7 @@
       </c>
       <c r="F421" s="34"/>
     </row>
-    <row r="422" spans="1:6" ht="16">
+    <row r="422" spans="1:6" ht="15.75">
       <c r="A422" s="21" t="s">
         <v>494</v>
       </c>
@@ -10915,7 +11027,7 @@
       </c>
       <c r="F422" s="34"/>
     </row>
-    <row r="423" spans="1:6" ht="16">
+    <row r="423" spans="1:6" ht="15.75">
       <c r="A423" s="21" t="s">
         <v>494</v>
       </c>
@@ -10931,7 +11043,7 @@
       </c>
       <c r="F423" s="34"/>
     </row>
-    <row r="424" spans="1:6" ht="16">
+    <row r="424" spans="1:6" ht="15.75">
       <c r="A424" s="21" t="s">
         <v>494</v>
       </c>
@@ -10947,7 +11059,7 @@
       </c>
       <c r="F424" s="34"/>
     </row>
-    <row r="425" spans="1:6" ht="16">
+    <row r="425" spans="1:6" ht="15.75">
       <c r="A425" s="21" t="s">
         <v>494</v>
       </c>
@@ -10963,7 +11075,7 @@
       </c>
       <c r="F425" s="34"/>
     </row>
-    <row r="426" spans="1:6" ht="16">
+    <row r="426" spans="1:6" ht="15.75">
       <c r="A426" s="21" t="s">
         <v>494</v>
       </c>
@@ -10979,7 +11091,7 @@
       </c>
       <c r="F426" s="34"/>
     </row>
-    <row r="427" spans="1:6" ht="16">
+    <row r="427" spans="1:6" ht="15.75">
       <c r="A427" s="21" t="s">
         <v>494</v>
       </c>
@@ -10995,7 +11107,7 @@
       </c>
       <c r="F427" s="34"/>
     </row>
-    <row r="428" spans="1:6" ht="16">
+    <row r="428" spans="1:6" ht="15.75">
       <c r="A428" s="21" t="s">
         <v>494</v>
       </c>
@@ -11011,7 +11123,7 @@
       </c>
       <c r="F428" s="34"/>
     </row>
-    <row r="429" spans="1:6" ht="16">
+    <row r="429" spans="1:6" ht="15.75">
       <c r="A429" s="21" t="s">
         <v>494</v>
       </c>
@@ -11027,7 +11139,7 @@
       </c>
       <c r="F429" s="34"/>
     </row>
-    <row r="430" spans="1:6" ht="16">
+    <row r="430" spans="1:6" ht="15.75">
       <c r="A430" s="21" t="s">
         <v>494</v>
       </c>
@@ -11043,7 +11155,7 @@
       </c>
       <c r="F430" s="34"/>
     </row>
-    <row r="431" spans="1:6" ht="16">
+    <row r="431" spans="1:6" ht="15.75">
       <c r="A431" s="21" t="s">
         <v>494</v>
       </c>
@@ -11059,7 +11171,7 @@
       </c>
       <c r="F431" s="34"/>
     </row>
-    <row r="432" spans="1:6" ht="16">
+    <row r="432" spans="1:6" ht="15.75">
       <c r="A432" s="21" t="s">
         <v>494</v>
       </c>
@@ -11075,7 +11187,7 @@
       </c>
       <c r="F432" s="34"/>
     </row>
-    <row r="433" spans="1:6" ht="16">
+    <row r="433" spans="1:6" ht="15.75">
       <c r="A433" s="21" t="s">
         <v>494</v>
       </c>
@@ -11091,7 +11203,7 @@
       </c>
       <c r="F433" s="34"/>
     </row>
-    <row r="434" spans="1:6" ht="16">
+    <row r="434" spans="1:6" ht="15.75">
       <c r="A434" s="21" t="s">
         <v>494</v>
       </c>
@@ -11107,7 +11219,7 @@
       </c>
       <c r="F434" s="34"/>
     </row>
-    <row r="435" spans="1:6" ht="16">
+    <row r="435" spans="1:6" ht="15.75">
       <c r="A435" s="21" t="s">
         <v>494</v>
       </c>
@@ -11123,7 +11235,7 @@
       </c>
       <c r="F435" s="34"/>
     </row>
-    <row r="436" spans="1:6" ht="16">
+    <row r="436" spans="1:6" ht="15.75">
       <c r="A436" s="21" t="s">
         <v>494</v>
       </c>
@@ -11139,7 +11251,7 @@
       </c>
       <c r="F436" s="34"/>
     </row>
-    <row r="437" spans="1:6" ht="16">
+    <row r="437" spans="1:6" ht="15.75">
       <c r="A437" s="21" t="s">
         <v>494</v>
       </c>
@@ -11155,7 +11267,7 @@
       </c>
       <c r="F437" s="34"/>
     </row>
-    <row r="438" spans="1:6" ht="16">
+    <row r="438" spans="1:6" ht="15.75">
       <c r="A438" s="21" t="s">
         <v>494</v>
       </c>
@@ -11171,7 +11283,7 @@
       </c>
       <c r="F438" s="34"/>
     </row>
-    <row r="439" spans="1:6" ht="16">
+    <row r="439" spans="1:6" ht="15.75">
       <c r="A439" s="21" t="s">
         <v>494</v>
       </c>
@@ -11187,7 +11299,7 @@
       </c>
       <c r="F439" s="34"/>
     </row>
-    <row r="440" spans="1:6" ht="16">
+    <row r="440" spans="1:6" ht="15.75">
       <c r="A440" s="21" t="s">
         <v>494</v>
       </c>
@@ -11203,7 +11315,7 @@
       </c>
       <c r="F440" s="34"/>
     </row>
-    <row r="441" spans="1:6" ht="16">
+    <row r="441" spans="1:6" ht="15.75">
       <c r="A441" s="21" t="s">
         <v>494</v>
       </c>
@@ -11219,7 +11331,7 @@
       </c>
       <c r="F441" s="34"/>
     </row>
-    <row r="442" spans="1:6" ht="16">
+    <row r="442" spans="1:6" ht="15.75">
       <c r="A442" s="21" t="s">
         <v>494</v>
       </c>
@@ -11235,7 +11347,7 @@
       </c>
       <c r="F442" s="34"/>
     </row>
-    <row r="443" spans="1:6" ht="16">
+    <row r="443" spans="1:6" ht="15.75">
       <c r="A443" s="21" t="s">
         <v>494</v>
       </c>
@@ -11251,7 +11363,7 @@
       </c>
       <c r="F443" s="34"/>
     </row>
-    <row r="444" spans="1:6" ht="16">
+    <row r="444" spans="1:6" ht="15.75">
       <c r="A444" s="21" t="s">
         <v>494</v>
       </c>
@@ -11267,7 +11379,7 @@
       </c>
       <c r="F444" s="34"/>
     </row>
-    <row r="445" spans="1:6" ht="16">
+    <row r="445" spans="1:6" ht="15.75">
       <c r="A445" s="21" t="s">
         <v>494</v>
       </c>
@@ -11283,7 +11395,7 @@
       </c>
       <c r="F445" s="34"/>
     </row>
-    <row r="446" spans="1:6" ht="16">
+    <row r="446" spans="1:6" ht="15.75">
       <c r="A446" s="21" t="s">
         <v>494</v>
       </c>
@@ -11299,7 +11411,7 @@
       </c>
       <c r="F446" s="34"/>
     </row>
-    <row r="447" spans="1:6" ht="16">
+    <row r="447" spans="1:6" ht="15.75">
       <c r="A447" s="21" t="s">
         <v>494</v>
       </c>
@@ -11315,7 +11427,7 @@
       </c>
       <c r="F447" s="34"/>
     </row>
-    <row r="448" spans="1:6" ht="16">
+    <row r="448" spans="1:6" ht="15.75">
       <c r="A448" s="21" t="s">
         <v>494</v>
       </c>
@@ -11331,7 +11443,7 @@
       </c>
       <c r="F448" s="34"/>
     </row>
-    <row r="449" spans="1:6" ht="16">
+    <row r="449" spans="1:6" ht="15.75">
       <c r="A449" s="21" t="s">
         <v>494</v>
       </c>
@@ -11347,7 +11459,7 @@
       </c>
       <c r="F449" s="34"/>
     </row>
-    <row r="450" spans="1:6" ht="16">
+    <row r="450" spans="1:6" ht="15.75">
       <c r="A450" s="21" t="s">
         <v>494</v>
       </c>
@@ -11363,7 +11475,7 @@
       </c>
       <c r="F450" s="34"/>
     </row>
-    <row r="451" spans="1:6" ht="16">
+    <row r="451" spans="1:6" ht="15.75">
       <c r="A451" s="21" t="s">
         <v>494</v>
       </c>
@@ -11379,7 +11491,7 @@
       </c>
       <c r="F451" s="34"/>
     </row>
-    <row r="452" spans="1:6" ht="16">
+    <row r="452" spans="1:6" ht="15.75">
       <c r="A452" s="21" t="s">
         <v>494</v>
       </c>
@@ -11395,7 +11507,7 @@
       </c>
       <c r="F452" s="34"/>
     </row>
-    <row r="453" spans="1:6" ht="16">
+    <row r="453" spans="1:6" ht="15.75">
       <c r="A453" s="21" t="s">
         <v>494</v>
       </c>
@@ -11411,7 +11523,7 @@
       </c>
       <c r="F453" s="34"/>
     </row>
-    <row r="454" spans="1:6" ht="16">
+    <row r="454" spans="1:6" ht="15.75">
       <c r="A454" s="21" t="s">
         <v>494</v>
       </c>
@@ -11427,7 +11539,7 @@
       </c>
       <c r="F454" s="34"/>
     </row>
-    <row r="455" spans="1:6" ht="16">
+    <row r="455" spans="1:6" ht="15.75">
       <c r="A455" s="21" t="s">
         <v>494</v>
       </c>
@@ -11443,7 +11555,7 @@
       </c>
       <c r="F455" s="34"/>
     </row>
-    <row r="456" spans="1:6" ht="16">
+    <row r="456" spans="1:6" ht="15.75">
       <c r="A456" s="21" t="s">
         <v>494</v>
       </c>
@@ -11459,7 +11571,7 @@
       </c>
       <c r="F456" s="34"/>
     </row>
-    <row r="457" spans="1:6" ht="16">
+    <row r="457" spans="1:6" ht="15.75">
       <c r="A457" s="21" t="s">
         <v>494</v>
       </c>
@@ -11475,7 +11587,7 @@
       </c>
       <c r="F457" s="34"/>
     </row>
-    <row r="458" spans="1:6" ht="16">
+    <row r="458" spans="1:6" ht="15.75">
       <c r="A458" s="21" t="s">
         <v>494</v>
       </c>
@@ -11491,7 +11603,7 @@
       </c>
       <c r="F458" s="34"/>
     </row>
-    <row r="459" spans="1:6" ht="16">
+    <row r="459" spans="1:6" ht="15.75">
       <c r="A459" s="21" t="s">
         <v>494</v>
       </c>
@@ -11507,7 +11619,7 @@
       </c>
       <c r="F459" s="34"/>
     </row>
-    <row r="460" spans="1:6" ht="16">
+    <row r="460" spans="1:6" ht="15.75">
       <c r="A460" s="21" t="s">
         <v>494</v>
       </c>
@@ -11523,7 +11635,7 @@
       </c>
       <c r="F460" s="34"/>
     </row>
-    <row r="461" spans="1:6" ht="16">
+    <row r="461" spans="1:6" ht="15.75">
       <c r="A461" s="21" t="s">
         <v>494</v>
       </c>
@@ -11539,7 +11651,7 @@
       </c>
       <c r="F461" s="34"/>
     </row>
-    <row r="462" spans="1:6" ht="16">
+    <row r="462" spans="1:6" ht="15.75">
       <c r="A462" s="21" t="s">
         <v>494</v>
       </c>
@@ -11555,7 +11667,7 @@
       </c>
       <c r="F462" s="34"/>
     </row>
-    <row r="463" spans="1:6" ht="16">
+    <row r="463" spans="1:6" ht="15.75">
       <c r="A463" s="21" t="s">
         <v>494</v>
       </c>
@@ -11571,7 +11683,7 @@
       </c>
       <c r="F463" s="34"/>
     </row>
-    <row r="464" spans="1:6" ht="16">
+    <row r="464" spans="1:6" ht="15.75">
       <c r="A464" s="21" t="s">
         <v>494</v>
       </c>
@@ -11587,7 +11699,7 @@
       </c>
       <c r="F464" s="34"/>
     </row>
-    <row r="465" spans="1:6" ht="16">
+    <row r="465" spans="1:6" ht="15.75">
       <c r="A465" s="21" t="s">
         <v>494</v>
       </c>
@@ -11603,7 +11715,7 @@
       </c>
       <c r="F465" s="34"/>
     </row>
-    <row r="466" spans="1:6" ht="16">
+    <row r="466" spans="1:6" ht="15.75">
       <c r="A466" s="21" t="s">
         <v>494</v>
       </c>
@@ -11635,7 +11747,7 @@
       <c r="E468" s="38"/>
       <c r="F468" s="34"/>
     </row>
-    <row r="469" spans="1:6" ht="16">
+    <row r="469" spans="1:6" ht="15.75">
       <c r="A469" s="21" t="s">
         <v>19</v>
       </c>
@@ -11651,7 +11763,7 @@
       </c>
       <c r="F469" s="34"/>
     </row>
-    <row r="470" spans="1:6" ht="16">
+    <row r="470" spans="1:6" ht="15.75">
       <c r="A470" s="21" t="s">
         <v>19</v>
       </c>
@@ -11667,7 +11779,7 @@
       </c>
       <c r="F470" s="34"/>
     </row>
-    <row r="471" spans="1:6" ht="16">
+    <row r="471" spans="1:6" ht="15.75">
       <c r="A471" s="21" t="s">
         <v>19</v>
       </c>
@@ -11683,7 +11795,7 @@
       </c>
       <c r="F471" s="34"/>
     </row>
-    <row r="472" spans="1:6" ht="16">
+    <row r="472" spans="1:6" ht="15.75">
       <c r="A472" s="21" t="s">
         <v>19</v>
       </c>
@@ -11699,7 +11811,7 @@
       </c>
       <c r="F472" s="34"/>
     </row>
-    <row r="473" spans="1:6" ht="16">
+    <row r="473" spans="1:6" ht="15.75">
       <c r="A473" s="21" t="s">
         <v>19</v>
       </c>
@@ -11715,7 +11827,7 @@
       </c>
       <c r="F473" s="34"/>
     </row>
-    <row r="474" spans="1:6" ht="16">
+    <row r="474" spans="1:6" ht="15.75">
       <c r="A474" s="21" t="s">
         <v>19</v>
       </c>
@@ -11731,7 +11843,7 @@
       </c>
       <c r="F474" s="34"/>
     </row>
-    <row r="475" spans="1:6" ht="16">
+    <row r="475" spans="1:6" ht="15.75">
       <c r="A475" s="21" t="s">
         <v>19</v>
       </c>
@@ -11747,7 +11859,7 @@
       </c>
       <c r="F475" s="34"/>
     </row>
-    <row r="476" spans="1:6" ht="16">
+    <row r="476" spans="1:6" ht="15.75">
       <c r="A476" s="21" t="s">
         <v>19</v>
       </c>
@@ -11763,7 +11875,7 @@
       </c>
       <c r="F476" s="34"/>
     </row>
-    <row r="477" spans="1:6" ht="16">
+    <row r="477" spans="1:6" ht="15.75">
       <c r="A477" s="21" t="s">
         <v>19</v>
       </c>
@@ -11779,7 +11891,7 @@
       </c>
       <c r="F477" s="34"/>
     </row>
-    <row r="478" spans="1:6" ht="16">
+    <row r="478" spans="1:6" ht="15.75">
       <c r="A478" s="21" t="s">
         <v>19</v>
       </c>
@@ -12703,20 +12815,20 @@
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="96.81640625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="16.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="87.1796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="21.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="96.85546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="16.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="87.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3"/>
     <col min="10" max="10" width="22" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="3"/>
-    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="11" max="11" width="8.7109375" style="3"/>
+    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12746,17 +12858,17 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:9" ht="18">
+      <c r="A2" s="101" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -12845,17 +12957,17 @@
       <c r="H6" s="8"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="18">
+      <c r="A7" s="101" t="s">
         <v>605</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -12993,7 +13105,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="16">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="14.25">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -13094,7 +13206,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="16">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="14.25">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -13233,17 +13345,17 @@
       <c r="H26" s="8"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A27" s="66" t="s">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="18">
+      <c r="A27" s="98" t="s">
         <v>625</v>
       </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="100"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1">
@@ -13267,7 +13379,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="16">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="14.25">
       <c r="A29" s="16" t="s">
         <v>61</v>
       </c>
@@ -13499,7 +13611,7 @@
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="16">
+    <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="13" t="s">
         <v>79</v>
       </c>
@@ -13539,7 +13651,7 @@
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="16">
+    <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="8" t="s">
         <v>83</v>
       </c>
@@ -13599,7 +13711,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="16">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13619,7 +13731,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="16">
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="14.25">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
@@ -13630,16 +13742,16 @@
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A47" s="64" t="s">
+      <c r="A47" s="96" t="s">
         <v>647</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="47" t="s">
@@ -13794,16 +13906,16 @@
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="64" t="s">
+      <c r="A58" s="96" t="s">
         <v>660</v>
       </c>
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="49" t="s">
@@ -14094,14 +14206,14 @@
       <c r="H77" s="49"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A78" s="61"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="63"/>
+      <c r="A78" s="93"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14173,23 +14285,23 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="60.54296875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="25"/>
-    <col min="5" max="5" width="20.26953125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="25"/>
-    <col min="10" max="10" width="7.54296875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="25.81640625" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="25"/>
+    <col min="1" max="1" width="19.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="25"/>
+    <col min="5" max="5" width="20.28515625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="25"/>
+    <col min="10" max="10" width="7.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -14515,10 +14627,10 @@
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="72"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="27">
         <f>SUM(F2:F16)-2-1</f>
         <v>51</v>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2398" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="721">
   <si>
     <t>Date</t>
   </si>
@@ -2195,6 +2195,15 @@
   </si>
   <si>
     <t>Pass the Pillow</t>
+  </si>
+  <si>
+    <t>07.07.2024</t>
+  </si>
+  <si>
+    <t>Water Bottles</t>
+  </si>
+  <si>
+    <t>Water Bottles II</t>
   </si>
 </sst>
 </file>
@@ -2619,7 +2628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,9 +2739,6 @@
     <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2799,10 +2805,37 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="17" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,29 +2874,8 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3289,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
@@ -3298,7 +3310,7 @@
     <col min="1" max="1" width="13" style="61" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="61" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="76" customWidth="1"/>
+    <col min="4" max="4" width="54.5703125" style="75" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="61" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="61" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="61" customWidth="1"/>
@@ -3324,7 +3336,7 @@
       </c>
       <c r="D2" s="67">
         <f>COUNTIF(F10:F1005,"=1")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
@@ -3374,1043 +3386,1063 @@
       <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="89" t="s">
         <v>566</v>
       </c>
-      <c r="D7" s="68">
+      <c r="D7" s="94">
         <f>SUM(G10:G1008)</f>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="65"/>
       <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="70" t="s">
         <v>567</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>568</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G9" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="90" t="s">
         <v>570</v>
       </c>
-      <c r="I9" s="70" t="s">
+      <c r="I9" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A10" s="69"/>
-      <c r="B10" s="72" t="s">
+      <c r="A10" s="68"/>
+      <c r="B10" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>571</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="72" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="72">
+      <c r="E10" s="71"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="71">
         <v>32</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="91" t="s">
         <v>573</v>
       </c>
-      <c r="I10" s="69"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A11" s="69"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="68"/>
+      <c r="B11" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>574</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="74" t="s">
         <v>574</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72">
+      <c r="E11" s="71"/>
+      <c r="F11" s="71">
         <v>1.5</v>
       </c>
-      <c r="G11" s="72">
+      <c r="G11" s="71">
         <v>1</v>
       </c>
-      <c r="H11" s="107" t="s">
+      <c r="H11" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I11" s="69"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="72" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>576</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>576</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72">
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71">
         <v>1</v>
       </c>
-      <c r="H12" s="107" t="s">
+      <c r="H12" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I12" s="69"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="69"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="B14" s="72" t="s">
+      <c r="A14" s="68"/>
+      <c r="B14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>577</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="74" t="s">
         <v>577</v>
       </c>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72">
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71">
         <v>1</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I14" s="72">
+      <c r="I14" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="68"/>
+      <c r="B15" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="77" t="s">
         <v>578</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72">
+      <c r="E15" s="71"/>
+      <c r="F15" s="71">
         <v>2</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="71">
         <v>1</v>
       </c>
-      <c r="H15" s="107" t="s">
+      <c r="H15" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="71"/>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="78" t="s">
         <v>579</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="72">
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="71">
         <v>1</v>
       </c>
-      <c r="H16" s="107" t="s">
+      <c r="H16" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="68"/>
+      <c r="B17" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="76" t="s">
         <v>580</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="77" t="s">
         <v>580</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="80">
+      <c r="E17" s="71"/>
+      <c r="F17" s="79">
         <v>2</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="71">
         <v>1</v>
       </c>
-      <c r="H17" s="107" t="s">
+      <c r="H17" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I17" s="110"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="80" t="s">
         <v>581</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="81" t="s">
         <v>581</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="72">
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="71">
         <v>1</v>
       </c>
-      <c r="H18" s="107" t="s">
+      <c r="H18" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="80" t="s">
         <v>582</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="81" t="s">
         <v>582</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="72">
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="71">
         <v>1</v>
       </c>
-      <c r="H19" s="107" t="s">
+      <c r="H19" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I19" s="72"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69" t="s">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="78" t="s">
         <v>583</v>
       </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="72"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="68"/>
+      <c r="B21" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="71" t="s">
         <v>584</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="71">
         <v>1</v>
       </c>
-      <c r="G21" s="72">
+      <c r="G21" s="71">
         <v>1</v>
       </c>
-      <c r="H21" s="107" t="s">
+      <c r="H21" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="68"/>
+      <c r="B22" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="68" t="s">
         <v>587</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="77" t="s">
         <v>588</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="69">
+      <c r="E22" s="68"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="68">
         <v>68</v>
       </c>
-      <c r="H22" s="107" t="s">
+      <c r="H22" s="92" t="s">
         <v>573</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="72" t="s">
+      <c r="A23" s="68"/>
+      <c r="B23" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="71" t="s">
         <v>589</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="83" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="72">
+      <c r="F23" s="71">
         <v>1</v>
       </c>
-      <c r="G23" s="72">
+      <c r="G23" s="71">
         <v>1</v>
       </c>
-      <c r="H23" s="107" t="s">
+      <c r="H23" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="I23" s="69"/>
+      <c r="I23" s="68"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="69"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="69"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="68"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69">
+      <c r="E25" s="68"/>
+      <c r="F25" s="68">
         <v>1</v>
       </c>
-      <c r="G25" s="69">
+      <c r="G25" s="68">
         <v>1</v>
       </c>
-      <c r="H25" s="107" t="s">
+      <c r="H25" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I25" s="69"/>
+      <c r="I25" s="68"/>
     </row>
     <row r="26" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="76" t="s">
         <v>591</v>
       </c>
-      <c r="D26" s="79" t="s">
+      <c r="D26" s="78" t="s">
         <v>591</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="68">
         <v>1</v>
       </c>
-      <c r="G26" s="69">
+      <c r="G26" s="68">
         <v>1</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="93" t="s">
         <v>575</v>
       </c>
-      <c r="I26" s="69"/>
+      <c r="I26" s="68"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="68"/>
+      <c r="B27" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="76" t="s">
         <v>578</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>578</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72">
+      <c r="E27" s="71"/>
+      <c r="F27" s="71">
         <v>2</v>
       </c>
-      <c r="G27" s="72">
+      <c r="G27" s="71">
         <v>1</v>
       </c>
-      <c r="H27" s="107" t="s">
+      <c r="H27" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I27" s="69"/>
+      <c r="I27" s="68"/>
     </row>
     <row r="28" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="77" t="s">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="76" t="s">
         <v>592</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="78" t="s">
         <v>592</v>
       </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69">
+      <c r="E28" s="68"/>
+      <c r="F28" s="68">
         <v>1.5</v>
       </c>
-      <c r="G28" s="69">
+      <c r="G28" s="68">
         <v>1</v>
       </c>
-      <c r="H28" s="107" t="s">
+      <c r="H28" s="92" t="s">
         <v>575</v>
       </c>
-      <c r="I28" s="69"/>
+      <c r="I28" s="68"/>
     </row>
     <row r="29" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>593</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="77" t="s">
         <v>593</v>
       </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69">
+      <c r="E29" s="68"/>
+      <c r="F29" s="68">
         <v>1.5</v>
       </c>
-      <c r="G29" s="69">
+      <c r="G29" s="68">
         <v>1</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I29" s="69"/>
+      <c r="I29" s="68"/>
     </row>
     <row r="30" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69" t="s">
+      <c r="A30" s="68"/>
+      <c r="B30" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="68" t="s">
         <v>595</v>
       </c>
-      <c r="D30" s="79" t="s">
+      <c r="D30" s="78" t="s">
         <v>595</v>
       </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69">
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68">
         <v>1</v>
       </c>
-      <c r="H30" s="108" t="s">
+      <c r="H30" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I30" s="69"/>
+      <c r="I30" s="68"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="69"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="68"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69" t="s">
+      <c r="A32" s="68"/>
+      <c r="B32" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="68" t="s">
         <v>596</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="77" t="s">
         <v>596</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69">
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68">
         <v>1</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I32" s="69"/>
+      <c r="I32" s="68"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="I33" s="69"/>
+      <c r="I33" s="68"/>
     </row>
     <row r="34" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69" t="s">
+      <c r="A34" s="68"/>
+      <c r="B34" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="68" t="s">
         <v>599</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="77" t="s">
         <v>599</v>
       </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69">
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68">
         <v>1</v>
       </c>
-      <c r="H34" s="108" t="s">
+      <c r="H34" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I34" s="69"/>
+      <c r="I34" s="68"/>
     </row>
     <row r="35" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69" t="s">
+      <c r="A35" s="68"/>
+      <c r="B35" s="68" t="s">
         <v>444</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="68" t="s">
         <v>700</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="77" t="s">
         <v>700</v>
       </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69">
+      <c r="E35" s="68"/>
+      <c r="F35" s="68">
         <v>1</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="68">
         <v>1</v>
       </c>
-      <c r="H35" s="108" t="s">
+      <c r="H35" s="93" t="s">
         <v>575</v>
       </c>
-      <c r="I35" s="69"/>
+      <c r="I35" s="68"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="69"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="69"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="B38" s="69" t="s">
+      <c r="A38" s="68"/>
+      <c r="B38" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="85" t="s">
+      <c r="C38" s="84" t="s">
         <v>597</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="77" t="s">
         <v>597</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69">
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68">
         <v>1</v>
       </c>
-      <c r="H38" s="108" t="s">
+      <c r="H38" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I38" s="69"/>
+      <c r="I38" s="68"/>
     </row>
     <row r="39" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A39" s="69"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="68"/>
+      <c r="B39" s="68" t="s">
         <v>705</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="77" t="s">
         <v>704</v>
       </c>
-      <c r="E39" s="69" t="s">
+      <c r="E39" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F39" s="69">
+      <c r="F39" s="68">
         <v>1</v>
       </c>
-      <c r="G39" s="69">
+      <c r="G39" s="68">
         <v>1</v>
       </c>
-      <c r="H39" s="108" t="s">
+      <c r="H39" s="93" t="s">
         <v>575</v>
       </c>
-      <c r="I39" s="69"/>
+      <c r="I39" s="68"/>
     </row>
     <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="B40" s="69" t="s">
+      <c r="A40" s="68"/>
+      <c r="B40" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="68" t="s">
         <v>703</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="78" t="s">
         <v>703</v>
       </c>
-      <c r="E40" s="69" t="s">
+      <c r="E40" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="69">
+      <c r="F40" s="68">
         <v>1</v>
       </c>
-      <c r="G40" s="69">
+      <c r="G40" s="68">
         <v>1</v>
       </c>
-      <c r="H40" s="108" t="s">
+      <c r="H40" s="93" t="s">
         <v>575</v>
       </c>
-      <c r="I40" s="69"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="I41" s="69"/>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="I42" s="69"/>
+      <c r="I42" s="68"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="I43" s="69"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="98" t="s">
         <v>711</v>
       </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="109"/>
-      <c r="I44" s="69"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="68"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A45" s="69"/>
-      <c r="B45" s="72" t="s">
+      <c r="A45" s="68"/>
+      <c r="B45" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="71" t="s">
         <v>590</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="72">
+      <c r="F45" s="71">
         <v>1</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="71">
         <v>1</v>
       </c>
-      <c r="H45" s="107" t="s">
+      <c r="H45" s="92" t="s">
         <v>594</v>
       </c>
-      <c r="I45" s="69"/>
+      <c r="I45" s="68"/>
     </row>
     <row r="46" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="B46" s="69" t="s">
+      <c r="A46" s="68"/>
+      <c r="B46" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C46" s="68" t="s">
         <v>701</v>
       </c>
-      <c r="D46" s="79" t="s">
+      <c r="D46" s="78" t="s">
         <v>701</v>
       </c>
-      <c r="E46" s="69" t="s">
+      <c r="E46" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="69">
+      <c r="F46" s="68">
         <v>1.5</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="68">
         <v>1</v>
       </c>
-      <c r="H46" s="108" t="s">
+      <c r="H46" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I46" s="69"/>
+      <c r="I46" s="68"/>
     </row>
     <row r="47" spans="1:9" ht="17.45" customHeight="1">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="68" t="s">
         <v>702</v>
       </c>
-      <c r="D47" s="79" t="s">
+      <c r="D47" s="78" t="s">
         <v>702</v>
       </c>
-      <c r="E47" s="69" t="s">
+      <c r="E47" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="69">
+      <c r="F47" s="68">
         <v>1.5</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="68">
         <v>1</v>
       </c>
-      <c r="H47" s="108" t="s">
+      <c r="H47" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I47" s="69"/>
+      <c r="I47" s="68"/>
     </row>
     <row r="48" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="68" t="s">
         <v>709</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="68" t="s">
         <v>706</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="77" t="s">
         <v>706</v>
       </c>
-      <c r="E48" s="69" t="s">
+      <c r="E48" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="69">
+      <c r="F48" s="68">
         <v>1</v>
       </c>
-      <c r="G48" s="69">
+      <c r="G48" s="68">
         <v>1</v>
       </c>
-      <c r="H48" s="108" t="s">
+      <c r="H48" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I48" s="69"/>
+      <c r="I48" s="68"/>
     </row>
     <row r="49" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="68" t="s">
         <v>708</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="71" t="s">
         <v>707</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="74" t="s">
         <v>707</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="72">
+      <c r="F49" s="71">
         <v>1.5</v>
       </c>
-      <c r="G49" s="72">
+      <c r="G49" s="71">
         <v>1</v>
       </c>
-      <c r="H49" s="108" t="s">
+      <c r="H49" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I49" s="72"/>
+      <c r="I49" s="71"/>
     </row>
     <row r="50" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="69" t="s">
+      <c r="C50" s="68" t="s">
         <v>598</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="77" t="s">
         <v>598</v>
       </c>
-      <c r="E50" s="69" t="s">
+      <c r="E50" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="69">
+      <c r="F50" s="68">
         <v>1.5</v>
       </c>
-      <c r="G50" s="69">
+      <c r="G50" s="68">
         <v>1</v>
       </c>
-      <c r="H50" s="108" t="s">
+      <c r="H50" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I50" s="112" t="s">
+      <c r="I50" s="97" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="69" t="s">
+      <c r="C51" s="68" t="s">
         <v>713</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="77" t="s">
         <v>713</v>
       </c>
-      <c r="E51" s="69" t="s">
+      <c r="E51" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="69">
+      <c r="F51" s="68">
         <v>1.5</v>
       </c>
-      <c r="G51" s="69">
+      <c r="G51" s="68">
         <v>1</v>
       </c>
-      <c r="H51" s="108" t="s">
+      <c r="H51" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I51" s="111"/>
+      <c r="I51" s="96"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="68" t="s">
         <v>712</v>
       </c>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="68" t="s">
         <v>716</v>
       </c>
-      <c r="C52" s="85" t="s">
+      <c r="C52" s="84" t="s">
         <v>717</v>
       </c>
-      <c r="D52" s="79" t="s">
+      <c r="D52" s="78" t="s">
         <v>717</v>
       </c>
-      <c r="E52" s="69" t="s">
+      <c r="E52" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="F52" s="69">
+      <c r="F52" s="68">
         <v>1</v>
       </c>
-      <c r="G52" s="69">
+      <c r="G52" s="68">
         <v>1</v>
       </c>
-      <c r="H52" s="108" t="s">
+      <c r="H52" s="93" t="s">
         <v>594</v>
       </c>
-      <c r="I52" s="69" t="s">
+      <c r="I52" s="68" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A53" s="69"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="69"/>
+      <c r="A53" s="68" t="s">
+        <v>718</v>
+      </c>
+      <c r="B53" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="C53" s="68" t="s">
+        <v>719</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>719</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="68">
+        <v>1</v>
+      </c>
+      <c r="G53" s="68">
+        <v>1</v>
+      </c>
+      <c r="H53" s="93" t="s">
+        <v>594</v>
+      </c>
+      <c r="I53" s="68"/>
     </row>
     <row r="54" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A54" s="69"/>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="69"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68" t="s">
+        <v>720</v>
+      </c>
+      <c r="D54" s="113" t="s">
+        <v>720</v>
+      </c>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="68"/>
     </row>
     <row r="55" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A55" s="69"/>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="69"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="93"/>
+      <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A56" s="69"/>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="69"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A57" s="69"/>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="69"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A58" s="69"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="69"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="88"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A59" s="69"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="108"/>
-      <c r="I59" s="69"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="93"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="69"/>
-      <c r="B60" s="69"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="108"/>
-      <c r="I60" s="69"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="88"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="69"/>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
-      <c r="H61" s="108"/>
-      <c r="I61" s="69"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="88"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="93"/>
+      <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="108"/>
-      <c r="I62" s="69"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="88"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="93"/>
+      <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="69"/>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="108"/>
-      <c r="I63" s="69"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="88"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="69"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="88"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="69"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="88"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B65"/>
@@ -4451,9 +4483,11 @@
     <hyperlink ref="D21" r:id="rId31"/>
     <hyperlink ref="D51" r:id="rId32"/>
     <hyperlink ref="D52" r:id="rId33"/>
+    <hyperlink ref="D53" r:id="rId34"/>
+    <hyperlink ref="D54" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="landscape" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -12801,8 +12835,9 @@
     <hyperlink ref="E478" r:id="rId890"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId891"/>
   <tableParts count="1">
-    <tablePart r:id="rId891"/>
+    <tablePart r:id="rId892"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12859,16 +12894,16 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>604</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -12958,16 +12993,16 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="18">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="109" t="s">
         <v>605</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="103"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -13346,16 +13381,16 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="18">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="106" t="s">
         <v>625</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1">
@@ -13742,16 +13777,16 @@
       <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="104" t="s">
         <v>647</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="47" t="s">
@@ -13906,16 +13941,16 @@
       <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="104" t="s">
         <v>660</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="49" t="s">
@@ -14206,14 +14241,14 @@
       <c r="H77" s="49"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A78" s="93"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
-      <c r="H78" s="95"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14627,10 +14662,10 @@
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="104"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="27">
         <f>SUM(F2:F16)-2-1</f>
         <v>51</v>
@@ -14905,6 +14940,6 @@
     <mergeCell ref="E19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="7" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="7" scale="41" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpkar\Documents\GitHub\Data-Structures-and-Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Data-Structures-and-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4190"/>
   </bookViews>
   <sheets>
     <sheet name="DSA_SHEET_BHAWUK" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="726">
   <si>
     <t>Date</t>
   </si>
@@ -2204,6 +2204,21 @@
   </si>
   <si>
     <t>Water Bottles II</t>
+  </si>
+  <si>
+    <t>Find the Winner of Circular Game</t>
+  </si>
+  <si>
+    <t>Average Waiting Time</t>
+  </si>
+  <si>
+    <t>Stack &amp; Queue</t>
+  </si>
+  <si>
+    <t>08.07.2024</t>
+  </si>
+  <si>
+    <t>09.07.2024</t>
   </si>
 </sst>
 </file>
@@ -2628,7 +2643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2802,9 +2817,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2817,9 +2829,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2828,6 +2837,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2874,8 +2889,11 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3302,21 +3320,21 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="13" style="61" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="54.5703125" style="75" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="61" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="61" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="61" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="61" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="61"/>
+    <col min="2" max="2" width="17.1796875" style="61" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="54.54296875" style="75" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="61" customWidth="1"/>
+    <col min="7" max="7" width="13.81640625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" style="61" customWidth="1"/>
+    <col min="9" max="9" width="33.7265625" style="61" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="61"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" customHeight="1">
@@ -3336,7 +3354,7 @@
       </c>
       <c r="D2" s="67">
         <f>COUNTIF(F10:F1005,"=1")</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
@@ -3386,12 +3404,12 @@
       <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="96" t="s">
         <v>566</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="97">
         <f>SUM(G10:G1008)</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F7" s="65"/>
     </row>
@@ -3423,7 +3441,7 @@
       <c r="G9" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="89" t="s">
         <v>570</v>
       </c>
       <c r="I9" s="69" t="s">
@@ -3446,7 +3464,7 @@
       <c r="G10" s="71">
         <v>32</v>
       </c>
-      <c r="H10" s="91" t="s">
+      <c r="H10" s="90" t="s">
         <v>573</v>
       </c>
       <c r="I10" s="68"/>
@@ -3469,7 +3487,7 @@
       <c r="G11" s="71">
         <v>1</v>
       </c>
-      <c r="H11" s="92" t="s">
+      <c r="H11" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I11" s="68"/>
@@ -3490,7 +3508,7 @@
       <c r="G12" s="71">
         <v>1</v>
       </c>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I12" s="68"/>
@@ -3503,7 +3521,7 @@
       <c r="E13" s="68"/>
       <c r="F13" s="68"/>
       <c r="G13" s="68"/>
-      <c r="H13" s="93"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1">
@@ -3522,7 +3540,7 @@
       <c r="G14" s="71">
         <v>1</v>
       </c>
-      <c r="H14" s="92" t="s">
+      <c r="H14" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I14" s="71">
@@ -3547,7 +3565,7 @@
       <c r="G15" s="71">
         <v>1</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I15" s="71"/>
@@ -3568,7 +3586,7 @@
       <c r="G16" s="71">
         <v>1</v>
       </c>
-      <c r="H16" s="92" t="s">
+      <c r="H16" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I16" s="71"/>
@@ -3591,10 +3609,10 @@
       <c r="G17" s="71">
         <v>1</v>
       </c>
-      <c r="H17" s="92" t="s">
+      <c r="H17" s="91" t="s">
         <v>575</v>
       </c>
-      <c r="I17" s="95"/>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" customHeight="1">
       <c r="A18" s="68"/>
@@ -3612,7 +3630,7 @@
       <c r="G18" s="71">
         <v>1</v>
       </c>
-      <c r="H18" s="92" t="s">
+      <c r="H18" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I18" s="71"/>
@@ -3633,7 +3651,7 @@
       <c r="G19" s="71">
         <v>1</v>
       </c>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I19" s="71"/>
@@ -3652,7 +3670,7 @@
       <c r="E20" s="68"/>
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
-      <c r="H20" s="93"/>
+      <c r="H20" s="92"/>
       <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9" ht="17.25" customHeight="1">
@@ -3675,7 +3693,7 @@
       <c r="G21" s="71">
         <v>1</v>
       </c>
-      <c r="H21" s="92" t="s">
+      <c r="H21" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I21" s="71"/>
@@ -3696,7 +3714,7 @@
       <c r="G22" s="68">
         <v>68</v>
       </c>
-      <c r="H22" s="92" t="s">
+      <c r="H22" s="91" t="s">
         <v>573</v>
       </c>
       <c r="I22" s="71"/>
@@ -3721,7 +3739,7 @@
       <c r="G23" s="71">
         <v>1</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="91" t="s">
         <v>96</v>
       </c>
       <c r="I23" s="68"/>
@@ -3734,7 +3752,7 @@
       <c r="E24" s="68"/>
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
-      <c r="H24" s="93"/>
+      <c r="H24" s="92"/>
       <c r="I24" s="68"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" customHeight="1">
@@ -3755,7 +3773,7 @@
       <c r="G25" s="68">
         <v>1</v>
       </c>
-      <c r="H25" s="92" t="s">
+      <c r="H25" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I25" s="68"/>
@@ -3780,7 +3798,7 @@
       <c r="G26" s="68">
         <v>1</v>
       </c>
-      <c r="H26" s="93" t="s">
+      <c r="H26" s="92" t="s">
         <v>575</v>
       </c>
       <c r="I26" s="68"/>
@@ -3803,7 +3821,7 @@
       <c r="G27" s="71">
         <v>1</v>
       </c>
-      <c r="H27" s="92" t="s">
+      <c r="H27" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I27" s="68"/>
@@ -3824,7 +3842,7 @@
       <c r="G28" s="68">
         <v>1</v>
       </c>
-      <c r="H28" s="92" t="s">
+      <c r="H28" s="91" t="s">
         <v>575</v>
       </c>
       <c r="I28" s="68"/>
@@ -3847,7 +3865,7 @@
       <c r="G29" s="68">
         <v>1</v>
       </c>
-      <c r="H29" s="93" t="s">
+      <c r="H29" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I29" s="68"/>
@@ -3868,7 +3886,7 @@
       <c r="G30" s="68">
         <v>1</v>
       </c>
-      <c r="H30" s="93" t="s">
+      <c r="H30" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I30" s="68"/>
@@ -3881,7 +3899,7 @@
       <c r="E31" s="68"/>
       <c r="F31" s="68"/>
       <c r="G31" s="68"/>
-      <c r="H31" s="93"/>
+      <c r="H31" s="92"/>
       <c r="I31" s="68"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" customHeight="1">
@@ -3900,7 +3918,7 @@
       <c r="G32" s="68">
         <v>1</v>
       </c>
-      <c r="H32" s="93" t="s">
+      <c r="H32" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I32" s="68"/>
@@ -3924,7 +3942,7 @@
       <c r="G34" s="68">
         <v>1</v>
       </c>
-      <c r="H34" s="93" t="s">
+      <c r="H34" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I34" s="68"/>
@@ -3947,7 +3965,7 @@
       <c r="G35" s="68">
         <v>1</v>
       </c>
-      <c r="H35" s="93" t="s">
+      <c r="H35" s="92" t="s">
         <v>575</v>
       </c>
       <c r="I35" s="68"/>
@@ -3960,7 +3978,7 @@
       <c r="E36" s="68"/>
       <c r="F36" s="68"/>
       <c r="G36" s="68"/>
-      <c r="H36" s="93"/>
+      <c r="H36" s="92"/>
       <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9">
@@ -3971,10 +3989,10 @@
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
       <c r="G37" s="68"/>
-      <c r="H37" s="93"/>
+      <c r="H37" s="92"/>
       <c r="I37" s="68"/>
     </row>
-    <row r="38" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="68"/>
       <c r="B38" s="68" t="s">
         <v>23</v>
@@ -3990,7 +4008,7 @@
       <c r="G38" s="68">
         <v>1</v>
       </c>
-      <c r="H38" s="93" t="s">
+      <c r="H38" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I38" s="68"/>
@@ -4015,12 +4033,12 @@
       <c r="G39" s="68">
         <v>1</v>
       </c>
-      <c r="H39" s="93" t="s">
+      <c r="H39" s="92" t="s">
         <v>575</v>
       </c>
       <c r="I39" s="68"/>
     </row>
-    <row r="40" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="1:9" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="68"/>
       <c r="B40" s="68" t="s">
         <v>34</v>
@@ -4040,12 +4058,24 @@
       <c r="G40" s="68">
         <v>1</v>
       </c>
-      <c r="H40" s="93" t="s">
+      <c r="H40" s="92" t="s">
         <v>575</v>
       </c>
       <c r="I40" s="68"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68" t="s">
+        <v>720</v>
+      </c>
+      <c r="D41" s="82" t="s">
+        <v>720</v>
+      </c>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9">
@@ -4087,7 +4117,7 @@
       <c r="G45" s="71">
         <v>1</v>
       </c>
-      <c r="H45" s="92" t="s">
+      <c r="H45" s="91" t="s">
         <v>594</v>
       </c>
       <c r="I45" s="68"/>
@@ -4112,12 +4142,12 @@
       <c r="G46" s="68">
         <v>1</v>
       </c>
-      <c r="H46" s="93" t="s">
+      <c r="H46" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I46" s="68"/>
     </row>
-    <row r="47" spans="1:9" ht="17.45" customHeight="1">
+    <row r="47" spans="1:9" ht="17.5" customHeight="1">
       <c r="A47" s="68" t="s">
         <v>710</v>
       </c>
@@ -4139,7 +4169,7 @@
       <c r="G47" s="68">
         <v>1</v>
       </c>
-      <c r="H47" s="93" t="s">
+      <c r="H47" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I47" s="68"/>
@@ -4166,7 +4196,7 @@
       <c r="G48" s="68">
         <v>1</v>
       </c>
-      <c r="H48" s="93" t="s">
+      <c r="H48" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I48" s="68"/>
@@ -4193,7 +4223,7 @@
       <c r="G49" s="71">
         <v>1</v>
       </c>
-      <c r="H49" s="93" t="s">
+      <c r="H49" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I49" s="71"/>
@@ -4220,10 +4250,10 @@
       <c r="G50" s="68">
         <v>1</v>
       </c>
-      <c r="H50" s="93" t="s">
+      <c r="H50" s="92" t="s">
         <v>594</v>
       </c>
-      <c r="I50" s="97" t="s">
+      <c r="I50" s="95" t="s">
         <v>714</v>
       </c>
     </row>
@@ -4249,10 +4279,10 @@
       <c r="G51" s="68">
         <v>1</v>
       </c>
-      <c r="H51" s="93" t="s">
+      <c r="H51" s="92" t="s">
         <v>594</v>
       </c>
-      <c r="I51" s="96"/>
+      <c r="I51" s="94"/>
     </row>
     <row r="52" spans="1:9" ht="17.25" customHeight="1">
       <c r="A52" s="68" t="s">
@@ -4276,7 +4306,7 @@
       <c r="G52" s="68">
         <v>1</v>
       </c>
-      <c r="H52" s="93" t="s">
+      <c r="H52" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I52" s="68" t="s">
@@ -4305,66 +4335,94 @@
       <c r="G53" s="68">
         <v>1</v>
       </c>
-      <c r="H53" s="93" t="s">
+      <c r="H53" s="92" t="s">
         <v>594</v>
       </c>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A54" s="68"/>
-      <c r="B54" s="68"/>
+    <row r="54" spans="1:9">
+      <c r="A54" s="61" t="s">
+        <v>724</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>723</v>
+      </c>
       <c r="C54" s="68" t="s">
-        <v>720</v>
-      </c>
-      <c r="D54" s="113" t="s">
-        <v>720</v>
-      </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="93"/>
-      <c r="I54" s="68"/>
+        <v>721</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>721</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="61">
+        <v>1</v>
+      </c>
+      <c r="G54" s="61">
+        <v>1</v>
+      </c>
+      <c r="H54" s="92" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A55" s="68"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="93"/>
+      <c r="A55" s="68" t="s">
+        <v>725</v>
+      </c>
+      <c r="B55" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="68" t="s">
+        <v>722</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>722</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="68">
+        <v>1</v>
+      </c>
+      <c r="G55" s="68">
+        <v>1</v>
+      </c>
+      <c r="H55" s="92" t="s">
+        <v>594</v>
+      </c>
       <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9" ht="17.25" customHeight="1">
       <c r="A56" s="68"/>
       <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
+      <c r="D56" s="113"/>
       <c r="E56" s="68"/>
       <c r="F56" s="68"/>
       <c r="G56" s="68"/>
-      <c r="H56" s="93"/>
+      <c r="H56" s="92"/>
       <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9" ht="17.25" customHeight="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
       <c r="C57" s="68"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="68"/>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
-      <c r="H57" s="93"/>
+      <c r="H57" s="92"/>
       <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9" ht="17.25" customHeight="1">
       <c r="A58" s="68"/>
       <c r="B58" s="68"/>
       <c r="C58" s="68"/>
-      <c r="D58" s="88"/>
+      <c r="D58" s="85"/>
       <c r="E58" s="68"/>
       <c r="F58" s="68"/>
       <c r="G58" s="68"/>
-      <c r="H58" s="93"/>
+      <c r="H58" s="92"/>
       <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9" ht="17.25" customHeight="1">
@@ -4375,7 +4433,7 @@
       <c r="E59" s="68"/>
       <c r="F59" s="68"/>
       <c r="G59" s="68"/>
-      <c r="H59" s="93"/>
+      <c r="H59" s="92"/>
       <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9">
@@ -4386,7 +4444,7 @@
       <c r="E60" s="68"/>
       <c r="F60" s="68"/>
       <c r="G60" s="68"/>
-      <c r="H60" s="93"/>
+      <c r="H60" s="92"/>
       <c r="I60" s="68"/>
     </row>
     <row r="61" spans="1:9">
@@ -4397,7 +4455,7 @@
       <c r="E61" s="68"/>
       <c r="F61" s="68"/>
       <c r="G61" s="68"/>
-      <c r="H61" s="93"/>
+      <c r="H61" s="92"/>
       <c r="I61" s="68"/>
     </row>
     <row r="62" spans="1:9">
@@ -4408,7 +4466,7 @@
       <c r="E62" s="68"/>
       <c r="F62" s="68"/>
       <c r="G62" s="68"/>
-      <c r="H62" s="93"/>
+      <c r="H62" s="92"/>
       <c r="I62" s="68"/>
     </row>
     <row r="63" spans="1:9">
@@ -4419,7 +4477,7 @@
       <c r="E63" s="68"/>
       <c r="F63" s="68"/>
       <c r="G63" s="68"/>
-      <c r="H63" s="93"/>
+      <c r="H63" s="92"/>
       <c r="I63" s="68"/>
     </row>
     <row r="64" spans="1:9">
@@ -4430,7 +4488,7 @@
       <c r="E64" s="68"/>
       <c r="F64" s="68"/>
       <c r="G64" s="68"/>
-      <c r="H64" s="93"/>
+      <c r="H64" s="92"/>
       <c r="I64" s="68"/>
     </row>
     <row r="65" spans="1:9">
@@ -4441,7 +4499,7 @@
       <c r="E65" s="68"/>
       <c r="F65" s="68"/>
       <c r="G65" s="68"/>
-      <c r="H65" s="93"/>
+      <c r="H65" s="92"/>
       <c r="I65" s="68"/>
     </row>
   </sheetData>
@@ -4484,10 +4542,12 @@
     <hyperlink ref="D51" r:id="rId32"/>
     <hyperlink ref="D52" r:id="rId33"/>
     <hyperlink ref="D53" r:id="rId34"/>
-    <hyperlink ref="D54" r:id="rId35"/>
+    <hyperlink ref="D41" r:id="rId35"/>
+    <hyperlink ref="D54" r:id="rId36"/>
+    <hyperlink ref="D55" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId36"/>
+  <pageSetup orientation="landscape" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -4495,21 +4555,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F478"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="A293" sqref="A293"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="42" customWidth="1"/>
-    <col min="5" max="5" width="83.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="94.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="83.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
@@ -4529,7 +4589,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
@@ -4537,7 +4597,7 @@
       <c r="E2" s="36"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -4555,7 +4615,7 @@
       </c>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
@@ -4573,7 +4633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="21" t="s">
         <v>23</v>
       </c>
@@ -4591,7 +4651,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
@@ -4625,7 +4685,7 @@
       </c>
       <c r="F7" s="36"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="21" t="s">
         <v>23</v>
       </c>
@@ -4641,7 +4701,7 @@
       </c>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
@@ -4657,7 +4717,7 @@
       </c>
       <c r="F9" s="36"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="21" t="s">
         <v>23</v>
       </c>
@@ -4673,7 +4733,7 @@
       </c>
       <c r="F10" s="36"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="21" t="s">
         <v>23</v>
       </c>
@@ -4689,7 +4749,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15">
       <c r="A12" s="21" t="s">
         <v>23</v>
       </c>
@@ -4705,7 +4765,7 @@
       </c>
       <c r="F12" s="36"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
@@ -4721,7 +4781,7 @@
       </c>
       <c r="F13" s="36"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="21" t="s">
         <v>23</v>
       </c>
@@ -4737,7 +4797,7 @@
       </c>
       <c r="F14" s="36"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="21" t="s">
         <v>23</v>
       </c>
@@ -4755,7 +4815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -4771,7 +4831,7 @@
       </c>
       <c r="F16" s="36"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15">
       <c r="A17" s="21" t="s">
         <v>23</v>
       </c>
@@ -4787,7 +4847,7 @@
       </c>
       <c r="F17" s="36"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="15">
       <c r="A18" s="21" t="s">
         <v>23</v>
       </c>
@@ -4803,7 +4863,7 @@
       </c>
       <c r="F18" s="36"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="15">
       <c r="A19" s="21" t="s">
         <v>23</v>
       </c>
@@ -4819,7 +4879,7 @@
       </c>
       <c r="F19" s="36"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="15">
       <c r="A20" s="21" t="s">
         <v>23</v>
       </c>
@@ -4835,7 +4895,7 @@
       </c>
       <c r="F20" s="36"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="15">
       <c r="A21" s="21" t="s">
         <v>23</v>
       </c>
@@ -4851,7 +4911,7 @@
       </c>
       <c r="F21" s="36"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="15">
       <c r="A22" s="21" t="s">
         <v>23</v>
       </c>
@@ -4867,7 +4927,7 @@
       </c>
       <c r="F22" s="36"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="15">
       <c r="A23" s="21" t="s">
         <v>23</v>
       </c>
@@ -4883,7 +4943,7 @@
       </c>
       <c r="F23" s="36"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="15">
       <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
@@ -4899,7 +4959,7 @@
       </c>
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="15">
       <c r="A25" s="21" t="s">
         <v>23</v>
       </c>
@@ -4915,7 +4975,7 @@
       </c>
       <c r="F25" s="36"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="15">
       <c r="A26" s="21" t="s">
         <v>23</v>
       </c>
@@ -4931,7 +4991,7 @@
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="15">
       <c r="A27" s="21" t="s">
         <v>23</v>
       </c>
@@ -4947,7 +5007,7 @@
       </c>
       <c r="F27" s="36"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="15">
       <c r="A28" s="21" t="s">
         <v>23</v>
       </c>
@@ -4963,7 +5023,7 @@
       </c>
       <c r="F28" s="36"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="15">
       <c r="A29" s="21" t="s">
         <v>23</v>
       </c>
@@ -4979,7 +5039,7 @@
       </c>
       <c r="F29" s="36"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="15">
       <c r="A30" s="21" t="s">
         <v>23</v>
       </c>
@@ -4995,7 +5055,7 @@
       </c>
       <c r="F30" s="36"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="15">
       <c r="A31" s="21" t="s">
         <v>23</v>
       </c>
@@ -5011,7 +5071,7 @@
       </c>
       <c r="F31" s="36"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="15">
       <c r="A32" s="21" t="s">
         <v>23</v>
       </c>
@@ -5027,7 +5087,7 @@
       </c>
       <c r="F32" s="36"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" ht="15">
       <c r="A33" s="21" t="s">
         <v>23</v>
       </c>
@@ -5043,7 +5103,7 @@
       </c>
       <c r="F33" s="36"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" ht="15">
       <c r="A34" s="21" t="s">
         <v>23</v>
       </c>
@@ -5059,7 +5119,7 @@
       </c>
       <c r="F34" s="36"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" ht="15">
       <c r="A35" s="21" t="s">
         <v>23</v>
       </c>
@@ -5075,7 +5135,7 @@
       </c>
       <c r="F35" s="36"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="15">
       <c r="A36" s="21" t="s">
         <v>23</v>
       </c>
@@ -5091,7 +5151,7 @@
       </c>
       <c r="F36" s="36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" ht="15">
       <c r="A37" s="21" t="s">
         <v>23</v>
       </c>
@@ -5107,7 +5167,7 @@
       </c>
       <c r="F37" s="36"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="15">
       <c r="A38" s="21" t="s">
         <v>23</v>
       </c>
@@ -5123,7 +5183,7 @@
       </c>
       <c r="F38" s="36"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
@@ -5131,7 +5191,7 @@
       <c r="E39" s="36"/>
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="15">
       <c r="A40" s="21"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -5139,7 +5199,7 @@
       <c r="E40" s="36"/>
       <c r="F40" s="36"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="15">
       <c r="A41" s="19" t="s">
         <v>142</v>
       </c>
@@ -5155,7 +5215,7 @@
       </c>
       <c r="F41" s="36"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="15">
       <c r="A42" s="19" t="s">
         <v>142</v>
       </c>
@@ -5171,7 +5231,7 @@
       </c>
       <c r="F42" s="36"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="15">
       <c r="A43" s="19" t="s">
         <v>142</v>
       </c>
@@ -5187,7 +5247,7 @@
       </c>
       <c r="F43" s="36"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="15">
       <c r="A44" s="19" t="s">
         <v>142</v>
       </c>
@@ -5203,7 +5263,7 @@
       </c>
       <c r="F44" s="36"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="15">
       <c r="A45" s="19" t="s">
         <v>142</v>
       </c>
@@ -5219,7 +5279,7 @@
       </c>
       <c r="F45" s="36"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="15">
       <c r="A46" s="19" t="s">
         <v>142</v>
       </c>
@@ -5235,7 +5295,7 @@
       </c>
       <c r="F46" s="36"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="15">
       <c r="A47" s="19" t="s">
         <v>142</v>
       </c>
@@ -5251,7 +5311,7 @@
       </c>
       <c r="F47" s="36"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="15">
       <c r="A48" s="19" t="s">
         <v>142</v>
       </c>
@@ -5267,7 +5327,7 @@
       </c>
       <c r="F48" s="36"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" ht="15">
       <c r="A49" s="19" t="s">
         <v>142</v>
       </c>
@@ -5283,7 +5343,7 @@
       </c>
       <c r="F49" s="36"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" ht="15">
       <c r="A50" s="19" t="s">
         <v>142</v>
       </c>
@@ -5299,7 +5359,7 @@
       </c>
       <c r="F50" s="36"/>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="16">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5315,7 +5375,7 @@
       <c r="E52" s="38"/>
       <c r="F52" s="34"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="16">
       <c r="A53" s="21" t="s">
         <v>153</v>
       </c>
@@ -5331,7 +5391,7 @@
       </c>
       <c r="F53" s="34"/>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="16">
       <c r="A54" s="21" t="s">
         <v>153</v>
       </c>
@@ -5347,7 +5407,7 @@
       </c>
       <c r="F54" s="34"/>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="16">
       <c r="A55" s="21" t="s">
         <v>153</v>
       </c>
@@ -5363,7 +5423,7 @@
       </c>
       <c r="F55" s="34"/>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="16">
       <c r="A56" s="21" t="s">
         <v>153</v>
       </c>
@@ -5379,7 +5439,7 @@
       </c>
       <c r="F56" s="34"/>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="16">
       <c r="A57" s="21" t="s">
         <v>153</v>
       </c>
@@ -5395,7 +5455,7 @@
       </c>
       <c r="F57" s="34"/>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="16">
       <c r="A58" s="21" t="s">
         <v>153</v>
       </c>
@@ -5411,7 +5471,7 @@
       </c>
       <c r="F58" s="34"/>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="16">
       <c r="A59" s="21" t="s">
         <v>153</v>
       </c>
@@ -5427,7 +5487,7 @@
       </c>
       <c r="F59" s="34"/>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="16">
       <c r="A60" s="21" t="s">
         <v>153</v>
       </c>
@@ -5443,7 +5503,7 @@
       </c>
       <c r="F60" s="34"/>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="16">
       <c r="A61" s="21" t="s">
         <v>153</v>
       </c>
@@ -5459,7 +5519,7 @@
       </c>
       <c r="F61" s="34"/>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="16">
       <c r="A62" s="21" t="s">
         <v>153</v>
       </c>
@@ -5475,7 +5535,7 @@
       </c>
       <c r="F62" s="34"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="16">
       <c r="A63" s="21" t="s">
         <v>153</v>
       </c>
@@ -5491,7 +5551,7 @@
       </c>
       <c r="F63" s="34"/>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="16">
       <c r="A64" s="21" t="s">
         <v>153</v>
       </c>
@@ -5507,7 +5567,7 @@
       </c>
       <c r="F64" s="34"/>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="16">
       <c r="A65" s="21" t="s">
         <v>153</v>
       </c>
@@ -5523,7 +5583,7 @@
       </c>
       <c r="F65" s="34"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="16">
       <c r="A66" s="21" t="s">
         <v>153</v>
       </c>
@@ -5539,7 +5599,7 @@
       </c>
       <c r="F66" s="34"/>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="16">
       <c r="A67" s="21" t="s">
         <v>153</v>
       </c>
@@ -5555,7 +5615,7 @@
       </c>
       <c r="F67" s="34"/>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="16">
       <c r="A68" s="21" t="s">
         <v>153</v>
       </c>
@@ -5571,7 +5631,7 @@
       </c>
       <c r="F68" s="34"/>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="16">
       <c r="A69" s="21" t="s">
         <v>153</v>
       </c>
@@ -5587,7 +5647,7 @@
       </c>
       <c r="F69" s="34"/>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="16">
       <c r="A70" s="21" t="s">
         <v>153</v>
       </c>
@@ -5603,7 +5663,7 @@
       </c>
       <c r="F70" s="34"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="16">
       <c r="A71" s="21" t="s">
         <v>153</v>
       </c>
@@ -5619,7 +5679,7 @@
       </c>
       <c r="F71" s="34"/>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="16">
       <c r="A72" s="21" t="s">
         <v>153</v>
       </c>
@@ -5635,7 +5695,7 @@
       </c>
       <c r="F72" s="34"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="16">
       <c r="A73" s="21" t="s">
         <v>153</v>
       </c>
@@ -5651,7 +5711,7 @@
       </c>
       <c r="F73" s="34"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6" ht="16">
       <c r="A74" s="21" t="s">
         <v>153</v>
       </c>
@@ -5667,7 +5727,7 @@
       </c>
       <c r="F74" s="34"/>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6" ht="16">
       <c r="A75" s="21" t="s">
         <v>153</v>
       </c>
@@ -5683,7 +5743,7 @@
       </c>
       <c r="F75" s="34"/>
     </row>
-    <row r="76" spans="1:6" ht="15.75">
+    <row r="76" spans="1:6" ht="16">
       <c r="A76" s="21" t="s">
         <v>153</v>
       </c>
@@ -5699,7 +5759,7 @@
       </c>
       <c r="F76" s="34"/>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6" ht="16">
       <c r="A77" s="21" t="s">
         <v>153</v>
       </c>
@@ -5715,7 +5775,7 @@
       </c>
       <c r="F77" s="34"/>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6" ht="16">
       <c r="A78" s="21" t="s">
         <v>153</v>
       </c>
@@ -5731,7 +5791,7 @@
       </c>
       <c r="F78" s="34"/>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="16">
       <c r="A79" s="21" t="s">
         <v>153</v>
       </c>
@@ -5747,7 +5807,7 @@
       </c>
       <c r="F79" s="34"/>
     </row>
-    <row r="80" spans="1:6" ht="15.75">
+    <row r="80" spans="1:6" ht="16">
       <c r="A80" s="21" t="s">
         <v>153</v>
       </c>
@@ -5763,7 +5823,7 @@
       </c>
       <c r="F80" s="34"/>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="16">
       <c r="A81" s="21" t="s">
         <v>153</v>
       </c>
@@ -5779,7 +5839,7 @@
       </c>
       <c r="F81" s="34"/>
     </row>
-    <row r="82" spans="1:6" ht="15.75">
+    <row r="82" spans="1:6" ht="16">
       <c r="A82" s="21" t="s">
         <v>153</v>
       </c>
@@ -5795,7 +5855,7 @@
       </c>
       <c r="F82" s="34"/>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="16">
       <c r="A83" s="21" t="s">
         <v>153</v>
       </c>
@@ -5811,7 +5871,7 @@
       </c>
       <c r="F83" s="34"/>
     </row>
-    <row r="84" spans="1:6" ht="15.75">
+    <row r="84" spans="1:6" ht="16">
       <c r="A84" s="21" t="s">
         <v>153</v>
       </c>
@@ -5827,7 +5887,7 @@
       </c>
       <c r="F84" s="34"/>
     </row>
-    <row r="85" spans="1:6" ht="15.75">
+    <row r="85" spans="1:6" ht="16">
       <c r="A85" s="21" t="s">
         <v>153</v>
       </c>
@@ -5843,7 +5903,7 @@
       </c>
       <c r="F85" s="34"/>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="16">
       <c r="A86" s="21" t="s">
         <v>153</v>
       </c>
@@ -5859,7 +5919,7 @@
       </c>
       <c r="F86" s="34"/>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="16">
       <c r="A87" s="21" t="s">
         <v>153</v>
       </c>
@@ -5875,7 +5935,7 @@
       </c>
       <c r="F87" s="34"/>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="16">
       <c r="A88" s="21" t="s">
         <v>153</v>
       </c>
@@ -5891,7 +5951,7 @@
       </c>
       <c r="F88" s="34"/>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:6" ht="16">
       <c r="A89" s="21" t="s">
         <v>153</v>
       </c>
@@ -5907,7 +5967,7 @@
       </c>
       <c r="F89" s="34"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75">
+    <row r="90" spans="1:6" ht="16">
       <c r="A90" s="21" t="s">
         <v>153</v>
       </c>
@@ -5923,7 +5983,7 @@
       </c>
       <c r="F90" s="34"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75">
+    <row r="91" spans="1:6" ht="16">
       <c r="A91" s="21" t="s">
         <v>153</v>
       </c>
@@ -5939,7 +5999,7 @@
       </c>
       <c r="F91" s="34"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75">
+    <row r="92" spans="1:6" ht="16">
       <c r="A92" s="21" t="s">
         <v>153</v>
       </c>
@@ -5955,7 +6015,7 @@
       </c>
       <c r="F92" s="34"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75">
+    <row r="93" spans="1:6" ht="16">
       <c r="A93" s="21" t="s">
         <v>153</v>
       </c>
@@ -5971,7 +6031,7 @@
       </c>
       <c r="F93" s="34"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75">
+    <row r="94" spans="1:6" ht="16">
       <c r="A94" s="21" t="s">
         <v>153</v>
       </c>
@@ -5987,7 +6047,7 @@
       </c>
       <c r="F94" s="34"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75">
+    <row r="95" spans="1:6" ht="16">
       <c r="A95" s="21" t="s">
         <v>153</v>
       </c>
@@ -6003,7 +6063,7 @@
       </c>
       <c r="F95" s="34"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="16">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6019,7 +6079,7 @@
       <c r="E97" s="38"/>
       <c r="F97" s="34"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="16">
       <c r="A98" s="21" t="s">
         <v>197</v>
       </c>
@@ -6035,7 +6095,7 @@
       </c>
       <c r="F98" s="34"/>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="16">
       <c r="A99" s="21" t="s">
         <v>197</v>
       </c>
@@ -6051,7 +6111,7 @@
       </c>
       <c r="F99" s="34"/>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="16">
       <c r="A100" s="21" t="s">
         <v>197</v>
       </c>
@@ -6067,7 +6127,7 @@
       </c>
       <c r="F100" s="34"/>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="16">
       <c r="A101" s="21" t="s">
         <v>197</v>
       </c>
@@ -6083,7 +6143,7 @@
       </c>
       <c r="F101" s="34"/>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="16">
       <c r="A102" s="21" t="s">
         <v>197</v>
       </c>
@@ -6099,7 +6159,7 @@
       </c>
       <c r="F102" s="34"/>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="16">
       <c r="A103" s="21" t="s">
         <v>197</v>
       </c>
@@ -6115,7 +6175,7 @@
       </c>
       <c r="F103" s="34"/>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="16">
       <c r="A104" s="21" t="s">
         <v>197</v>
       </c>
@@ -6131,7 +6191,7 @@
       </c>
       <c r="F104" s="34"/>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="16">
       <c r="A105" s="21" t="s">
         <v>197</v>
       </c>
@@ -6147,7 +6207,7 @@
       </c>
       <c r="F105" s="34"/>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="16">
       <c r="A106" s="21" t="s">
         <v>197</v>
       </c>
@@ -6163,7 +6223,7 @@
       </c>
       <c r="F106" s="34"/>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="16">
       <c r="A107" s="21" t="s">
         <v>197</v>
       </c>
@@ -6179,7 +6239,7 @@
       </c>
       <c r="F107" s="34"/>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="16">
       <c r="A108" s="21" t="s">
         <v>197</v>
       </c>
@@ -6195,7 +6255,7 @@
       </c>
       <c r="F108" s="34"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="16">
       <c r="A109" s="21" t="s">
         <v>197</v>
       </c>
@@ -6211,7 +6271,7 @@
       </c>
       <c r="F109" s="34"/>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="16">
       <c r="A110" s="21" t="s">
         <v>197</v>
       </c>
@@ -6227,7 +6287,7 @@
       </c>
       <c r="F110" s="34"/>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="16">
       <c r="A111" s="21" t="s">
         <v>197</v>
       </c>
@@ -6243,7 +6303,7 @@
       </c>
       <c r="F111" s="34"/>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="16">
       <c r="A112" s="21" t="s">
         <v>197</v>
       </c>
@@ -6259,7 +6319,7 @@
       </c>
       <c r="F112" s="34"/>
     </row>
-    <row r="113" spans="1:6" ht="15.75">
+    <row r="113" spans="1:6" ht="16">
       <c r="A113" s="21" t="s">
         <v>197</v>
       </c>
@@ -6275,7 +6335,7 @@
       </c>
       <c r="F113" s="34"/>
     </row>
-    <row r="114" spans="1:6" ht="15.75">
+    <row r="114" spans="1:6" ht="16">
       <c r="A114" s="21" t="s">
         <v>197</v>
       </c>
@@ -6291,7 +6351,7 @@
       </c>
       <c r="F114" s="34"/>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="16">
       <c r="A115" s="21" t="s">
         <v>197</v>
       </c>
@@ -6307,7 +6367,7 @@
       </c>
       <c r="F115" s="34"/>
     </row>
-    <row r="116" spans="1:6" ht="15.75">
+    <row r="116" spans="1:6" ht="16">
       <c r="A116" s="21" t="s">
         <v>197</v>
       </c>
@@ -6323,7 +6383,7 @@
       </c>
       <c r="F116" s="34"/>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="16">
       <c r="A117" s="21" t="s">
         <v>197</v>
       </c>
@@ -6339,7 +6399,7 @@
       </c>
       <c r="F117" s="34"/>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="16">
       <c r="A118" s="21" t="s">
         <v>197</v>
       </c>
@@ -6355,7 +6415,7 @@
       </c>
       <c r="F118" s="34"/>
     </row>
-    <row r="119" spans="1:6" ht="15.75">
+    <row r="119" spans="1:6" ht="16">
       <c r="A119" s="21" t="s">
         <v>197</v>
       </c>
@@ -6371,7 +6431,7 @@
       </c>
       <c r="F119" s="34"/>
     </row>
-    <row r="120" spans="1:6" ht="15.75">
+    <row r="120" spans="1:6" ht="16">
       <c r="A120" s="21" t="s">
         <v>197</v>
       </c>
@@ -6387,7 +6447,7 @@
       </c>
       <c r="F120" s="34"/>
     </row>
-    <row r="121" spans="1:6" ht="15.75">
+    <row r="121" spans="1:6" ht="16">
       <c r="A121" s="21" t="s">
         <v>197</v>
       </c>
@@ -6403,7 +6463,7 @@
       </c>
       <c r="F121" s="34"/>
     </row>
-    <row r="122" spans="1:6" ht="15.75">
+    <row r="122" spans="1:6" ht="16">
       <c r="A122" s="21" t="s">
         <v>197</v>
       </c>
@@ -6419,7 +6479,7 @@
       </c>
       <c r="F122" s="34"/>
     </row>
-    <row r="123" spans="1:6" ht="15.75">
+    <row r="123" spans="1:6" ht="16">
       <c r="A123" s="21" t="s">
         <v>197</v>
       </c>
@@ -6435,7 +6495,7 @@
       </c>
       <c r="F123" s="34"/>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="16">
       <c r="A124" s="21" t="s">
         <v>197</v>
       </c>
@@ -6451,7 +6511,7 @@
       </c>
       <c r="F124" s="34"/>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="16">
       <c r="A125" s="21" t="s">
         <v>197</v>
       </c>
@@ -6467,7 +6527,7 @@
       </c>
       <c r="F125" s="34"/>
     </row>
-    <row r="126" spans="1:6" ht="15.75">
+    <row r="126" spans="1:6" ht="16">
       <c r="A126" s="21" t="s">
         <v>197</v>
       </c>
@@ -6483,7 +6543,7 @@
       </c>
       <c r="F126" s="34"/>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="16">
       <c r="A127" s="21" t="s">
         <v>197</v>
       </c>
@@ -6499,7 +6559,7 @@
       </c>
       <c r="F127" s="34"/>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="16">
       <c r="A128" s="21" t="s">
         <v>197</v>
       </c>
@@ -6515,7 +6575,7 @@
       </c>
       <c r="F128" s="34"/>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="16">
       <c r="A129" s="21" t="s">
         <v>197</v>
       </c>
@@ -6531,7 +6591,7 @@
       </c>
       <c r="F129" s="34"/>
     </row>
-    <row r="130" spans="1:6" ht="15.75">
+    <row r="130" spans="1:6" ht="16">
       <c r="A130" s="21" t="s">
         <v>197</v>
       </c>
@@ -6547,7 +6607,7 @@
       </c>
       <c r="F130" s="34"/>
     </row>
-    <row r="131" spans="1:6" ht="15.75">
+    <row r="131" spans="1:6" ht="16">
       <c r="A131" s="21" t="s">
         <v>197</v>
       </c>
@@ -6563,7 +6623,7 @@
       </c>
       <c r="F131" s="34"/>
     </row>
-    <row r="132" spans="1:6" ht="15.75">
+    <row r="132" spans="1:6" ht="16">
       <c r="A132" s="21" t="s">
         <v>197</v>
       </c>
@@ -6579,7 +6639,7 @@
       </c>
       <c r="F132" s="34"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75">
+    <row r="133" spans="1:6" ht="16">
       <c r="A133" s="21" t="s">
         <v>197</v>
       </c>
@@ -6595,7 +6655,7 @@
       </c>
       <c r="F133" s="34"/>
     </row>
-    <row r="134" spans="1:6" ht="15.75">
+    <row r="134" spans="1:6" ht="16">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -6611,7 +6671,7 @@
       <c r="E135" s="38"/>
       <c r="F135" s="34"/>
     </row>
-    <row r="136" spans="1:6" ht="15.75">
+    <row r="136" spans="1:6" ht="16">
       <c r="A136" s="19" t="s">
         <v>234</v>
       </c>
@@ -6627,7 +6687,7 @@
       </c>
       <c r="F136" s="34"/>
     </row>
-    <row r="137" spans="1:6" ht="15.75">
+    <row r="137" spans="1:6" ht="16">
       <c r="A137" s="19" t="s">
         <v>234</v>
       </c>
@@ -6643,7 +6703,7 @@
       </c>
       <c r="F137" s="34"/>
     </row>
-    <row r="138" spans="1:6" ht="15.75">
+    <row r="138" spans="1:6" ht="16">
       <c r="A138" s="19" t="s">
         <v>234</v>
       </c>
@@ -6659,7 +6719,7 @@
       </c>
       <c r="F138" s="34"/>
     </row>
-    <row r="139" spans="1:6" ht="15.75">
+    <row r="139" spans="1:6" ht="16">
       <c r="A139" s="19" t="s">
         <v>234</v>
       </c>
@@ -6675,7 +6735,7 @@
       </c>
       <c r="F139" s="34"/>
     </row>
-    <row r="140" spans="1:6" ht="15.75">
+    <row r="140" spans="1:6" ht="16">
       <c r="A140" s="19" t="s">
         <v>234</v>
       </c>
@@ -6691,7 +6751,7 @@
       </c>
       <c r="F140" s="34"/>
     </row>
-    <row r="141" spans="1:6" ht="15.75">
+    <row r="141" spans="1:6" ht="16">
       <c r="A141" s="19" t="s">
         <v>234</v>
       </c>
@@ -6707,7 +6767,7 @@
       </c>
       <c r="F141" s="34"/>
     </row>
-    <row r="142" spans="1:6" ht="15.75">
+    <row r="142" spans="1:6" ht="16">
       <c r="A142" s="19" t="s">
         <v>234</v>
       </c>
@@ -6723,7 +6783,7 @@
       </c>
       <c r="F142" s="34"/>
     </row>
-    <row r="143" spans="1:6" ht="15.75">
+    <row r="143" spans="1:6" ht="16">
       <c r="A143" s="19" t="s">
         <v>234</v>
       </c>
@@ -6739,7 +6799,7 @@
       </c>
       <c r="F143" s="34"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75">
+    <row r="144" spans="1:6" ht="16">
       <c r="A144" s="19" t="s">
         <v>234</v>
       </c>
@@ -6755,7 +6815,7 @@
       </c>
       <c r="F144" s="34"/>
     </row>
-    <row r="145" spans="1:6" ht="15.75">
+    <row r="145" spans="1:6" ht="16">
       <c r="A145" s="19" t="s">
         <v>234</v>
       </c>
@@ -6771,7 +6831,7 @@
       </c>
       <c r="F145" s="34"/>
     </row>
-    <row r="146" spans="1:6" ht="15.75">
+    <row r="146" spans="1:6" ht="16">
       <c r="A146" s="19" t="s">
         <v>234</v>
       </c>
@@ -6787,7 +6847,7 @@
       </c>
       <c r="F146" s="34"/>
     </row>
-    <row r="147" spans="1:6" ht="15.75">
+    <row r="147" spans="1:6" ht="16">
       <c r="A147" s="19" t="s">
         <v>234</v>
       </c>
@@ -6803,7 +6863,7 @@
       </c>
       <c r="F147" s="34"/>
     </row>
-    <row r="148" spans="1:6" ht="15.75">
+    <row r="148" spans="1:6" ht="16">
       <c r="A148" s="19" t="s">
         <v>234</v>
       </c>
@@ -6819,7 +6879,7 @@
       </c>
       <c r="F148" s="34"/>
     </row>
-    <row r="149" spans="1:6" ht="15.75">
+    <row r="149" spans="1:6" ht="16">
       <c r="A149" s="19" t="s">
         <v>234</v>
       </c>
@@ -6835,7 +6895,7 @@
       </c>
       <c r="F149" s="34"/>
     </row>
-    <row r="150" spans="1:6" ht="15.75">
+    <row r="150" spans="1:6" ht="16">
       <c r="A150" s="19" t="s">
         <v>234</v>
       </c>
@@ -6851,7 +6911,7 @@
       </c>
       <c r="F150" s="34"/>
     </row>
-    <row r="151" spans="1:6" ht="15.75">
+    <row r="151" spans="1:6" ht="16">
       <c r="A151" s="19" t="s">
         <v>234</v>
       </c>
@@ -6867,7 +6927,7 @@
       </c>
       <c r="F151" s="34"/>
     </row>
-    <row r="152" spans="1:6" ht="15.75">
+    <row r="152" spans="1:6" ht="16">
       <c r="A152" s="19" t="s">
         <v>234</v>
       </c>
@@ -6883,7 +6943,7 @@
       </c>
       <c r="F152" s="34"/>
     </row>
-    <row r="153" spans="1:6" ht="15.75">
+    <row r="153" spans="1:6" ht="16">
       <c r="A153" s="19" t="s">
         <v>234</v>
       </c>
@@ -6899,7 +6959,7 @@
       </c>
       <c r="F153" s="34"/>
     </row>
-    <row r="154" spans="1:6" ht="15.75">
+    <row r="154" spans="1:6" ht="16">
       <c r="A154" s="19" t="s">
         <v>234</v>
       </c>
@@ -6915,7 +6975,7 @@
       </c>
       <c r="F154" s="34"/>
     </row>
-    <row r="155" spans="1:6" ht="15.75">
+    <row r="155" spans="1:6" ht="16">
       <c r="A155" s="19" t="s">
         <v>234</v>
       </c>
@@ -6931,7 +6991,7 @@
       </c>
       <c r="F155" s="34"/>
     </row>
-    <row r="156" spans="1:6" ht="15.75">
+    <row r="156" spans="1:6" ht="16">
       <c r="A156" s="19" t="s">
         <v>234</v>
       </c>
@@ -6947,7 +7007,7 @@
       </c>
       <c r="F156" s="34"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75">
+    <row r="157" spans="1:6" ht="16">
       <c r="A157" s="19" t="s">
         <v>234</v>
       </c>
@@ -6963,7 +7023,7 @@
       </c>
       <c r="F157" s="34"/>
     </row>
-    <row r="158" spans="1:6" ht="15.75">
+    <row r="158" spans="1:6" ht="16">
       <c r="A158" s="19" t="s">
         <v>234</v>
       </c>
@@ -6979,7 +7039,7 @@
       </c>
       <c r="F158" s="34"/>
     </row>
-    <row r="159" spans="1:6" ht="15.75">
+    <row r="159" spans="1:6" ht="16">
       <c r="A159" s="19" t="s">
         <v>234</v>
       </c>
@@ -6995,7 +7055,7 @@
       </c>
       <c r="F159" s="34"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75">
+    <row r="160" spans="1:6" ht="16">
       <c r="A160" s="19" t="s">
         <v>234</v>
       </c>
@@ -7043,7 +7103,7 @@
       </c>
       <c r="F162" s="34"/>
     </row>
-    <row r="163" spans="1:6" ht="15.75">
+    <row r="163" spans="1:6" ht="16">
       <c r="A163" s="19" t="s">
         <v>234</v>
       </c>
@@ -7059,7 +7119,7 @@
       </c>
       <c r="F163" s="34"/>
     </row>
-    <row r="164" spans="1:6" ht="15.75">
+    <row r="164" spans="1:6" ht="16">
       <c r="A164" s="19" t="s">
         <v>234</v>
       </c>
@@ -7075,7 +7135,7 @@
       </c>
       <c r="F164" s="34"/>
     </row>
-    <row r="165" spans="1:6" ht="15.75">
+    <row r="165" spans="1:6" ht="16">
       <c r="A165" s="19" t="s">
         <v>234</v>
       </c>
@@ -7091,7 +7151,7 @@
       </c>
       <c r="F165" s="34"/>
     </row>
-    <row r="166" spans="1:6" ht="15.75">
+    <row r="166" spans="1:6" ht="16">
       <c r="A166" s="19" t="s">
         <v>234</v>
       </c>
@@ -7107,7 +7167,7 @@
       </c>
       <c r="F166" s="34"/>
     </row>
-    <row r="167" spans="1:6" ht="15.75">
+    <row r="167" spans="1:6" ht="16">
       <c r="A167" s="19" t="s">
         <v>234</v>
       </c>
@@ -7123,7 +7183,7 @@
       </c>
       <c r="F167" s="34"/>
     </row>
-    <row r="168" spans="1:6" ht="15.75">
+    <row r="168" spans="1:6" ht="16">
       <c r="A168" s="19" t="s">
         <v>234</v>
       </c>
@@ -7139,7 +7199,7 @@
       </c>
       <c r="F168" s="34"/>
     </row>
-    <row r="169" spans="1:6" ht="15.75">
+    <row r="169" spans="1:6" ht="16">
       <c r="A169" s="19" t="s">
         <v>234</v>
       </c>
@@ -7155,7 +7215,7 @@
       </c>
       <c r="F169" s="34"/>
     </row>
-    <row r="170" spans="1:6" ht="15.75">
+    <row r="170" spans="1:6" ht="16">
       <c r="A170" s="19" t="s">
         <v>234</v>
       </c>
@@ -7171,7 +7231,7 @@
       </c>
       <c r="F170" s="34"/>
     </row>
-    <row r="171" spans="1:6" ht="15.75">
+    <row r="171" spans="1:6" ht="16">
       <c r="A171" s="19" t="s">
         <v>234</v>
       </c>
@@ -7187,7 +7247,7 @@
       </c>
       <c r="F171" s="34"/>
     </row>
-    <row r="172" spans="1:6" ht="15.75">
+    <row r="172" spans="1:6" ht="16">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -7203,7 +7263,7 @@
       <c r="E173" s="38"/>
       <c r="F173" s="34"/>
     </row>
-    <row r="174" spans="1:6" ht="15.75">
+    <row r="174" spans="1:6" ht="16">
       <c r="A174" s="21" t="s">
         <v>271</v>
       </c>
@@ -7219,7 +7279,7 @@
       </c>
       <c r="F174" s="34"/>
     </row>
-    <row r="175" spans="1:6" ht="15.75">
+    <row r="175" spans="1:6" ht="16">
       <c r="A175" s="21" t="s">
         <v>271</v>
       </c>
@@ -7235,7 +7295,7 @@
       </c>
       <c r="F175" s="34"/>
     </row>
-    <row r="176" spans="1:6" ht="15.75">
+    <row r="176" spans="1:6" ht="16">
       <c r="A176" s="21" t="s">
         <v>271</v>
       </c>
@@ -7251,7 +7311,7 @@
       </c>
       <c r="F176" s="34"/>
     </row>
-    <row r="177" spans="1:6" ht="15.75">
+    <row r="177" spans="1:6" ht="16">
       <c r="A177" s="21" t="s">
         <v>271</v>
       </c>
@@ -7267,7 +7327,7 @@
       </c>
       <c r="F177" s="34"/>
     </row>
-    <row r="178" spans="1:6" ht="15.75">
+    <row r="178" spans="1:6" ht="16">
       <c r="A178" s="21" t="s">
         <v>271</v>
       </c>
@@ -7283,7 +7343,7 @@
       </c>
       <c r="F178" s="34"/>
     </row>
-    <row r="179" spans="1:6" ht="15.75">
+    <row r="179" spans="1:6" ht="16">
       <c r="A179" s="21" t="s">
         <v>271</v>
       </c>
@@ -7299,7 +7359,7 @@
       </c>
       <c r="F179" s="34"/>
     </row>
-    <row r="180" spans="1:6" ht="15.75">
+    <row r="180" spans="1:6" ht="16">
       <c r="A180" s="21" t="s">
         <v>271</v>
       </c>
@@ -7315,7 +7375,7 @@
       </c>
       <c r="F180" s="34"/>
     </row>
-    <row r="181" spans="1:6" ht="15.75">
+    <row r="181" spans="1:6" ht="16">
       <c r="A181" s="21" t="s">
         <v>271</v>
       </c>
@@ -7331,7 +7391,7 @@
       </c>
       <c r="F181" s="34"/>
     </row>
-    <row r="182" spans="1:6" ht="15.75">
+    <row r="182" spans="1:6" ht="16">
       <c r="A182" s="21" t="s">
         <v>271</v>
       </c>
@@ -7347,7 +7407,7 @@
       </c>
       <c r="F182" s="34"/>
     </row>
-    <row r="183" spans="1:6" ht="15.75">
+    <row r="183" spans="1:6" ht="16">
       <c r="A183" s="21" t="s">
         <v>271</v>
       </c>
@@ -7363,7 +7423,7 @@
       </c>
       <c r="F183" s="34"/>
     </row>
-    <row r="184" spans="1:6" ht="15.75">
+    <row r="184" spans="1:6" ht="16">
       <c r="A184" s="21" t="s">
         <v>271</v>
       </c>
@@ -7379,7 +7439,7 @@
       </c>
       <c r="F184" s="34"/>
     </row>
-    <row r="185" spans="1:6" ht="15.75">
+    <row r="185" spans="1:6" ht="16">
       <c r="A185" s="21" t="s">
         <v>271</v>
       </c>
@@ -7395,7 +7455,7 @@
       </c>
       <c r="F185" s="34"/>
     </row>
-    <row r="186" spans="1:6" ht="15.75">
+    <row r="186" spans="1:6" ht="16">
       <c r="A186" s="21" t="s">
         <v>271</v>
       </c>
@@ -7411,7 +7471,7 @@
       </c>
       <c r="F186" s="34"/>
     </row>
-    <row r="187" spans="1:6" ht="15.75">
+    <row r="187" spans="1:6" ht="16">
       <c r="A187" s="21" t="s">
         <v>271</v>
       </c>
@@ -7427,7 +7487,7 @@
       </c>
       <c r="F187" s="34"/>
     </row>
-    <row r="188" spans="1:6" ht="15.75">
+    <row r="188" spans="1:6" ht="16">
       <c r="A188" s="21" t="s">
         <v>271</v>
       </c>
@@ -7443,7 +7503,7 @@
       </c>
       <c r="F188" s="34"/>
     </row>
-    <row r="189" spans="1:6" ht="15.75">
+    <row r="189" spans="1:6" ht="16">
       <c r="A189" s="21" t="s">
         <v>271</v>
       </c>
@@ -7459,7 +7519,7 @@
       </c>
       <c r="F189" s="34"/>
     </row>
-    <row r="190" spans="1:6" ht="15.75">
+    <row r="190" spans="1:6" ht="16">
       <c r="A190" s="21" t="s">
         <v>271</v>
       </c>
@@ -7475,7 +7535,7 @@
       </c>
       <c r="F190" s="34"/>
     </row>
-    <row r="191" spans="1:6" ht="15.75">
+    <row r="191" spans="1:6" ht="16">
       <c r="A191" s="21" t="s">
         <v>271</v>
       </c>
@@ -7491,7 +7551,7 @@
       </c>
       <c r="F191" s="34"/>
     </row>
-    <row r="192" spans="1:6" ht="15.75">
+    <row r="192" spans="1:6" ht="16">
       <c r="A192" s="21" t="s">
         <v>271</v>
       </c>
@@ -7507,7 +7567,7 @@
       </c>
       <c r="F192" s="34"/>
     </row>
-    <row r="193" spans="1:6" ht="15.75">
+    <row r="193" spans="1:6" ht="16">
       <c r="A193" s="21" t="s">
         <v>271</v>
       </c>
@@ -7523,7 +7583,7 @@
       </c>
       <c r="F193" s="34"/>
     </row>
-    <row r="194" spans="1:6" ht="15.75">
+    <row r="194" spans="1:6" ht="16">
       <c r="A194" s="21" t="s">
         <v>271</v>
       </c>
@@ -7539,7 +7599,7 @@
       </c>
       <c r="F194" s="34"/>
     </row>
-    <row r="195" spans="1:6" ht="15.75">
+    <row r="195" spans="1:6" ht="16">
       <c r="A195" s="21" t="s">
         <v>271</v>
       </c>
@@ -7555,7 +7615,7 @@
       </c>
       <c r="F195" s="34"/>
     </row>
-    <row r="196" spans="1:6" ht="15.75">
+    <row r="196" spans="1:6" ht="16">
       <c r="A196" s="21" t="s">
         <v>271</v>
       </c>
@@ -7571,7 +7631,7 @@
       </c>
       <c r="F196" s="34"/>
     </row>
-    <row r="197" spans="1:6" ht="15.75">
+    <row r="197" spans="1:6" ht="16">
       <c r="A197" s="21" t="s">
         <v>271</v>
       </c>
@@ -7587,7 +7647,7 @@
       </c>
       <c r="F197" s="34"/>
     </row>
-    <row r="198" spans="1:6" ht="15.75">
+    <row r="198" spans="1:6" ht="16">
       <c r="A198" s="21" t="s">
         <v>271</v>
       </c>
@@ -7603,7 +7663,7 @@
       </c>
       <c r="F198" s="34"/>
     </row>
-    <row r="199" spans="1:6" ht="15.75">
+    <row r="199" spans="1:6" ht="16">
       <c r="A199" s="21" t="s">
         <v>271</v>
       </c>
@@ -7619,7 +7679,7 @@
       </c>
       <c r="F199" s="34"/>
     </row>
-    <row r="200" spans="1:6" ht="15.75">
+    <row r="200" spans="1:6" ht="16">
       <c r="A200" s="21" t="s">
         <v>271</v>
       </c>
@@ -7635,7 +7695,7 @@
       </c>
       <c r="F200" s="34"/>
     </row>
-    <row r="201" spans="1:6" ht="15.75">
+    <row r="201" spans="1:6" ht="16">
       <c r="A201" s="21" t="s">
         <v>271</v>
       </c>
@@ -7651,7 +7711,7 @@
       </c>
       <c r="F201" s="34"/>
     </row>
-    <row r="202" spans="1:6" ht="15.75">
+    <row r="202" spans="1:6" ht="16">
       <c r="A202" s="21" t="s">
         <v>271</v>
       </c>
@@ -7667,7 +7727,7 @@
       </c>
       <c r="F202" s="34"/>
     </row>
-    <row r="203" spans="1:6" ht="15.75">
+    <row r="203" spans="1:6" ht="16">
       <c r="A203" s="21" t="s">
         <v>271</v>
       </c>
@@ -7683,7 +7743,7 @@
       </c>
       <c r="F203" s="34"/>
     </row>
-    <row r="204" spans="1:6" ht="15.75">
+    <row r="204" spans="1:6" ht="16">
       <c r="A204" s="21" t="s">
         <v>271</v>
       </c>
@@ -7699,7 +7759,7 @@
       </c>
       <c r="F204" s="34"/>
     </row>
-    <row r="205" spans="1:6" ht="15.75">
+    <row r="205" spans="1:6" ht="16">
       <c r="A205" s="21" t="s">
         <v>271</v>
       </c>
@@ -7715,7 +7775,7 @@
       </c>
       <c r="F205" s="34"/>
     </row>
-    <row r="206" spans="1:6" ht="15.75">
+    <row r="206" spans="1:6" ht="16">
       <c r="A206" s="21" t="s">
         <v>271</v>
       </c>
@@ -7731,7 +7791,7 @@
       </c>
       <c r="F206" s="34"/>
     </row>
-    <row r="207" spans="1:6" ht="15.75">
+    <row r="207" spans="1:6" ht="16">
       <c r="A207" s="21" t="s">
         <v>271</v>
       </c>
@@ -7747,7 +7807,7 @@
       </c>
       <c r="F207" s="34"/>
     </row>
-    <row r="208" spans="1:6" ht="15.75">
+    <row r="208" spans="1:6" ht="16">
       <c r="A208" s="21" t="s">
         <v>271</v>
       </c>
@@ -7779,7 +7839,7 @@
       <c r="E210" s="38"/>
       <c r="F210" s="34"/>
     </row>
-    <row r="211" spans="1:6" ht="15.75">
+    <row r="211" spans="1:6" ht="16">
       <c r="A211" s="21" t="s">
         <v>307</v>
       </c>
@@ -7795,7 +7855,7 @@
       </c>
       <c r="F211" s="34"/>
     </row>
-    <row r="212" spans="1:6" ht="15.75">
+    <row r="212" spans="1:6" ht="16">
       <c r="A212" s="21" t="s">
         <v>307</v>
       </c>
@@ -7811,7 +7871,7 @@
       </c>
       <c r="F212" s="34"/>
     </row>
-    <row r="213" spans="1:6" ht="15.75">
+    <row r="213" spans="1:6" ht="16">
       <c r="A213" s="21" t="s">
         <v>307</v>
       </c>
@@ -7827,7 +7887,7 @@
       </c>
       <c r="F213" s="34"/>
     </row>
-    <row r="214" spans="1:6" ht="15.75">
+    <row r="214" spans="1:6" ht="16">
       <c r="A214" s="21" t="s">
         <v>307</v>
       </c>
@@ -7843,7 +7903,7 @@
       </c>
       <c r="F214" s="34"/>
     </row>
-    <row r="215" spans="1:6" ht="15.75">
+    <row r="215" spans="1:6" ht="16">
       <c r="A215" s="21" t="s">
         <v>307</v>
       </c>
@@ -7859,7 +7919,7 @@
       </c>
       <c r="F215" s="34"/>
     </row>
-    <row r="216" spans="1:6" ht="15.75">
+    <row r="216" spans="1:6" ht="16">
       <c r="A216" s="21" t="s">
         <v>307</v>
       </c>
@@ -7875,7 +7935,7 @@
       </c>
       <c r="F216" s="34"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75">
+    <row r="217" spans="1:6" ht="16">
       <c r="A217" s="21" t="s">
         <v>307</v>
       </c>
@@ -7891,7 +7951,7 @@
       </c>
       <c r="F217" s="34"/>
     </row>
-    <row r="218" spans="1:6" ht="15.75">
+    <row r="218" spans="1:6" ht="16">
       <c r="A218" s="21" t="s">
         <v>307</v>
       </c>
@@ -7907,7 +7967,7 @@
       </c>
       <c r="F218" s="34"/>
     </row>
-    <row r="219" spans="1:6" ht="15.75">
+    <row r="219" spans="1:6" ht="16">
       <c r="A219" s="21" t="s">
         <v>307</v>
       </c>
@@ -7923,7 +7983,7 @@
       </c>
       <c r="F219" s="34"/>
     </row>
-    <row r="220" spans="1:6" ht="15.75">
+    <row r="220" spans="1:6" ht="16">
       <c r="A220" s="21" t="s">
         <v>307</v>
       </c>
@@ -7939,7 +7999,7 @@
       </c>
       <c r="F220" s="34"/>
     </row>
-    <row r="221" spans="1:6" ht="15.75">
+    <row r="221" spans="1:6" ht="16">
       <c r="A221" s="21" t="s">
         <v>307</v>
       </c>
@@ -7955,7 +8015,7 @@
       </c>
       <c r="F221" s="34"/>
     </row>
-    <row r="222" spans="1:6" ht="15.75">
+    <row r="222" spans="1:6" ht="16">
       <c r="A222" s="21" t="s">
         <v>307</v>
       </c>
@@ -7971,7 +8031,7 @@
       </c>
       <c r="F222" s="34"/>
     </row>
-    <row r="223" spans="1:6" ht="15.75">
+    <row r="223" spans="1:6" ht="16">
       <c r="A223" s="21" t="s">
         <v>307</v>
       </c>
@@ -7987,7 +8047,7 @@
       </c>
       <c r="F223" s="34"/>
     </row>
-    <row r="224" spans="1:6" ht="15.75">
+    <row r="224" spans="1:6" ht="16">
       <c r="A224" s="21" t="s">
         <v>307</v>
       </c>
@@ -8003,7 +8063,7 @@
       </c>
       <c r="F224" s="34"/>
     </row>
-    <row r="225" spans="1:6" ht="15.75">
+    <row r="225" spans="1:6" ht="16">
       <c r="A225" s="21" t="s">
         <v>307</v>
       </c>
@@ -8019,7 +8079,7 @@
       </c>
       <c r="F225" s="34"/>
     </row>
-    <row r="226" spans="1:6" ht="15.75">
+    <row r="226" spans="1:6" ht="16">
       <c r="A226" s="21" t="s">
         <v>307</v>
       </c>
@@ -8035,7 +8095,7 @@
       </c>
       <c r="F226" s="34"/>
     </row>
-    <row r="227" spans="1:6" ht="15.75">
+    <row r="227" spans="1:6" ht="16">
       <c r="A227" s="21" t="s">
         <v>307</v>
       </c>
@@ -8051,7 +8111,7 @@
       </c>
       <c r="F227" s="34"/>
     </row>
-    <row r="228" spans="1:6" ht="15.75">
+    <row r="228" spans="1:6" ht="16">
       <c r="A228" s="21" t="s">
         <v>307</v>
       </c>
@@ -8067,7 +8127,7 @@
       </c>
       <c r="F228" s="34"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75">
+    <row r="229" spans="1:6" ht="16">
       <c r="A229" s="21" t="s">
         <v>307</v>
       </c>
@@ -8083,7 +8143,7 @@
       </c>
       <c r="F229" s="34"/>
     </row>
-    <row r="230" spans="1:6" ht="15.75">
+    <row r="230" spans="1:6" ht="16">
       <c r="A230" s="21" t="s">
         <v>307</v>
       </c>
@@ -8099,7 +8159,7 @@
       </c>
       <c r="F230" s="34"/>
     </row>
-    <row r="231" spans="1:6" ht="15.75">
+    <row r="231" spans="1:6" ht="16">
       <c r="A231" s="21" t="s">
         <v>307</v>
       </c>
@@ -8115,7 +8175,7 @@
       </c>
       <c r="F231" s="34"/>
     </row>
-    <row r="232" spans="1:6" ht="15.75">
+    <row r="232" spans="1:6" ht="16">
       <c r="A232" s="21" t="s">
         <v>307</v>
       </c>
@@ -8147,7 +8207,7 @@
       <c r="E234" s="38"/>
       <c r="F234" s="34"/>
     </row>
-    <row r="235" spans="1:6" ht="15.75">
+    <row r="235" spans="1:6" ht="16">
       <c r="A235" s="21" t="s">
         <v>330</v>
       </c>
@@ -8163,7 +8223,7 @@
       </c>
       <c r="F235" s="34"/>
     </row>
-    <row r="236" spans="1:6" ht="15.75">
+    <row r="236" spans="1:6" ht="16">
       <c r="A236" s="21" t="s">
         <v>330</v>
       </c>
@@ -8179,7 +8239,7 @@
       </c>
       <c r="F236" s="34"/>
     </row>
-    <row r="237" spans="1:6" ht="15.75">
+    <row r="237" spans="1:6" ht="16">
       <c r="A237" s="21" t="s">
         <v>330</v>
       </c>
@@ -8195,7 +8255,7 @@
       </c>
       <c r="F237" s="34"/>
     </row>
-    <row r="238" spans="1:6" ht="15.75">
+    <row r="238" spans="1:6" ht="16">
       <c r="A238" s="21" t="s">
         <v>330</v>
       </c>
@@ -8211,7 +8271,7 @@
       </c>
       <c r="F238" s="34"/>
     </row>
-    <row r="239" spans="1:6" ht="15.75">
+    <row r="239" spans="1:6" ht="16">
       <c r="A239" s="21" t="s">
         <v>330</v>
       </c>
@@ -8227,7 +8287,7 @@
       </c>
       <c r="F239" s="34"/>
     </row>
-    <row r="240" spans="1:6" ht="15.75">
+    <row r="240" spans="1:6" ht="16">
       <c r="A240" s="21" t="s">
         <v>330</v>
       </c>
@@ -8243,7 +8303,7 @@
       </c>
       <c r="F240" s="34"/>
     </row>
-    <row r="241" spans="1:6" ht="15.75">
+    <row r="241" spans="1:6" ht="16">
       <c r="A241" s="21" t="s">
         <v>330</v>
       </c>
@@ -8259,7 +8319,7 @@
       </c>
       <c r="F241" s="34"/>
     </row>
-    <row r="242" spans="1:6" ht="15.75">
+    <row r="242" spans="1:6" ht="16">
       <c r="A242" s="21" t="s">
         <v>330</v>
       </c>
@@ -8275,7 +8335,7 @@
       </c>
       <c r="F242" s="34"/>
     </row>
-    <row r="243" spans="1:6" ht="15.75">
+    <row r="243" spans="1:6" ht="16">
       <c r="A243" s="21" t="s">
         <v>330</v>
       </c>
@@ -8291,7 +8351,7 @@
       </c>
       <c r="F243" s="34"/>
     </row>
-    <row r="244" spans="1:6" ht="15.75">
+    <row r="244" spans="1:6" ht="16">
       <c r="A244" s="21" t="s">
         <v>330</v>
       </c>
@@ -8307,7 +8367,7 @@
       </c>
       <c r="F244" s="34"/>
     </row>
-    <row r="245" spans="1:6" ht="15.75">
+    <row r="245" spans="1:6" ht="16">
       <c r="A245" s="21" t="s">
         <v>330</v>
       </c>
@@ -8323,7 +8383,7 @@
       </c>
       <c r="F245" s="34"/>
     </row>
-    <row r="246" spans="1:6" ht="15.75">
+    <row r="246" spans="1:6" ht="16">
       <c r="A246" s="21" t="s">
         <v>330</v>
       </c>
@@ -8339,7 +8399,7 @@
       </c>
       <c r="F246" s="34"/>
     </row>
-    <row r="247" spans="1:6" ht="15.75">
+    <row r="247" spans="1:6" ht="16">
       <c r="A247" s="21" t="s">
         <v>330</v>
       </c>
@@ -8355,7 +8415,7 @@
       </c>
       <c r="F247" s="34"/>
     </row>
-    <row r="248" spans="1:6" ht="15.75">
+    <row r="248" spans="1:6" ht="16">
       <c r="A248" s="21" t="s">
         <v>330</v>
       </c>
@@ -8371,7 +8431,7 @@
       </c>
       <c r="F248" s="34"/>
     </row>
-    <row r="249" spans="1:6" ht="15.75">
+    <row r="249" spans="1:6" ht="16">
       <c r="A249" s="21" t="s">
         <v>330</v>
       </c>
@@ -8387,7 +8447,7 @@
       </c>
       <c r="F249" s="34"/>
     </row>
-    <row r="250" spans="1:6" ht="15.75">
+    <row r="250" spans="1:6" ht="16">
       <c r="A250" s="21" t="s">
         <v>330</v>
       </c>
@@ -8403,7 +8463,7 @@
       </c>
       <c r="F250" s="34"/>
     </row>
-    <row r="251" spans="1:6" ht="15.75">
+    <row r="251" spans="1:6" ht="16">
       <c r="A251" s="21" t="s">
         <v>330</v>
       </c>
@@ -8419,7 +8479,7 @@
       </c>
       <c r="F251" s="34"/>
     </row>
-    <row r="252" spans="1:6" ht="15.75">
+    <row r="252" spans="1:6" ht="16">
       <c r="A252" s="21" t="s">
         <v>330</v>
       </c>
@@ -8437,7 +8497,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15.75">
+    <row r="253" spans="1:6" ht="16">
       <c r="A253" s="21" t="s">
         <v>330</v>
       </c>
@@ -8453,7 +8513,7 @@
       </c>
       <c r="F253" s="34"/>
     </row>
-    <row r="254" spans="1:6" ht="15.75">
+    <row r="254" spans="1:6" ht="16">
       <c r="A254" s="21" t="s">
         <v>330</v>
       </c>
@@ -8469,7 +8529,7 @@
       </c>
       <c r="F254" s="34"/>
     </row>
-    <row r="255" spans="1:6" ht="15.75">
+    <row r="255" spans="1:6" ht="16">
       <c r="A255" s="21" t="s">
         <v>330</v>
       </c>
@@ -8485,7 +8545,7 @@
       </c>
       <c r="F255" s="34"/>
     </row>
-    <row r="256" spans="1:6" ht="15.75">
+    <row r="256" spans="1:6" ht="16">
       <c r="A256" s="21" t="s">
         <v>330</v>
       </c>
@@ -8501,7 +8561,7 @@
       </c>
       <c r="F256" s="34"/>
     </row>
-    <row r="257" spans="1:6" ht="15.75">
+    <row r="257" spans="1:6" ht="16">
       <c r="A257" s="21" t="s">
         <v>330</v>
       </c>
@@ -8517,7 +8577,7 @@
       </c>
       <c r="F257" s="34"/>
     </row>
-    <row r="258" spans="1:6" ht="15.75">
+    <row r="258" spans="1:6" ht="16">
       <c r="A258" s="21" t="s">
         <v>330</v>
       </c>
@@ -8533,7 +8593,7 @@
       </c>
       <c r="F258" s="34"/>
     </row>
-    <row r="259" spans="1:6" ht="15.75">
+    <row r="259" spans="1:6" ht="16">
       <c r="A259" s="21" t="s">
         <v>330</v>
       </c>
@@ -8549,7 +8609,7 @@
       </c>
       <c r="F259" s="34"/>
     </row>
-    <row r="260" spans="1:6" ht="15.75">
+    <row r="260" spans="1:6" ht="16">
       <c r="A260" s="21" t="s">
         <v>330</v>
       </c>
@@ -8565,7 +8625,7 @@
       </c>
       <c r="F260" s="34"/>
     </row>
-    <row r="261" spans="1:6" ht="15.75">
+    <row r="261" spans="1:6" ht="16">
       <c r="A261" s="21" t="s">
         <v>330</v>
       </c>
@@ -8581,7 +8641,7 @@
       </c>
       <c r="F261" s="34"/>
     </row>
-    <row r="262" spans="1:6" ht="15.75">
+    <row r="262" spans="1:6" ht="16">
       <c r="A262" s="21" t="s">
         <v>330</v>
       </c>
@@ -8597,7 +8657,7 @@
       </c>
       <c r="F262" s="34"/>
     </row>
-    <row r="263" spans="1:6" ht="15.75">
+    <row r="263" spans="1:6" ht="16">
       <c r="A263" s="21" t="s">
         <v>330</v>
       </c>
@@ -8613,7 +8673,7 @@
       </c>
       <c r="F263" s="34"/>
     </row>
-    <row r="264" spans="1:6" ht="15.75">
+    <row r="264" spans="1:6" ht="16">
       <c r="A264" s="21" t="s">
         <v>330</v>
       </c>
@@ -8629,7 +8689,7 @@
       </c>
       <c r="F264" s="34"/>
     </row>
-    <row r="265" spans="1:6" ht="15.75">
+    <row r="265" spans="1:6" ht="16">
       <c r="A265" s="21" t="s">
         <v>330</v>
       </c>
@@ -8645,7 +8705,7 @@
       </c>
       <c r="F265" s="34"/>
     </row>
-    <row r="266" spans="1:6" ht="15.75">
+    <row r="266" spans="1:6" ht="16">
       <c r="A266" s="21" t="s">
         <v>330</v>
       </c>
@@ -8661,7 +8721,7 @@
       </c>
       <c r="F266" s="34"/>
     </row>
-    <row r="267" spans="1:6" ht="15.75">
+    <row r="267" spans="1:6" ht="16">
       <c r="A267" s="21" t="s">
         <v>330</v>
       </c>
@@ -8677,7 +8737,7 @@
       </c>
       <c r="F267" s="34"/>
     </row>
-    <row r="268" spans="1:6" ht="15.75">
+    <row r="268" spans="1:6" ht="16">
       <c r="A268" s="21" t="s">
         <v>330</v>
       </c>
@@ -8693,7 +8753,7 @@
       </c>
       <c r="F268" s="34"/>
     </row>
-    <row r="269" spans="1:6" ht="15.75">
+    <row r="269" spans="1:6" ht="16">
       <c r="A269" s="21" t="s">
         <v>330</v>
       </c>
@@ -8725,7 +8785,7 @@
       <c r="E271" s="38"/>
       <c r="F271" s="34"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75">
+    <row r="272" spans="1:6" ht="16">
       <c r="A272" s="21" t="s">
         <v>366</v>
       </c>
@@ -8741,7 +8801,7 @@
       </c>
       <c r="F272" s="34"/>
     </row>
-    <row r="273" spans="1:6" ht="15.75">
+    <row r="273" spans="1:6" ht="16">
       <c r="A273" s="21" t="s">
         <v>366</v>
       </c>
@@ -8757,7 +8817,7 @@
       </c>
       <c r="F273" s="34"/>
     </row>
-    <row r="274" spans="1:6" ht="15.75">
+    <row r="274" spans="1:6" ht="16">
       <c r="A274" s="21" t="s">
         <v>366</v>
       </c>
@@ -8773,7 +8833,7 @@
       </c>
       <c r="F274" s="34"/>
     </row>
-    <row r="275" spans="1:6" ht="15.75">
+    <row r="275" spans="1:6" ht="16">
       <c r="A275" s="21" t="s">
         <v>366</v>
       </c>
@@ -8789,7 +8849,7 @@
       </c>
       <c r="F275" s="34"/>
     </row>
-    <row r="276" spans="1:6" ht="15.75">
+    <row r="276" spans="1:6" ht="16">
       <c r="A276" s="21" t="s">
         <v>366</v>
       </c>
@@ -8805,7 +8865,7 @@
       </c>
       <c r="F276" s="34"/>
     </row>
-    <row r="277" spans="1:6" ht="15.75">
+    <row r="277" spans="1:6" ht="16">
       <c r="A277" s="21" t="s">
         <v>366</v>
       </c>
@@ -8821,7 +8881,7 @@
       </c>
       <c r="F277" s="34"/>
     </row>
-    <row r="278" spans="1:6" ht="15.75">
+    <row r="278" spans="1:6" ht="16">
       <c r="A278" s="21" t="s">
         <v>366</v>
       </c>
@@ -8837,7 +8897,7 @@
       </c>
       <c r="F278" s="34"/>
     </row>
-    <row r="279" spans="1:6" ht="15.75">
+    <row r="279" spans="1:6" ht="16">
       <c r="A279" s="21" t="s">
         <v>366</v>
       </c>
@@ -8853,7 +8913,7 @@
       </c>
       <c r="F279" s="34"/>
     </row>
-    <row r="280" spans="1:6" ht="15.75">
+    <row r="280" spans="1:6" ht="16">
       <c r="A280" s="21" t="s">
         <v>366</v>
       </c>
@@ -8869,7 +8929,7 @@
       </c>
       <c r="F280" s="34"/>
     </row>
-    <row r="281" spans="1:6" ht="15.75">
+    <row r="281" spans="1:6" ht="16">
       <c r="A281" s="21" t="s">
         <v>366</v>
       </c>
@@ -8885,7 +8945,7 @@
       </c>
       <c r="F281" s="34"/>
     </row>
-    <row r="282" spans="1:6" ht="15.75">
+    <row r="282" spans="1:6" ht="16">
       <c r="A282" s="21" t="s">
         <v>366</v>
       </c>
@@ -8901,7 +8961,7 @@
       </c>
       <c r="F282" s="34"/>
     </row>
-    <row r="283" spans="1:6" ht="15.75">
+    <row r="283" spans="1:6" ht="16">
       <c r="A283" s="21" t="s">
         <v>366</v>
       </c>
@@ -8917,7 +8977,7 @@
       </c>
       <c r="F283" s="34"/>
     </row>
-    <row r="284" spans="1:6" ht="15.75">
+    <row r="284" spans="1:6" ht="16">
       <c r="A284" s="21" t="s">
         <v>366</v>
       </c>
@@ -8933,7 +8993,7 @@
       </c>
       <c r="F284" s="34"/>
     </row>
-    <row r="285" spans="1:6" ht="15.75">
+    <row r="285" spans="1:6" ht="16">
       <c r="A285" s="21" t="s">
         <v>366</v>
       </c>
@@ -8949,7 +9009,7 @@
       </c>
       <c r="F285" s="34"/>
     </row>
-    <row r="286" spans="1:6" ht="15.75">
+    <row r="286" spans="1:6" ht="16">
       <c r="A286" s="21" t="s">
         <v>366</v>
       </c>
@@ -8965,7 +9025,7 @@
       </c>
       <c r="F286" s="34"/>
     </row>
-    <row r="287" spans="1:6" ht="15.75">
+    <row r="287" spans="1:6" ht="16">
       <c r="A287" s="21" t="s">
         <v>366</v>
       </c>
@@ -8981,7 +9041,7 @@
       </c>
       <c r="F287" s="34"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75">
+    <row r="288" spans="1:6" ht="16">
       <c r="A288" s="21" t="s">
         <v>366</v>
       </c>
@@ -8997,7 +9057,7 @@
       </c>
       <c r="F288" s="34"/>
     </row>
-    <row r="289" spans="1:6" ht="15.75">
+    <row r="289" spans="1:6" ht="16">
       <c r="A289" s="21" t="s">
         <v>366</v>
       </c>
@@ -9013,7 +9073,7 @@
       </c>
       <c r="F289" s="34"/>
     </row>
-    <row r="290" spans="1:6" ht="15.75">
+    <row r="290" spans="1:6" ht="16">
       <c r="A290" s="21" t="s">
         <v>366</v>
       </c>
@@ -9045,7 +9105,7 @@
       <c r="E292" s="38"/>
       <c r="F292" s="34"/>
     </row>
-    <row r="293" spans="1:6" ht="15.75">
+    <row r="293" spans="1:6" ht="16">
       <c r="A293" s="21" t="s">
         <v>386</v>
       </c>
@@ -9061,7 +9121,7 @@
       </c>
       <c r="F293" s="34"/>
     </row>
-    <row r="294" spans="1:6" ht="15.75">
+    <row r="294" spans="1:6" ht="16">
       <c r="A294" s="21" t="s">
         <v>386</v>
       </c>
@@ -9077,7 +9137,7 @@
       </c>
       <c r="F294" s="34"/>
     </row>
-    <row r="295" spans="1:6" ht="15.75">
+    <row r="295" spans="1:6" ht="16">
       <c r="A295" s="21" t="s">
         <v>386</v>
       </c>
@@ -9093,7 +9153,7 @@
       </c>
       <c r="F295" s="34"/>
     </row>
-    <row r="296" spans="1:6" ht="15.75">
+    <row r="296" spans="1:6" ht="16">
       <c r="A296" s="21" t="s">
         <v>386</v>
       </c>
@@ -9109,7 +9169,7 @@
       </c>
       <c r="F296" s="34"/>
     </row>
-    <row r="297" spans="1:6" ht="15.75">
+    <row r="297" spans="1:6" ht="16">
       <c r="A297" s="21" t="s">
         <v>386</v>
       </c>
@@ -9125,7 +9185,7 @@
       </c>
       <c r="F297" s="34"/>
     </row>
-    <row r="298" spans="1:6" ht="15.75">
+    <row r="298" spans="1:6" ht="16">
       <c r="A298" s="21" t="s">
         <v>386</v>
       </c>
@@ -9141,7 +9201,7 @@
       </c>
       <c r="F298" s="34"/>
     </row>
-    <row r="299" spans="1:6" ht="15.75">
+    <row r="299" spans="1:6" ht="16">
       <c r="A299" s="21" t="s">
         <v>386</v>
       </c>
@@ -9157,7 +9217,7 @@
       </c>
       <c r="F299" s="34"/>
     </row>
-    <row r="300" spans="1:6" ht="15.75">
+    <row r="300" spans="1:6" ht="16">
       <c r="A300" s="21" t="s">
         <v>386</v>
       </c>
@@ -9173,7 +9233,7 @@
       </c>
       <c r="F300" s="34"/>
     </row>
-    <row r="301" spans="1:6" ht="15.75">
+    <row r="301" spans="1:6" ht="16">
       <c r="A301" s="21" t="s">
         <v>386</v>
       </c>
@@ -9189,7 +9249,7 @@
       </c>
       <c r="F301" s="34"/>
     </row>
-    <row r="302" spans="1:6" ht="15.75">
+    <row r="302" spans="1:6" ht="16">
       <c r="A302" s="21" t="s">
         <v>386</v>
       </c>
@@ -9205,7 +9265,7 @@
       </c>
       <c r="F302" s="34"/>
     </row>
-    <row r="303" spans="1:6" ht="15.75">
+    <row r="303" spans="1:6" ht="16">
       <c r="A303" s="21" t="s">
         <v>386</v>
       </c>
@@ -9221,7 +9281,7 @@
       </c>
       <c r="F303" s="34"/>
     </row>
-    <row r="304" spans="1:6" ht="15.75">
+    <row r="304" spans="1:6" ht="16">
       <c r="A304" s="21" t="s">
         <v>386</v>
       </c>
@@ -9237,7 +9297,7 @@
       </c>
       <c r="F304" s="34"/>
     </row>
-    <row r="305" spans="1:6" ht="15.75">
+    <row r="305" spans="1:6" ht="16">
       <c r="A305" s="21" t="s">
         <v>386</v>
       </c>
@@ -9253,7 +9313,7 @@
       </c>
       <c r="F305" s="34"/>
     </row>
-    <row r="306" spans="1:6" ht="15.75">
+    <row r="306" spans="1:6" ht="16">
       <c r="A306" s="21" t="s">
         <v>386</v>
       </c>
@@ -9269,7 +9329,7 @@
       </c>
       <c r="F306" s="34"/>
     </row>
-    <row r="307" spans="1:6" ht="15.75">
+    <row r="307" spans="1:6" ht="16">
       <c r="A307" s="21" t="s">
         <v>386</v>
       </c>
@@ -9285,7 +9345,7 @@
       </c>
       <c r="F307" s="34"/>
     </row>
-    <row r="308" spans="1:6" ht="15.75">
+    <row r="308" spans="1:6" ht="16">
       <c r="A308" s="21" t="s">
         <v>386</v>
       </c>
@@ -9301,7 +9361,7 @@
       </c>
       <c r="F308" s="34"/>
     </row>
-    <row r="309" spans="1:6" ht="15.75">
+    <row r="309" spans="1:6" ht="16">
       <c r="A309" s="21" t="s">
         <v>386</v>
       </c>
@@ -9317,7 +9377,7 @@
       </c>
       <c r="F309" s="34"/>
     </row>
-    <row r="310" spans="1:6" ht="15.75">
+    <row r="310" spans="1:6" ht="16">
       <c r="A310" s="21" t="s">
         <v>386</v>
       </c>
@@ -9333,7 +9393,7 @@
       </c>
       <c r="F310" s="34"/>
     </row>
-    <row r="311" spans="1:6" ht="15.75">
+    <row r="311" spans="1:6" ht="16">
       <c r="A311" s="21" t="s">
         <v>386</v>
       </c>
@@ -9349,7 +9409,7 @@
       </c>
       <c r="F311" s="34"/>
     </row>
-    <row r="312" spans="1:6" ht="15.75">
+    <row r="312" spans="1:6" ht="16">
       <c r="A312" s="21" t="s">
         <v>386</v>
       </c>
@@ -9365,7 +9425,7 @@
       </c>
       <c r="F312" s="34"/>
     </row>
-    <row r="313" spans="1:6" ht="15.75">
+    <row r="313" spans="1:6" ht="16">
       <c r="A313" s="21" t="s">
         <v>386</v>
       </c>
@@ -9381,7 +9441,7 @@
       </c>
       <c r="F313" s="34"/>
     </row>
-    <row r="314" spans="1:6" ht="15.75">
+    <row r="314" spans="1:6" ht="16">
       <c r="A314" s="21" t="s">
         <v>386</v>
       </c>
@@ -9397,7 +9457,7 @@
       </c>
       <c r="F314" s="34"/>
     </row>
-    <row r="315" spans="1:6" ht="15.75">
+    <row r="315" spans="1:6" ht="16">
       <c r="A315" s="21" t="s">
         <v>386</v>
       </c>
@@ -9413,7 +9473,7 @@
       </c>
       <c r="F315" s="34"/>
     </row>
-    <row r="316" spans="1:6" ht="15.75">
+    <row r="316" spans="1:6" ht="16">
       <c r="A316" s="21" t="s">
         <v>386</v>
       </c>
@@ -9429,7 +9489,7 @@
       </c>
       <c r="F316" s="34"/>
     </row>
-    <row r="317" spans="1:6" ht="15.75">
+    <row r="317" spans="1:6" ht="16">
       <c r="A317" s="21" t="s">
         <v>386</v>
       </c>
@@ -9445,7 +9505,7 @@
       </c>
       <c r="F317" s="34"/>
     </row>
-    <row r="318" spans="1:6" ht="15.75">
+    <row r="318" spans="1:6" ht="16">
       <c r="A318" s="21" t="s">
         <v>386</v>
       </c>
@@ -9461,7 +9521,7 @@
       </c>
       <c r="F318" s="34"/>
     </row>
-    <row r="319" spans="1:6" ht="15.75">
+    <row r="319" spans="1:6" ht="16">
       <c r="A319" s="21" t="s">
         <v>386</v>
       </c>
@@ -9477,7 +9537,7 @@
       </c>
       <c r="F319" s="34"/>
     </row>
-    <row r="320" spans="1:6" ht="15.75">
+    <row r="320" spans="1:6" ht="16">
       <c r="A320" s="21" t="s">
         <v>386</v>
       </c>
@@ -9493,7 +9553,7 @@
       </c>
       <c r="F320" s="34"/>
     </row>
-    <row r="321" spans="1:6" ht="15.75">
+    <row r="321" spans="1:6" ht="16">
       <c r="A321" s="21" t="s">
         <v>386</v>
       </c>
@@ -9509,7 +9569,7 @@
       </c>
       <c r="F321" s="34"/>
     </row>
-    <row r="322" spans="1:6" ht="15.75">
+    <row r="322" spans="1:6" ht="16">
       <c r="A322" s="21" t="s">
         <v>386</v>
       </c>
@@ -9525,7 +9585,7 @@
       </c>
       <c r="F322" s="34"/>
     </row>
-    <row r="323" spans="1:6" ht="15.75">
+    <row r="323" spans="1:6" ht="16">
       <c r="A323" s="21" t="s">
         <v>386</v>
       </c>
@@ -9541,7 +9601,7 @@
       </c>
       <c r="F323" s="34"/>
     </row>
-    <row r="324" spans="1:6" ht="15.75">
+    <row r="324" spans="1:6" ht="16">
       <c r="A324" s="21" t="s">
         <v>386</v>
       </c>
@@ -9557,7 +9617,7 @@
       </c>
       <c r="F324" s="34"/>
     </row>
-    <row r="325" spans="1:6" ht="15.75">
+    <row r="325" spans="1:6" ht="16">
       <c r="A325" s="21" t="s">
         <v>386</v>
       </c>
@@ -9573,7 +9633,7 @@
       </c>
       <c r="F325" s="34"/>
     </row>
-    <row r="326" spans="1:6" ht="15.75">
+    <row r="326" spans="1:6" ht="16">
       <c r="A326" s="21" t="s">
         <v>386</v>
       </c>
@@ -9589,7 +9649,7 @@
       </c>
       <c r="F326" s="34"/>
     </row>
-    <row r="327" spans="1:6" ht="15.75">
+    <row r="327" spans="1:6" ht="16">
       <c r="A327" s="21" t="s">
         <v>386</v>
       </c>
@@ -9605,7 +9665,7 @@
       </c>
       <c r="F327" s="34"/>
     </row>
-    <row r="328" spans="1:6" ht="15.75">
+    <row r="328" spans="1:6" ht="16">
       <c r="A328" s="21" t="s">
         <v>386</v>
       </c>
@@ -9621,7 +9681,7 @@
       </c>
       <c r="F328" s="34"/>
     </row>
-    <row r="329" spans="1:6" ht="15.75">
+    <row r="329" spans="1:6" ht="16">
       <c r="A329" s="21" t="s">
         <v>386</v>
       </c>
@@ -9637,7 +9697,7 @@
       </c>
       <c r="F329" s="34"/>
     </row>
-    <row r="330" spans="1:6" ht="15.75">
+    <row r="330" spans="1:6" ht="16">
       <c r="A330" s="21" t="s">
         <v>386</v>
       </c>
@@ -9669,7 +9729,7 @@
       <c r="E332" s="38"/>
       <c r="F332" s="34"/>
     </row>
-    <row r="333" spans="1:6" ht="15.75">
+    <row r="333" spans="1:6" ht="16">
       <c r="A333" s="19" t="s">
         <v>425</v>
       </c>
@@ -9685,7 +9745,7 @@
       </c>
       <c r="F333" s="34"/>
     </row>
-    <row r="334" spans="1:6" ht="15.75">
+    <row r="334" spans="1:6" ht="16">
       <c r="A334" s="19" t="s">
         <v>425</v>
       </c>
@@ -9701,7 +9761,7 @@
       </c>
       <c r="F334" s="34"/>
     </row>
-    <row r="335" spans="1:6" ht="15.75">
+    <row r="335" spans="1:6" ht="16">
       <c r="A335" s="19" t="s">
         <v>425</v>
       </c>
@@ -9717,7 +9777,7 @@
       </c>
       <c r="F335" s="34"/>
     </row>
-    <row r="336" spans="1:6" ht="15.75">
+    <row r="336" spans="1:6" ht="16">
       <c r="A336" s="19" t="s">
         <v>425</v>
       </c>
@@ -9733,7 +9793,7 @@
       </c>
       <c r="F336" s="34"/>
     </row>
-    <row r="337" spans="1:6" ht="15.75">
+    <row r="337" spans="1:6" ht="16">
       <c r="A337" s="19" t="s">
         <v>425</v>
       </c>
@@ -9749,7 +9809,7 @@
       </c>
       <c r="F337" s="34"/>
     </row>
-    <row r="338" spans="1:6" ht="15.75">
+    <row r="338" spans="1:6" ht="16">
       <c r="A338" s="19" t="s">
         <v>425</v>
       </c>
@@ -9765,7 +9825,7 @@
       </c>
       <c r="F338" s="34"/>
     </row>
-    <row r="339" spans="1:6" ht="15.75">
+    <row r="339" spans="1:6" ht="16">
       <c r="A339" s="19" t="s">
         <v>425</v>
       </c>
@@ -9781,7 +9841,7 @@
       </c>
       <c r="F339" s="34"/>
     </row>
-    <row r="340" spans="1:6" ht="15.75">
+    <row r="340" spans="1:6" ht="16">
       <c r="A340" s="19" t="s">
         <v>425</v>
       </c>
@@ -9797,7 +9857,7 @@
       </c>
       <c r="F340" s="34"/>
     </row>
-    <row r="341" spans="1:6" ht="15.75">
+    <row r="341" spans="1:6" ht="16">
       <c r="A341" s="19" t="s">
         <v>425</v>
       </c>
@@ -9813,7 +9873,7 @@
       </c>
       <c r="F341" s="34"/>
     </row>
-    <row r="342" spans="1:6" ht="15.75">
+    <row r="342" spans="1:6" ht="16">
       <c r="A342" s="19" t="s">
         <v>425</v>
       </c>
@@ -9829,7 +9889,7 @@
       </c>
       <c r="F342" s="34"/>
     </row>
-    <row r="343" spans="1:6" ht="15.75">
+    <row r="343" spans="1:6" ht="16">
       <c r="A343" s="19" t="s">
         <v>425</v>
       </c>
@@ -9845,7 +9905,7 @@
       </c>
       <c r="F343" s="34"/>
     </row>
-    <row r="344" spans="1:6" ht="15.75">
+    <row r="344" spans="1:6" ht="16">
       <c r="A344" s="19" t="s">
         <v>425</v>
       </c>
@@ -9861,7 +9921,7 @@
       </c>
       <c r="F344" s="34"/>
     </row>
-    <row r="345" spans="1:6" ht="15.75">
+    <row r="345" spans="1:6" ht="16">
       <c r="A345" s="19" t="s">
         <v>425</v>
       </c>
@@ -9877,7 +9937,7 @@
       </c>
       <c r="F345" s="34"/>
     </row>
-    <row r="346" spans="1:6" ht="15.75">
+    <row r="346" spans="1:6" ht="16">
       <c r="A346" s="19" t="s">
         <v>425</v>
       </c>
@@ -9893,7 +9953,7 @@
       </c>
       <c r="F346" s="34"/>
     </row>
-    <row r="347" spans="1:6" ht="15.75">
+    <row r="347" spans="1:6" ht="16">
       <c r="A347" s="19" t="s">
         <v>425</v>
       </c>
@@ -9909,7 +9969,7 @@
       </c>
       <c r="F347" s="34"/>
     </row>
-    <row r="348" spans="1:6" ht="15.75">
+    <row r="348" spans="1:6" ht="16">
       <c r="A348" s="19" t="s">
         <v>425</v>
       </c>
@@ -9925,7 +9985,7 @@
       </c>
       <c r="F348" s="34"/>
     </row>
-    <row r="349" spans="1:6" ht="15.75">
+    <row r="349" spans="1:6" ht="16">
       <c r="A349" s="19" t="s">
         <v>425</v>
       </c>
@@ -9941,7 +10001,7 @@
       </c>
       <c r="F349" s="34"/>
     </row>
-    <row r="350" spans="1:6" ht="15.75">
+    <row r="350" spans="1:6" ht="16">
       <c r="A350" s="19" t="s">
         <v>425</v>
       </c>
@@ -9973,7 +10033,7 @@
       <c r="E352" s="38"/>
       <c r="F352" s="34"/>
     </row>
-    <row r="353" spans="1:6" ht="15.75">
+    <row r="353" spans="1:6" ht="16">
       <c r="A353" s="19" t="s">
         <v>444</v>
       </c>
@@ -9989,7 +10049,7 @@
       </c>
       <c r="F353" s="34"/>
     </row>
-    <row r="354" spans="1:6" ht="15.75">
+    <row r="354" spans="1:6" ht="16">
       <c r="A354" s="19" t="s">
         <v>444</v>
       </c>
@@ -10005,7 +10065,7 @@
       </c>
       <c r="F354" s="34"/>
     </row>
-    <row r="355" spans="1:6" ht="15.75">
+    <row r="355" spans="1:6" ht="16">
       <c r="A355" s="19" t="s">
         <v>444</v>
       </c>
@@ -10021,7 +10081,7 @@
       </c>
       <c r="F355" s="34"/>
     </row>
-    <row r="356" spans="1:6" ht="15.75">
+    <row r="356" spans="1:6" ht="16">
       <c r="A356" s="19" t="s">
         <v>444</v>
       </c>
@@ -10037,7 +10097,7 @@
       </c>
       <c r="F356" s="34"/>
     </row>
-    <row r="357" spans="1:6" ht="15.75">
+    <row r="357" spans="1:6" ht="16">
       <c r="A357" s="19" t="s">
         <v>444</v>
       </c>
@@ -10053,7 +10113,7 @@
       </c>
       <c r="F357" s="34"/>
     </row>
-    <row r="358" spans="1:6" ht="15.75">
+    <row r="358" spans="1:6" ht="16">
       <c r="A358" s="19" t="s">
         <v>444</v>
       </c>
@@ -10069,7 +10129,7 @@
       </c>
       <c r="F358" s="34"/>
     </row>
-    <row r="359" spans="1:6" ht="15.75">
+    <row r="359" spans="1:6" ht="16">
       <c r="A359" s="19" t="s">
         <v>444</v>
       </c>
@@ -10085,7 +10145,7 @@
       </c>
       <c r="F359" s="34"/>
     </row>
-    <row r="360" spans="1:6" ht="15.75">
+    <row r="360" spans="1:6" ht="16">
       <c r="A360" s="19" t="s">
         <v>444</v>
       </c>
@@ -10101,7 +10161,7 @@
       </c>
       <c r="F360" s="34"/>
     </row>
-    <row r="361" spans="1:6" ht="15.75">
+    <row r="361" spans="1:6" ht="16">
       <c r="A361" s="19" t="s">
         <v>444</v>
       </c>
@@ -10117,7 +10177,7 @@
       </c>
       <c r="F361" s="34"/>
     </row>
-    <row r="362" spans="1:6" ht="15.75">
+    <row r="362" spans="1:6" ht="16">
       <c r="A362" s="19" t="s">
         <v>444</v>
       </c>
@@ -10133,7 +10193,7 @@
       </c>
       <c r="F362" s="34"/>
     </row>
-    <row r="363" spans="1:6" ht="15.75">
+    <row r="363" spans="1:6" ht="16">
       <c r="A363" s="19" t="s">
         <v>444</v>
       </c>
@@ -10149,7 +10209,7 @@
       </c>
       <c r="F363" s="34"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75">
+    <row r="364" spans="1:6" ht="16">
       <c r="A364" s="19" t="s">
         <v>444</v>
       </c>
@@ -10165,7 +10225,7 @@
       </c>
       <c r="F364" s="34"/>
     </row>
-    <row r="365" spans="1:6" ht="15.75">
+    <row r="365" spans="1:6" ht="16">
       <c r="A365" s="19" t="s">
         <v>444</v>
       </c>
@@ -10181,7 +10241,7 @@
       </c>
       <c r="F365" s="34"/>
     </row>
-    <row r="366" spans="1:6" ht="15.75">
+    <row r="366" spans="1:6" ht="16">
       <c r="A366" s="19" t="s">
         <v>444</v>
       </c>
@@ -10197,7 +10257,7 @@
       </c>
       <c r="F366" s="34"/>
     </row>
-    <row r="367" spans="1:6" ht="15.75">
+    <row r="367" spans="1:6" ht="16">
       <c r="A367" s="19" t="s">
         <v>444</v>
       </c>
@@ -10213,7 +10273,7 @@
       </c>
       <c r="F367" s="34"/>
     </row>
-    <row r="368" spans="1:6" ht="15.75">
+    <row r="368" spans="1:6" ht="16">
       <c r="A368" s="19" t="s">
         <v>444</v>
       </c>
@@ -10229,7 +10289,7 @@
       </c>
       <c r="F368" s="34"/>
     </row>
-    <row r="369" spans="1:6" ht="15.75">
+    <row r="369" spans="1:6" ht="16">
       <c r="A369" s="19" t="s">
         <v>444</v>
       </c>
@@ -10245,7 +10305,7 @@
       </c>
       <c r="F369" s="34"/>
     </row>
-    <row r="370" spans="1:6" ht="15.75">
+    <row r="370" spans="1:6" ht="16">
       <c r="A370" s="19" t="s">
         <v>444</v>
       </c>
@@ -10261,7 +10321,7 @@
       </c>
       <c r="F370" s="34"/>
     </row>
-    <row r="371" spans="1:6" ht="15.75">
+    <row r="371" spans="1:6" ht="16">
       <c r="A371" s="19" t="s">
         <v>444</v>
       </c>
@@ -10277,7 +10337,7 @@
       </c>
       <c r="F371" s="34"/>
     </row>
-    <row r="372" spans="1:6" ht="15.75">
+    <row r="372" spans="1:6" ht="16">
       <c r="A372" s="19" t="s">
         <v>444</v>
       </c>
@@ -10293,7 +10353,7 @@
       </c>
       <c r="F372" s="34"/>
     </row>
-    <row r="373" spans="1:6" ht="15.75">
+    <row r="373" spans="1:6" ht="16">
       <c r="A373" s="19" t="s">
         <v>444</v>
       </c>
@@ -10309,7 +10369,7 @@
       </c>
       <c r="F373" s="34"/>
     </row>
-    <row r="374" spans="1:6" ht="15.75">
+    <row r="374" spans="1:6" ht="16">
       <c r="A374" s="19" t="s">
         <v>444</v>
       </c>
@@ -10325,7 +10385,7 @@
       </c>
       <c r="F374" s="34"/>
     </row>
-    <row r="375" spans="1:6" ht="15.75">
+    <row r="375" spans="1:6" ht="16">
       <c r="A375" s="19" t="s">
         <v>444</v>
       </c>
@@ -10341,7 +10401,7 @@
       </c>
       <c r="F375" s="34"/>
     </row>
-    <row r="376" spans="1:6" ht="15.75">
+    <row r="376" spans="1:6" ht="16">
       <c r="A376" s="19" t="s">
         <v>444</v>
       </c>
@@ -10357,7 +10417,7 @@
       </c>
       <c r="F376" s="34"/>
     </row>
-    <row r="377" spans="1:6" ht="15.75">
+    <row r="377" spans="1:6" ht="16">
       <c r="A377" s="19" t="s">
         <v>444</v>
       </c>
@@ -10373,7 +10433,7 @@
       </c>
       <c r="F377" s="34"/>
     </row>
-    <row r="378" spans="1:6" ht="15.75">
+    <row r="378" spans="1:6" ht="16">
       <c r="A378" s="19" t="s">
         <v>444</v>
       </c>
@@ -10389,7 +10449,7 @@
       </c>
       <c r="F378" s="34"/>
     </row>
-    <row r="379" spans="1:6" ht="15.75">
+    <row r="379" spans="1:6" ht="16">
       <c r="A379" s="19" t="s">
         <v>444</v>
       </c>
@@ -10405,7 +10465,7 @@
       </c>
       <c r="F379" s="34"/>
     </row>
-    <row r="380" spans="1:6" ht="15.75">
+    <row r="380" spans="1:6" ht="16">
       <c r="A380" s="19" t="s">
         <v>444</v>
       </c>
@@ -10421,7 +10481,7 @@
       </c>
       <c r="F380" s="34"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75">
+    <row r="381" spans="1:6" ht="16">
       <c r="A381" s="19" t="s">
         <v>444</v>
       </c>
@@ -10437,7 +10497,7 @@
       </c>
       <c r="F381" s="34"/>
     </row>
-    <row r="382" spans="1:6" ht="15.75">
+    <row r="382" spans="1:6" ht="16">
       <c r="A382" s="19" t="s">
         <v>444</v>
       </c>
@@ -10453,7 +10513,7 @@
       </c>
       <c r="F382" s="34"/>
     </row>
-    <row r="383" spans="1:6" ht="15.75">
+    <row r="383" spans="1:6" ht="16">
       <c r="A383" s="19" t="s">
         <v>444</v>
       </c>
@@ -10469,7 +10529,7 @@
       </c>
       <c r="F383" s="34"/>
     </row>
-    <row r="384" spans="1:6" ht="15.75">
+    <row r="384" spans="1:6" ht="16">
       <c r="A384" s="19" t="s">
         <v>444</v>
       </c>
@@ -10485,7 +10545,7 @@
       </c>
       <c r="F384" s="34"/>
     </row>
-    <row r="385" spans="1:6" ht="15.75">
+    <row r="385" spans="1:6" ht="16">
       <c r="A385" s="19" t="s">
         <v>444</v>
       </c>
@@ -10501,7 +10561,7 @@
       </c>
       <c r="F385" s="34"/>
     </row>
-    <row r="386" spans="1:6" ht="15.75">
+    <row r="386" spans="1:6" ht="16">
       <c r="A386" s="19" t="s">
         <v>444</v>
       </c>
@@ -10517,7 +10577,7 @@
       </c>
       <c r="F386" s="34"/>
     </row>
-    <row r="387" spans="1:6" ht="15.75">
+    <row r="387" spans="1:6" ht="16">
       <c r="A387" s="19" t="s">
         <v>444</v>
       </c>
@@ -10533,7 +10593,7 @@
       </c>
       <c r="F387" s="34"/>
     </row>
-    <row r="388" spans="1:6" ht="15.75">
+    <row r="388" spans="1:6" ht="16">
       <c r="A388" s="19" t="s">
         <v>444</v>
       </c>
@@ -10549,7 +10609,7 @@
       </c>
       <c r="F388" s="34"/>
     </row>
-    <row r="389" spans="1:6" ht="15.75">
+    <row r="389" spans="1:6" ht="16">
       <c r="A389" s="19" t="s">
         <v>444</v>
       </c>
@@ -10565,7 +10625,7 @@
       </c>
       <c r="F389" s="34"/>
     </row>
-    <row r="390" spans="1:6" ht="15.75">
+    <row r="390" spans="1:6" ht="16">
       <c r="A390" s="19" t="s">
         <v>444</v>
       </c>
@@ -10581,7 +10641,7 @@
       </c>
       <c r="F390" s="34"/>
     </row>
-    <row r="391" spans="1:6" ht="15.75">
+    <row r="391" spans="1:6" ht="16">
       <c r="A391" s="19" t="s">
         <v>444</v>
       </c>
@@ -10597,7 +10657,7 @@
       </c>
       <c r="F391" s="34"/>
     </row>
-    <row r="392" spans="1:6" ht="15.75">
+    <row r="392" spans="1:6" ht="16">
       <c r="A392" s="19" t="s">
         <v>444</v>
       </c>
@@ -10613,7 +10673,7 @@
       </c>
       <c r="F392" s="34"/>
     </row>
-    <row r="393" spans="1:6" ht="15.75">
+    <row r="393" spans="1:6" ht="16">
       <c r="A393" s="19" t="s">
         <v>444</v>
       </c>
@@ -10629,7 +10689,7 @@
       </c>
       <c r="F393" s="34"/>
     </row>
-    <row r="394" spans="1:6" ht="15.75">
+    <row r="394" spans="1:6" ht="16">
       <c r="A394" s="19" t="s">
         <v>444</v>
       </c>
@@ -10645,7 +10705,7 @@
       </c>
       <c r="F394" s="34"/>
     </row>
-    <row r="395" spans="1:6" ht="15.75">
+    <row r="395" spans="1:6" ht="16">
       <c r="A395" s="19" t="s">
         <v>444</v>
       </c>
@@ -10661,7 +10721,7 @@
       </c>
       <c r="F395" s="34"/>
     </row>
-    <row r="396" spans="1:6" ht="15.75">
+    <row r="396" spans="1:6" ht="16">
       <c r="A396" s="19" t="s">
         <v>444</v>
       </c>
@@ -10693,7 +10753,7 @@
       <c r="E398" s="38"/>
       <c r="F398" s="34"/>
     </row>
-    <row r="399" spans="1:6" ht="15.75">
+    <row r="399" spans="1:6" ht="16">
       <c r="A399" s="19" t="s">
         <v>488</v>
       </c>
@@ -10709,7 +10769,7 @@
       </c>
       <c r="F399" s="34"/>
     </row>
-    <row r="400" spans="1:6" ht="15.75">
+    <row r="400" spans="1:6" ht="16">
       <c r="A400" s="19" t="s">
         <v>488</v>
       </c>
@@ -10725,7 +10785,7 @@
       </c>
       <c r="F400" s="34"/>
     </row>
-    <row r="401" spans="1:6" ht="15.75">
+    <row r="401" spans="1:6" ht="16">
       <c r="A401" s="19" t="s">
         <v>488</v>
       </c>
@@ -10741,7 +10801,7 @@
       </c>
       <c r="F401" s="34"/>
     </row>
-    <row r="402" spans="1:6" ht="15.75">
+    <row r="402" spans="1:6" ht="16">
       <c r="A402" s="19" t="s">
         <v>488</v>
       </c>
@@ -10757,7 +10817,7 @@
       </c>
       <c r="F402" s="34"/>
     </row>
-    <row r="403" spans="1:6" ht="15.75">
+    <row r="403" spans="1:6" ht="16">
       <c r="A403" s="19" t="s">
         <v>488</v>
       </c>
@@ -10773,7 +10833,7 @@
       </c>
       <c r="F403" s="34"/>
     </row>
-    <row r="404" spans="1:6" ht="15.75">
+    <row r="404" spans="1:6" ht="16">
       <c r="A404" s="19" t="s">
         <v>488</v>
       </c>
@@ -10805,7 +10865,7 @@
       <c r="E406" s="38"/>
       <c r="F406" s="34"/>
     </row>
-    <row r="407" spans="1:6" ht="15.75">
+    <row r="407" spans="1:6" ht="16">
       <c r="A407" s="21" t="s">
         <v>494</v>
       </c>
@@ -10821,7 +10881,7 @@
       </c>
       <c r="F407" s="34"/>
     </row>
-    <row r="408" spans="1:6" ht="15.75">
+    <row r="408" spans="1:6" ht="16">
       <c r="A408" s="21" t="s">
         <v>494</v>
       </c>
@@ -10837,7 +10897,7 @@
       </c>
       <c r="F408" s="34"/>
     </row>
-    <row r="409" spans="1:6" ht="15.75">
+    <row r="409" spans="1:6" ht="16">
       <c r="A409" s="21" t="s">
         <v>494</v>
       </c>
@@ -10853,7 +10913,7 @@
       </c>
       <c r="F409" s="34"/>
     </row>
-    <row r="410" spans="1:6" ht="15.75">
+    <row r="410" spans="1:6" ht="16">
       <c r="A410" s="21" t="s">
         <v>494</v>
       </c>
@@ -10869,7 +10929,7 @@
       </c>
       <c r="F410" s="34"/>
     </row>
-    <row r="411" spans="1:6" ht="15.75">
+    <row r="411" spans="1:6" ht="16">
       <c r="A411" s="21" t="s">
         <v>494</v>
       </c>
@@ -10885,7 +10945,7 @@
       </c>
       <c r="F411" s="34"/>
     </row>
-    <row r="412" spans="1:6" ht="15.75">
+    <row r="412" spans="1:6" ht="16">
       <c r="A412" s="21" t="s">
         <v>494</v>
       </c>
@@ -10901,7 +10961,7 @@
       </c>
       <c r="F412" s="34"/>
     </row>
-    <row r="413" spans="1:6" ht="15.75">
+    <row r="413" spans="1:6" ht="16">
       <c r="A413" s="21" t="s">
         <v>494</v>
       </c>
@@ -10917,7 +10977,7 @@
       </c>
       <c r="F413" s="34"/>
     </row>
-    <row r="414" spans="1:6" ht="15.75">
+    <row r="414" spans="1:6" ht="16">
       <c r="A414" s="21" t="s">
         <v>494</v>
       </c>
@@ -10933,7 +10993,7 @@
       </c>
       <c r="F414" s="34"/>
     </row>
-    <row r="415" spans="1:6" ht="15.75">
+    <row r="415" spans="1:6" ht="16">
       <c r="A415" s="21" t="s">
         <v>494</v>
       </c>
@@ -10949,7 +11009,7 @@
       </c>
       <c r="F415" s="34"/>
     </row>
-    <row r="416" spans="1:6" ht="15.75">
+    <row r="416" spans="1:6" ht="16">
       <c r="A416" s="21" t="s">
         <v>494</v>
       </c>
@@ -10965,7 +11025,7 @@
       </c>
       <c r="F416" s="34"/>
     </row>
-    <row r="417" spans="1:6" ht="15.75">
+    <row r="417" spans="1:6" ht="16">
       <c r="A417" s="21" t="s">
         <v>494</v>
       </c>
@@ -10981,7 +11041,7 @@
       </c>
       <c r="F417" s="34"/>
     </row>
-    <row r="418" spans="1:6" ht="15.75">
+    <row r="418" spans="1:6" ht="16">
       <c r="A418" s="21" t="s">
         <v>494</v>
       </c>
@@ -10997,7 +11057,7 @@
       </c>
       <c r="F418" s="34"/>
     </row>
-    <row r="419" spans="1:6" ht="15.75">
+    <row r="419" spans="1:6" ht="16">
       <c r="A419" s="21" t="s">
         <v>494</v>
       </c>
@@ -11013,7 +11073,7 @@
       </c>
       <c r="F419" s="34"/>
     </row>
-    <row r="420" spans="1:6" ht="15.75">
+    <row r="420" spans="1:6" ht="16">
       <c r="A420" s="21" t="s">
         <v>494</v>
       </c>
@@ -11029,7 +11089,7 @@
       </c>
       <c r="F420" s="34"/>
     </row>
-    <row r="421" spans="1:6" ht="15.75">
+    <row r="421" spans="1:6" ht="16">
       <c r="A421" s="21" t="s">
         <v>494</v>
       </c>
@@ -11045,7 +11105,7 @@
       </c>
       <c r="F421" s="34"/>
     </row>
-    <row r="422" spans="1:6" ht="15.75">
+    <row r="422" spans="1:6" ht="16">
       <c r="A422" s="21" t="s">
         <v>494</v>
       </c>
@@ -11061,7 +11121,7 @@
       </c>
       <c r="F422" s="34"/>
     </row>
-    <row r="423" spans="1:6" ht="15.75">
+    <row r="423" spans="1:6" ht="16">
       <c r="A423" s="21" t="s">
         <v>494</v>
       </c>
@@ -11077,7 +11137,7 @@
       </c>
       <c r="F423" s="34"/>
     </row>
-    <row r="424" spans="1:6" ht="15.75">
+    <row r="424" spans="1:6" ht="16">
       <c r="A424" s="21" t="s">
         <v>494</v>
       </c>
@@ -11093,7 +11153,7 @@
       </c>
       <c r="F424" s="34"/>
     </row>
-    <row r="425" spans="1:6" ht="15.75">
+    <row r="425" spans="1:6" ht="16">
       <c r="A425" s="21" t="s">
         <v>494</v>
       </c>
@@ -11109,7 +11169,7 @@
       </c>
       <c r="F425" s="34"/>
     </row>
-    <row r="426" spans="1:6" ht="15.75">
+    <row r="426" spans="1:6" ht="16">
       <c r="A426" s="21" t="s">
         <v>494</v>
       </c>
@@ -11125,7 +11185,7 @@
       </c>
       <c r="F426" s="34"/>
     </row>
-    <row r="427" spans="1:6" ht="15.75">
+    <row r="427" spans="1:6" ht="16">
       <c r="A427" s="21" t="s">
         <v>494</v>
       </c>
@@ -11141,7 +11201,7 @@
       </c>
       <c r="F427" s="34"/>
     </row>
-    <row r="428" spans="1:6" ht="15.75">
+    <row r="428" spans="1:6" ht="16">
       <c r="A428" s="21" t="s">
         <v>494</v>
       </c>
@@ -11157,7 +11217,7 @@
       </c>
       <c r="F428" s="34"/>
     </row>
-    <row r="429" spans="1:6" ht="15.75">
+    <row r="429" spans="1:6" ht="16">
       <c r="A429" s="21" t="s">
         <v>494</v>
       </c>
@@ -11173,7 +11233,7 @@
       </c>
       <c r="F429" s="34"/>
     </row>
-    <row r="430" spans="1:6" ht="15.75">
+    <row r="430" spans="1:6" ht="16">
       <c r="A430" s="21" t="s">
         <v>494</v>
       </c>
@@ -11189,7 +11249,7 @@
       </c>
       <c r="F430" s="34"/>
     </row>
-    <row r="431" spans="1:6" ht="15.75">
+    <row r="431" spans="1:6" ht="16">
       <c r="A431" s="21" t="s">
         <v>494</v>
       </c>
@@ -11205,7 +11265,7 @@
       </c>
       <c r="F431" s="34"/>
     </row>
-    <row r="432" spans="1:6" ht="15.75">
+    <row r="432" spans="1:6" ht="16">
       <c r="A432" s="21" t="s">
         <v>494</v>
       </c>
@@ -11221,7 +11281,7 @@
       </c>
       <c r="F432" s="34"/>
     </row>
-    <row r="433" spans="1:6" ht="15.75">
+    <row r="433" spans="1:6" ht="16">
       <c r="A433" s="21" t="s">
         <v>494</v>
       </c>
@@ -11237,7 +11297,7 @@
       </c>
       <c r="F433" s="34"/>
     </row>
-    <row r="434" spans="1:6" ht="15.75">
+    <row r="434" spans="1:6" ht="16">
       <c r="A434" s="21" t="s">
         <v>494</v>
       </c>
@@ -11253,7 +11313,7 @@
       </c>
       <c r="F434" s="34"/>
     </row>
-    <row r="435" spans="1:6" ht="15.75">
+    <row r="435" spans="1:6" ht="16">
       <c r="A435" s="21" t="s">
         <v>494</v>
       </c>
@@ -11269,7 +11329,7 @@
       </c>
       <c r="F435" s="34"/>
     </row>
-    <row r="436" spans="1:6" ht="15.75">
+    <row r="436" spans="1:6" ht="16">
       <c r="A436" s="21" t="s">
         <v>494</v>
       </c>
@@ -11285,7 +11345,7 @@
       </c>
       <c r="F436" s="34"/>
     </row>
-    <row r="437" spans="1:6" ht="15.75">
+    <row r="437" spans="1:6" ht="16">
       <c r="A437" s="21" t="s">
         <v>494</v>
       </c>
@@ -11301,7 +11361,7 @@
       </c>
       <c r="F437" s="34"/>
     </row>
-    <row r="438" spans="1:6" ht="15.75">
+    <row r="438" spans="1:6" ht="16">
       <c r="A438" s="21" t="s">
         <v>494</v>
       </c>
@@ -11317,7 +11377,7 @@
       </c>
       <c r="F438" s="34"/>
     </row>
-    <row r="439" spans="1:6" ht="15.75">
+    <row r="439" spans="1:6" ht="16">
       <c r="A439" s="21" t="s">
         <v>494</v>
       </c>
@@ -11333,7 +11393,7 @@
       </c>
       <c r="F439" s="34"/>
     </row>
-    <row r="440" spans="1:6" ht="15.75">
+    <row r="440" spans="1:6" ht="16">
       <c r="A440" s="21" t="s">
         <v>494</v>
       </c>
@@ -11349,7 +11409,7 @@
       </c>
       <c r="F440" s="34"/>
     </row>
-    <row r="441" spans="1:6" ht="15.75">
+    <row r="441" spans="1:6" ht="16">
       <c r="A441" s="21" t="s">
         <v>494</v>
       </c>
@@ -11365,7 +11425,7 @@
       </c>
       <c r="F441" s="34"/>
     </row>
-    <row r="442" spans="1:6" ht="15.75">
+    <row r="442" spans="1:6" ht="16">
       <c r="A442" s="21" t="s">
         <v>494</v>
       </c>
@@ -11381,7 +11441,7 @@
       </c>
       <c r="F442" s="34"/>
     </row>
-    <row r="443" spans="1:6" ht="15.75">
+    <row r="443" spans="1:6" ht="16">
       <c r="A443" s="21" t="s">
         <v>494</v>
       </c>
@@ -11397,7 +11457,7 @@
       </c>
       <c r="F443" s="34"/>
     </row>
-    <row r="444" spans="1:6" ht="15.75">
+    <row r="444" spans="1:6" ht="16">
       <c r="A444" s="21" t="s">
         <v>494</v>
       </c>
@@ -11413,7 +11473,7 @@
       </c>
       <c r="F444" s="34"/>
     </row>
-    <row r="445" spans="1:6" ht="15.75">
+    <row r="445" spans="1:6" ht="16">
       <c r="A445" s="21" t="s">
         <v>494</v>
       </c>
@@ -11429,7 +11489,7 @@
       </c>
       <c r="F445" s="34"/>
     </row>
-    <row r="446" spans="1:6" ht="15.75">
+    <row r="446" spans="1:6" ht="16">
       <c r="A446" s="21" t="s">
         <v>494</v>
       </c>
@@ -11445,7 +11505,7 @@
       </c>
       <c r="F446" s="34"/>
     </row>
-    <row r="447" spans="1:6" ht="15.75">
+    <row r="447" spans="1:6" ht="16">
       <c r="A447" s="21" t="s">
         <v>494</v>
       </c>
@@ -11461,7 +11521,7 @@
       </c>
       <c r="F447" s="34"/>
     </row>
-    <row r="448" spans="1:6" ht="15.75">
+    <row r="448" spans="1:6" ht="16">
       <c r="A448" s="21" t="s">
         <v>494</v>
       </c>
@@ -11477,7 +11537,7 @@
       </c>
       <c r="F448" s="34"/>
     </row>
-    <row r="449" spans="1:6" ht="15.75">
+    <row r="449" spans="1:6" ht="16">
       <c r="A449" s="21" t="s">
         <v>494</v>
       </c>
@@ -11493,7 +11553,7 @@
       </c>
       <c r="F449" s="34"/>
     </row>
-    <row r="450" spans="1:6" ht="15.75">
+    <row r="450" spans="1:6" ht="16">
       <c r="A450" s="21" t="s">
         <v>494</v>
       </c>
@@ -11509,7 +11569,7 @@
       </c>
       <c r="F450" s="34"/>
     </row>
-    <row r="451" spans="1:6" ht="15.75">
+    <row r="451" spans="1:6" ht="16">
       <c r="A451" s="21" t="s">
         <v>494</v>
       </c>
@@ -11525,7 +11585,7 @@
       </c>
       <c r="F451" s="34"/>
     </row>
-    <row r="452" spans="1:6" ht="15.75">
+    <row r="452" spans="1:6" ht="16">
       <c r="A452" s="21" t="s">
         <v>494</v>
       </c>
@@ -11541,7 +11601,7 @@
       </c>
       <c r="F452" s="34"/>
     </row>
-    <row r="453" spans="1:6" ht="15.75">
+    <row r="453" spans="1:6" ht="16">
       <c r="A453" s="21" t="s">
         <v>494</v>
       </c>
@@ -11557,7 +11617,7 @@
       </c>
       <c r="F453" s="34"/>
     </row>
-    <row r="454" spans="1:6" ht="15.75">
+    <row r="454" spans="1:6" ht="16">
       <c r="A454" s="21" t="s">
         <v>494</v>
       </c>
@@ -11573,7 +11633,7 @@
       </c>
       <c r="F454" s="34"/>
     </row>
-    <row r="455" spans="1:6" ht="15.75">
+    <row r="455" spans="1:6" ht="16">
       <c r="A455" s="21" t="s">
         <v>494</v>
       </c>
@@ -11589,7 +11649,7 @@
       </c>
       <c r="F455" s="34"/>
     </row>
-    <row r="456" spans="1:6" ht="15.75">
+    <row r="456" spans="1:6" ht="16">
       <c r="A456" s="21" t="s">
         <v>494</v>
       </c>
@@ -11605,7 +11665,7 @@
       </c>
       <c r="F456" s="34"/>
     </row>
-    <row r="457" spans="1:6" ht="15.75">
+    <row r="457" spans="1:6" ht="16">
       <c r="A457" s="21" t="s">
         <v>494</v>
       </c>
@@ -11621,7 +11681,7 @@
       </c>
       <c r="F457" s="34"/>
     </row>
-    <row r="458" spans="1:6" ht="15.75">
+    <row r="458" spans="1:6" ht="16">
       <c r="A458" s="21" t="s">
         <v>494</v>
       </c>
@@ -11637,7 +11697,7 @@
       </c>
       <c r="F458" s="34"/>
     </row>
-    <row r="459" spans="1:6" ht="15.75">
+    <row r="459" spans="1:6" ht="16">
       <c r="A459" s="21" t="s">
         <v>494</v>
       </c>
@@ -11653,7 +11713,7 @@
       </c>
       <c r="F459" s="34"/>
     </row>
-    <row r="460" spans="1:6" ht="15.75">
+    <row r="460" spans="1:6" ht="16">
       <c r="A460" s="21" t="s">
         <v>494</v>
       </c>
@@ -11669,7 +11729,7 @@
       </c>
       <c r="F460" s="34"/>
     </row>
-    <row r="461" spans="1:6" ht="15.75">
+    <row r="461" spans="1:6" ht="16">
       <c r="A461" s="21" t="s">
         <v>494</v>
       </c>
@@ -11685,7 +11745,7 @@
       </c>
       <c r="F461" s="34"/>
     </row>
-    <row r="462" spans="1:6" ht="15.75">
+    <row r="462" spans="1:6" ht="16">
       <c r="A462" s="21" t="s">
         <v>494</v>
       </c>
@@ -11701,7 +11761,7 @@
       </c>
       <c r="F462" s="34"/>
     </row>
-    <row r="463" spans="1:6" ht="15.75">
+    <row r="463" spans="1:6" ht="16">
       <c r="A463" s="21" t="s">
         <v>494</v>
       </c>
@@ -11717,7 +11777,7 @@
       </c>
       <c r="F463" s="34"/>
     </row>
-    <row r="464" spans="1:6" ht="15.75">
+    <row r="464" spans="1:6" ht="16">
       <c r="A464" s="21" t="s">
         <v>494</v>
       </c>
@@ -11733,7 +11793,7 @@
       </c>
       <c r="F464" s="34"/>
     </row>
-    <row r="465" spans="1:6" ht="15.75">
+    <row r="465" spans="1:6" ht="16">
       <c r="A465" s="21" t="s">
         <v>494</v>
       </c>
@@ -11749,7 +11809,7 @@
       </c>
       <c r="F465" s="34"/>
     </row>
-    <row r="466" spans="1:6" ht="15.75">
+    <row r="466" spans="1:6" ht="16">
       <c r="A466" s="21" t="s">
         <v>494</v>
       </c>
@@ -11781,7 +11841,7 @@
       <c r="E468" s="38"/>
       <c r="F468" s="34"/>
     </row>
-    <row r="469" spans="1:6" ht="15.75">
+    <row r="469" spans="1:6" ht="16">
       <c r="A469" s="21" t="s">
         <v>19</v>
       </c>
@@ -11797,7 +11857,7 @@
       </c>
       <c r="F469" s="34"/>
     </row>
-    <row r="470" spans="1:6" ht="15.75">
+    <row r="470" spans="1:6" ht="16">
       <c r="A470" s="21" t="s">
         <v>19</v>
       </c>
@@ -11813,7 +11873,7 @@
       </c>
       <c r="F470" s="34"/>
     </row>
-    <row r="471" spans="1:6" ht="15.75">
+    <row r="471" spans="1:6" ht="16">
       <c r="A471" s="21" t="s">
         <v>19</v>
       </c>
@@ -11829,7 +11889,7 @@
       </c>
       <c r="F471" s="34"/>
     </row>
-    <row r="472" spans="1:6" ht="15.75">
+    <row r="472" spans="1:6" ht="16">
       <c r="A472" s="21" t="s">
         <v>19</v>
       </c>
@@ -11845,7 +11905,7 @@
       </c>
       <c r="F472" s="34"/>
     </row>
-    <row r="473" spans="1:6" ht="15.75">
+    <row r="473" spans="1:6" ht="16">
       <c r="A473" s="21" t="s">
         <v>19</v>
       </c>
@@ -11861,7 +11921,7 @@
       </c>
       <c r="F473" s="34"/>
     </row>
-    <row r="474" spans="1:6" ht="15.75">
+    <row r="474" spans="1:6" ht="16">
       <c r="A474" s="21" t="s">
         <v>19</v>
       </c>
@@ -11877,7 +11937,7 @@
       </c>
       <c r="F474" s="34"/>
     </row>
-    <row r="475" spans="1:6" ht="15.75">
+    <row r="475" spans="1:6" ht="16">
       <c r="A475" s="21" t="s">
         <v>19</v>
       </c>
@@ -11893,7 +11953,7 @@
       </c>
       <c r="F475" s="34"/>
     </row>
-    <row r="476" spans="1:6" ht="15.75">
+    <row r="476" spans="1:6" ht="16">
       <c r="A476" s="21" t="s">
         <v>19</v>
       </c>
@@ -11909,7 +11969,7 @@
       </c>
       <c r="F476" s="34"/>
     </row>
-    <row r="477" spans="1:6" ht="15.75">
+    <row r="477" spans="1:6" ht="16">
       <c r="A477" s="21" t="s">
         <v>19</v>
       </c>
@@ -11925,7 +11985,7 @@
       </c>
       <c r="F477" s="34"/>
     </row>
-    <row r="478" spans="1:6" ht="15.75">
+    <row r="478" spans="1:6" ht="16">
       <c r="A478" s="21" t="s">
         <v>19</v>
       </c>
@@ -12850,20 +12910,20 @@
       <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="96.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="16.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="87.140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="21.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="96.81640625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="16.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="87.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="3"/>
     <col min="10" max="10" width="22" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="3"/>
-    <col min="12" max="12" width="13.7109375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="3"/>
+    <col min="11" max="11" width="8.7265625" style="3"/>
+    <col min="12" max="12" width="13.7265625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12893,7 +12953,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="18">
+    <row r="2" spans="1:9" ht="19.5">
       <c r="A2" s="109" t="s">
         <v>604</v>
       </c>
@@ -12992,7 +13052,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="18">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="19.5">
       <c r="A7" s="109" t="s">
         <v>605</v>
       </c>
@@ -13140,7 +13200,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" ht="14.25">
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -13241,7 +13301,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="14.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
@@ -13380,7 +13440,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" ht="18">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="19.5">
       <c r="A27" s="106" t="s">
         <v>625</v>
       </c>
@@ -13414,7 +13474,7 @@
       <c r="H28" s="8"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="1:9" s="4" customFormat="1" ht="14.25">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="16">
       <c r="A29" s="16" t="s">
         <v>61</v>
       </c>
@@ -13646,7 +13706,7 @@
       </c>
       <c r="H39" s="13"/>
     </row>
-    <row r="40" spans="1:8" ht="14.25">
+    <row r="40" spans="1:8" ht="16">
       <c r="A40" s="13" t="s">
         <v>79</v>
       </c>
@@ -13686,7 +13746,7 @@
       </c>
       <c r="H41" s="13"/>
     </row>
-    <row r="42" spans="1:8" ht="14.25">
+    <row r="42" spans="1:8" ht="16">
       <c r="A42" s="8" t="s">
         <v>83</v>
       </c>
@@ -13746,7 +13806,7 @@
       </c>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="14.25">
+    <row r="45" spans="1:8" ht="16">
       <c r="A45" s="8" t="s">
         <v>87</v>
       </c>
@@ -13766,7 +13826,7 @@
       </c>
       <c r="H45" s="8"/>
     </row>
-    <row r="46" spans="1:8" s="4" customFormat="1" ht="14.25">
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="16">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
@@ -14320,23 +14380,23 @@
       <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="25"/>
-    <col min="5" max="5" width="20.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="25"/>
-    <col min="10" max="10" width="7.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="25.85546875" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="25"/>
+    <col min="1" max="1" width="19.81640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="60.54296875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="25"/>
+    <col min="5" max="5" width="20.26953125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="25"/>
+    <col min="10" max="10" width="7.54296875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="25.81640625" style="25" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2424" uniqueCount="728">
   <si>
     <t>Date</t>
   </si>
@@ -2219,6 +2219,12 @@
   </si>
   <si>
     <t>09.07.2024</t>
+  </si>
+  <si>
+    <t>Crawler Log Folder</t>
+  </si>
+  <si>
+    <t>10.07.2024</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2833,9 +2839,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2843,6 +2846,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="24" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2889,11 +2895,8 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3320,7 +3323,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
@@ -3354,7 +3357,7 @@
       </c>
       <c r="D2" s="67">
         <f>COUNTIF(F10:F1005,"=1")</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
@@ -3404,12 +3407,12 @@
       <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="95" t="s">
         <v>566</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="96">
         <f>SUM(G10:G1008)</f>
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" s="65"/>
     </row>
@@ -4253,7 +4256,7 @@
       <c r="H50" s="92" t="s">
         <v>594</v>
       </c>
-      <c r="I50" s="95" t="s">
+      <c r="I50" s="94" t="s">
         <v>714</v>
       </c>
     </row>
@@ -4394,20 +4397,37 @@
       <c r="I55" s="68"/>
     </row>
     <row r="56" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A56" s="68"/>
-      <c r="B56" s="68"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="92"/>
+      <c r="A56" s="68" t="s">
+        <v>727</v>
+      </c>
+      <c r="B56" s="68" t="s">
+        <v>723</v>
+      </c>
+      <c r="C56" s="61" t="s">
+        <v>726</v>
+      </c>
+      <c r="D56" s="113" t="s">
+        <v>726</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F56" s="68">
+        <v>1</v>
+      </c>
+      <c r="G56" s="68">
+        <v>1</v>
+      </c>
+      <c r="H56" s="92" t="s">
+        <v>594</v>
+      </c>
       <c r="I56" s="68"/>
     </row>
     <row r="57" spans="1:9" ht="17.25" customHeight="1">
       <c r="A57" s="68"/>
       <c r="B57" s="68"/>
       <c r="C57" s="68"/>
-      <c r="D57" s="114"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="68"/>
       <c r="F57" s="68"/>
       <c r="G57" s="68"/>
@@ -4545,9 +4565,10 @@
     <hyperlink ref="D41" r:id="rId35"/>
     <hyperlink ref="D54" r:id="rId36"/>
     <hyperlink ref="D55" r:id="rId37"/>
+    <hyperlink ref="D56" r:id="rId38" display="https://leetcode.com/problems/crawler-log-folder/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId38"/>
+  <pageSetup orientation="landscape" r:id="rId39"/>
 </worksheet>
 </file>
 

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="726">
   <si>
     <t>Date</t>
   </si>
@@ -2213,6 +2213,12 @@
   </si>
   <si>
     <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Reverse Substrings Between Each Pair of Parentheses</t>
+  </si>
+  <si>
+    <t>11.07.2024</t>
   </si>
 </sst>
 </file>
@@ -2613,7 +2619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2806,6 +2812,17 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2851,15 +2868,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3277,7 +3286,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+      <selection activeCell="F52" activeCellId="1" sqref="F51 F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
@@ -3322,7 +3331,7 @@
       </c>
       <c r="D3" s="62">
         <f>COUNTIF(F10:F1005,"=1.5")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="60"/>
       <c r="F3" s="60"/>
@@ -3366,7 +3375,7 @@
       </c>
       <c r="D7" s="91">
         <f>SUM(G10:G1008)</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" s="60"/>
     </row>
@@ -4042,16 +4051,16 @@
       <c r="I43" s="63"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="97" t="s">
         <v>706</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="94"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="63"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1">
@@ -4248,7 +4257,7 @@
       <c r="B52" s="63" t="s">
         <v>711</v>
       </c>
-      <c r="C52" s="111" t="s">
+      <c r="C52" s="96" t="s">
         <v>712</v>
       </c>
       <c r="D52" s="73" t="s">
@@ -4405,21 +4414,37 @@
       <c r="I57" s="63"/>
     </row>
     <row r="58" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="87"/>
+      <c r="A58" s="63" t="s">
+        <v>725</v>
+      </c>
+      <c r="B58" s="63" t="s">
+        <v>718</v>
+      </c>
+      <c r="C58" s="56" t="s">
+        <v>724</v>
+      </c>
+      <c r="D58" s="112" t="s">
+        <v>724</v>
+      </c>
+      <c r="E58" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="87">
+        <v>1.5</v>
+      </c>
+      <c r="G58" s="63">
+        <v>1</v>
+      </c>
+      <c r="H58" s="87" t="s">
+        <v>589</v>
+      </c>
       <c r="I58" s="63"/>
     </row>
     <row r="59" spans="1:9" ht="17.25" customHeight="1">
       <c r="A59" s="63"/>
       <c r="B59" s="63"/>
       <c r="C59" s="87"/>
-      <c r="D59" s="83"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="63"/>
       <c r="F59" s="87"/>
       <c r="G59" s="63"/>
@@ -4430,7 +4455,7 @@
       <c r="A60" s="63"/>
       <c r="B60" s="63"/>
       <c r="C60" s="87"/>
-      <c r="D60" s="83"/>
+      <c r="D60" s="80"/>
       <c r="E60" s="63"/>
       <c r="F60" s="87"/>
       <c r="G60" s="63"/>
@@ -4441,7 +4466,7 @@
       <c r="A61" s="63"/>
       <c r="B61" s="63"/>
       <c r="C61" s="87"/>
-      <c r="D61" s="83"/>
+      <c r="D61" s="80"/>
       <c r="E61" s="63"/>
       <c r="F61" s="63"/>
       <c r="G61" s="63"/>
@@ -4537,9 +4562,10 @@
     <hyperlink ref="D55" r:id="rId37"/>
     <hyperlink ref="D56" r:id="rId38" display="https://leetcode.com/problems/crawler-log-folder/"/>
     <hyperlink ref="D57" r:id="rId39"/>
+    <hyperlink ref="D58" r:id="rId40" display="https://leetcode.com/problems/reverse-substrings-between-each-pair-of-parentheses/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId40"/>
+  <pageSetup orientation="landscape" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -5710,16 +5736,16 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="15">
-      <c r="A100" s="108" t="s">
+      <c r="A100" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="B100" s="107" t="s">
+      <c r="B100" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="C100" s="109" t="s">
+      <c r="C100" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="110" t="s">
+      <c r="D100" s="95" t="s">
         <v>193</v>
       </c>
     </row>
@@ -10635,16 +10661,16 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="108" t="s">
         <v>599</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="105"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -10734,16 +10760,16 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="108" t="s">
         <v>600</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="105"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -11122,16 +11148,16 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="105" t="s">
         <v>620</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="102"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1">
@@ -11518,16 +11544,16 @@
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="103" t="s">
         <v>642</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="42" t="s">
@@ -11682,16 +11708,16 @@
       <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="103" t="s">
         <v>655</v>
       </c>
-      <c r="B58" s="99"/>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="44" t="s">
@@ -11982,14 +12008,14 @@
       <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A78" s="95"/>
-      <c r="B78" s="96"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="96"/>
-      <c r="E78" s="96"/>
-      <c r="F78" s="96"/>
-      <c r="G78" s="96"/>
-      <c r="H78" s="97"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12403,10 +12429,10 @@
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="106"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="27">
         <f>SUM(F2:F16)-2-1</f>
         <v>51</v>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="728">
   <si>
     <t>Date</t>
   </si>
@@ -2219,6 +2219,12 @@
   </si>
   <si>
     <t>11.07.2024</t>
+  </si>
+  <si>
+    <t>12.07.2024</t>
+  </si>
+  <si>
+    <t>Maximum Score From Removing Substrings</t>
   </si>
 </sst>
 </file>
@@ -2823,6 +2829,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="17" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2866,9 +2875,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3285,8 +3291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F52" activeCellId="1" sqref="F51 F52"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
@@ -3331,7 +3337,7 @@
       </c>
       <c r="D3" s="62">
         <f>COUNTIF(F10:F1005,"=1.5")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="60"/>
       <c r="F3" s="60"/>
@@ -3375,7 +3381,7 @@
       </c>
       <c r="D7" s="91">
         <f>SUM(G10:G1008)</f>
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="60"/>
     </row>
@@ -4051,16 +4057,16 @@
       <c r="I43" s="63"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="98" t="s">
         <v>706</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="100"/>
       <c r="I44" s="63"/>
     </row>
     <row r="45" spans="1:9" ht="17.25" customHeight="1">
@@ -4423,7 +4429,7 @@
       <c r="C58" s="56" t="s">
         <v>724</v>
       </c>
-      <c r="D58" s="112" t="s">
+      <c r="D58" s="97" t="s">
         <v>724</v>
       </c>
       <c r="E58" s="63" t="s">
@@ -4441,14 +4447,30 @@
       <c r="I58" s="63"/>
     </row>
     <row r="59" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="87"/>
+      <c r="A59" s="63" t="s">
+        <v>726</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>718</v>
+      </c>
+      <c r="C59" s="87" t="s">
+        <v>727</v>
+      </c>
+      <c r="D59" s="73" t="s">
+        <v>727</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="87">
+        <v>1.5</v>
+      </c>
+      <c r="G59" s="63">
+        <v>1</v>
+      </c>
+      <c r="H59" s="87" t="s">
+        <v>589</v>
+      </c>
       <c r="I59" s="63"/>
     </row>
     <row r="60" spans="1:9">
@@ -4563,9 +4585,10 @@
     <hyperlink ref="D56" r:id="rId38" display="https://leetcode.com/problems/crawler-log-folder/"/>
     <hyperlink ref="D57" r:id="rId39"/>
     <hyperlink ref="D58" r:id="rId40" display="https://leetcode.com/problems/reverse-substrings-between-each-pair-of-parentheses/"/>
+    <hyperlink ref="D59" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId41"/>
+  <pageSetup orientation="landscape" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -10661,16 +10684,16 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="19.5">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>599</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" s="4" customFormat="1">
@@ -10760,16 +10783,16 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="109" t="s">
         <v>600</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" s="4" customFormat="1">
@@ -11148,16 +11171,16 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="19.5">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="106" t="s">
         <v>620</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="107"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="108"/>
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1">
@@ -11544,16 +11567,16 @@
       <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="104" t="s">
         <v>642</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="42" t="s">
@@ -11708,16 +11731,16 @@
       <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="104" t="s">
         <v>655</v>
       </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="44" t="s">
@@ -12008,14 +12031,14 @@
       <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A78" s="100"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="101"/>
-      <c r="E78" s="101"/>
-      <c r="F78" s="101"/>
-      <c r="G78" s="101"/>
-      <c r="H78" s="102"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12429,10 +12452,10 @@
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="111"/>
+      <c r="F19" s="112"/>
       <c r="G19" s="27">
         <f>SUM(F2:F16)-2-1</f>
         <v>51</v>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Data-Structures-and-Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\data-structures-and-algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="729">
   <si>
     <t>Date</t>
   </si>
@@ -2225,6 +2225,9 @@
   </si>
   <si>
     <t>Maximum Score From Removing Substrings</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -3292,7 +3295,7 @@
   <dimension ref="A1:I65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5"/>
@@ -4498,7 +4501,9 @@
     <row r="62" spans="1:9">
       <c r="A62" s="63"/>
       <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
+      <c r="C62" s="63" t="s">
+        <v>728</v>
+      </c>
       <c r="D62" s="83"/>
       <c r="E62" s="63"/>
       <c r="F62" s="63"/>
